--- a/01_基本設計書/06_SC-M_マスタ系/SC-M10_設備マスタ.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/SC-M10_設備マスタ.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Desktop\仕事\01_基本設計書\06_SC-M_マスタ系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429C5254-6738-47BC-A07E-A9A3FEBC2D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9EFA54-55A6-429D-82C2-7203A812017D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="225" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="273">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -366,9 +366,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>○</t>
   </si>
   <si>
     <t>検索</t>
@@ -1073,41 +1070,9 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>更新する場合、更新対象データがけされているかどうかをチェックする。</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ノウニュウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ネンガッピ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ドウイツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>確認</t>
     <rPh sb="0" eb="2">
       <t>ケイコク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>更新する場合</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケンノウニュウネンガッピドウイツツキ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1136,26 +1101,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>追加する場合</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケンノウニュウネンガッピドウイツツキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>削除する場合</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケンノウニュウネンガッピドウイツツキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>「Q0003」削除しますか。</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1175,13 +1120,6 @@
   </si>
   <si>
     <t>設備マスタ</t>
-  </si>
-  <si>
-    <t>設備マスタ</t>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウショウサイショウカイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">設備マスタの参照、修正、追加、削除処理を行う。
@@ -2015,6 +1953,26 @@
     <t>エクセル</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>設備マスタメンテ</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウショウサイショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>更新対象データがけされているかどうかをチェックする。</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -2259,7 +2217,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2287,12 +2245,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2514,7 +2466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -2768,13 +2720,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
@@ -2804,13 +2756,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2824,12 +2776,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3037,10 +2983,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3126,6 +3072,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -4473,10 +4437,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9C1BF0-3713-4700-93FE-DA8BB0E3A420}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23496786-010E-4CAC-9596-65B9769F6FFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5191,108 +5155,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="133" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="133"/>
-      <c r="N32" s="133"/>
-      <c r="O32" s="133"/>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="133"/>
-      <c r="R32" s="133"/>
-      <c r="S32" s="133"/>
-      <c r="T32" s="133"/>
-      <c r="U32" s="133"/>
-      <c r="V32" s="133"/>
-      <c r="W32" s="133"/>
-      <c r="X32" s="133"/>
-      <c r="Y32" s="133"/>
-      <c r="Z32" s="133"/>
-      <c r="AA32" s="133"/>
-      <c r="AB32" s="133"/>
-      <c r="AC32" s="133"/>
-      <c r="AD32" s="133"/>
-      <c r="AE32" s="133"/>
-      <c r="AF32" s="133"/>
-      <c r="AG32" s="133"/>
-      <c r="AH32" s="133"/>
-      <c r="AI32" s="133"/>
-      <c r="AJ32" s="133"/>
-      <c r="AK32" s="133"/>
-      <c r="AL32" s="133"/>
-      <c r="AM32" s="133"/>
-      <c r="AN32" s="133"/>
-      <c r="AO32" s="133"/>
-      <c r="AP32" s="133"/>
-      <c r="AQ32" s="133"/>
-      <c r="AR32" s="133"/>
-      <c r="AS32" s="133"/>
-      <c r="AT32" s="133"/>
-      <c r="AU32" s="133"/>
-      <c r="AV32" s="133"/>
-      <c r="AW32" s="133"/>
+      <c r="A32" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="131"/>
+      <c r="T32" s="131"/>
+      <c r="U32" s="131"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="131"/>
+      <c r="X32" s="131"/>
+      <c r="Y32" s="131"/>
+      <c r="Z32" s="131"/>
+      <c r="AA32" s="131"/>
+      <c r="AB32" s="131"/>
+      <c r="AC32" s="131"/>
+      <c r="AD32" s="131"/>
+      <c r="AE32" s="131"/>
+      <c r="AF32" s="131"/>
+      <c r="AG32" s="131"/>
+      <c r="AH32" s="131"/>
+      <c r="AI32" s="131"/>
+      <c r="AJ32" s="131"/>
+      <c r="AK32" s="131"/>
+      <c r="AL32" s="131"/>
+      <c r="AM32" s="131"/>
+      <c r="AN32" s="131"/>
+      <c r="AO32" s="131"/>
+      <c r="AP32" s="131"/>
+      <c r="AQ32" s="131"/>
+      <c r="AR32" s="131"/>
+      <c r="AS32" s="131"/>
+      <c r="AT32" s="131"/>
+      <c r="AU32" s="131"/>
+      <c r="AV32" s="131"/>
+      <c r="AW32" s="131"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="134"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="134"/>
-      <c r="P33" s="134"/>
-      <c r="Q33" s="134"/>
-      <c r="R33" s="134"/>
-      <c r="S33" s="134"/>
-      <c r="T33" s="134"/>
-      <c r="U33" s="134"/>
-      <c r="V33" s="134"/>
-      <c r="W33" s="134"/>
-      <c r="X33" s="134"/>
-      <c r="Y33" s="134"/>
-      <c r="Z33" s="134"/>
-      <c r="AA33" s="134"/>
-      <c r="AB33" s="134"/>
-      <c r="AC33" s="134"/>
-      <c r="AD33" s="134"/>
-      <c r="AE33" s="134"/>
-      <c r="AF33" s="134"/>
-      <c r="AG33" s="134"/>
-      <c r="AH33" s="134"/>
-      <c r="AI33" s="134"/>
-      <c r="AJ33" s="134"/>
-      <c r="AK33" s="134"/>
-      <c r="AL33" s="134"/>
-      <c r="AM33" s="134"/>
-      <c r="AN33" s="134"/>
-      <c r="AO33" s="134"/>
-      <c r="AP33" s="134"/>
-      <c r="AQ33" s="134"/>
-      <c r="AR33" s="134"/>
-      <c r="AS33" s="134"/>
-      <c r="AT33" s="134"/>
-      <c r="AU33" s="134"/>
-      <c r="AV33" s="134"/>
-      <c r="AW33" s="134"/>
+      <c r="A33" s="132"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="132"/>
+      <c r="Q33" s="132"/>
+      <c r="R33" s="132"/>
+      <c r="S33" s="132"/>
+      <c r="T33" s="132"/>
+      <c r="U33" s="132"/>
+      <c r="V33" s="132"/>
+      <c r="W33" s="132"/>
+      <c r="X33" s="132"/>
+      <c r="Y33" s="132"/>
+      <c r="Z33" s="132"/>
+      <c r="AA33" s="132"/>
+      <c r="AB33" s="132"/>
+      <c r="AC33" s="132"/>
+      <c r="AD33" s="132"/>
+      <c r="AE33" s="132"/>
+      <c r="AF33" s="132"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="132"/>
+      <c r="AJ33" s="132"/>
+      <c r="AK33" s="132"/>
+      <c r="AL33" s="132"/>
+      <c r="AM33" s="132"/>
+      <c r="AN33" s="132"/>
+      <c r="AO33" s="132"/>
+      <c r="AP33" s="132"/>
+      <c r="AQ33" s="132"/>
+      <c r="AR33" s="132"/>
+      <c r="AS33" s="132"/>
+      <c r="AT33" s="132"/>
+      <c r="AU33" s="132"/>
+      <c r="AV33" s="132"/>
+      <c r="AW33" s="132"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -5330,55 +5294,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="135"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="135"/>
-      <c r="L35" s="135"/>
-      <c r="M35" s="135"/>
-      <c r="N35" s="135"/>
-      <c r="O35" s="135"/>
-      <c r="P35" s="135"/>
-      <c r="Q35" s="135"/>
-      <c r="R35" s="135"/>
-      <c r="S35" s="135"/>
-      <c r="T35" s="135"/>
-      <c r="U35" s="135"/>
-      <c r="V35" s="135"/>
-      <c r="W35" s="135"/>
-      <c r="X35" s="135"/>
-      <c r="Y35" s="135"/>
-      <c r="Z35" s="135"/>
-      <c r="AA35" s="135"/>
-      <c r="AB35" s="135"/>
-      <c r="AC35" s="135"/>
-      <c r="AD35" s="135"/>
-      <c r="AE35" s="135"/>
-      <c r="AF35" s="135"/>
-      <c r="AG35" s="135"/>
-      <c r="AH35" s="135"/>
-      <c r="AI35" s="135"/>
-      <c r="AJ35" s="135"/>
-      <c r="AK35" s="135"/>
-      <c r="AL35" s="135"/>
-      <c r="AM35" s="135"/>
-      <c r="AN35" s="135"/>
-      <c r="AO35" s="135"/>
-      <c r="AP35" s="135"/>
-      <c r="AQ35" s="135"/>
-      <c r="AR35" s="135"/>
-      <c r="AS35" s="135"/>
-      <c r="AT35" s="135"/>
-      <c r="AU35" s="135"/>
-      <c r="AV35" s="135"/>
-      <c r="AW35" s="135"/>
+      <c r="A35" s="133"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="133"/>
+      <c r="M35" s="133"/>
+      <c r="N35" s="133"/>
+      <c r="O35" s="133"/>
+      <c r="P35" s="133"/>
+      <c r="Q35" s="133"/>
+      <c r="R35" s="133"/>
+      <c r="S35" s="133"/>
+      <c r="T35" s="133"/>
+      <c r="U35" s="133"/>
+      <c r="V35" s="133"/>
+      <c r="W35" s="133"/>
+      <c r="X35" s="133"/>
+      <c r="Y35" s="133"/>
+      <c r="Z35" s="133"/>
+      <c r="AA35" s="133"/>
+      <c r="AB35" s="133"/>
+      <c r="AC35" s="133"/>
+      <c r="AD35" s="133"/>
+      <c r="AE35" s="133"/>
+      <c r="AF35" s="133"/>
+      <c r="AG35" s="133"/>
+      <c r="AH35" s="133"/>
+      <c r="AI35" s="133"/>
+      <c r="AJ35" s="133"/>
+      <c r="AK35" s="133"/>
+      <c r="AL35" s="133"/>
+      <c r="AM35" s="133"/>
+      <c r="AN35" s="133"/>
+      <c r="AO35" s="133"/>
+      <c r="AP35" s="133"/>
+      <c r="AQ35" s="133"/>
+      <c r="AR35" s="133"/>
+      <c r="AS35" s="133"/>
+      <c r="AT35" s="133"/>
+      <c r="AU35" s="133"/>
+      <c r="AV35" s="133"/>
+      <c r="AW35" s="133"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -5413,1767 +5377,1767 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="167"/>
-      <c r="AC1" s="167"/>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="167"/>
-      <c r="AH1" s="167"/>
-      <c r="AI1" s="167"/>
-      <c r="AJ1" s="167"/>
-      <c r="AK1" s="167"/>
-      <c r="AL1" s="167"/>
-      <c r="AM1" s="167"/>
-      <c r="AN1" s="167"/>
-      <c r="AO1" s="167"/>
-      <c r="AP1" s="167"/>
-      <c r="AQ1" s="167"/>
-      <c r="AR1" s="167"/>
-      <c r="AS1" s="167"/>
-      <c r="AT1" s="167"/>
-      <c r="AU1" s="167"/>
-      <c r="AV1" s="167"/>
-      <c r="AW1" s="167"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="165"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="165"/>
+      <c r="AJ1" s="165"/>
+      <c r="AK1" s="165"/>
+      <c r="AL1" s="165"/>
+      <c r="AM1" s="165"/>
+      <c r="AN1" s="165"/>
+      <c r="AO1" s="165"/>
+      <c r="AP1" s="165"/>
+      <c r="AQ1" s="165"/>
+      <c r="AR1" s="165"/>
+      <c r="AS1" s="165"/>
+      <c r="AT1" s="165"/>
+      <c r="AU1" s="165"/>
+      <c r="AV1" s="165"/>
+      <c r="AW1" s="165"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="168"/>
-      <c r="AJ2" s="168"/>
-      <c r="AK2" s="168"/>
-      <c r="AL2" s="168"/>
-      <c r="AM2" s="168"/>
-      <c r="AN2" s="168"/>
-      <c r="AO2" s="168"/>
-      <c r="AP2" s="168"/>
-      <c r="AQ2" s="168"/>
-      <c r="AR2" s="168"/>
-      <c r="AS2" s="168"/>
-      <c r="AT2" s="168"/>
-      <c r="AU2" s="168"/>
-      <c r="AV2" s="168"/>
-      <c r="AW2" s="168"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="166"/>
+      <c r="AJ2" s="166"/>
+      <c r="AK2" s="166"/>
+      <c r="AL2" s="166"/>
+      <c r="AM2" s="166"/>
+      <c r="AN2" s="166"/>
+      <c r="AO2" s="166"/>
+      <c r="AP2" s="166"/>
+      <c r="AQ2" s="166"/>
+      <c r="AR2" s="166"/>
+      <c r="AS2" s="166"/>
+      <c r="AT2" s="166"/>
+      <c r="AU2" s="166"/>
+      <c r="AV2" s="166"/>
+      <c r="AW2" s="166"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169" t="s">
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="170" t="s">
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="171"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="170" t="s">
+      <c r="K3" s="169"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="169" t="s">
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169" t="s">
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="169"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="169"/>
-      <c r="AG3" s="169"/>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="169"/>
-      <c r="AJ3" s="169"/>
-      <c r="AK3" s="169"/>
-      <c r="AL3" s="169"/>
-      <c r="AM3" s="169"/>
-      <c r="AN3" s="169" t="s">
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="167"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="167"/>
+      <c r="AJ3" s="167"/>
+      <c r="AK3" s="167"/>
+      <c r="AL3" s="167"/>
+      <c r="AM3" s="167"/>
+      <c r="AN3" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="169"/>
-      <c r="AP3" s="169"/>
-      <c r="AQ3" s="169"/>
-      <c r="AR3" s="169"/>
-      <c r="AS3" s="169" t="s">
+      <c r="AO3" s="167"/>
+      <c r="AP3" s="167"/>
+      <c r="AQ3" s="167"/>
+      <c r="AR3" s="167"/>
+      <c r="AS3" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="169"/>
-      <c r="AU3" s="169"/>
-      <c r="AV3" s="169"/>
-      <c r="AW3" s="169"/>
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="167"/>
+      <c r="AV3" s="167"/>
+      <c r="AW3" s="167"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="174"/>
-      <c r="O4" s="174"/>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="175"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169"/>
-      <c r="X4" s="169"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="169"/>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="169"/>
-      <c r="AD4" s="169"/>
-      <c r="AE4" s="169"/>
-      <c r="AF4" s="169"/>
-      <c r="AG4" s="169"/>
-      <c r="AH4" s="169"/>
-      <c r="AI4" s="169"/>
-      <c r="AJ4" s="169"/>
-      <c r="AK4" s="169"/>
-      <c r="AL4" s="169"/>
-      <c r="AM4" s="169"/>
-      <c r="AN4" s="169"/>
-      <c r="AO4" s="169"/>
-      <c r="AP4" s="169"/>
-      <c r="AQ4" s="169"/>
-      <c r="AR4" s="169"/>
-      <c r="AS4" s="169"/>
-      <c r="AT4" s="169"/>
-      <c r="AU4" s="169"/>
-      <c r="AV4" s="169"/>
-      <c r="AW4" s="169"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="172"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AD4" s="167"/>
+      <c r="AE4" s="167"/>
+      <c r="AF4" s="167"/>
+      <c r="AG4" s="167"/>
+      <c r="AH4" s="167"/>
+      <c r="AI4" s="167"/>
+      <c r="AJ4" s="167"/>
+      <c r="AK4" s="167"/>
+      <c r="AL4" s="167"/>
+      <c r="AM4" s="167"/>
+      <c r="AN4" s="167"/>
+      <c r="AO4" s="167"/>
+      <c r="AP4" s="167"/>
+      <c r="AQ4" s="167"/>
+      <c r="AR4" s="167"/>
+      <c r="AS4" s="167"/>
+      <c r="AT4" s="167"/>
+      <c r="AU4" s="167"/>
+      <c r="AV4" s="167"/>
+      <c r="AW4" s="167"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
-      <c r="B5" s="161">
+      <c r="B5" s="159">
         <v>1</v>
       </c>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="142">
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="140">
         <v>43703</v>
       </c>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="143" t="s">
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="144"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="143" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="145"/>
-      <c r="S5" s="149" t="s">
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="149"/>
-      <c r="U5" s="149"/>
-      <c r="V5" s="160" t="s">
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="160"/>
-      <c r="X5" s="160"/>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="160"/>
-      <c r="AF5" s="160"/>
-      <c r="AG5" s="160"/>
-      <c r="AH5" s="160"/>
-      <c r="AI5" s="160"/>
-      <c r="AJ5" s="160"/>
-      <c r="AK5" s="160"/>
-      <c r="AL5" s="160"/>
-      <c r="AM5" s="160"/>
-      <c r="AN5" s="149" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO5" s="149"/>
-      <c r="AP5" s="149"/>
-      <c r="AQ5" s="149"/>
-      <c r="AR5" s="149"/>
-      <c r="AS5" s="149"/>
-      <c r="AT5" s="149"/>
-      <c r="AU5" s="149"/>
-      <c r="AV5" s="149"/>
-      <c r="AW5" s="149"/>
+      <c r="W5" s="158"/>
+      <c r="X5" s="158"/>
+      <c r="Y5" s="158"/>
+      <c r="Z5" s="158"/>
+      <c r="AA5" s="158"/>
+      <c r="AB5" s="158"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="158"/>
+      <c r="AE5" s="158"/>
+      <c r="AF5" s="158"/>
+      <c r="AG5" s="158"/>
+      <c r="AH5" s="158"/>
+      <c r="AI5" s="158"/>
+      <c r="AJ5" s="158"/>
+      <c r="AK5" s="158"/>
+      <c r="AL5" s="158"/>
+      <c r="AM5" s="158"/>
+      <c r="AN5" s="147" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO5" s="147"/>
+      <c r="AP5" s="147"/>
+      <c r="AQ5" s="147"/>
+      <c r="AR5" s="147"/>
+      <c r="AS5" s="147"/>
+      <c r="AT5" s="147"/>
+      <c r="AU5" s="147"/>
+      <c r="AV5" s="147"/>
+      <c r="AW5" s="147"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="165"/>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="149"/>
-      <c r="T6" s="149"/>
-      <c r="U6" s="149"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="160"/>
-      <c r="X6" s="160"/>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="160"/>
-      <c r="AA6" s="160"/>
-      <c r="AB6" s="160"/>
-      <c r="AC6" s="160"/>
-      <c r="AD6" s="160"/>
-      <c r="AE6" s="160"/>
-      <c r="AF6" s="160"/>
-      <c r="AG6" s="160"/>
-      <c r="AH6" s="160"/>
-      <c r="AI6" s="160"/>
-      <c r="AJ6" s="160"/>
-      <c r="AK6" s="160"/>
-      <c r="AL6" s="160"/>
-      <c r="AM6" s="160"/>
-      <c r="AN6" s="149"/>
-      <c r="AO6" s="149"/>
-      <c r="AP6" s="149"/>
-      <c r="AQ6" s="149"/>
-      <c r="AR6" s="149"/>
-      <c r="AS6" s="149"/>
-      <c r="AT6" s="149"/>
-      <c r="AU6" s="149"/>
-      <c r="AV6" s="149"/>
-      <c r="AW6" s="149"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="158"/>
+      <c r="AB6" s="158"/>
+      <c r="AC6" s="158"/>
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="158"/>
+      <c r="AG6" s="158"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="158"/>
+      <c r="AJ6" s="158"/>
+      <c r="AK6" s="158"/>
+      <c r="AL6" s="158"/>
+      <c r="AM6" s="158"/>
+      <c r="AN6" s="147"/>
+      <c r="AO6" s="147"/>
+      <c r="AP6" s="147"/>
+      <c r="AQ6" s="147"/>
+      <c r="AR6" s="147"/>
+      <c r="AS6" s="147"/>
+      <c r="AT6" s="147"/>
+      <c r="AU6" s="147"/>
+      <c r="AV6" s="147"/>
+      <c r="AW6" s="147"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="164"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="149"/>
-      <c r="T7" s="149"/>
-      <c r="U7" s="149"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="160"/>
-      <c r="X7" s="160"/>
-      <c r="Y7" s="160"/>
-      <c r="Z7" s="160"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="160"/>
-      <c r="AD7" s="160"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="160"/>
-      <c r="AG7" s="160"/>
-      <c r="AH7" s="160"/>
-      <c r="AI7" s="160"/>
-      <c r="AJ7" s="160"/>
-      <c r="AK7" s="160"/>
-      <c r="AL7" s="160"/>
-      <c r="AM7" s="160"/>
-      <c r="AN7" s="149"/>
-      <c r="AO7" s="149"/>
-      <c r="AP7" s="149"/>
-      <c r="AQ7" s="149"/>
-      <c r="AR7" s="149"/>
-      <c r="AS7" s="149"/>
-      <c r="AT7" s="149"/>
-      <c r="AU7" s="149"/>
-      <c r="AV7" s="149"/>
-      <c r="AW7" s="149"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="147"/>
+      <c r="T7" s="147"/>
+      <c r="U7" s="147"/>
+      <c r="V7" s="158"/>
+      <c r="W7" s="158"/>
+      <c r="X7" s="158"/>
+      <c r="Y7" s="158"/>
+      <c r="Z7" s="158"/>
+      <c r="AA7" s="158"/>
+      <c r="AB7" s="158"/>
+      <c r="AC7" s="158"/>
+      <c r="AD7" s="158"/>
+      <c r="AE7" s="158"/>
+      <c r="AF7" s="158"/>
+      <c r="AG7" s="158"/>
+      <c r="AH7" s="158"/>
+      <c r="AI7" s="158"/>
+      <c r="AJ7" s="158"/>
+      <c r="AK7" s="158"/>
+      <c r="AL7" s="158"/>
+      <c r="AM7" s="158"/>
+      <c r="AN7" s="147"/>
+      <c r="AO7" s="147"/>
+      <c r="AP7" s="147"/>
+      <c r="AQ7" s="147"/>
+      <c r="AR7" s="147"/>
+      <c r="AS7" s="147"/>
+      <c r="AT7" s="147"/>
+      <c r="AU7" s="147"/>
+      <c r="AV7" s="147"/>
+      <c r="AW7" s="147"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="160"/>
-      <c r="X8" s="160"/>
-      <c r="Y8" s="160"/>
-      <c r="Z8" s="160"/>
-      <c r="AA8" s="160"/>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="160"/>
-      <c r="AD8" s="160"/>
-      <c r="AE8" s="160"/>
-      <c r="AF8" s="160"/>
-      <c r="AG8" s="160"/>
-      <c r="AH8" s="160"/>
-      <c r="AI8" s="160"/>
-      <c r="AJ8" s="160"/>
-      <c r="AK8" s="160"/>
-      <c r="AL8" s="160"/>
-      <c r="AM8" s="160"/>
-      <c r="AN8" s="149"/>
-      <c r="AO8" s="149"/>
-      <c r="AP8" s="149"/>
-      <c r="AQ8" s="149"/>
-      <c r="AR8" s="149"/>
-      <c r="AS8" s="149"/>
-      <c r="AT8" s="149"/>
-      <c r="AU8" s="149"/>
-      <c r="AV8" s="149"/>
-      <c r="AW8" s="149"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="158"/>
+      <c r="W8" s="158"/>
+      <c r="X8" s="158"/>
+      <c r="Y8" s="158"/>
+      <c r="Z8" s="158"/>
+      <c r="AA8" s="158"/>
+      <c r="AB8" s="158"/>
+      <c r="AC8" s="158"/>
+      <c r="AD8" s="158"/>
+      <c r="AE8" s="158"/>
+      <c r="AF8" s="158"/>
+      <c r="AG8" s="158"/>
+      <c r="AH8" s="158"/>
+      <c r="AI8" s="158"/>
+      <c r="AJ8" s="158"/>
+      <c r="AK8" s="158"/>
+      <c r="AL8" s="158"/>
+      <c r="AM8" s="158"/>
+      <c r="AN8" s="147"/>
+      <c r="AO8" s="147"/>
+      <c r="AP8" s="147"/>
+      <c r="AQ8" s="147"/>
+      <c r="AR8" s="147"/>
+      <c r="AS8" s="147"/>
+      <c r="AT8" s="147"/>
+      <c r="AU8" s="147"/>
+      <c r="AV8" s="147"/>
+      <c r="AW8" s="147"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="165"/>
-      <c r="O9" s="165"/>
-      <c r="P9" s="165"/>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="149"/>
-      <c r="T9" s="149"/>
-      <c r="U9" s="149"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="160"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="160"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="160"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="160"/>
-      <c r="AJ9" s="160"/>
-      <c r="AK9" s="160"/>
-      <c r="AL9" s="160"/>
-      <c r="AM9" s="160"/>
-      <c r="AN9" s="149"/>
-      <c r="AO9" s="149"/>
-      <c r="AP9" s="149"/>
-      <c r="AQ9" s="149"/>
-      <c r="AR9" s="149"/>
-      <c r="AS9" s="149"/>
-      <c r="AT9" s="149"/>
-      <c r="AU9" s="149"/>
-      <c r="AV9" s="149"/>
-      <c r="AW9" s="149"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="158"/>
+      <c r="W9" s="158"/>
+      <c r="X9" s="158"/>
+      <c r="Y9" s="158"/>
+      <c r="Z9" s="158"/>
+      <c r="AA9" s="158"/>
+      <c r="AB9" s="158"/>
+      <c r="AC9" s="158"/>
+      <c r="AD9" s="158"/>
+      <c r="AE9" s="158"/>
+      <c r="AF9" s="158"/>
+      <c r="AG9" s="158"/>
+      <c r="AH9" s="158"/>
+      <c r="AI9" s="158"/>
+      <c r="AJ9" s="158"/>
+      <c r="AK9" s="158"/>
+      <c r="AL9" s="158"/>
+      <c r="AM9" s="158"/>
+      <c r="AN9" s="147"/>
+      <c r="AO9" s="147"/>
+      <c r="AP9" s="147"/>
+      <c r="AQ9" s="147"/>
+      <c r="AR9" s="147"/>
+      <c r="AS9" s="147"/>
+      <c r="AT9" s="147"/>
+      <c r="AU9" s="147"/>
+      <c r="AV9" s="147"/>
+      <c r="AW9" s="147"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="165"/>
-      <c r="P10" s="165"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="149"/>
-      <c r="T10" s="149"/>
-      <c r="U10" s="149"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="160"/>
-      <c r="X10" s="160"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="160"/>
-      <c r="AA10" s="160"/>
-      <c r="AB10" s="160"/>
-      <c r="AC10" s="160"/>
-      <c r="AD10" s="160"/>
-      <c r="AE10" s="160"/>
-      <c r="AF10" s="160"/>
-      <c r="AG10" s="160"/>
-      <c r="AH10" s="160"/>
-      <c r="AI10" s="160"/>
-      <c r="AJ10" s="160"/>
-      <c r="AK10" s="160"/>
-      <c r="AL10" s="160"/>
-      <c r="AM10" s="160"/>
-      <c r="AN10" s="149"/>
-      <c r="AO10" s="149"/>
-      <c r="AP10" s="149"/>
-      <c r="AQ10" s="149"/>
-      <c r="AR10" s="149"/>
-      <c r="AS10" s="149"/>
-      <c r="AT10" s="149"/>
-      <c r="AU10" s="149"/>
-      <c r="AV10" s="149"/>
-      <c r="AW10" s="149"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="158"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="158"/>
+      <c r="Y10" s="158"/>
+      <c r="Z10" s="158"/>
+      <c r="AA10" s="158"/>
+      <c r="AB10" s="158"/>
+      <c r="AC10" s="158"/>
+      <c r="AD10" s="158"/>
+      <c r="AE10" s="158"/>
+      <c r="AF10" s="158"/>
+      <c r="AG10" s="158"/>
+      <c r="AH10" s="158"/>
+      <c r="AI10" s="158"/>
+      <c r="AJ10" s="158"/>
+      <c r="AK10" s="158"/>
+      <c r="AL10" s="158"/>
+      <c r="AM10" s="158"/>
+      <c r="AN10" s="147"/>
+      <c r="AO10" s="147"/>
+      <c r="AP10" s="147"/>
+      <c r="AQ10" s="147"/>
+      <c r="AR10" s="147"/>
+      <c r="AS10" s="147"/>
+      <c r="AT10" s="147"/>
+      <c r="AU10" s="147"/>
+      <c r="AV10" s="147"/>
+      <c r="AW10" s="147"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
-      <c r="B11" s="161"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="149"/>
-      <c r="T11" s="149"/>
-      <c r="U11" s="149"/>
-      <c r="V11" s="150"/>
-      <c r="W11" s="162"/>
-      <c r="X11" s="162"/>
-      <c r="Y11" s="162"/>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="162"/>
-      <c r="AB11" s="162"/>
-      <c r="AC11" s="162"/>
-      <c r="AD11" s="162"/>
-      <c r="AE11" s="162"/>
-      <c r="AF11" s="162"/>
-      <c r="AG11" s="162"/>
-      <c r="AH11" s="162"/>
-      <c r="AI11" s="162"/>
-      <c r="AJ11" s="162"/>
-      <c r="AK11" s="162"/>
-      <c r="AL11" s="162"/>
-      <c r="AM11" s="163"/>
-      <c r="AN11" s="149"/>
-      <c r="AO11" s="149"/>
-      <c r="AP11" s="149"/>
-      <c r="AQ11" s="149"/>
-      <c r="AR11" s="149"/>
-      <c r="AS11" s="149"/>
-      <c r="AT11" s="149"/>
-      <c r="AU11" s="149"/>
-      <c r="AV11" s="149"/>
-      <c r="AW11" s="149"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="147"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="160"/>
+      <c r="X11" s="160"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="160"/>
+      <c r="AA11" s="160"/>
+      <c r="AB11" s="160"/>
+      <c r="AC11" s="160"/>
+      <c r="AD11" s="160"/>
+      <c r="AE11" s="160"/>
+      <c r="AF11" s="160"/>
+      <c r="AG11" s="160"/>
+      <c r="AH11" s="160"/>
+      <c r="AI11" s="160"/>
+      <c r="AJ11" s="160"/>
+      <c r="AK11" s="160"/>
+      <c r="AL11" s="160"/>
+      <c r="AM11" s="161"/>
+      <c r="AN11" s="147"/>
+      <c r="AO11" s="147"/>
+      <c r="AP11" s="147"/>
+      <c r="AQ11" s="147"/>
+      <c r="AR11" s="147"/>
+      <c r="AS11" s="147"/>
+      <c r="AT11" s="147"/>
+      <c r="AU11" s="147"/>
+      <c r="AV11" s="147"/>
+      <c r="AW11" s="147"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="154"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="155"/>
-      <c r="S12" s="149"/>
-      <c r="T12" s="149"/>
-      <c r="U12" s="149"/>
-      <c r="V12" s="150"/>
-      <c r="W12" s="151"/>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="151"/>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="151"/>
-      <c r="AB12" s="151"/>
-      <c r="AC12" s="151"/>
-      <c r="AD12" s="151"/>
-      <c r="AE12" s="151"/>
-      <c r="AF12" s="151"/>
-      <c r="AG12" s="151"/>
-      <c r="AH12" s="151"/>
-      <c r="AI12" s="151"/>
-      <c r="AJ12" s="151"/>
-      <c r="AK12" s="151"/>
-      <c r="AL12" s="151"/>
-      <c r="AM12" s="152"/>
-      <c r="AN12" s="136"/>
-      <c r="AO12" s="137"/>
-      <c r="AP12" s="137"/>
-      <c r="AQ12" s="137"/>
-      <c r="AR12" s="138"/>
-      <c r="AS12" s="136"/>
-      <c r="AT12" s="137"/>
-      <c r="AU12" s="137"/>
-      <c r="AV12" s="137"/>
-      <c r="AW12" s="138"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="149"/>
+      <c r="AG12" s="149"/>
+      <c r="AH12" s="149"/>
+      <c r="AI12" s="149"/>
+      <c r="AJ12" s="149"/>
+      <c r="AK12" s="149"/>
+      <c r="AL12" s="149"/>
+      <c r="AM12" s="150"/>
+      <c r="AN12" s="134"/>
+      <c r="AO12" s="135"/>
+      <c r="AP12" s="135"/>
+      <c r="AQ12" s="135"/>
+      <c r="AR12" s="136"/>
+      <c r="AS12" s="134"/>
+      <c r="AT12" s="135"/>
+      <c r="AU12" s="135"/>
+      <c r="AV12" s="135"/>
+      <c r="AW12" s="136"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="155"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="149"/>
-      <c r="U13" s="149"/>
-      <c r="V13" s="150"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="151"/>
-      <c r="AE13" s="151"/>
-      <c r="AF13" s="151"/>
-      <c r="AG13" s="151"/>
-      <c r="AH13" s="151"/>
-      <c r="AI13" s="151"/>
-      <c r="AJ13" s="151"/>
-      <c r="AK13" s="151"/>
-      <c r="AL13" s="151"/>
-      <c r="AM13" s="152"/>
-      <c r="AN13" s="136"/>
-      <c r="AO13" s="137"/>
-      <c r="AP13" s="137"/>
-      <c r="AQ13" s="137"/>
-      <c r="AR13" s="138"/>
-      <c r="AS13" s="136"/>
-      <c r="AT13" s="137"/>
-      <c r="AU13" s="137"/>
-      <c r="AV13" s="137"/>
-      <c r="AW13" s="138"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="149"/>
+      <c r="AH13" s="149"/>
+      <c r="AI13" s="149"/>
+      <c r="AJ13" s="149"/>
+      <c r="AK13" s="149"/>
+      <c r="AL13" s="149"/>
+      <c r="AM13" s="150"/>
+      <c r="AN13" s="134"/>
+      <c r="AO13" s="135"/>
+      <c r="AP13" s="135"/>
+      <c r="AQ13" s="135"/>
+      <c r="AR13" s="136"/>
+      <c r="AS13" s="134"/>
+      <c r="AT13" s="135"/>
+      <c r="AU13" s="135"/>
+      <c r="AV13" s="135"/>
+      <c r="AW13" s="136"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="149"/>
-      <c r="V14" s="159"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="160"/>
-      <c r="AB14" s="160"/>
-      <c r="AC14" s="160"/>
-      <c r="AD14" s="160"/>
-      <c r="AE14" s="160"/>
-      <c r="AF14" s="160"/>
-      <c r="AG14" s="160"/>
-      <c r="AH14" s="160"/>
-      <c r="AI14" s="160"/>
-      <c r="AJ14" s="160"/>
-      <c r="AK14" s="160"/>
-      <c r="AL14" s="160"/>
-      <c r="AM14" s="160"/>
-      <c r="AN14" s="149"/>
-      <c r="AO14" s="149"/>
-      <c r="AP14" s="149"/>
-      <c r="AQ14" s="149"/>
-      <c r="AR14" s="149"/>
-      <c r="AS14" s="136"/>
-      <c r="AT14" s="137"/>
-      <c r="AU14" s="137"/>
-      <c r="AV14" s="137"/>
-      <c r="AW14" s="138"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="157"/>
+      <c r="W14" s="158"/>
+      <c r="X14" s="158"/>
+      <c r="Y14" s="158"/>
+      <c r="Z14" s="158"/>
+      <c r="AA14" s="158"/>
+      <c r="AB14" s="158"/>
+      <c r="AC14" s="158"/>
+      <c r="AD14" s="158"/>
+      <c r="AE14" s="158"/>
+      <c r="AF14" s="158"/>
+      <c r="AG14" s="158"/>
+      <c r="AH14" s="158"/>
+      <c r="AI14" s="158"/>
+      <c r="AJ14" s="158"/>
+      <c r="AK14" s="158"/>
+      <c r="AL14" s="158"/>
+      <c r="AM14" s="158"/>
+      <c r="AN14" s="147"/>
+      <c r="AO14" s="147"/>
+      <c r="AP14" s="147"/>
+      <c r="AQ14" s="147"/>
+      <c r="AR14" s="147"/>
+      <c r="AS14" s="134"/>
+      <c r="AT14" s="135"/>
+      <c r="AU14" s="135"/>
+      <c r="AV14" s="135"/>
+      <c r="AW14" s="136"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="155"/>
-      <c r="S15" s="149"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="149"/>
-      <c r="V15" s="150"/>
-      <c r="W15" s="151"/>
-      <c r="X15" s="151"/>
-      <c r="Y15" s="151"/>
-      <c r="Z15" s="151"/>
-      <c r="AA15" s="151"/>
-      <c r="AB15" s="151"/>
-      <c r="AC15" s="151"/>
-      <c r="AD15" s="151"/>
-      <c r="AE15" s="151"/>
-      <c r="AF15" s="151"/>
-      <c r="AG15" s="151"/>
-      <c r="AH15" s="151"/>
-      <c r="AI15" s="151"/>
-      <c r="AJ15" s="151"/>
-      <c r="AK15" s="151"/>
-      <c r="AL15" s="151"/>
-      <c r="AM15" s="152"/>
-      <c r="AN15" s="136"/>
-      <c r="AO15" s="137"/>
-      <c r="AP15" s="137"/>
-      <c r="AQ15" s="137"/>
-      <c r="AR15" s="138"/>
-      <c r="AS15" s="136"/>
-      <c r="AT15" s="137"/>
-      <c r="AU15" s="137"/>
-      <c r="AV15" s="137"/>
-      <c r="AW15" s="138"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="149"/>
+      <c r="Z15" s="149"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="149"/>
+      <c r="AH15" s="149"/>
+      <c r="AI15" s="149"/>
+      <c r="AJ15" s="149"/>
+      <c r="AK15" s="149"/>
+      <c r="AL15" s="149"/>
+      <c r="AM15" s="150"/>
+      <c r="AN15" s="134"/>
+      <c r="AO15" s="135"/>
+      <c r="AP15" s="135"/>
+      <c r="AQ15" s="135"/>
+      <c r="AR15" s="136"/>
+      <c r="AS15" s="134"/>
+      <c r="AT15" s="135"/>
+      <c r="AU15" s="135"/>
+      <c r="AV15" s="135"/>
+      <c r="AW15" s="136"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="154"/>
-      <c r="O16" s="154"/>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="154"/>
-      <c r="R16" s="155"/>
-      <c r="S16" s="149"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="149"/>
-      <c r="V16" s="150"/>
-      <c r="W16" s="151"/>
-      <c r="X16" s="151"/>
-      <c r="Y16" s="151"/>
-      <c r="Z16" s="151"/>
-      <c r="AA16" s="151"/>
-      <c r="AB16" s="151"/>
-      <c r="AC16" s="151"/>
-      <c r="AD16" s="151"/>
-      <c r="AE16" s="151"/>
-      <c r="AF16" s="151"/>
-      <c r="AG16" s="151"/>
-      <c r="AH16" s="151"/>
-      <c r="AI16" s="151"/>
-      <c r="AJ16" s="151"/>
-      <c r="AK16" s="151"/>
-      <c r="AL16" s="151"/>
-      <c r="AM16" s="152"/>
-      <c r="AN16" s="136"/>
-      <c r="AO16" s="137"/>
-      <c r="AP16" s="137"/>
-      <c r="AQ16" s="137"/>
-      <c r="AR16" s="138"/>
-      <c r="AS16" s="136"/>
-      <c r="AT16" s="137"/>
-      <c r="AU16" s="137"/>
-      <c r="AV16" s="137"/>
-      <c r="AW16" s="138"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="147"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="149"/>
+      <c r="Z16" s="149"/>
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="149"/>
+      <c r="AG16" s="149"/>
+      <c r="AH16" s="149"/>
+      <c r="AI16" s="149"/>
+      <c r="AJ16" s="149"/>
+      <c r="AK16" s="149"/>
+      <c r="AL16" s="149"/>
+      <c r="AM16" s="150"/>
+      <c r="AN16" s="134"/>
+      <c r="AO16" s="135"/>
+      <c r="AP16" s="135"/>
+      <c r="AQ16" s="135"/>
+      <c r="AR16" s="136"/>
+      <c r="AS16" s="134"/>
+      <c r="AT16" s="135"/>
+      <c r="AU16" s="135"/>
+      <c r="AV16" s="135"/>
+      <c r="AW16" s="136"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="157"/>
-      <c r="S17" s="158"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="158"/>
-      <c r="V17" s="150"/>
-      <c r="W17" s="151"/>
-      <c r="X17" s="151"/>
-      <c r="Y17" s="151"/>
-      <c r="Z17" s="151"/>
-      <c r="AA17" s="151"/>
-      <c r="AB17" s="151"/>
-      <c r="AC17" s="151"/>
-      <c r="AD17" s="151"/>
-      <c r="AE17" s="151"/>
-      <c r="AF17" s="151"/>
-      <c r="AG17" s="151"/>
-      <c r="AH17" s="151"/>
-      <c r="AI17" s="151"/>
-      <c r="AJ17" s="151"/>
-      <c r="AK17" s="151"/>
-      <c r="AL17" s="151"/>
-      <c r="AM17" s="152"/>
-      <c r="AN17" s="136"/>
-      <c r="AO17" s="137"/>
-      <c r="AP17" s="137"/>
-      <c r="AQ17" s="137"/>
-      <c r="AR17" s="138"/>
-      <c r="AS17" s="136"/>
-      <c r="AT17" s="137"/>
-      <c r="AU17" s="137"/>
-      <c r="AV17" s="137"/>
-      <c r="AW17" s="138"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="155"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="149"/>
+      <c r="Y17" s="149"/>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="149"/>
+      <c r="AH17" s="149"/>
+      <c r="AI17" s="149"/>
+      <c r="AJ17" s="149"/>
+      <c r="AK17" s="149"/>
+      <c r="AL17" s="149"/>
+      <c r="AM17" s="150"/>
+      <c r="AN17" s="134"/>
+      <c r="AO17" s="135"/>
+      <c r="AP17" s="135"/>
+      <c r="AQ17" s="135"/>
+      <c r="AR17" s="136"/>
+      <c r="AS17" s="134"/>
+      <c r="AT17" s="135"/>
+      <c r="AU17" s="135"/>
+      <c r="AV17" s="135"/>
+      <c r="AW17" s="136"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="149"/>
-      <c r="T18" s="149"/>
-      <c r="U18" s="149"/>
-      <c r="V18" s="150"/>
-      <c r="W18" s="151"/>
-      <c r="X18" s="151"/>
-      <c r="Y18" s="151"/>
-      <c r="Z18" s="151"/>
-      <c r="AA18" s="151"/>
-      <c r="AB18" s="151"/>
-      <c r="AC18" s="151"/>
-      <c r="AD18" s="151"/>
-      <c r="AE18" s="151"/>
-      <c r="AF18" s="151"/>
-      <c r="AG18" s="151"/>
-      <c r="AH18" s="151"/>
-      <c r="AI18" s="151"/>
-      <c r="AJ18" s="151"/>
-      <c r="AK18" s="151"/>
-      <c r="AL18" s="151"/>
-      <c r="AM18" s="152"/>
-      <c r="AN18" s="136"/>
-      <c r="AO18" s="137"/>
-      <c r="AP18" s="137"/>
-      <c r="AQ18" s="137"/>
-      <c r="AR18" s="138"/>
-      <c r="AS18" s="136"/>
-      <c r="AT18" s="137"/>
-      <c r="AU18" s="137"/>
-      <c r="AV18" s="137"/>
-      <c r="AW18" s="138"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="149"/>
+      <c r="Z18" s="149"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="149"/>
+      <c r="AC18" s="149"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="149"/>
+      <c r="AG18" s="149"/>
+      <c r="AH18" s="149"/>
+      <c r="AI18" s="149"/>
+      <c r="AJ18" s="149"/>
+      <c r="AK18" s="149"/>
+      <c r="AL18" s="149"/>
+      <c r="AM18" s="150"/>
+      <c r="AN18" s="134"/>
+      <c r="AO18" s="135"/>
+      <c r="AP18" s="135"/>
+      <c r="AQ18" s="135"/>
+      <c r="AR18" s="136"/>
+      <c r="AS18" s="134"/>
+      <c r="AT18" s="135"/>
+      <c r="AU18" s="135"/>
+      <c r="AV18" s="135"/>
+      <c r="AW18" s="136"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="149"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="149"/>
-      <c r="V19" s="150"/>
-      <c r="W19" s="151"/>
-      <c r="X19" s="151"/>
-      <c r="Y19" s="151"/>
-      <c r="Z19" s="151"/>
-      <c r="AA19" s="151"/>
-      <c r="AB19" s="151"/>
-      <c r="AC19" s="151"/>
-      <c r="AD19" s="151"/>
-      <c r="AE19" s="151"/>
-      <c r="AF19" s="151"/>
-      <c r="AG19" s="151"/>
-      <c r="AH19" s="151"/>
-      <c r="AI19" s="151"/>
-      <c r="AJ19" s="151"/>
-      <c r="AK19" s="151"/>
-      <c r="AL19" s="151"/>
-      <c r="AM19" s="152"/>
-      <c r="AN19" s="149"/>
-      <c r="AO19" s="149"/>
-      <c r="AP19" s="149"/>
-      <c r="AQ19" s="149"/>
-      <c r="AR19" s="149"/>
-      <c r="AS19" s="136"/>
-      <c r="AT19" s="137"/>
-      <c r="AU19" s="137"/>
-      <c r="AV19" s="137"/>
-      <c r="AW19" s="138"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="149"/>
+      <c r="X19" s="149"/>
+      <c r="Y19" s="149"/>
+      <c r="Z19" s="149"/>
+      <c r="AA19" s="149"/>
+      <c r="AB19" s="149"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="149"/>
+      <c r="AG19" s="149"/>
+      <c r="AH19" s="149"/>
+      <c r="AI19" s="149"/>
+      <c r="AJ19" s="149"/>
+      <c r="AK19" s="149"/>
+      <c r="AL19" s="149"/>
+      <c r="AM19" s="150"/>
+      <c r="AN19" s="147"/>
+      <c r="AO19" s="147"/>
+      <c r="AP19" s="147"/>
+      <c r="AQ19" s="147"/>
+      <c r="AR19" s="147"/>
+      <c r="AS19" s="134"/>
+      <c r="AT19" s="135"/>
+      <c r="AU19" s="135"/>
+      <c r="AV19" s="135"/>
+      <c r="AW19" s="136"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="154"/>
-      <c r="O20" s="154"/>
-      <c r="P20" s="154"/>
-      <c r="Q20" s="154"/>
-      <c r="R20" s="155"/>
-      <c r="S20" s="136"/>
-      <c r="T20" s="137"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="150"/>
-      <c r="W20" s="151"/>
-      <c r="X20" s="151"/>
-      <c r="Y20" s="151"/>
-      <c r="Z20" s="151"/>
-      <c r="AA20" s="151"/>
-      <c r="AB20" s="151"/>
-      <c r="AC20" s="151"/>
-      <c r="AD20" s="151"/>
-      <c r="AE20" s="151"/>
-      <c r="AF20" s="151"/>
-      <c r="AG20" s="151"/>
-      <c r="AH20" s="151"/>
-      <c r="AI20" s="151"/>
-      <c r="AJ20" s="151"/>
-      <c r="AK20" s="151"/>
-      <c r="AL20" s="151"/>
-      <c r="AM20" s="152"/>
-      <c r="AN20" s="136"/>
-      <c r="AO20" s="137"/>
-      <c r="AP20" s="137"/>
-      <c r="AQ20" s="137"/>
-      <c r="AR20" s="138"/>
-      <c r="AS20" s="136"/>
-      <c r="AT20" s="137"/>
-      <c r="AU20" s="137"/>
-      <c r="AV20" s="137"/>
-      <c r="AW20" s="138"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="136"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="149"/>
+      <c r="Z20" s="149"/>
+      <c r="AA20" s="149"/>
+      <c r="AB20" s="149"/>
+      <c r="AC20" s="149"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="149"/>
+      <c r="AF20" s="149"/>
+      <c r="AG20" s="149"/>
+      <c r="AH20" s="149"/>
+      <c r="AI20" s="149"/>
+      <c r="AJ20" s="149"/>
+      <c r="AK20" s="149"/>
+      <c r="AL20" s="149"/>
+      <c r="AM20" s="150"/>
+      <c r="AN20" s="134"/>
+      <c r="AO20" s="135"/>
+      <c r="AP20" s="135"/>
+      <c r="AQ20" s="135"/>
+      <c r="AR20" s="136"/>
+      <c r="AS20" s="134"/>
+      <c r="AT20" s="135"/>
+      <c r="AU20" s="135"/>
+      <c r="AV20" s="135"/>
+      <c r="AW20" s="136"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="154"/>
-      <c r="P21" s="154"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="155"/>
-      <c r="S21" s="149"/>
-      <c r="T21" s="149"/>
-      <c r="U21" s="149"/>
-      <c r="V21" s="150"/>
-      <c r="W21" s="151"/>
-      <c r="X21" s="151"/>
-      <c r="Y21" s="151"/>
-      <c r="Z21" s="151"/>
-      <c r="AA21" s="151"/>
-      <c r="AB21" s="151"/>
-      <c r="AC21" s="151"/>
-      <c r="AD21" s="151"/>
-      <c r="AE21" s="151"/>
-      <c r="AF21" s="151"/>
-      <c r="AG21" s="151"/>
-      <c r="AH21" s="151"/>
-      <c r="AI21" s="151"/>
-      <c r="AJ21" s="151"/>
-      <c r="AK21" s="151"/>
-      <c r="AL21" s="151"/>
-      <c r="AM21" s="152"/>
-      <c r="AN21" s="136"/>
-      <c r="AO21" s="137"/>
-      <c r="AP21" s="137"/>
-      <c r="AQ21" s="137"/>
-      <c r="AR21" s="138"/>
-      <c r="AS21" s="136"/>
-      <c r="AT21" s="137"/>
-      <c r="AU21" s="137"/>
-      <c r="AV21" s="137"/>
-      <c r="AW21" s="138"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="149"/>
+      <c r="X21" s="149"/>
+      <c r="Y21" s="149"/>
+      <c r="Z21" s="149"/>
+      <c r="AA21" s="149"/>
+      <c r="AB21" s="149"/>
+      <c r="AC21" s="149"/>
+      <c r="AD21" s="149"/>
+      <c r="AE21" s="149"/>
+      <c r="AF21" s="149"/>
+      <c r="AG21" s="149"/>
+      <c r="AH21" s="149"/>
+      <c r="AI21" s="149"/>
+      <c r="AJ21" s="149"/>
+      <c r="AK21" s="149"/>
+      <c r="AL21" s="149"/>
+      <c r="AM21" s="150"/>
+      <c r="AN21" s="134"/>
+      <c r="AO21" s="135"/>
+      <c r="AP21" s="135"/>
+      <c r="AQ21" s="135"/>
+      <c r="AR21" s="136"/>
+      <c r="AS21" s="134"/>
+      <c r="AT21" s="135"/>
+      <c r="AU21" s="135"/>
+      <c r="AV21" s="135"/>
+      <c r="AW21" s="136"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="155"/>
-      <c r="S22" s="149"/>
-      <c r="T22" s="149"/>
-      <c r="U22" s="149"/>
-      <c r="V22" s="150"/>
-      <c r="W22" s="151"/>
-      <c r="X22" s="151"/>
-      <c r="Y22" s="151"/>
-      <c r="Z22" s="151"/>
-      <c r="AA22" s="151"/>
-      <c r="AB22" s="151"/>
-      <c r="AC22" s="151"/>
-      <c r="AD22" s="151"/>
-      <c r="AE22" s="151"/>
-      <c r="AF22" s="151"/>
-      <c r="AG22" s="151"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="151"/>
-      <c r="AJ22" s="151"/>
-      <c r="AK22" s="151"/>
-      <c r="AL22" s="151"/>
-      <c r="AM22" s="152"/>
-      <c r="AN22" s="136"/>
-      <c r="AO22" s="137"/>
-      <c r="AP22" s="137"/>
-      <c r="AQ22" s="137"/>
-      <c r="AR22" s="138"/>
-      <c r="AS22" s="136"/>
-      <c r="AT22" s="137"/>
-      <c r="AU22" s="137"/>
-      <c r="AV22" s="137"/>
-      <c r="AW22" s="138"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147"/>
+      <c r="U22" s="147"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="149"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="149"/>
+      <c r="Z22" s="149"/>
+      <c r="AA22" s="149"/>
+      <c r="AB22" s="149"/>
+      <c r="AC22" s="149"/>
+      <c r="AD22" s="149"/>
+      <c r="AE22" s="149"/>
+      <c r="AF22" s="149"/>
+      <c r="AG22" s="149"/>
+      <c r="AH22" s="149"/>
+      <c r="AI22" s="149"/>
+      <c r="AJ22" s="149"/>
+      <c r="AK22" s="149"/>
+      <c r="AL22" s="149"/>
+      <c r="AM22" s="150"/>
+      <c r="AN22" s="134"/>
+      <c r="AO22" s="135"/>
+      <c r="AP22" s="135"/>
+      <c r="AQ22" s="135"/>
+      <c r="AR22" s="136"/>
+      <c r="AS22" s="134"/>
+      <c r="AT22" s="135"/>
+      <c r="AU22" s="135"/>
+      <c r="AV22" s="135"/>
+      <c r="AW22" s="136"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="154"/>
-      <c r="O23" s="154"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="155"/>
-      <c r="S23" s="149"/>
-      <c r="T23" s="149"/>
-      <c r="U23" s="149"/>
-      <c r="V23" s="150"/>
-      <c r="W23" s="151"/>
-      <c r="X23" s="151"/>
-      <c r="Y23" s="151"/>
-      <c r="Z23" s="151"/>
-      <c r="AA23" s="151"/>
-      <c r="AB23" s="151"/>
-      <c r="AC23" s="151"/>
-      <c r="AD23" s="151"/>
-      <c r="AE23" s="151"/>
-      <c r="AF23" s="151"/>
-      <c r="AG23" s="151"/>
-      <c r="AH23" s="151"/>
-      <c r="AI23" s="151"/>
-      <c r="AJ23" s="151"/>
-      <c r="AK23" s="151"/>
-      <c r="AL23" s="151"/>
-      <c r="AM23" s="152"/>
-      <c r="AN23" s="136"/>
-      <c r="AO23" s="137"/>
-      <c r="AP23" s="137"/>
-      <c r="AQ23" s="137"/>
-      <c r="AR23" s="138"/>
-      <c r="AS23" s="136"/>
-      <c r="AT23" s="137"/>
-      <c r="AU23" s="137"/>
-      <c r="AV23" s="137"/>
-      <c r="AW23" s="138"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="147"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="149"/>
+      <c r="Y23" s="149"/>
+      <c r="Z23" s="149"/>
+      <c r="AA23" s="149"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="149"/>
+      <c r="AD23" s="149"/>
+      <c r="AE23" s="149"/>
+      <c r="AF23" s="149"/>
+      <c r="AG23" s="149"/>
+      <c r="AH23" s="149"/>
+      <c r="AI23" s="149"/>
+      <c r="AJ23" s="149"/>
+      <c r="AK23" s="149"/>
+      <c r="AL23" s="149"/>
+      <c r="AM23" s="150"/>
+      <c r="AN23" s="134"/>
+      <c r="AO23" s="135"/>
+      <c r="AP23" s="135"/>
+      <c r="AQ23" s="135"/>
+      <c r="AR23" s="136"/>
+      <c r="AS23" s="134"/>
+      <c r="AT23" s="135"/>
+      <c r="AU23" s="135"/>
+      <c r="AV23" s="135"/>
+      <c r="AW23" s="136"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="145"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="155"/>
-      <c r="S24" s="149"/>
-      <c r="T24" s="149"/>
-      <c r="U24" s="149"/>
-      <c r="V24" s="150"/>
-      <c r="W24" s="151"/>
-      <c r="X24" s="151"/>
-      <c r="Y24" s="151"/>
-      <c r="Z24" s="151"/>
-      <c r="AA24" s="151"/>
-      <c r="AB24" s="151"/>
-      <c r="AC24" s="151"/>
-      <c r="AD24" s="151"/>
-      <c r="AE24" s="151"/>
-      <c r="AF24" s="151"/>
-      <c r="AG24" s="151"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="151"/>
-      <c r="AJ24" s="151"/>
-      <c r="AK24" s="151"/>
-      <c r="AL24" s="151"/>
-      <c r="AM24" s="152"/>
-      <c r="AN24" s="136"/>
-      <c r="AO24" s="137"/>
-      <c r="AP24" s="137"/>
-      <c r="AQ24" s="137"/>
-      <c r="AR24" s="138"/>
-      <c r="AS24" s="136"/>
-      <c r="AT24" s="137"/>
-      <c r="AU24" s="137"/>
-      <c r="AV24" s="137"/>
-      <c r="AW24" s="138"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="149"/>
+      <c r="X24" s="149"/>
+      <c r="Y24" s="149"/>
+      <c r="Z24" s="149"/>
+      <c r="AA24" s="149"/>
+      <c r="AB24" s="149"/>
+      <c r="AC24" s="149"/>
+      <c r="AD24" s="149"/>
+      <c r="AE24" s="149"/>
+      <c r="AF24" s="149"/>
+      <c r="AG24" s="149"/>
+      <c r="AH24" s="149"/>
+      <c r="AI24" s="149"/>
+      <c r="AJ24" s="149"/>
+      <c r="AK24" s="149"/>
+      <c r="AL24" s="149"/>
+      <c r="AM24" s="150"/>
+      <c r="AN24" s="134"/>
+      <c r="AO24" s="135"/>
+      <c r="AP24" s="135"/>
+      <c r="AQ24" s="135"/>
+      <c r="AR24" s="136"/>
+      <c r="AS24" s="134"/>
+      <c r="AT24" s="135"/>
+      <c r="AU24" s="135"/>
+      <c r="AV24" s="135"/>
+      <c r="AW24" s="136"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="145"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="154"/>
-      <c r="O25" s="154"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="155"/>
-      <c r="S25" s="149"/>
-      <c r="T25" s="149"/>
-      <c r="U25" s="149"/>
-      <c r="V25" s="150"/>
-      <c r="W25" s="151"/>
-      <c r="X25" s="151"/>
-      <c r="Y25" s="151"/>
-      <c r="Z25" s="151"/>
-      <c r="AA25" s="151"/>
-      <c r="AB25" s="151"/>
-      <c r="AC25" s="151"/>
-      <c r="AD25" s="151"/>
-      <c r="AE25" s="151"/>
-      <c r="AF25" s="151"/>
-      <c r="AG25" s="151"/>
-      <c r="AH25" s="151"/>
-      <c r="AI25" s="151"/>
-      <c r="AJ25" s="151"/>
-      <c r="AK25" s="151"/>
-      <c r="AL25" s="151"/>
-      <c r="AM25" s="152"/>
-      <c r="AN25" s="136"/>
-      <c r="AO25" s="137"/>
-      <c r="AP25" s="137"/>
-      <c r="AQ25" s="137"/>
-      <c r="AR25" s="138"/>
-      <c r="AS25" s="136"/>
-      <c r="AT25" s="137"/>
-      <c r="AU25" s="137"/>
-      <c r="AV25" s="137"/>
-      <c r="AW25" s="138"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="152"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="149"/>
+      <c r="X25" s="149"/>
+      <c r="Y25" s="149"/>
+      <c r="Z25" s="149"/>
+      <c r="AA25" s="149"/>
+      <c r="AB25" s="149"/>
+      <c r="AC25" s="149"/>
+      <c r="AD25" s="149"/>
+      <c r="AE25" s="149"/>
+      <c r="AF25" s="149"/>
+      <c r="AG25" s="149"/>
+      <c r="AH25" s="149"/>
+      <c r="AI25" s="149"/>
+      <c r="AJ25" s="149"/>
+      <c r="AK25" s="149"/>
+      <c r="AL25" s="149"/>
+      <c r="AM25" s="150"/>
+      <c r="AN25" s="134"/>
+      <c r="AO25" s="135"/>
+      <c r="AP25" s="135"/>
+      <c r="AQ25" s="135"/>
+      <c r="AR25" s="136"/>
+      <c r="AS25" s="134"/>
+      <c r="AT25" s="135"/>
+      <c r="AU25" s="135"/>
+      <c r="AV25" s="135"/>
+      <c r="AW25" s="136"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="149"/>
-      <c r="T26" s="149"/>
-      <c r="U26" s="149"/>
-      <c r="V26" s="150"/>
-      <c r="W26" s="151"/>
-      <c r="X26" s="151"/>
-      <c r="Y26" s="151"/>
-      <c r="Z26" s="151"/>
-      <c r="AA26" s="151"/>
-      <c r="AB26" s="151"/>
-      <c r="AC26" s="151"/>
-      <c r="AD26" s="151"/>
-      <c r="AE26" s="151"/>
-      <c r="AF26" s="151"/>
-      <c r="AG26" s="151"/>
-      <c r="AH26" s="151"/>
-      <c r="AI26" s="151"/>
-      <c r="AJ26" s="151"/>
-      <c r="AK26" s="151"/>
-      <c r="AL26" s="151"/>
-      <c r="AM26" s="152"/>
-      <c r="AN26" s="136"/>
-      <c r="AO26" s="137"/>
-      <c r="AP26" s="137"/>
-      <c r="AQ26" s="137"/>
-      <c r="AR26" s="138"/>
-      <c r="AS26" s="136"/>
-      <c r="AT26" s="137"/>
-      <c r="AU26" s="137"/>
-      <c r="AV26" s="137"/>
-      <c r="AW26" s="138"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="148"/>
+      <c r="W26" s="149"/>
+      <c r="X26" s="149"/>
+      <c r="Y26" s="149"/>
+      <c r="Z26" s="149"/>
+      <c r="AA26" s="149"/>
+      <c r="AB26" s="149"/>
+      <c r="AC26" s="149"/>
+      <c r="AD26" s="149"/>
+      <c r="AE26" s="149"/>
+      <c r="AF26" s="149"/>
+      <c r="AG26" s="149"/>
+      <c r="AH26" s="149"/>
+      <c r="AI26" s="149"/>
+      <c r="AJ26" s="149"/>
+      <c r="AK26" s="149"/>
+      <c r="AL26" s="149"/>
+      <c r="AM26" s="150"/>
+      <c r="AN26" s="134"/>
+      <c r="AO26" s="135"/>
+      <c r="AP26" s="135"/>
+      <c r="AQ26" s="135"/>
+      <c r="AR26" s="136"/>
+      <c r="AS26" s="134"/>
+      <c r="AT26" s="135"/>
+      <c r="AU26" s="135"/>
+      <c r="AV26" s="135"/>
+      <c r="AW26" s="136"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="154"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="149"/>
-      <c r="T27" s="149"/>
-      <c r="U27" s="149"/>
-      <c r="V27" s="150"/>
-      <c r="W27" s="151"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="151"/>
-      <c r="AB27" s="151"/>
-      <c r="AC27" s="151"/>
-      <c r="AD27" s="151"/>
-      <c r="AE27" s="151"/>
-      <c r="AF27" s="151"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="151"/>
-      <c r="AJ27" s="151"/>
-      <c r="AK27" s="151"/>
-      <c r="AL27" s="151"/>
-      <c r="AM27" s="152"/>
-      <c r="AN27" s="136"/>
-      <c r="AO27" s="137"/>
-      <c r="AP27" s="137"/>
-      <c r="AQ27" s="137"/>
-      <c r="AR27" s="138"/>
-      <c r="AS27" s="136"/>
-      <c r="AT27" s="137"/>
-      <c r="AU27" s="137"/>
-      <c r="AV27" s="137"/>
-      <c r="AW27" s="138"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="148"/>
+      <c r="W27" s="149"/>
+      <c r="X27" s="149"/>
+      <c r="Y27" s="149"/>
+      <c r="Z27" s="149"/>
+      <c r="AA27" s="149"/>
+      <c r="AB27" s="149"/>
+      <c r="AC27" s="149"/>
+      <c r="AD27" s="149"/>
+      <c r="AE27" s="149"/>
+      <c r="AF27" s="149"/>
+      <c r="AG27" s="149"/>
+      <c r="AH27" s="149"/>
+      <c r="AI27" s="149"/>
+      <c r="AJ27" s="149"/>
+      <c r="AK27" s="149"/>
+      <c r="AL27" s="149"/>
+      <c r="AM27" s="150"/>
+      <c r="AN27" s="134"/>
+      <c r="AO27" s="135"/>
+      <c r="AP27" s="135"/>
+      <c r="AQ27" s="135"/>
+      <c r="AR27" s="136"/>
+      <c r="AS27" s="134"/>
+      <c r="AT27" s="135"/>
+      <c r="AU27" s="135"/>
+      <c r="AV27" s="135"/>
+      <c r="AW27" s="136"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="154"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="149"/>
-      <c r="T28" s="149"/>
-      <c r="U28" s="149"/>
-      <c r="V28" s="150"/>
-      <c r="W28" s="151"/>
-      <c r="X28" s="151"/>
-      <c r="Y28" s="151"/>
-      <c r="Z28" s="151"/>
-      <c r="AA28" s="151"/>
-      <c r="AB28" s="151"/>
-      <c r="AC28" s="151"/>
-      <c r="AD28" s="151"/>
-      <c r="AE28" s="151"/>
-      <c r="AF28" s="151"/>
-      <c r="AG28" s="151"/>
-      <c r="AH28" s="151"/>
-      <c r="AI28" s="151"/>
-      <c r="AJ28" s="151"/>
-      <c r="AK28" s="151"/>
-      <c r="AL28" s="151"/>
-      <c r="AM28" s="152"/>
-      <c r="AN28" s="136"/>
-      <c r="AO28" s="137"/>
-      <c r="AP28" s="137"/>
-      <c r="AQ28" s="137"/>
-      <c r="AR28" s="138"/>
-      <c r="AS28" s="136"/>
-      <c r="AT28" s="137"/>
-      <c r="AU28" s="137"/>
-      <c r="AV28" s="137"/>
-      <c r="AW28" s="138"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="152"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="147"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="149"/>
+      <c r="X28" s="149"/>
+      <c r="Y28" s="149"/>
+      <c r="Z28" s="149"/>
+      <c r="AA28" s="149"/>
+      <c r="AB28" s="149"/>
+      <c r="AC28" s="149"/>
+      <c r="AD28" s="149"/>
+      <c r="AE28" s="149"/>
+      <c r="AF28" s="149"/>
+      <c r="AG28" s="149"/>
+      <c r="AH28" s="149"/>
+      <c r="AI28" s="149"/>
+      <c r="AJ28" s="149"/>
+      <c r="AK28" s="149"/>
+      <c r="AL28" s="149"/>
+      <c r="AM28" s="150"/>
+      <c r="AN28" s="134"/>
+      <c r="AO28" s="135"/>
+      <c r="AP28" s="135"/>
+      <c r="AQ28" s="135"/>
+      <c r="AR28" s="136"/>
+      <c r="AS28" s="134"/>
+      <c r="AT28" s="135"/>
+      <c r="AU28" s="135"/>
+      <c r="AV28" s="135"/>
+      <c r="AW28" s="136"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="155"/>
-      <c r="S29" s="149"/>
-      <c r="T29" s="149"/>
-      <c r="U29" s="149"/>
-      <c r="V29" s="150"/>
-      <c r="W29" s="151"/>
-      <c r="X29" s="151"/>
-      <c r="Y29" s="151"/>
-      <c r="Z29" s="151"/>
-      <c r="AA29" s="151"/>
-      <c r="AB29" s="151"/>
-      <c r="AC29" s="151"/>
-      <c r="AD29" s="151"/>
-      <c r="AE29" s="151"/>
-      <c r="AF29" s="151"/>
-      <c r="AG29" s="151"/>
-      <c r="AH29" s="151"/>
-      <c r="AI29" s="151"/>
-      <c r="AJ29" s="151"/>
-      <c r="AK29" s="151"/>
-      <c r="AL29" s="151"/>
-      <c r="AM29" s="152"/>
-      <c r="AN29" s="136"/>
-      <c r="AO29" s="137"/>
-      <c r="AP29" s="137"/>
-      <c r="AQ29" s="137"/>
-      <c r="AR29" s="138"/>
-      <c r="AS29" s="136"/>
-      <c r="AT29" s="137"/>
-      <c r="AU29" s="137"/>
-      <c r="AV29" s="137"/>
-      <c r="AW29" s="138"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="149"/>
+      <c r="X29" s="149"/>
+      <c r="Y29" s="149"/>
+      <c r="Z29" s="149"/>
+      <c r="AA29" s="149"/>
+      <c r="AB29" s="149"/>
+      <c r="AC29" s="149"/>
+      <c r="AD29" s="149"/>
+      <c r="AE29" s="149"/>
+      <c r="AF29" s="149"/>
+      <c r="AG29" s="149"/>
+      <c r="AH29" s="149"/>
+      <c r="AI29" s="149"/>
+      <c r="AJ29" s="149"/>
+      <c r="AK29" s="149"/>
+      <c r="AL29" s="149"/>
+      <c r="AM29" s="150"/>
+      <c r="AN29" s="134"/>
+      <c r="AO29" s="135"/>
+      <c r="AP29" s="135"/>
+      <c r="AQ29" s="135"/>
+      <c r="AR29" s="136"/>
+      <c r="AS29" s="134"/>
+      <c r="AT29" s="135"/>
+      <c r="AU29" s="135"/>
+      <c r="AV29" s="135"/>
+      <c r="AW29" s="136"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="154"/>
-      <c r="O30" s="154"/>
-      <c r="P30" s="154"/>
-      <c r="Q30" s="154"/>
-      <c r="R30" s="155"/>
-      <c r="S30" s="149"/>
-      <c r="T30" s="149"/>
-      <c r="U30" s="149"/>
-      <c r="V30" s="150"/>
-      <c r="W30" s="151"/>
-      <c r="X30" s="151"/>
-      <c r="Y30" s="151"/>
-      <c r="Z30" s="151"/>
-      <c r="AA30" s="151"/>
-      <c r="AB30" s="151"/>
-      <c r="AC30" s="151"/>
-      <c r="AD30" s="151"/>
-      <c r="AE30" s="151"/>
-      <c r="AF30" s="151"/>
-      <c r="AG30" s="151"/>
-      <c r="AH30" s="151"/>
-      <c r="AI30" s="151"/>
-      <c r="AJ30" s="151"/>
-      <c r="AK30" s="151"/>
-      <c r="AL30" s="151"/>
-      <c r="AM30" s="152"/>
-      <c r="AN30" s="136"/>
-      <c r="AO30" s="137"/>
-      <c r="AP30" s="137"/>
-      <c r="AQ30" s="137"/>
-      <c r="AR30" s="138"/>
-      <c r="AS30" s="136"/>
-      <c r="AT30" s="137"/>
-      <c r="AU30" s="137"/>
-      <c r="AV30" s="137"/>
-      <c r="AW30" s="138"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="147"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="148"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="149"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="149"/>
+      <c r="AC30" s="149"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="149"/>
+      <c r="AF30" s="149"/>
+      <c r="AG30" s="149"/>
+      <c r="AH30" s="149"/>
+      <c r="AI30" s="149"/>
+      <c r="AJ30" s="149"/>
+      <c r="AK30" s="149"/>
+      <c r="AL30" s="149"/>
+      <c r="AM30" s="150"/>
+      <c r="AN30" s="134"/>
+      <c r="AO30" s="135"/>
+      <c r="AP30" s="135"/>
+      <c r="AQ30" s="135"/>
+      <c r="AR30" s="136"/>
+      <c r="AS30" s="134"/>
+      <c r="AT30" s="135"/>
+      <c r="AU30" s="135"/>
+      <c r="AV30" s="135"/>
+      <c r="AW30" s="136"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="145"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="154"/>
-      <c r="O31" s="154"/>
-      <c r="P31" s="154"/>
-      <c r="Q31" s="154"/>
-      <c r="R31" s="155"/>
-      <c r="S31" s="149"/>
-      <c r="T31" s="149"/>
-      <c r="U31" s="149"/>
-      <c r="V31" s="150"/>
-      <c r="W31" s="151"/>
-      <c r="X31" s="151"/>
-      <c r="Y31" s="151"/>
-      <c r="Z31" s="151"/>
-      <c r="AA31" s="151"/>
-      <c r="AB31" s="151"/>
-      <c r="AC31" s="151"/>
-      <c r="AD31" s="151"/>
-      <c r="AE31" s="151"/>
-      <c r="AF31" s="151"/>
-      <c r="AG31" s="151"/>
-      <c r="AH31" s="151"/>
-      <c r="AI31" s="151"/>
-      <c r="AJ31" s="151"/>
-      <c r="AK31" s="151"/>
-      <c r="AL31" s="151"/>
-      <c r="AM31" s="152"/>
-      <c r="AN31" s="136"/>
-      <c r="AO31" s="137"/>
-      <c r="AP31" s="137"/>
-      <c r="AQ31" s="137"/>
-      <c r="AR31" s="138"/>
-      <c r="AS31" s="136"/>
-      <c r="AT31" s="137"/>
-      <c r="AU31" s="137"/>
-      <c r="AV31" s="137"/>
-      <c r="AW31" s="138"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="148"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="149"/>
+      <c r="Z31" s="149"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="149"/>
+      <c r="AC31" s="149"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="149"/>
+      <c r="AG31" s="149"/>
+      <c r="AH31" s="149"/>
+      <c r="AI31" s="149"/>
+      <c r="AJ31" s="149"/>
+      <c r="AK31" s="149"/>
+      <c r="AL31" s="149"/>
+      <c r="AM31" s="150"/>
+      <c r="AN31" s="134"/>
+      <c r="AO31" s="135"/>
+      <c r="AP31" s="135"/>
+      <c r="AQ31" s="135"/>
+      <c r="AR31" s="136"/>
+      <c r="AS31" s="134"/>
+      <c r="AT31" s="135"/>
+      <c r="AU31" s="135"/>
+      <c r="AV31" s="135"/>
+      <c r="AW31" s="136"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="154"/>
-      <c r="O32" s="154"/>
-      <c r="P32" s="154"/>
-      <c r="Q32" s="154"/>
-      <c r="R32" s="155"/>
-      <c r="S32" s="149"/>
-      <c r="T32" s="149"/>
-      <c r="U32" s="149"/>
-      <c r="V32" s="150"/>
-      <c r="W32" s="151"/>
-      <c r="X32" s="151"/>
-      <c r="Y32" s="151"/>
-      <c r="Z32" s="151"/>
-      <c r="AA32" s="151"/>
-      <c r="AB32" s="151"/>
-      <c r="AC32" s="151"/>
-      <c r="AD32" s="151"/>
-      <c r="AE32" s="151"/>
-      <c r="AF32" s="151"/>
-      <c r="AG32" s="151"/>
-      <c r="AH32" s="151"/>
-      <c r="AI32" s="151"/>
-      <c r="AJ32" s="151"/>
-      <c r="AK32" s="151"/>
-      <c r="AL32" s="151"/>
-      <c r="AM32" s="152"/>
-      <c r="AN32" s="136"/>
-      <c r="AO32" s="137"/>
-      <c r="AP32" s="137"/>
-      <c r="AQ32" s="137"/>
-      <c r="AR32" s="138"/>
-      <c r="AS32" s="136"/>
-      <c r="AT32" s="137"/>
-      <c r="AU32" s="137"/>
-      <c r="AV32" s="137"/>
-      <c r="AW32" s="138"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="149"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="149"/>
+      <c r="Z32" s="149"/>
+      <c r="AA32" s="149"/>
+      <c r="AB32" s="149"/>
+      <c r="AC32" s="149"/>
+      <c r="AD32" s="149"/>
+      <c r="AE32" s="149"/>
+      <c r="AF32" s="149"/>
+      <c r="AG32" s="149"/>
+      <c r="AH32" s="149"/>
+      <c r="AI32" s="149"/>
+      <c r="AJ32" s="149"/>
+      <c r="AK32" s="149"/>
+      <c r="AL32" s="149"/>
+      <c r="AM32" s="150"/>
+      <c r="AN32" s="134"/>
+      <c r="AO32" s="135"/>
+      <c r="AP32" s="135"/>
+      <c r="AQ32" s="135"/>
+      <c r="AR32" s="136"/>
+      <c r="AS32" s="134"/>
+      <c r="AT32" s="135"/>
+      <c r="AU32" s="135"/>
+      <c r="AV32" s="135"/>
+      <c r="AW32" s="136"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="139"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="153"/>
-      <c r="N33" s="154"/>
-      <c r="O33" s="154"/>
-      <c r="P33" s="154"/>
-      <c r="Q33" s="154"/>
-      <c r="R33" s="155"/>
-      <c r="S33" s="149"/>
-      <c r="T33" s="149"/>
-      <c r="U33" s="149"/>
-      <c r="V33" s="150"/>
-      <c r="W33" s="151"/>
-      <c r="X33" s="151"/>
-      <c r="Y33" s="151"/>
-      <c r="Z33" s="151"/>
-      <c r="AA33" s="151"/>
-      <c r="AB33" s="151"/>
-      <c r="AC33" s="151"/>
-      <c r="AD33" s="151"/>
-      <c r="AE33" s="151"/>
-      <c r="AF33" s="151"/>
-      <c r="AG33" s="151"/>
-      <c r="AH33" s="151"/>
-      <c r="AI33" s="151"/>
-      <c r="AJ33" s="151"/>
-      <c r="AK33" s="151"/>
-      <c r="AL33" s="151"/>
-      <c r="AM33" s="152"/>
-      <c r="AN33" s="136"/>
-      <c r="AO33" s="137"/>
-      <c r="AP33" s="137"/>
-      <c r="AQ33" s="137"/>
-      <c r="AR33" s="138"/>
-      <c r="AS33" s="136"/>
-      <c r="AT33" s="137"/>
-      <c r="AU33" s="137"/>
-      <c r="AV33" s="137"/>
-      <c r="AW33" s="138"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="147"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="148"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="149"/>
+      <c r="Z33" s="149"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="149"/>
+      <c r="AC33" s="149"/>
+      <c r="AD33" s="149"/>
+      <c r="AE33" s="149"/>
+      <c r="AF33" s="149"/>
+      <c r="AG33" s="149"/>
+      <c r="AH33" s="149"/>
+      <c r="AI33" s="149"/>
+      <c r="AJ33" s="149"/>
+      <c r="AK33" s="149"/>
+      <c r="AL33" s="149"/>
+      <c r="AM33" s="150"/>
+      <c r="AN33" s="134"/>
+      <c r="AO33" s="135"/>
+      <c r="AP33" s="135"/>
+      <c r="AQ33" s="135"/>
+      <c r="AR33" s="136"/>
+      <c r="AS33" s="134"/>
+      <c r="AT33" s="135"/>
+      <c r="AU33" s="135"/>
+      <c r="AV33" s="135"/>
+      <c r="AW33" s="136"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="139"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="143"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="145"/>
-      <c r="M34" s="146"/>
-      <c r="N34" s="147"/>
-      <c r="O34" s="147"/>
-      <c r="P34" s="147"/>
-      <c r="Q34" s="147"/>
-      <c r="R34" s="148"/>
-      <c r="S34" s="149"/>
-      <c r="T34" s="149"/>
-      <c r="U34" s="149"/>
-      <c r="V34" s="150"/>
-      <c r="W34" s="151"/>
-      <c r="X34" s="151"/>
-      <c r="Y34" s="151"/>
-      <c r="Z34" s="151"/>
-      <c r="AA34" s="151"/>
-      <c r="AB34" s="151"/>
-      <c r="AC34" s="151"/>
-      <c r="AD34" s="151"/>
-      <c r="AE34" s="151"/>
-      <c r="AF34" s="151"/>
-      <c r="AG34" s="151"/>
-      <c r="AH34" s="151"/>
-      <c r="AI34" s="151"/>
-      <c r="AJ34" s="151"/>
-      <c r="AK34" s="151"/>
-      <c r="AL34" s="151"/>
-      <c r="AM34" s="152"/>
-      <c r="AN34" s="136"/>
-      <c r="AO34" s="137"/>
-      <c r="AP34" s="137"/>
-      <c r="AQ34" s="137"/>
-      <c r="AR34" s="138"/>
-      <c r="AS34" s="136"/>
-      <c r="AT34" s="137"/>
-      <c r="AU34" s="137"/>
-      <c r="AV34" s="137"/>
-      <c r="AW34" s="138"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="145"/>
+      <c r="Q34" s="145"/>
+      <c r="R34" s="146"/>
+      <c r="S34" s="147"/>
+      <c r="T34" s="147"/>
+      <c r="U34" s="147"/>
+      <c r="V34" s="148"/>
+      <c r="W34" s="149"/>
+      <c r="X34" s="149"/>
+      <c r="Y34" s="149"/>
+      <c r="Z34" s="149"/>
+      <c r="AA34" s="149"/>
+      <c r="AB34" s="149"/>
+      <c r="AC34" s="149"/>
+      <c r="AD34" s="149"/>
+      <c r="AE34" s="149"/>
+      <c r="AF34" s="149"/>
+      <c r="AG34" s="149"/>
+      <c r="AH34" s="149"/>
+      <c r="AI34" s="149"/>
+      <c r="AJ34" s="149"/>
+      <c r="AK34" s="149"/>
+      <c r="AL34" s="149"/>
+      <c r="AM34" s="150"/>
+      <c r="AN34" s="134"/>
+      <c r="AO34" s="135"/>
+      <c r="AP34" s="135"/>
+      <c r="AQ34" s="135"/>
+      <c r="AR34" s="136"/>
+      <c r="AS34" s="134"/>
+      <c r="AT34" s="135"/>
+      <c r="AU34" s="135"/>
+      <c r="AV34" s="135"/>
+      <c r="AW34" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="249">
@@ -7441,7 +7405,7 @@
   <dimension ref="A1:BN55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -7557,14 +7521,14 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="97" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="S2" s="98"/>
       <c r="T2" s="98"/>
       <c r="U2" s="98"/>
       <c r="V2" s="99"/>
       <c r="W2" s="37" t="s">
-        <v>157</v>
+        <v>271</v>
       </c>
       <c r="X2" s="40"/>
       <c r="Y2" s="40"/>
@@ -7585,11 +7549,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="176"/>
-      <c r="AP2" s="177"/>
-      <c r="AQ2" s="177"/>
-      <c r="AR2" s="177"/>
-      <c r="AS2" s="178"/>
+      <c r="AO2" s="174"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="175"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="176"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -7598,14 +7562,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="179"/>
-      <c r="BA2" s="180"/>
-      <c r="BB2" s="180"/>
-      <c r="BC2" s="180"/>
-      <c r="BD2" s="180"/>
-      <c r="BE2" s="180"/>
-      <c r="BF2" s="180"/>
-      <c r="BG2" s="181"/>
+      <c r="AZ2" s="177"/>
+      <c r="BA2" s="178"/>
+      <c r="BB2" s="178"/>
+      <c r="BC2" s="178"/>
+      <c r="BD2" s="178"/>
+      <c r="BE2" s="178"/>
+      <c r="BF2" s="178"/>
+      <c r="BG2" s="179"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -7670,7 +7634,7 @@
     </row>
     <row r="4" spans="1:59" s="33" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:59" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -7678,15 +7642,15 @@
     </row>
     <row r="6" spans="1:59" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:59" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="42"/>
     </row>
     <row r="8" spans="1:59" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="114" t="s">
-        <v>158</v>
+      <c r="B8" s="112" t="s">
+        <v>152</v>
       </c>
       <c r="C8" s="83"/>
       <c r="D8" s="83"/>
@@ -7736,7 +7700,7 @@
     <row r="10" spans="1:59" s="33" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:59" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:59" s="33" customFormat="1" x14ac:dyDescent="0.15">
@@ -8791,7 +8755,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="O36" s="9"/>
       <c r="T36" s="9"/>
@@ -8800,7 +8764,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -8840,7 +8804,7 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O37" s="9"/>
       <c r="T37" s="9"/>
@@ -8887,7 +8851,7 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="O38" s="9"/>
       <c r="T38" s="9"/>
@@ -9228,7 +9192,7 @@
     </row>
     <row r="48" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -9362,12 +9326,12 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="184" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="185"/>
+      <c r="B50" s="182" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="183"/>
       <c r="D50" s="91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" s="92"/>
       <c r="F50" s="92"/>
@@ -9376,7 +9340,7 @@
       <c r="I50" s="92"/>
       <c r="J50" s="93"/>
       <c r="K50" s="91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L50" s="92"/>
       <c r="M50" s="92"/>
@@ -9388,7 +9352,7 @@
       <c r="S50" s="92"/>
       <c r="T50" s="93"/>
       <c r="U50" s="91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V50" s="92"/>
       <c r="W50" s="92"/>
@@ -9400,23 +9364,23 @@
       <c r="AC50" s="92"/>
       <c r="AD50" s="93"/>
       <c r="AE50" s="91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF50" s="93"/>
       <c r="AG50" s="91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AH50" s="93"/>
       <c r="AI50" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AJ50" s="93"/>
       <c r="AK50" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL50" s="93"/>
       <c r="AM50" s="91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AN50" s="92"/>
       <c r="AO50" s="92"/>
@@ -9448,21 +9412,21 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="186">
+      <c r="B51" s="184">
         <v>1</v>
       </c>
-      <c r="C51" s="187"/>
-      <c r="D51" s="118" t="s">
-        <v>264</v>
+      <c r="C51" s="185"/>
+      <c r="D51" s="116" t="s">
+        <v>258</v>
       </c>
       <c r="E51" s="89"/>
       <c r="F51" s="89"/>
       <c r="G51" s="89"/>
       <c r="H51" s="89"/>
       <c r="I51" s="89"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="118" t="s">
-        <v>161</v>
+      <c r="J51" s="117"/>
+      <c r="K51" s="116" t="s">
+        <v>155</v>
       </c>
       <c r="L51" s="89"/>
       <c r="M51" s="89"/>
@@ -9472,8 +9436,8 @@
       <c r="Q51" s="89"/>
       <c r="R51" s="89"/>
       <c r="S51" s="89"/>
-      <c r="T51" s="119"/>
-      <c r="U51" s="118"/>
+      <c r="T51" s="117"/>
+      <c r="U51" s="116"/>
       <c r="V51" s="89"/>
       <c r="W51" s="89"/>
       <c r="X51" s="89"/>
@@ -9482,19 +9446,19 @@
       <c r="AA51" s="89"/>
       <c r="AB51" s="89"/>
       <c r="AC51" s="89"/>
-      <c r="AD51" s="119"/>
-      <c r="AE51" s="182" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF51" s="183"/>
-      <c r="AG51" s="182"/>
-      <c r="AH51" s="183"/>
-      <c r="AI51" s="182"/>
-      <c r="AJ51" s="183"/>
-      <c r="AK51" s="182"/>
-      <c r="AL51" s="183"/>
+      <c r="AD51" s="117"/>
+      <c r="AE51" s="180" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF51" s="181"/>
+      <c r="AG51" s="180"/>
+      <c r="AH51" s="181"/>
+      <c r="AI51" s="180"/>
+      <c r="AJ51" s="181"/>
+      <c r="AK51" s="180"/>
+      <c r="AL51" s="181"/>
       <c r="AM51" s="86" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AN51" s="87"/>
       <c r="AO51" s="87"/>
@@ -9526,21 +9490,21 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="186">
+      <c r="B52" s="184">
         <v>2</v>
       </c>
-      <c r="C52" s="187"/>
-      <c r="D52" s="118" t="s">
-        <v>264</v>
+      <c r="C52" s="185"/>
+      <c r="D52" s="116" t="s">
+        <v>258</v>
       </c>
       <c r="E52" s="89"/>
       <c r="F52" s="89"/>
       <c r="G52" s="89"/>
       <c r="H52" s="89"/>
       <c r="I52" s="89"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="118" t="s">
-        <v>258</v>
+      <c r="J52" s="117"/>
+      <c r="K52" s="116" t="s">
+        <v>252</v>
       </c>
       <c r="L52" s="89"/>
       <c r="M52" s="89"/>
@@ -9550,8 +9514,8 @@
       <c r="Q52" s="89"/>
       <c r="R52" s="89"/>
       <c r="S52" s="89"/>
-      <c r="T52" s="119"/>
-      <c r="U52" s="118"/>
+      <c r="T52" s="117"/>
+      <c r="U52" s="116"/>
       <c r="V52" s="89"/>
       <c r="W52" s="89"/>
       <c r="X52" s="89"/>
@@ -9560,19 +9524,19 @@
       <c r="AA52" s="89"/>
       <c r="AB52" s="89"/>
       <c r="AC52" s="89"/>
-      <c r="AD52" s="119"/>
-      <c r="AE52" s="182" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF52" s="183"/>
-      <c r="AG52" s="182"/>
-      <c r="AH52" s="183"/>
-      <c r="AI52" s="182"/>
-      <c r="AJ52" s="183"/>
-      <c r="AK52" s="182"/>
-      <c r="AL52" s="183"/>
+      <c r="AD52" s="117"/>
+      <c r="AE52" s="180" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF52" s="181"/>
+      <c r="AG52" s="180"/>
+      <c r="AH52" s="181"/>
+      <c r="AI52" s="180"/>
+      <c r="AJ52" s="181"/>
+      <c r="AK52" s="180"/>
+      <c r="AL52" s="181"/>
       <c r="AM52" s="86" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AN52" s="87"/>
       <c r="AO52" s="87"/>
@@ -9604,21 +9568,21 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="186">
+      <c r="B53" s="184">
         <v>3</v>
       </c>
-      <c r="C53" s="187"/>
-      <c r="D53" s="118" t="s">
-        <v>264</v>
+      <c r="C53" s="185"/>
+      <c r="D53" s="116" t="s">
+        <v>258</v>
       </c>
       <c r="E53" s="89"/>
       <c r="F53" s="89"/>
       <c r="G53" s="89"/>
       <c r="H53" s="89"/>
       <c r="I53" s="89"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="112" t="s">
-        <v>262</v>
+      <c r="J53" s="111"/>
+      <c r="K53" s="110" t="s">
+        <v>256</v>
       </c>
       <c r="L53" s="89"/>
       <c r="M53" s="89"/>
@@ -9628,8 +9592,8 @@
       <c r="Q53" s="89"/>
       <c r="R53" s="89"/>
       <c r="S53" s="89"/>
-      <c r="T53" s="113"/>
-      <c r="U53" s="112"/>
+      <c r="T53" s="111"/>
+      <c r="U53" s="110"/>
       <c r="V53" s="89"/>
       <c r="W53" s="89"/>
       <c r="X53" s="89"/>
@@ -9638,19 +9602,19 @@
       <c r="AA53" s="89"/>
       <c r="AB53" s="89"/>
       <c r="AC53" s="89"/>
-      <c r="AD53" s="113"/>
-      <c r="AE53" s="182" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF53" s="183"/>
-      <c r="AG53" s="182"/>
-      <c r="AH53" s="183"/>
-      <c r="AI53" s="182"/>
-      <c r="AJ53" s="183"/>
-      <c r="AK53" s="182"/>
-      <c r="AL53" s="183"/>
+      <c r="AD53" s="111"/>
+      <c r="AE53" s="180" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF53" s="181"/>
+      <c r="AG53" s="180"/>
+      <c r="AH53" s="181"/>
+      <c r="AI53" s="180"/>
+      <c r="AJ53" s="181"/>
+      <c r="AK53" s="180"/>
+      <c r="AL53" s="181"/>
       <c r="AM53" s="86" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AN53" s="87"/>
       <c r="AO53" s="87"/>
@@ -9682,12 +9646,12 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="186">
+      <c r="B54" s="184">
         <v>4</v>
       </c>
-      <c r="C54" s="187"/>
+      <c r="C54" s="185"/>
       <c r="D54" s="85" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E54" s="89"/>
       <c r="F54" s="89"/>
@@ -9696,7 +9660,7 @@
       <c r="I54" s="89"/>
       <c r="J54" s="90"/>
       <c r="K54" s="85" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L54" s="89"/>
       <c r="M54" s="89"/>
@@ -9717,24 +9681,24 @@
       <c r="AB54" s="89"/>
       <c r="AC54" s="89"/>
       <c r="AD54" s="90"/>
-      <c r="AE54" s="182" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF54" s="183"/>
-      <c r="AG54" s="182" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH54" s="183"/>
-      <c r="AI54" s="182" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ54" s="183"/>
-      <c r="AK54" s="182" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL54" s="183"/>
+      <c r="AE54" s="180" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF54" s="181"/>
+      <c r="AG54" s="180" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH54" s="181"/>
+      <c r="AI54" s="180" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ54" s="181"/>
+      <c r="AK54" s="180" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL54" s="181"/>
       <c r="AM54" s="86" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AN54" s="87"/>
       <c r="AO54" s="87"/>
@@ -9917,20 +9881,20 @@
       <c r="CA1" s="35"/>
       <c r="CB1" s="35"/>
       <c r="CC1" s="36"/>
-      <c r="CD1" s="190">
+      <c r="CD1" s="188">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
-      <c r="CE1" s="191"/>
-      <c r="CF1" s="191"/>
-      <c r="CG1" s="191"/>
-      <c r="CH1" s="191"/>
-      <c r="CI1" s="191"/>
-      <c r="CJ1" s="191"/>
-      <c r="CK1" s="191"/>
-      <c r="CL1" s="191"/>
-      <c r="CM1" s="191"/>
-      <c r="CN1" s="192"/>
+      <c r="CE1" s="189"/>
+      <c r="CF1" s="189"/>
+      <c r="CG1" s="189"/>
+      <c r="CH1" s="189"/>
+      <c r="CI1" s="189"/>
+      <c r="CJ1" s="189"/>
+      <c r="CK1" s="189"/>
+      <c r="CL1" s="189"/>
+      <c r="CM1" s="189"/>
+      <c r="CN1" s="190"/>
       <c r="CO1" s="34" t="s">
         <v>25</v>
       </c>
@@ -9939,23 +9903,23 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="179" t="str">
+      <c r="CU1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="CV1" s="188"/>
-      <c r="CW1" s="188"/>
-      <c r="CX1" s="188"/>
-      <c r="CY1" s="188"/>
-      <c r="CZ1" s="188"/>
-      <c r="DA1" s="188"/>
-      <c r="DB1" s="188"/>
-      <c r="DC1" s="188"/>
-      <c r="DD1" s="188"/>
-      <c r="DE1" s="188"/>
-      <c r="DF1" s="188"/>
-      <c r="DG1" s="188"/>
-      <c r="DH1" s="189"/>
+      <c r="CV1" s="186"/>
+      <c r="CW1" s="186"/>
+      <c r="CX1" s="186"/>
+      <c r="CY1" s="186"/>
+      <c r="CZ1" s="186"/>
+      <c r="DA1" s="186"/>
+      <c r="DB1" s="186"/>
+      <c r="DC1" s="186"/>
+      <c r="DD1" s="186"/>
+      <c r="DE1" s="186"/>
+      <c r="DF1" s="186"/>
+      <c r="DG1" s="186"/>
+      <c r="DH1" s="187"/>
     </row>
     <row r="2" spans="1:112" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -10010,39 +9974,39 @@
       <c r="AQ2" s="98"/>
       <c r="AR2" s="98"/>
       <c r="AS2" s="99"/>
-      <c r="AT2" s="194" t="str">
+      <c r="AT2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
-        <v>設備マスタ</v>
-      </c>
-      <c r="AU2" s="195"/>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="195"/>
-      <c r="AY2" s="195"/>
-      <c r="AZ2" s="195"/>
-      <c r="BA2" s="195"/>
-      <c r="BB2" s="195"/>
-      <c r="BC2" s="195"/>
-      <c r="BD2" s="195"/>
-      <c r="BE2" s="195"/>
-      <c r="BF2" s="195"/>
-      <c r="BG2" s="195"/>
-      <c r="BH2" s="195"/>
-      <c r="BI2" s="195"/>
-      <c r="BJ2" s="195"/>
-      <c r="BK2" s="195"/>
-      <c r="BL2" s="195"/>
-      <c r="BM2" s="195"/>
-      <c r="BN2" s="195"/>
-      <c r="BO2" s="195"/>
-      <c r="BP2" s="195"/>
-      <c r="BQ2" s="195"/>
-      <c r="BR2" s="195"/>
-      <c r="BS2" s="195"/>
-      <c r="BT2" s="195"/>
-      <c r="BU2" s="195"/>
-      <c r="BV2" s="195"/>
-      <c r="BW2" s="196"/>
+        <v>設備マスタメンテ</v>
+      </c>
+      <c r="AU2" s="193"/>
+      <c r="AV2" s="193"/>
+      <c r="AW2" s="193"/>
+      <c r="AX2" s="193"/>
+      <c r="AY2" s="193"/>
+      <c r="AZ2" s="193"/>
+      <c r="BA2" s="193"/>
+      <c r="BB2" s="193"/>
+      <c r="BC2" s="193"/>
+      <c r="BD2" s="193"/>
+      <c r="BE2" s="193"/>
+      <c r="BF2" s="193"/>
+      <c r="BG2" s="193"/>
+      <c r="BH2" s="193"/>
+      <c r="BI2" s="193"/>
+      <c r="BJ2" s="193"/>
+      <c r="BK2" s="193"/>
+      <c r="BL2" s="193"/>
+      <c r="BM2" s="193"/>
+      <c r="BN2" s="193"/>
+      <c r="BO2" s="193"/>
+      <c r="BP2" s="193"/>
+      <c r="BQ2" s="193"/>
+      <c r="BR2" s="193"/>
+      <c r="BS2" s="193"/>
+      <c r="BT2" s="193"/>
+      <c r="BU2" s="193"/>
+      <c r="BV2" s="193"/>
+      <c r="BW2" s="194"/>
       <c r="BX2" s="34" t="s">
         <v>24</v>
       </c>
@@ -10051,17 +10015,17 @@
       <c r="CA2" s="35"/>
       <c r="CB2" s="35"/>
       <c r="CC2" s="36"/>
-      <c r="CD2" s="193"/>
-      <c r="CE2" s="188"/>
-      <c r="CF2" s="188"/>
-      <c r="CG2" s="188"/>
-      <c r="CH2" s="188"/>
-      <c r="CI2" s="188"/>
-      <c r="CJ2" s="188"/>
-      <c r="CK2" s="188"/>
-      <c r="CL2" s="188"/>
-      <c r="CM2" s="188"/>
-      <c r="CN2" s="189"/>
+      <c r="CD2" s="191"/>
+      <c r="CE2" s="186"/>
+      <c r="CF2" s="186"/>
+      <c r="CG2" s="186"/>
+      <c r="CH2" s="186"/>
+      <c r="CI2" s="186"/>
+      <c r="CJ2" s="186"/>
+      <c r="CK2" s="186"/>
+      <c r="CL2" s="186"/>
+      <c r="CM2" s="186"/>
+      <c r="CN2" s="187"/>
       <c r="CO2" s="34" t="s">
         <v>26</v>
       </c>
@@ -10070,20 +10034,20 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="179"/>
-      <c r="CV2" s="188"/>
-      <c r="CW2" s="188"/>
-      <c r="CX2" s="188"/>
-      <c r="CY2" s="188"/>
-      <c r="CZ2" s="188"/>
-      <c r="DA2" s="188"/>
-      <c r="DB2" s="188"/>
-      <c r="DC2" s="188"/>
-      <c r="DD2" s="188"/>
-      <c r="DE2" s="188"/>
-      <c r="DF2" s="188"/>
-      <c r="DG2" s="188"/>
-      <c r="DH2" s="189"/>
+      <c r="CU2" s="177"/>
+      <c r="CV2" s="186"/>
+      <c r="CW2" s="186"/>
+      <c r="CX2" s="186"/>
+      <c r="CY2" s="186"/>
+      <c r="CZ2" s="186"/>
+      <c r="DA2" s="186"/>
+      <c r="DB2" s="186"/>
+      <c r="DC2" s="186"/>
+      <c r="DD2" s="186"/>
+      <c r="DE2" s="186"/>
+      <c r="DF2" s="186"/>
+      <c r="DG2" s="186"/>
+      <c r="DH2" s="187"/>
     </row>
     <row r="3" spans="1:112" x14ac:dyDescent="0.25">
       <c r="AU3" s="56"/>
@@ -10132,7 +10096,7 @@
     </row>
     <row r="4" spans="1:112" s="33" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="28"/>
     </row>
@@ -10140,7 +10104,7 @@
       <c r="B5" s="32"/>
     </row>
     <row r="6" spans="1:112" x14ac:dyDescent="0.25">
-      <c r="C6" s="130"/>
+      <c r="C6" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10172,7 +10136,7 @@
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="topRight" activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10250,7 +10214,7 @@
       </c>
       <c r="G2" s="37" t="str">
         <f>'１．機能概要'!W2</f>
-        <v>設備マスタ</v>
+        <v>設備マスタメンテ</v>
       </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
@@ -10274,7 +10238,7 @@
     </row>
     <row r="4" spans="1:18" s="33" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -10282,78 +10246,78 @@
     <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A5" s="30"/>
       <c r="B5" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="169" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="169" t="s">
+      <c r="D6" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="167" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="169" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="169" t="s">
+      <c r="G6" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="169" t="s">
+      <c r="H6" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="199" t="s">
+      <c r="I6" s="197" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="199" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="169" t="s">
+      <c r="K6" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="169" t="s">
+      <c r="L6" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="169" t="s">
+      <c r="M6" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O6" s="72"/>
       <c r="P6" s="72"/>
-      <c r="Q6" s="199" t="s">
+      <c r="Q6" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
       <c r="N7" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O7" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="P7" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q7" s="199"/>
+      <c r="Q7" s="197"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -10362,16 +10326,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>35</v>
@@ -10392,16 +10356,16 @@
         <v>34</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -10411,16 +10375,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>35</v>
@@ -10450,7 +10414,7 @@
         <v>34</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -10460,16 +10424,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>35</v>
@@ -10499,7 +10463,7 @@
         <v>34</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -10509,16 +10473,16 @@
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>35</v>
@@ -10548,7 +10512,7 @@
         <v>34</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -10558,16 +10522,16 @@
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E12" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="G12" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>35</v>
@@ -10588,16 +10552,16 @@
         <v>34</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
@@ -10607,16 +10571,16 @@
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>35</v>
@@ -10646,7 +10610,7 @@
         <v>34</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
@@ -10656,16 +10620,16 @@
         <v>7</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>35</v>
@@ -10686,16 +10650,16 @@
         <v>34</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
@@ -10705,78 +10669,78 @@
     <row r="16" spans="1:18" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
       <c r="B16" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="169" t="s">
+      <c r="C17" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="169" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="169" t="s">
+      <c r="D17" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="167" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="169" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="169" t="s">
+      <c r="G17" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="169" t="s">
+      <c r="H17" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="197" t="s">
+      <c r="I17" s="195" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="199" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="169" t="s">
+      <c r="K17" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="169" t="s">
+      <c r="L17" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="169" t="s">
+      <c r="M17" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
-      <c r="Q17" s="197" t="s">
+      <c r="Q17" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="167"/>
+      <c r="L18" s="167"/>
+      <c r="M18" s="167"/>
       <c r="N18" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O18" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="P18" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18" s="198"/>
+      <c r="Q18" s="196"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
@@ -10785,43 +10749,43 @@
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>34</v>
@@ -10834,84 +10798,84 @@
     <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="64"/>
-      <c r="C22" s="169" t="s">
+      <c r="C22" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="169" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="169" t="s">
+      <c r="D22" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="167" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="169" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="169" t="s">
+      <c r="G22" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="169" t="s">
+      <c r="H22" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="199" t="s">
+      <c r="I22" s="197" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="199" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="169" t="s">
+      <c r="K22" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="169" t="s">
+      <c r="L22" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="169" t="s">
+      <c r="M22" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O22" s="72"/>
       <c r="P22" s="72"/>
-      <c r="Q22" s="199" t="s">
+      <c r="Q22" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="64"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="169"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
       <c r="N23" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O23" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="P23" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q23" s="199"/>
+      <c r="Q23" s="197"/>
     </row>
     <row r="24" spans="1:17" s="51" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
       <c r="B24" s="65"/>
       <c r="C24" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
@@ -10935,21 +10899,21 @@
         <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="45" t="s">
-        <v>51</v>
-      </c>
       <c r="H25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="129" t="s">
         <v>35</v>
       </c>
       <c r="J25" s="7" t="s">
@@ -10965,7 +10929,7 @@
         <v>34</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>35</v>
@@ -10984,21 +10948,21 @@
         <v>2</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="131" t="s">
+      <c r="I26" s="129" t="s">
         <v>35</v>
       </c>
       <c r="J26" s="7" t="s">
@@ -11008,7 +10972,7 @@
         <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>34</v>
@@ -11033,21 +10997,21 @@
         <v>3</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="129" t="s">
         <v>35</v>
       </c>
       <c r="J27" s="7" t="s">
@@ -11069,7 +11033,7 @@
         <v>35</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>35</v>
@@ -11082,21 +11046,21 @@
         <v>4</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G28" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="131">
+        <v>47</v>
+      </c>
+      <c r="I28" s="129">
         <v>20</v>
       </c>
       <c r="J28" s="7" t="s">
@@ -11109,7 +11073,7 @@
         <v>35</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>34</v>
@@ -11118,10 +11082,10 @@
         <v>35</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11131,21 +11095,21 @@
         <v>5</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="129" t="s">
         <v>35</v>
       </c>
       <c r="J29" s="7" t="s">
@@ -11158,7 +11122,7 @@
         <v>35</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>34</v>
@@ -11167,10 +11131,10 @@
         <v>35</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11180,21 +11144,21 @@
         <v>6</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="129" t="s">
         <v>35</v>
       </c>
       <c r="J30" s="7" t="s">
@@ -11216,7 +11180,7 @@
         <v>35</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>35</v>
@@ -11229,21 +11193,21 @@
         <v>7</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I31" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="129" t="s">
         <v>35</v>
       </c>
       <c r="J31" s="7" t="s">
@@ -11265,7 +11229,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>35</v>
@@ -11278,21 +11242,21 @@
         <v>8</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="129" t="s">
         <v>35</v>
       </c>
       <c r="J32" s="7" t="s">
@@ -11314,7 +11278,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -11327,21 +11291,21 @@
         <v>9</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I33" s="131">
+        <v>47</v>
+      </c>
+      <c r="I33" s="129">
         <v>50</v>
       </c>
       <c r="J33" s="7" t="s">
@@ -11363,7 +11327,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>35</v>
@@ -11391,84 +11355,84 @@
     <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="64"/>
-      <c r="C36" s="169" t="s">
+      <c r="C36" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="169" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="169" t="s">
+      <c r="D36" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="167" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="169" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="169" t="s">
+      <c r="G36" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="169" t="s">
+      <c r="H36" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="199" t="s">
+      <c r="I36" s="197" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="J36" s="199" t="s">
-        <v>46</v>
-      </c>
-      <c r="K36" s="169" t="s">
+      <c r="K36" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L36" s="169" t="s">
+      <c r="L36" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="169" t="s">
+      <c r="M36" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N36" s="72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O36" s="72"/>
       <c r="P36" s="72"/>
-      <c r="Q36" s="199" t="s">
+      <c r="Q36" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="64"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="199"/>
-      <c r="J37" s="199"/>
-      <c r="K37" s="169"/>
-      <c r="L37" s="169"/>
-      <c r="M37" s="169"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="167"/>
+      <c r="L37" s="167"/>
+      <c r="M37" s="167"/>
       <c r="N37" s="96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O37" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="P37" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="96" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q37" s="199"/>
+      <c r="Q37" s="197"/>
     </row>
     <row r="38" spans="1:17" s="51" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="57"/>
       <c r="B38" s="65"/>
       <c r="C38" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="47"/>
       <c r="E38" s="47"/>
@@ -11492,21 +11456,21 @@
         <v>1</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G39" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I39" s="131">
+      <c r="I39" s="129">
         <v>4</v>
       </c>
       <c r="J39" s="7" t="s">
@@ -11519,7 +11483,7 @@
         <v>35</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N39" s="8" t="s">
         <v>34</v>
@@ -11531,7 +11495,7 @@
         <v>34</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -11541,21 +11505,21 @@
         <v>2</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G40" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I40" s="131">
+      <c r="I40" s="129">
         <v>20</v>
       </c>
       <c r="J40" s="7" t="s">
@@ -11568,7 +11532,7 @@
         <v>35</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N40" s="8" t="s">
         <v>34</v>
@@ -11580,7 +11544,7 @@
         <v>34</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -11590,21 +11554,21 @@
         <v>3</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I41" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="129" t="s">
         <v>35</v>
       </c>
       <c r="J41" s="7" t="s">
@@ -11617,19 +11581,19 @@
         <v>35</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11639,21 +11603,21 @@
         <v>4</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I42" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" s="129" t="s">
         <v>35</v>
       </c>
       <c r="J42" s="7" t="s">
@@ -11669,13 +11633,13 @@
         <v>35</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Q42" s="8" t="s">
         <v>34</v>
@@ -11688,21 +11652,21 @@
         <v>5</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I43" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="129" t="s">
         <v>35</v>
       </c>
       <c r="J43" s="7" t="s">
@@ -11718,13 +11682,13 @@
         <v>35</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>34</v>
@@ -11737,21 +11701,21 @@
         <v>6</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G44" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I44" s="131">
+      <c r="I44" s="129">
         <v>8</v>
       </c>
       <c r="J44" s="7" t="s">
@@ -11764,7 +11728,7 @@
         <v>35</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>34</v>
@@ -11786,21 +11750,21 @@
         <v>7</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I45" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" s="129" t="s">
         <v>35</v>
       </c>
       <c r="J45" s="7" t="s">
@@ -11816,7 +11780,7 @@
         <v>35</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>34</v>
@@ -11835,21 +11799,21 @@
         <v>8</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G46" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H46" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I46" s="131">
+      <c r="I46" s="129">
         <v>50</v>
       </c>
       <c r="J46" s="7" t="s">
@@ -11862,7 +11826,7 @@
         <v>35</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="7" t="s">
@@ -11952,9 +11916,9 @@
   <dimension ref="A1:AZ183"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD17"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12007,14 +11971,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="176">
+      <c r="AI1" s="174">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
-      <c r="AJ1" s="195"/>
-      <c r="AK1" s="195"/>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="196"/>
+      <c r="AJ1" s="193"/>
+      <c r="AK1" s="193"/>
+      <c r="AL1" s="193"/>
+      <c r="AM1" s="194"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -12023,16 +11987,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="179" t="str">
+      <c r="AT1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="189"/>
+      <c r="AU1" s="186"/>
+      <c r="AV1" s="186"/>
+      <c r="AW1" s="186"/>
+      <c r="AX1" s="186"/>
+      <c r="AY1" s="186"/>
+      <c r="AZ1" s="187"/>
     </row>
     <row r="2" spans="1:52" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -12060,32 +12024,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="194" t="str">
+      <c r="S2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
-        <v>設備マスタ</v>
-      </c>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="195"/>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="196"/>
+        <v>設備マスタメンテ</v>
+      </c>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193"/>
+      <c r="AD2" s="194"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="193"/>
-      <c r="AJ2" s="188"/>
-      <c r="AK2" s="188"/>
-      <c r="AL2" s="188"/>
-      <c r="AM2" s="189"/>
+      <c r="AI2" s="191"/>
+      <c r="AJ2" s="186"/>
+      <c r="AK2" s="186"/>
+      <c r="AL2" s="186"/>
+      <c r="AM2" s="187"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -12094,13 +12058,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="179"/>
-      <c r="AU2" s="188"/>
-      <c r="AV2" s="188"/>
-      <c r="AW2" s="188"/>
-      <c r="AX2" s="188"/>
-      <c r="AY2" s="188"/>
-      <c r="AZ2" s="189"/>
+      <c r="AT2" s="177"/>
+      <c r="AU2" s="186"/>
+      <c r="AV2" s="186"/>
+      <c r="AW2" s="186"/>
+      <c r="AX2" s="186"/>
+      <c r="AY2" s="186"/>
+      <c r="AZ2" s="187"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="63"/>
@@ -12212,7 +12176,7 @@
     </row>
     <row r="5" spans="1:52" s="17" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:52" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -12221,23 +12185,23 @@
     </row>
     <row r="7" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B7" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
       <c r="G7" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
       <c r="L7" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
@@ -12281,20 +12245,20 @@
         <v>1</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
       <c r="G8" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="23"/>
       <c r="L8" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -12345,7 +12309,7 @@
       <c r="J9" s="24"/>
       <c r="K9" s="76"/>
       <c r="L9" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
@@ -12438,20 +12402,20 @@
         <v>2</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
       <c r="G11" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="23"/>
       <c r="L11" s="22" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
@@ -12497,7 +12461,7 @@
       <c r="E12" s="24"/>
       <c r="F12" s="76"/>
       <c r="G12" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
@@ -12553,31 +12517,31 @@
       <c r="J13" s="24"/>
       <c r="K13" s="76"/>
       <c r="L13" s="24"/>
-      <c r="M13" s="132" t="s">
-        <v>244</v>
-      </c>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="132"/>
-      <c r="Z13" s="132"/>
-      <c r="AA13" s="132"/>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="132"/>
-      <c r="AD13" s="132"/>
-      <c r="AE13" s="132"/>
-      <c r="AF13" s="132"/>
-      <c r="AG13" s="132"/>
-      <c r="AH13" s="132"/>
-      <c r="AI13" s="132"/>
+      <c r="M13" s="130" t="s">
+        <v>238</v>
+      </c>
+      <c r="N13" s="130"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="130"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="130"/>
+      <c r="W13" s="130"/>
+      <c r="X13" s="130"/>
+      <c r="Y13" s="130"/>
+      <c r="Z13" s="130"/>
+      <c r="AA13" s="130"/>
+      <c r="AB13" s="130"/>
+      <c r="AC13" s="130"/>
+      <c r="AD13" s="130"/>
+      <c r="AE13" s="130"/>
+      <c r="AF13" s="130"/>
+      <c r="AG13" s="130"/>
+      <c r="AH13" s="130"/>
+      <c r="AI13" s="130"/>
       <c r="AJ13" s="24"/>
       <c r="AK13" s="24"/>
       <c r="AL13" s="24"/>
@@ -12604,30 +12568,30 @@
       <c r="J14" s="24"/>
       <c r="K14" s="76"/>
       <c r="L14" s="24"/>
-      <c r="N14" s="132" t="s">
-        <v>249</v>
-      </c>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="132"/>
-      <c r="AB14" s="132"/>
-      <c r="AC14" s="132"/>
-      <c r="AD14" s="132"/>
-      <c r="AE14" s="132"/>
-      <c r="AF14" s="132"/>
-      <c r="AG14" s="132"/>
-      <c r="AH14" s="132"/>
-      <c r="AI14" s="132"/>
+      <c r="N14" s="130" t="s">
+        <v>243</v>
+      </c>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="130"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="130"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="130"/>
+      <c r="Y14" s="130"/>
+      <c r="Z14" s="130"/>
+      <c r="AA14" s="130"/>
+      <c r="AB14" s="130"/>
+      <c r="AC14" s="130"/>
+      <c r="AD14" s="130"/>
+      <c r="AE14" s="130"/>
+      <c r="AF14" s="130"/>
+      <c r="AG14" s="130"/>
+      <c r="AH14" s="130"/>
+      <c r="AI14" s="130"/>
       <c r="AJ14" s="24"/>
       <c r="AK14" s="24"/>
       <c r="AL14" s="24"/>
@@ -12654,29 +12618,29 @@
       <c r="J15" s="24"/>
       <c r="K15" s="76"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="132"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
-      <c r="Z15" s="132"/>
-      <c r="AA15" s="132"/>
-      <c r="AB15" s="132"/>
-      <c r="AC15" s="132"/>
-      <c r="AD15" s="132"/>
-      <c r="AE15" s="132"/>
-      <c r="AF15" s="132"/>
-      <c r="AG15" s="132"/>
-      <c r="AH15" s="132"/>
-      <c r="AI15" s="132"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="130"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="130"/>
+      <c r="W15" s="130"/>
+      <c r="X15" s="130"/>
+      <c r="Y15" s="130"/>
+      <c r="Z15" s="130"/>
+      <c r="AA15" s="130"/>
+      <c r="AB15" s="130"/>
+      <c r="AC15" s="130"/>
+      <c r="AD15" s="130"/>
+      <c r="AE15" s="130"/>
+      <c r="AF15" s="130"/>
+      <c r="AG15" s="130"/>
+      <c r="AH15" s="130"/>
+      <c r="AI15" s="130"/>
       <c r="AJ15" s="24"/>
       <c r="AK15" s="24"/>
       <c r="AL15" s="24"/>
@@ -12703,31 +12667,31 @@
       <c r="J16" s="24"/>
       <c r="K16" s="76"/>
       <c r="L16" s="24"/>
-      <c r="M16" s="132" t="s">
-        <v>245</v>
-      </c>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="132"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="132"/>
-      <c r="Z16" s="132"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="132"/>
-      <c r="AC16" s="132"/>
-      <c r="AD16" s="132"/>
-      <c r="AE16" s="132"/>
-      <c r="AF16" s="132"/>
-      <c r="AG16" s="132"/>
-      <c r="AH16" s="132"/>
-      <c r="AI16" s="132"/>
+      <c r="M16" s="130" t="s">
+        <v>239</v>
+      </c>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="130"/>
+      <c r="AA16" s="130"/>
+      <c r="AB16" s="130"/>
+      <c r="AC16" s="130"/>
+      <c r="AD16" s="130"/>
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="130"/>
+      <c r="AH16" s="130"/>
+      <c r="AI16" s="130"/>
       <c r="AJ16" s="24"/>
       <c r="AK16" s="24"/>
       <c r="AL16" s="24"/>
@@ -12754,32 +12718,32 @@
       <c r="J17" s="24"/>
       <c r="K17" s="76"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132" t="s">
-        <v>164</v>
-      </c>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="X17" s="132" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y17" s="132" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="132"/>
-      <c r="AB17" s="132"/>
-      <c r="AG17" s="132" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH17" s="132"/>
-      <c r="AI17" s="132"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="130" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" s="130"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="130"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="130"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
+      <c r="X17" s="130" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y17" s="130" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z17" s="130"/>
+      <c r="AA17" s="130"/>
+      <c r="AB17" s="130"/>
+      <c r="AG17" s="130" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH17" s="130"/>
+      <c r="AI17" s="130"/>
       <c r="AJ17" s="24"/>
       <c r="AK17" s="24"/>
       <c r="AL17" s="24"/>
@@ -12806,7 +12770,7 @@
       <c r="J18" s="24"/>
       <c r="K18" s="76"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="132"/>
+      <c r="M18" s="130"/>
       <c r="AJ18" s="24"/>
       <c r="AK18" s="24"/>
       <c r="AL18" s="24"/>
@@ -12833,8 +12797,8 @@
       <c r="J19" s="24"/>
       <c r="K19" s="76"/>
       <c r="L19" s="24"/>
-      <c r="M19" s="132" t="s">
-        <v>103</v>
+      <c r="M19" s="130" t="s">
+        <v>102</v>
       </c>
       <c r="AJ19" s="24"/>
       <c r="AK19" s="24"/>
@@ -12863,7 +12827,7 @@
       <c r="K20" s="76"/>
       <c r="L20" s="24"/>
       <c r="N20" s="17" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AJ20" s="24"/>
       <c r="AK20" s="24"/>
@@ -12893,7 +12857,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -12984,20 +12948,20 @@
         <v>3</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="23"/>
       <c r="G23" s="21" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="23"/>
       <c r="L23" s="75" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
@@ -13043,14 +13007,14 @@
       <c r="E24" s="24"/>
       <c r="F24" s="76"/>
       <c r="G24" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
       <c r="K24" s="76"/>
       <c r="L24" s="75" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
@@ -13150,7 +13114,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="76"/>
       <c r="L26" s="75" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -13201,7 +13165,7 @@
       <c r="J27" s="24"/>
       <c r="K27" s="76"/>
       <c r="L27" s="75" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
@@ -13301,7 +13265,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="76"/>
       <c r="L29" s="75" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
@@ -13394,20 +13358,20 @@
         <v>4</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="23"/>
       <c r="G31" s="21" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="23"/>
       <c r="L31" s="21" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -13453,14 +13417,14 @@
       <c r="E32" s="24"/>
       <c r="F32" s="76"/>
       <c r="G32" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
       <c r="K32" s="76"/>
       <c r="L32" s="75" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
@@ -13560,7 +13524,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="76"/>
       <c r="L34" s="75" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
@@ -13653,20 +13617,20 @@
         <v>5</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="23"/>
       <c r="G36" s="21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
       <c r="K36" s="23"/>
       <c r="L36" s="22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -13712,7 +13676,7 @@
       <c r="E37" s="24"/>
       <c r="F37" s="76"/>
       <c r="G37" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -13810,20 +13774,20 @@
         <v>6</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
       <c r="F39" s="23"/>
       <c r="G39" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="23"/>
       <c r="L39" s="22" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -13869,7 +13833,7 @@
       <c r="E40" s="24"/>
       <c r="F40" s="76"/>
       <c r="G40" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -13967,20 +13931,20 @@
         <v>7</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="23"/>
       <c r="G42" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="23"/>
       <c r="L42" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -14026,7 +13990,7 @@
       <c r="E43" s="24"/>
       <c r="F43" s="76"/>
       <c r="G43" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
@@ -14124,20 +14088,20 @@
         <v>8</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="23"/>
       <c r="G45" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="23"/>
       <c r="L45" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -14183,14 +14147,14 @@
       <c r="E46" s="24"/>
       <c r="F46" s="76"/>
       <c r="G46" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="76"/>
       <c r="L46" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M46" s="24"/>
       <c r="N46" s="24"/>
@@ -21543,14 +21507,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="176">
+      <c r="AI1" s="174">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
-      <c r="AJ1" s="195"/>
-      <c r="AK1" s="195"/>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="196"/>
+      <c r="AJ1" s="193"/>
+      <c r="AK1" s="193"/>
+      <c r="AL1" s="193"/>
+      <c r="AM1" s="194"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -21559,16 +21523,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="179" t="str">
+      <c r="AT1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="189"/>
+      <c r="AU1" s="186"/>
+      <c r="AV1" s="186"/>
+      <c r="AW1" s="186"/>
+      <c r="AX1" s="186"/>
+      <c r="AY1" s="186"/>
+      <c r="AZ1" s="187"/>
     </row>
     <row r="2" spans="1:52" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -21596,32 +21560,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="194" t="str">
+      <c r="S2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
-        <v>設備マスタ</v>
-      </c>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="195"/>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="196"/>
+        <v>設備マスタメンテ</v>
+      </c>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193"/>
+      <c r="AD2" s="194"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="193"/>
-      <c r="AJ2" s="188"/>
-      <c r="AK2" s="188"/>
-      <c r="AL2" s="188"/>
-      <c r="AM2" s="189"/>
+      <c r="AI2" s="191"/>
+      <c r="AJ2" s="186"/>
+      <c r="AK2" s="186"/>
+      <c r="AL2" s="186"/>
+      <c r="AM2" s="187"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -21630,13 +21594,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="179"/>
-      <c r="AU2" s="188"/>
-      <c r="AV2" s="188"/>
-      <c r="AW2" s="188"/>
-      <c r="AX2" s="188"/>
-      <c r="AY2" s="188"/>
-      <c r="AZ2" s="189"/>
+      <c r="AT2" s="177"/>
+      <c r="AU2" s="186"/>
+      <c r="AV2" s="186"/>
+      <c r="AW2" s="186"/>
+      <c r="AX2" s="186"/>
+      <c r="AY2" s="186"/>
+      <c r="AZ2" s="187"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="63"/>
@@ -21748,7 +21712,7 @@
     </row>
     <row r="5" spans="1:52" ht="21" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="33"/>
@@ -21804,10 +21768,10 @@
     </row>
     <row r="6" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B6" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -21816,7 +21780,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="20"/>
       <c r="J6" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
@@ -21825,7 +21789,7 @@
       <c r="O6" s="19"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R6" s="19"/>
       <c r="S6" s="20"/>
@@ -21842,7 +21806,7 @@
       <c r="AB6" s="19"/>
       <c r="AC6" s="19"/>
       <c r="AD6" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
@@ -21865,11 +21829,11 @@
       <c r="AW6" s="20"/>
     </row>
     <row r="7" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="200">
+      <c r="B7" s="198">
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -21919,7 +21883,7 @@
       <c r="AW7" s="23"/>
     </row>
     <row r="8" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="201"/>
+      <c r="B8" s="199"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -21969,11 +21933,11 @@
       <c r="AW8" s="27"/>
     </row>
     <row r="9" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="200">
+      <c r="B9" s="198">
         <v>2</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="78"/>
       <c r="E9" s="78"/>
@@ -21989,7 +21953,7 @@
       <c r="O9" s="22"/>
       <c r="P9" s="23"/>
       <c r="Q9" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R9" s="22"/>
       <c r="S9" s="23"/>
@@ -22004,7 +21968,7 @@
       <c r="AB9" s="22"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22"/>
@@ -22027,7 +21991,7 @@
       <c r="AW9" s="23"/>
     </row>
     <row r="10" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="201"/>
+      <c r="B10" s="199"/>
       <c r="C10" s="80"/>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
@@ -22077,11 +22041,11 @@
       <c r="AW10" s="27"/>
     </row>
     <row r="11" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="200">
+      <c r="B11" s="198">
         <v>3</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -22090,7 +22054,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="23"/>
       <c r="J11" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
@@ -22099,12 +22063,12 @@
       <c r="O11" s="22"/>
       <c r="P11" s="23"/>
       <c r="Q11" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R11" s="22"/>
       <c r="S11" s="23"/>
       <c r="T11" s="22" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
@@ -22116,7 +22080,7 @@
       <c r="AB11" s="22"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE11" s="22"/>
       <c r="AF11" s="22"/>
@@ -22139,7 +22103,7 @@
       <c r="AW11" s="23"/>
     </row>
     <row r="12" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="201"/>
+      <c r="B12" s="199"/>
       <c r="C12" s="75"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -22189,7 +22153,7 @@
       <c r="AW12" s="27"/>
     </row>
     <row r="13" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="200">
+      <c r="B13" s="198">
         <v>4</v>
       </c>
       <c r="C13" s="75"/>
@@ -22200,7 +22164,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="76"/>
       <c r="J13" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
@@ -22209,12 +22173,12 @@
       <c r="O13" s="22"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R13" s="22"/>
       <c r="S13" s="23"/>
       <c r="T13" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
@@ -22225,19 +22189,19 @@
       <c r="AA13" s="22"/>
       <c r="AB13" s="22"/>
       <c r="AC13" s="22"/>
-      <c r="AD13" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE13" s="111"/>
-      <c r="AF13" s="111"/>
-      <c r="AG13" s="111"/>
-      <c r="AH13" s="111"/>
-      <c r="AI13" s="111"/>
-      <c r="AJ13" s="111"/>
-      <c r="AK13" s="111"/>
-      <c r="AL13" s="111"/>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="22"/>
+      <c r="AD13" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="78"/>
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="78"/>
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="78"/>
+      <c r="AM13" s="78"/>
+      <c r="AN13" s="78"/>
       <c r="AO13" s="22"/>
       <c r="AP13" s="22"/>
       <c r="AQ13" s="22"/>
@@ -22249,7 +22213,7 @@
       <c r="AW13" s="23"/>
     </row>
     <row r="14" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="201"/>
+      <c r="B14" s="199"/>
       <c r="C14" s="75"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -22277,17 +22241,17 @@
       <c r="AA14" s="26"/>
       <c r="AB14" s="26"/>
       <c r="AC14" s="26"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="26"/>
-      <c r="AM14" s="26"/>
-      <c r="AN14" s="26"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="81"/>
+      <c r="AK14" s="81"/>
+      <c r="AL14" s="81"/>
+      <c r="AM14" s="81"/>
+      <c r="AN14" s="81"/>
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
@@ -22299,7 +22263,7 @@
       <c r="AW14" s="27"/>
     </row>
     <row r="15" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="200">
+      <c r="B15" s="198">
         <v>5</v>
       </c>
       <c r="C15" s="75"/>
@@ -22317,35 +22281,33 @@
       <c r="O15" s="22"/>
       <c r="P15" s="23"/>
       <c r="Q15" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R15" s="22"/>
       <c r="S15" s="23"/>
-      <c r="T15" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="U15" s="120"/>
-      <c r="V15" s="120"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="120"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="120"/>
-      <c r="AA15" s="120"/>
-      <c r="AB15" s="120"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="110" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE15" s="111"/>
-      <c r="AF15" s="111"/>
-      <c r="AG15" s="111"/>
-      <c r="AH15" s="111"/>
-      <c r="AI15" s="111"/>
-      <c r="AJ15" s="111"/>
-      <c r="AK15" s="111"/>
-      <c r="AL15" s="111"/>
-      <c r="AM15" s="111"/>
-      <c r="AN15" s="22"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="118"/>
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="119"/>
+      <c r="AD15" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE15" s="78"/>
+      <c r="AF15" s="78"/>
+      <c r="AG15" s="78"/>
+      <c r="AH15" s="78"/>
+      <c r="AI15" s="78"/>
+      <c r="AJ15" s="78"/>
+      <c r="AK15" s="78"/>
+      <c r="AL15" s="78"/>
+      <c r="AM15" s="78"/>
+      <c r="AN15" s="78"/>
       <c r="AO15" s="22"/>
       <c r="AP15" s="22"/>
       <c r="AQ15" s="22"/>
@@ -22357,7 +22319,7 @@
       <c r="AW15" s="23"/>
     </row>
     <row r="16" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="201"/>
+      <c r="B16" s="199"/>
       <c r="C16" s="75"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -22375,27 +22337,27 @@
       <c r="Q16" s="25"/>
       <c r="R16" s="26"/>
       <c r="S16" s="27"/>
-      <c r="T16" s="122"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="123"/>
-      <c r="W16" s="123"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="123"/>
-      <c r="Z16" s="123"/>
-      <c r="AA16" s="123"/>
-      <c r="AB16" s="123"/>
-      <c r="AC16" s="124"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="26"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="26"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="121"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="122"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="81"/>
+      <c r="AH16" s="81"/>
+      <c r="AI16" s="81"/>
+      <c r="AJ16" s="81"/>
+      <c r="AK16" s="81"/>
+      <c r="AL16" s="81"/>
+      <c r="AM16" s="81"/>
+      <c r="AN16" s="81"/>
       <c r="AO16" s="26"/>
       <c r="AP16" s="26"/>
       <c r="AQ16" s="26"/>
@@ -22407,7 +22369,7 @@
       <c r="AW16" s="27"/>
     </row>
     <row r="17" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="200">
+      <c r="B17" s="198">
         <v>6</v>
       </c>
       <c r="C17" s="75"/>
@@ -22418,7 +22380,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="76"/>
       <c r="J17" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
@@ -22427,35 +22389,35 @@
       <c r="O17" s="22"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="208" t="s">
-        <v>136</v>
-      </c>
-      <c r="U17" s="209"/>
-      <c r="V17" s="209"/>
-      <c r="W17" s="209"/>
-      <c r="X17" s="209"/>
-      <c r="Y17" s="209"/>
-      <c r="Z17" s="209"/>
-      <c r="AA17" s="209"/>
-      <c r="AB17" s="209"/>
-      <c r="AC17" s="210"/>
-      <c r="AD17" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE17" s="111"/>
-      <c r="AF17" s="111"/>
-      <c r="AG17" s="111"/>
-      <c r="AH17" s="111"/>
-      <c r="AI17" s="111"/>
-      <c r="AJ17" s="111"/>
-      <c r="AK17" s="111"/>
-      <c r="AL17" s="111"/>
-      <c r="AM17" s="111"/>
-      <c r="AN17" s="22"/>
+      <c r="T17" s="206" t="s">
+        <v>135</v>
+      </c>
+      <c r="U17" s="207"/>
+      <c r="V17" s="207"/>
+      <c r="W17" s="207"/>
+      <c r="X17" s="207"/>
+      <c r="Y17" s="207"/>
+      <c r="Z17" s="207"/>
+      <c r="AA17" s="207"/>
+      <c r="AB17" s="207"/>
+      <c r="AC17" s="208"/>
+      <c r="AD17" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="78"/>
+      <c r="AH17" s="78"/>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="78"/>
+      <c r="AL17" s="78"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="78"/>
       <c r="AO17" s="22"/>
       <c r="AP17" s="22"/>
       <c r="AQ17" s="22"/>
@@ -22467,7 +22429,7 @@
       <c r="AW17" s="23"/>
     </row>
     <row r="18" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="201"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="75"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -22485,27 +22447,27 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="26"/>
       <c r="S18" s="27"/>
-      <c r="T18" s="211"/>
-      <c r="U18" s="212"/>
-      <c r="V18" s="212"/>
-      <c r="W18" s="212"/>
-      <c r="X18" s="212"/>
-      <c r="Y18" s="212"/>
-      <c r="Z18" s="212"/>
-      <c r="AA18" s="212"/>
-      <c r="AB18" s="212"/>
-      <c r="AC18" s="213"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="26"/>
+      <c r="T18" s="209"/>
+      <c r="U18" s="210"/>
+      <c r="V18" s="210"/>
+      <c r="W18" s="210"/>
+      <c r="X18" s="210"/>
+      <c r="Y18" s="210"/>
+      <c r="Z18" s="210"/>
+      <c r="AA18" s="210"/>
+      <c r="AB18" s="210"/>
+      <c r="AC18" s="211"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="81"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="81"/>
+      <c r="AH18" s="81"/>
+      <c r="AI18" s="81"/>
+      <c r="AJ18" s="81"/>
+      <c r="AK18" s="81"/>
+      <c r="AL18" s="81"/>
+      <c r="AM18" s="81"/>
+      <c r="AN18" s="81"/>
       <c r="AO18" s="26"/>
       <c r="AP18" s="26"/>
       <c r="AQ18" s="26"/>
@@ -22517,11 +22479,11 @@
       <c r="AW18" s="27"/>
     </row>
     <row r="19" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B19" s="200">
+      <c r="B19" s="198">
         <v>7</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -22530,7 +22492,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
       <c r="J19" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
@@ -22539,12 +22501,12 @@
       <c r="O19" s="22"/>
       <c r="P19" s="23"/>
       <c r="Q19" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R19" s="22"/>
       <c r="S19" s="23"/>
       <c r="T19" s="22" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="U19" s="22"/>
       <c r="V19" s="22"/>
@@ -22555,19 +22517,19 @@
       <c r="AA19" s="22"/>
       <c r="AB19" s="22"/>
       <c r="AC19" s="22"/>
-      <c r="AD19" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="22"/>
-      <c r="AL19" s="22"/>
-      <c r="AM19" s="22"/>
-      <c r="AN19" s="22"/>
+      <c r="AD19" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="78"/>
+      <c r="AL19" s="78"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="78"/>
       <c r="AO19" s="22"/>
       <c r="AP19" s="22"/>
       <c r="AQ19" s="22"/>
@@ -22579,7 +22541,7 @@
       <c r="AW19" s="23"/>
     </row>
     <row r="20" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="201"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="75"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -22607,17 +22569,17 @@
       <c r="AA20" s="26"/>
       <c r="AB20" s="26"/>
       <c r="AC20" s="26"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="26"/>
-      <c r="AM20" s="26"/>
-      <c r="AN20" s="26"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="81"/>
+      <c r="AH20" s="81"/>
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="81"/>
+      <c r="AK20" s="81"/>
+      <c r="AL20" s="81"/>
+      <c r="AM20" s="81"/>
+      <c r="AN20" s="81"/>
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
@@ -22629,7 +22591,7 @@
       <c r="AW20" s="27"/>
     </row>
     <row r="21" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="200">
+      <c r="B21" s="198">
         <v>8</v>
       </c>
       <c r="C21" s="75"/>
@@ -22640,7 +22602,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="76"/>
       <c r="J21" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -22649,12 +22611,12 @@
       <c r="O21" s="22"/>
       <c r="P21" s="23"/>
       <c r="Q21" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R21" s="22"/>
       <c r="S21" s="23"/>
       <c r="T21" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U21" s="22"/>
       <c r="V21" s="22"/>
@@ -22665,19 +22627,19 @@
       <c r="AA21" s="22"/>
       <c r="AB21" s="22"/>
       <c r="AC21" s="22"/>
-      <c r="AD21" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE21" s="111"/>
-      <c r="AF21" s="111"/>
-      <c r="AG21" s="111"/>
-      <c r="AH21" s="111"/>
-      <c r="AI21" s="111"/>
-      <c r="AJ21" s="111"/>
-      <c r="AK21" s="111"/>
-      <c r="AL21" s="111"/>
-      <c r="AM21" s="22"/>
-      <c r="AN21" s="22"/>
+      <c r="AD21" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="78"/>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="78"/>
       <c r="AO21" s="22"/>
       <c r="AP21" s="22"/>
       <c r="AQ21" s="22"/>
@@ -22689,7 +22651,7 @@
       <c r="AW21" s="23"/>
     </row>
     <row r="22" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B22" s="201"/>
+      <c r="B22" s="199"/>
       <c r="C22" s="75"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -22717,17 +22679,17 @@
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
       <c r="AC22" s="26"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
+      <c r="AD22" s="80"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="81"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="81"/>
+      <c r="AJ22" s="81"/>
+      <c r="AK22" s="81"/>
+      <c r="AL22" s="81"/>
+      <c r="AM22" s="81"/>
+      <c r="AN22" s="81"/>
       <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
@@ -22739,7 +22701,7 @@
       <c r="AW22" s="27"/>
     </row>
     <row r="23" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B23" s="200">
+      <c r="B23" s="198">
         <v>9</v>
       </c>
       <c r="C23" s="75"/>
@@ -22750,7 +22712,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="76"/>
       <c r="J23" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
@@ -22759,35 +22721,35 @@
       <c r="O23" s="22"/>
       <c r="P23" s="23"/>
       <c r="Q23" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R23" s="22"/>
       <c r="S23" s="23"/>
-      <c r="T23" s="208" t="s">
-        <v>141</v>
-      </c>
-      <c r="U23" s="209"/>
-      <c r="V23" s="209"/>
-      <c r="W23" s="209"/>
-      <c r="X23" s="209"/>
-      <c r="Y23" s="209"/>
-      <c r="Z23" s="209"/>
-      <c r="AA23" s="209"/>
-      <c r="AB23" s="209"/>
-      <c r="AC23" s="210"/>
-      <c r="AD23" s="110" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE23" s="111"/>
-      <c r="AF23" s="111"/>
-      <c r="AG23" s="111"/>
-      <c r="AH23" s="111"/>
-      <c r="AI23" s="111"/>
-      <c r="AJ23" s="111"/>
-      <c r="AK23" s="111"/>
-      <c r="AL23" s="111"/>
-      <c r="AM23" s="111"/>
-      <c r="AN23" s="22"/>
+      <c r="T23" s="206" t="s">
+        <v>140</v>
+      </c>
+      <c r="U23" s="207"/>
+      <c r="V23" s="207"/>
+      <c r="W23" s="207"/>
+      <c r="X23" s="207"/>
+      <c r="Y23" s="207"/>
+      <c r="Z23" s="207"/>
+      <c r="AA23" s="207"/>
+      <c r="AB23" s="207"/>
+      <c r="AC23" s="208"/>
+      <c r="AD23" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE23" s="78"/>
+      <c r="AF23" s="78"/>
+      <c r="AG23" s="78"/>
+      <c r="AH23" s="78"/>
+      <c r="AI23" s="78"/>
+      <c r="AJ23" s="78"/>
+      <c r="AK23" s="78"/>
+      <c r="AL23" s="78"/>
+      <c r="AM23" s="78"/>
+      <c r="AN23" s="78"/>
       <c r="AO23" s="22"/>
       <c r="AP23" s="22"/>
       <c r="AQ23" s="22"/>
@@ -22799,7 +22761,7 @@
       <c r="AW23" s="23"/>
     </row>
     <row r="24" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B24" s="201"/>
+      <c r="B24" s="199"/>
       <c r="C24" s="75"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -22817,27 +22779,27 @@
       <c r="Q24" s="25"/>
       <c r="R24" s="26"/>
       <c r="S24" s="27"/>
-      <c r="T24" s="211"/>
-      <c r="U24" s="212"/>
-      <c r="V24" s="212"/>
-      <c r="W24" s="212"/>
-      <c r="X24" s="212"/>
-      <c r="Y24" s="212"/>
-      <c r="Z24" s="212"/>
-      <c r="AA24" s="212"/>
-      <c r="AB24" s="212"/>
-      <c r="AC24" s="213"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="26"/>
-      <c r="AN24" s="26"/>
+      <c r="T24" s="209"/>
+      <c r="U24" s="210"/>
+      <c r="V24" s="210"/>
+      <c r="W24" s="210"/>
+      <c r="X24" s="210"/>
+      <c r="Y24" s="210"/>
+      <c r="Z24" s="210"/>
+      <c r="AA24" s="210"/>
+      <c r="AB24" s="210"/>
+      <c r="AC24" s="211"/>
+      <c r="AD24" s="80"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="81"/>
+      <c r="AH24" s="81"/>
+      <c r="AI24" s="81"/>
+      <c r="AJ24" s="81"/>
+      <c r="AK24" s="81"/>
+      <c r="AL24" s="81"/>
+      <c r="AM24" s="81"/>
+      <c r="AN24" s="81"/>
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
@@ -22849,7 +22811,7 @@
       <c r="AW24" s="27"/>
     </row>
     <row r="25" spans="2:49" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="200">
+      <c r="B25" s="198">
         <v>10</v>
       </c>
       <c r="C25" s="75"/>
@@ -22867,35 +22829,33 @@
       <c r="O25" s="22"/>
       <c r="P25" s="23"/>
       <c r="Q25" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R25" s="22"/>
       <c r="S25" s="23"/>
-      <c r="T25" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="U25" s="120"/>
-      <c r="V25" s="120"/>
-      <c r="W25" s="120"/>
-      <c r="X25" s="120"/>
-      <c r="Y25" s="120"/>
-      <c r="Z25" s="120"/>
-      <c r="AA25" s="120"/>
-      <c r="AB25" s="120"/>
-      <c r="AC25" s="121"/>
-      <c r="AD25" s="110" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE25" s="111"/>
-      <c r="AF25" s="111"/>
-      <c r="AG25" s="111"/>
-      <c r="AH25" s="111"/>
-      <c r="AI25" s="111"/>
-      <c r="AJ25" s="111"/>
-      <c r="AK25" s="111"/>
-      <c r="AL25" s="111"/>
-      <c r="AM25" s="111"/>
-      <c r="AN25" s="22"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="118"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="119"/>
+      <c r="AD25" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE25" s="78"/>
+      <c r="AF25" s="78"/>
+      <c r="AG25" s="78"/>
+      <c r="AH25" s="78"/>
+      <c r="AI25" s="78"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="78"/>
+      <c r="AL25" s="78"/>
+      <c r="AM25" s="78"/>
+      <c r="AN25" s="78"/>
       <c r="AO25" s="22"/>
       <c r="AP25" s="22"/>
       <c r="AQ25" s="22"/>
@@ -22907,7 +22867,7 @@
       <c r="AW25" s="23"/>
     </row>
     <row r="26" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B26" s="201"/>
+      <c r="B26" s="199"/>
       <c r="C26" s="75"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -22925,27 +22885,27 @@
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
       <c r="S26" s="27"/>
-      <c r="T26" s="122"/>
-      <c r="U26" s="123"/>
-      <c r="V26" s="123"/>
-      <c r="W26" s="123"/>
-      <c r="X26" s="123"/>
-      <c r="Y26" s="123"/>
-      <c r="Z26" s="123"/>
-      <c r="AA26" s="123"/>
-      <c r="AB26" s="123"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="26"/>
+      <c r="T26" s="120"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="121"/>
+      <c r="W26" s="121"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="121"/>
+      <c r="Z26" s="121"/>
+      <c r="AA26" s="121"/>
+      <c r="AB26" s="121"/>
+      <c r="AC26" s="122"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="81"/>
+      <c r="AH26" s="81"/>
+      <c r="AI26" s="81"/>
+      <c r="AJ26" s="81"/>
+      <c r="AK26" s="81"/>
+      <c r="AL26" s="81"/>
+      <c r="AM26" s="81"/>
+      <c r="AN26" s="81"/>
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="26"/>
@@ -22957,7 +22917,7 @@
       <c r="AW26" s="27"/>
     </row>
     <row r="27" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B27" s="200">
+      <c r="B27" s="198">
         <v>11</v>
       </c>
       <c r="C27" s="75"/>
@@ -22968,7 +22928,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="76"/>
       <c r="J27" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
@@ -22977,35 +22937,35 @@
       <c r="O27" s="22"/>
       <c r="P27" s="23"/>
       <c r="Q27" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="23"/>
-      <c r="T27" s="208" t="s">
-        <v>142</v>
-      </c>
-      <c r="U27" s="209"/>
-      <c r="V27" s="209"/>
-      <c r="W27" s="209"/>
-      <c r="X27" s="209"/>
-      <c r="Y27" s="209"/>
-      <c r="Z27" s="209"/>
-      <c r="AA27" s="209"/>
-      <c r="AB27" s="209"/>
-      <c r="AC27" s="210"/>
-      <c r="AD27" s="110" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE27" s="111"/>
-      <c r="AF27" s="111"/>
-      <c r="AG27" s="111"/>
-      <c r="AH27" s="111"/>
-      <c r="AI27" s="111"/>
-      <c r="AJ27" s="111"/>
-      <c r="AK27" s="111"/>
-      <c r="AL27" s="111"/>
-      <c r="AM27" s="111"/>
-      <c r="AN27" s="22"/>
+      <c r="T27" s="212" t="s">
+        <v>272</v>
+      </c>
+      <c r="U27" s="213"/>
+      <c r="V27" s="213"/>
+      <c r="W27" s="213"/>
+      <c r="X27" s="213"/>
+      <c r="Y27" s="213"/>
+      <c r="Z27" s="213"/>
+      <c r="AA27" s="213"/>
+      <c r="AB27" s="213"/>
+      <c r="AC27" s="214"/>
+      <c r="AD27" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE27" s="78"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="78"/>
+      <c r="AH27" s="78"/>
+      <c r="AI27" s="78"/>
+      <c r="AJ27" s="78"/>
+      <c r="AK27" s="78"/>
+      <c r="AL27" s="78"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="78"/>
       <c r="AO27" s="22"/>
       <c r="AP27" s="22"/>
       <c r="AQ27" s="22"/>
@@ -23017,7 +22977,7 @@
       <c r="AW27" s="23"/>
     </row>
     <row r="28" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B28" s="201"/>
+      <c r="B28" s="199"/>
       <c r="C28" s="75"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -23035,27 +22995,27 @@
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
-      <c r="T28" s="211"/>
-      <c r="U28" s="212"/>
-      <c r="V28" s="212"/>
-      <c r="W28" s="212"/>
-      <c r="X28" s="212"/>
-      <c r="Y28" s="212"/>
-      <c r="Z28" s="212"/>
-      <c r="AA28" s="212"/>
-      <c r="AB28" s="212"/>
-      <c r="AC28" s="213"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="26"/>
-      <c r="AL28" s="26"/>
-      <c r="AM28" s="26"/>
-      <c r="AN28" s="26"/>
+      <c r="T28" s="215"/>
+      <c r="U28" s="216"/>
+      <c r="V28" s="216"/>
+      <c r="W28" s="216"/>
+      <c r="X28" s="216"/>
+      <c r="Y28" s="216"/>
+      <c r="Z28" s="216"/>
+      <c r="AA28" s="216"/>
+      <c r="AB28" s="216"/>
+      <c r="AC28" s="217"/>
+      <c r="AD28" s="80"/>
+      <c r="AE28" s="81"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="81"/>
+      <c r="AH28" s="81"/>
+      <c r="AI28" s="81"/>
+      <c r="AJ28" s="81"/>
+      <c r="AK28" s="81"/>
+      <c r="AL28" s="81"/>
+      <c r="AM28" s="81"/>
+      <c r="AN28" s="81"/>
       <c r="AO28" s="26"/>
       <c r="AP28" s="26"/>
       <c r="AQ28" s="26"/>
@@ -23067,11 +23027,11 @@
       <c r="AW28" s="27"/>
     </row>
     <row r="29" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B29" s="200">
+      <c r="B29" s="198">
         <v>12</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -23080,7 +23040,7 @@
       <c r="H29" s="22"/>
       <c r="I29" s="23"/>
       <c r="J29" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
@@ -23089,35 +23049,35 @@
       <c r="O29" s="22"/>
       <c r="P29" s="23"/>
       <c r="Q29" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R29" s="22"/>
       <c r="S29" s="23"/>
-      <c r="T29" s="208" t="s">
-        <v>140</v>
-      </c>
-      <c r="U29" s="209"/>
-      <c r="V29" s="209"/>
-      <c r="W29" s="209"/>
-      <c r="X29" s="209"/>
-      <c r="Y29" s="209"/>
-      <c r="Z29" s="209"/>
-      <c r="AA29" s="209"/>
-      <c r="AB29" s="209"/>
-      <c r="AC29" s="210"/>
-      <c r="AD29" s="110" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE29" s="111"/>
-      <c r="AF29" s="111"/>
-      <c r="AG29" s="111"/>
-      <c r="AH29" s="111"/>
-      <c r="AI29" s="111"/>
-      <c r="AJ29" s="111"/>
-      <c r="AK29" s="111"/>
-      <c r="AL29" s="111"/>
-      <c r="AM29" s="111"/>
-      <c r="AN29" s="22"/>
+      <c r="T29" s="206" t="s">
+        <v>139</v>
+      </c>
+      <c r="U29" s="207"/>
+      <c r="V29" s="207"/>
+      <c r="W29" s="207"/>
+      <c r="X29" s="207"/>
+      <c r="Y29" s="207"/>
+      <c r="Z29" s="207"/>
+      <c r="AA29" s="207"/>
+      <c r="AB29" s="207"/>
+      <c r="AC29" s="208"/>
+      <c r="AD29" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="78"/>
+      <c r="AH29" s="78"/>
+      <c r="AI29" s="78"/>
+      <c r="AJ29" s="78"/>
+      <c r="AK29" s="78"/>
+      <c r="AL29" s="78"/>
+      <c r="AM29" s="78"/>
+      <c r="AN29" s="78"/>
       <c r="AO29" s="22"/>
       <c r="AP29" s="22"/>
       <c r="AQ29" s="22"/>
@@ -23129,7 +23089,7 @@
       <c r="AW29" s="23"/>
     </row>
     <row r="30" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B30" s="201"/>
+      <c r="B30" s="199"/>
       <c r="C30" s="75"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -23147,27 +23107,27 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="26"/>
       <c r="S30" s="27"/>
-      <c r="T30" s="211"/>
-      <c r="U30" s="212"/>
-      <c r="V30" s="212"/>
-      <c r="W30" s="212"/>
-      <c r="X30" s="212"/>
-      <c r="Y30" s="212"/>
-      <c r="Z30" s="212"/>
-      <c r="AA30" s="212"/>
-      <c r="AB30" s="212"/>
-      <c r="AC30" s="213"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="26"/>
-      <c r="AK30" s="26"/>
-      <c r="AL30" s="26"/>
-      <c r="AM30" s="26"/>
-      <c r="AN30" s="26"/>
+      <c r="T30" s="209"/>
+      <c r="U30" s="210"/>
+      <c r="V30" s="210"/>
+      <c r="W30" s="210"/>
+      <c r="X30" s="210"/>
+      <c r="Y30" s="210"/>
+      <c r="Z30" s="210"/>
+      <c r="AA30" s="210"/>
+      <c r="AB30" s="210"/>
+      <c r="AC30" s="211"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="81"/>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="81"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="81"/>
+      <c r="AK30" s="81"/>
+      <c r="AL30" s="81"/>
+      <c r="AM30" s="81"/>
+      <c r="AN30" s="81"/>
       <c r="AO30" s="26"/>
       <c r="AP30" s="26"/>
       <c r="AQ30" s="26"/>
@@ -23179,7 +23139,7 @@
       <c r="AW30" s="27"/>
     </row>
     <row r="31" spans="2:49" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="200">
+      <c r="B31" s="198">
         <v>13</v>
       </c>
       <c r="C31" s="75"/>
@@ -23197,35 +23157,33 @@
       <c r="O31" s="22"/>
       <c r="P31" s="23"/>
       <c r="Q31" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R31" s="22"/>
       <c r="S31" s="23"/>
-      <c r="T31" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="U31" s="120"/>
-      <c r="V31" s="120"/>
-      <c r="W31" s="120"/>
-      <c r="X31" s="120"/>
-      <c r="Y31" s="120"/>
-      <c r="Z31" s="120"/>
-      <c r="AA31" s="120"/>
-      <c r="AB31" s="120"/>
-      <c r="AC31" s="121"/>
-      <c r="AD31" s="110" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE31" s="111"/>
-      <c r="AF31" s="111"/>
-      <c r="AG31" s="111"/>
-      <c r="AH31" s="111"/>
-      <c r="AI31" s="111"/>
-      <c r="AJ31" s="111"/>
-      <c r="AK31" s="111"/>
-      <c r="AL31" s="111"/>
-      <c r="AM31" s="111"/>
-      <c r="AN31" s="22"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="118"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="118"/>
+      <c r="X31" s="118"/>
+      <c r="Y31" s="118"/>
+      <c r="Z31" s="118"/>
+      <c r="AA31" s="118"/>
+      <c r="AB31" s="118"/>
+      <c r="AC31" s="119"/>
+      <c r="AD31" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE31" s="78"/>
+      <c r="AF31" s="78"/>
+      <c r="AG31" s="78"/>
+      <c r="AH31" s="78"/>
+      <c r="AI31" s="78"/>
+      <c r="AJ31" s="78"/>
+      <c r="AK31" s="78"/>
+      <c r="AL31" s="78"/>
+      <c r="AM31" s="78"/>
+      <c r="AN31" s="78"/>
       <c r="AO31" s="22"/>
       <c r="AP31" s="22"/>
       <c r="AQ31" s="22"/>
@@ -23237,7 +23195,7 @@
       <c r="AW31" s="23"/>
     </row>
     <row r="32" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="201"/>
+      <c r="B32" s="199"/>
       <c r="C32" s="25"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
@@ -23255,27 +23213,27 @@
       <c r="Q32" s="25"/>
       <c r="R32" s="26"/>
       <c r="S32" s="27"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="123"/>
-      <c r="V32" s="123"/>
-      <c r="W32" s="123"/>
-      <c r="X32" s="123"/>
-      <c r="Y32" s="123"/>
-      <c r="Z32" s="123"/>
-      <c r="AA32" s="123"/>
-      <c r="AB32" s="123"/>
-      <c r="AC32" s="124"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="26"/>
-      <c r="AJ32" s="26"/>
-      <c r="AK32" s="26"/>
-      <c r="AL32" s="26"/>
-      <c r="AM32" s="26"/>
-      <c r="AN32" s="26"/>
+      <c r="T32" s="120"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="121"/>
+      <c r="W32" s="121"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="121"/>
+      <c r="Z32" s="121"/>
+      <c r="AA32" s="121"/>
+      <c r="AB32" s="121"/>
+      <c r="AC32" s="122"/>
+      <c r="AD32" s="80"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="81"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="81"/>
+      <c r="AM32" s="81"/>
+      <c r="AN32" s="81"/>
       <c r="AO32" s="26"/>
       <c r="AP32" s="26"/>
       <c r="AQ32" s="26"/>
@@ -23287,11 +23245,11 @@
       <c r="AW32" s="27"/>
     </row>
     <row r="33" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="200">
+      <c r="B33" s="198">
         <v>14</v>
       </c>
       <c r="C33" s="77" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D33" s="78"/>
       <c r="E33" s="78"/>
@@ -23300,7 +23258,7 @@
       <c r="H33" s="78"/>
       <c r="I33" s="79"/>
       <c r="J33" s="77" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K33" s="78"/>
       <c r="L33" s="78"/>
@@ -23309,7 +23267,7 @@
       <c r="O33" s="78"/>
       <c r="P33" s="79"/>
       <c r="Q33" s="77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R33" s="78"/>
       <c r="S33" s="79"/>
@@ -23323,18 +23281,18 @@
       <c r="AA33" s="78"/>
       <c r="AB33" s="78"/>
       <c r="AC33" s="78"/>
-      <c r="AD33" s="110" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE33" s="111"/>
-      <c r="AF33" s="111"/>
-      <c r="AG33" s="111"/>
-      <c r="AH33" s="111"/>
-      <c r="AI33" s="111"/>
-      <c r="AJ33" s="111"/>
-      <c r="AK33" s="111"/>
-      <c r="AL33" s="111"/>
-      <c r="AM33" s="111"/>
+      <c r="AD33" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE33" s="78"/>
+      <c r="AF33" s="78"/>
+      <c r="AG33" s="78"/>
+      <c r="AH33" s="78"/>
+      <c r="AI33" s="78"/>
+      <c r="AJ33" s="78"/>
+      <c r="AK33" s="78"/>
+      <c r="AL33" s="78"/>
+      <c r="AM33" s="78"/>
       <c r="AN33" s="78"/>
       <c r="AO33" s="78"/>
       <c r="AP33" s="78"/>
@@ -23347,7 +23305,7 @@
       <c r="AW33" s="79"/>
     </row>
     <row r="34" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="201"/>
+      <c r="B34" s="199"/>
       <c r="C34" s="80"/>
       <c r="D34" s="81"/>
       <c r="E34" s="81"/>
@@ -23397,11 +23355,11 @@
       <c r="AW34" s="82"/>
     </row>
     <row r="35" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B35" s="200">
+      <c r="B35" s="198">
         <v>15</v>
       </c>
       <c r="C35" s="77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="78"/>
       <c r="E35" s="78"/>
@@ -23417,7 +23375,7 @@
       <c r="O35" s="78"/>
       <c r="P35" s="79"/>
       <c r="Q35" s="77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R35" s="78"/>
       <c r="S35" s="79"/>
@@ -23432,7 +23390,7 @@
       <c r="AB35" s="78"/>
       <c r="AC35" s="78"/>
       <c r="AD35" s="77" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AE35" s="78"/>
       <c r="AF35" s="78"/>
@@ -23455,7 +23413,7 @@
       <c r="AW35" s="79"/>
     </row>
     <row r="36" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B36" s="201"/>
+      <c r="B36" s="199"/>
       <c r="C36" s="80"/>
       <c r="D36" s="81"/>
       <c r="E36" s="81"/>
@@ -23505,11 +23463,11 @@
       <c r="AW36" s="82"/>
     </row>
     <row r="37" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B37" s="200">
+      <c r="B37" s="198">
         <v>16</v>
       </c>
       <c r="C37" s="77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" s="78"/>
       <c r="E37" s="78"/>
@@ -23525,24 +23483,24 @@
       <c r="O37" s="78"/>
       <c r="P37" s="79"/>
       <c r="Q37" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R37" s="78"/>
       <c r="S37" s="79"/>
-      <c r="T37" s="202" t="s">
-        <v>269</v>
-      </c>
-      <c r="U37" s="203"/>
-      <c r="V37" s="203"/>
-      <c r="W37" s="203"/>
-      <c r="X37" s="203"/>
-      <c r="Y37" s="203"/>
-      <c r="Z37" s="203"/>
-      <c r="AA37" s="203"/>
-      <c r="AB37" s="203"/>
-      <c r="AC37" s="204"/>
+      <c r="T37" s="200" t="s">
+        <v>263</v>
+      </c>
+      <c r="U37" s="201"/>
+      <c r="V37" s="201"/>
+      <c r="W37" s="201"/>
+      <c r="X37" s="201"/>
+      <c r="Y37" s="201"/>
+      <c r="Z37" s="201"/>
+      <c r="AA37" s="201"/>
+      <c r="AB37" s="201"/>
+      <c r="AC37" s="202"/>
       <c r="AD37" s="77" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE37" s="78"/>
       <c r="AF37" s="78"/>
@@ -23565,34 +23523,34 @@
       <c r="AW37" s="79"/>
     </row>
     <row r="38" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B38" s="201"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="117"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
+      <c r="O38" s="114"/>
+      <c r="P38" s="115"/>
       <c r="Q38" s="80"/>
       <c r="R38" s="81"/>
       <c r="S38" s="82"/>
-      <c r="T38" s="205"/>
-      <c r="U38" s="206"/>
-      <c r="V38" s="206"/>
-      <c r="W38" s="206"/>
-      <c r="X38" s="206"/>
-      <c r="Y38" s="206"/>
-      <c r="Z38" s="206"/>
-      <c r="AA38" s="206"/>
-      <c r="AB38" s="206"/>
-      <c r="AC38" s="207"/>
+      <c r="T38" s="203"/>
+      <c r="U38" s="204"/>
+      <c r="V38" s="204"/>
+      <c r="W38" s="204"/>
+      <c r="X38" s="204"/>
+      <c r="Y38" s="204"/>
+      <c r="Z38" s="204"/>
+      <c r="AA38" s="204"/>
+      <c r="AB38" s="204"/>
+      <c r="AC38" s="205"/>
       <c r="AD38" s="80"/>
       <c r="AE38" s="81"/>
       <c r="AF38" s="81"/>
@@ -23615,7 +23573,7 @@
       <c r="AW38" s="82"/>
     </row>
     <row r="39" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="200">
+      <c r="B39" s="198">
         <v>17</v>
       </c>
       <c r="C39" s="75"/>
@@ -23633,24 +23591,24 @@
       <c r="O39" s="22"/>
       <c r="P39" s="23"/>
       <c r="Q39" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R39" s="78"/>
       <c r="S39" s="79"/>
       <c r="T39" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="U39" s="125"/>
-      <c r="V39" s="125"/>
-      <c r="W39" s="125"/>
-      <c r="X39" s="125"/>
-      <c r="Y39" s="125"/>
-      <c r="Z39" s="125"/>
-      <c r="AA39" s="125"/>
-      <c r="AB39" s="125"/>
-      <c r="AC39" s="126"/>
+        <v>265</v>
+      </c>
+      <c r="U39" s="123"/>
+      <c r="V39" s="123"/>
+      <c r="W39" s="123"/>
+      <c r="X39" s="123"/>
+      <c r="Y39" s="123"/>
+      <c r="Z39" s="123"/>
+      <c r="AA39" s="123"/>
+      <c r="AB39" s="123"/>
+      <c r="AC39" s="124"/>
       <c r="AD39" s="77" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AE39" s="78"/>
       <c r="AF39" s="78"/>
@@ -23673,7 +23631,7 @@
       <c r="AW39" s="23"/>
     </row>
     <row r="40" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B40" s="201"/>
+      <c r="B40" s="199"/>
       <c r="C40" s="75"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -23691,16 +23649,16 @@
       <c r="Q40" s="80"/>
       <c r="R40" s="81"/>
       <c r="S40" s="82"/>
-      <c r="T40" s="127"/>
-      <c r="U40" s="128"/>
-      <c r="V40" s="128"/>
-      <c r="W40" s="128"/>
-      <c r="X40" s="128"/>
-      <c r="Y40" s="128"/>
-      <c r="Z40" s="128"/>
-      <c r="AA40" s="128"/>
-      <c r="AB40" s="128"/>
-      <c r="AC40" s="129"/>
+      <c r="T40" s="125"/>
+      <c r="U40" s="126"/>
+      <c r="V40" s="126"/>
+      <c r="W40" s="126"/>
+      <c r="X40" s="126"/>
+      <c r="Y40" s="126"/>
+      <c r="Z40" s="126"/>
+      <c r="AA40" s="126"/>
+      <c r="AB40" s="126"/>
+      <c r="AC40" s="127"/>
       <c r="AD40" s="25"/>
       <c r="AE40" s="26"/>
       <c r="AF40" s="26"/>
@@ -23723,25 +23681,25 @@
       <c r="AW40" s="27"/>
     </row>
     <row r="41" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B41" s="200">
+      <c r="B41" s="198">
         <v>18</v>
       </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="116"/>
-      <c r="O41" s="116"/>
-      <c r="P41" s="117"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="115"/>
       <c r="Q41" s="77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R41" s="78"/>
       <c r="S41" s="79"/>
@@ -23756,7 +23714,7 @@
       <c r="AB41" s="78"/>
       <c r="AC41" s="78"/>
       <c r="AD41" s="77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE41" s="78"/>
       <c r="AF41" s="78"/>
@@ -23779,7 +23737,7 @@
       <c r="AW41" s="79"/>
     </row>
     <row r="42" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B42" s="201"/>
+      <c r="B42" s="199"/>
       <c r="C42" s="80"/>
       <c r="D42" s="81"/>
       <c r="E42" s="81"/>
@@ -27819,14 +27777,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="176">
+      <c r="AI1" s="174">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
-      <c r="AJ1" s="195"/>
-      <c r="AK1" s="195"/>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="196"/>
+      <c r="AJ1" s="193"/>
+      <c r="AK1" s="193"/>
+      <c r="AL1" s="193"/>
+      <c r="AM1" s="194"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -27835,16 +27793,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="179" t="str">
+      <c r="AT1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="189"/>
+      <c r="AU1" s="186"/>
+      <c r="AV1" s="186"/>
+      <c r="AW1" s="186"/>
+      <c r="AX1" s="186"/>
+      <c r="AY1" s="186"/>
+      <c r="AZ1" s="187"/>
     </row>
     <row r="2" spans="1:52" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -27872,32 +27830,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="194" t="str">
+      <c r="S2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
-        <v>設備マスタ</v>
-      </c>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="195"/>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="196"/>
+        <v>設備マスタメンテ</v>
+      </c>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193"/>
+      <c r="AD2" s="194"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="193"/>
-      <c r="AJ2" s="188"/>
-      <c r="AK2" s="188"/>
-      <c r="AL2" s="188"/>
-      <c r="AM2" s="189"/>
+      <c r="AI2" s="191"/>
+      <c r="AJ2" s="186"/>
+      <c r="AK2" s="186"/>
+      <c r="AL2" s="186"/>
+      <c r="AM2" s="187"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -27906,13 +27864,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="179"/>
-      <c r="AU2" s="188"/>
-      <c r="AV2" s="188"/>
-      <c r="AW2" s="188"/>
-      <c r="AX2" s="188"/>
-      <c r="AY2" s="188"/>
-      <c r="AZ2" s="189"/>
+      <c r="AT2" s="177"/>
+      <c r="AU2" s="186"/>
+      <c r="AV2" s="186"/>
+      <c r="AW2" s="186"/>
+      <c r="AX2" s="186"/>
+      <c r="AY2" s="186"/>
+      <c r="AZ2" s="187"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="63"/>
@@ -28024,7 +27982,7 @@
     </row>
     <row r="5" spans="1:52" ht="21" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="33"/>
@@ -28080,7 +28038,7 @@
     </row>
     <row r="6" spans="1:52" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -28192,10 +28150,10 @@
       <c r="A8" s="57"/>
       <c r="B8" s="57"/>
       <c r="C8" s="57" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
@@ -28250,10 +28208,10 @@
       <c r="A9" s="57"/>
       <c r="B9" s="57"/>
       <c r="C9" s="57" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
@@ -28309,7 +28267,7 @@
       <c r="B10" s="57"/>
       <c r="C10" s="57"/>
       <c r="D10" s="57" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>

--- a/01_基本設計書/06_SC-M_マスタ系/SC-M10_設備マスタ.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/SC-M10_設備マスタ.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9EFA54-55A6-429D-82C2-7203A812017D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5987E260-AB73-496D-9F12-C698014388F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'１．機能概要'!$A$1:$BG$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'２．レイアウト'!$A$1:$DH$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'３．項目一覧'!$A$1:$Q$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'３．項目一覧'!$A$1:$Q$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'５．メッセージ仕様'!$A$1:$AZ$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'６．補足事項'!$A$1:$AZ$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AW$35</definedName>
@@ -125,14 +125,11 @@
     <definedName name="振分けポリシー">#REF!</definedName>
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -140,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="273">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -972,28 +969,6 @@
   </si>
   <si>
     <t>INSE-003</t>
-  </si>
-  <si>
-    <t>新規する場合、既存なデータと重複するかどうかをチェックする。</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ノウニュウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ネンガッピ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ドウイツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>存在チェック１</t>
@@ -1954,14 +1929,27 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>設備マスタメンテ</t>
+    <t>更新対象データがけされているかどうかをチェックする。</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>設備マスタ</t>
     <rPh sb="2" eb="4">
       <t>ジョウホウショウサイショウカイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>更新対象データがけされているかどうかをチェックする。</t>
+    <t>既存なデータと重複するかどうかをチェックする。</t>
     <rPh sb="0" eb="3">
       <t>ネンガッピ</t>
     </rPh>
@@ -2847,91 +2835,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2959,6 +2862,103 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2977,22 +2977,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3022,13 +3010,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3036,24 +3024,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3089,6 +3059,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4117,8 +4105,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="21314910" y="10408784"/>
-          <a:ext cx="6129337" cy="4189299"/>
+          <a:off x="22167397" y="10289721"/>
+          <a:ext cx="6372225" cy="4139293"/>
           <a:chOff x="6857979" y="28984575"/>
           <a:chExt cx="6369263" cy="4143375"/>
         </a:xfrm>
@@ -5377,1779 +5365,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="165"/>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="165"/>
-      <c r="AF1" s="165"/>
-      <c r="AG1" s="165"/>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="165"/>
-      <c r="AJ1" s="165"/>
-      <c r="AK1" s="165"/>
-      <c r="AL1" s="165"/>
-      <c r="AM1" s="165"/>
-      <c r="AN1" s="165"/>
-      <c r="AO1" s="165"/>
-      <c r="AP1" s="165"/>
-      <c r="AQ1" s="165"/>
-      <c r="AR1" s="165"/>
-      <c r="AS1" s="165"/>
-      <c r="AT1" s="165"/>
-      <c r="AU1" s="165"/>
-      <c r="AV1" s="165"/>
-      <c r="AW1" s="165"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="134"/>
+      <c r="AJ1" s="134"/>
+      <c r="AK1" s="134"/>
+      <c r="AL1" s="134"/>
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="134"/>
+      <c r="AR1" s="134"/>
+      <c r="AS1" s="134"/>
+      <c r="AT1" s="134"/>
+      <c r="AU1" s="134"/>
+      <c r="AV1" s="134"/>
+      <c r="AW1" s="134"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="166"/>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="166"/>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="166"/>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="166"/>
-      <c r="AJ2" s="166"/>
-      <c r="AK2" s="166"/>
-      <c r="AL2" s="166"/>
-      <c r="AM2" s="166"/>
-      <c r="AN2" s="166"/>
-      <c r="AO2" s="166"/>
-      <c r="AP2" s="166"/>
-      <c r="AQ2" s="166"/>
-      <c r="AR2" s="166"/>
-      <c r="AS2" s="166"/>
-      <c r="AT2" s="166"/>
-      <c r="AU2" s="166"/>
-      <c r="AV2" s="166"/>
-      <c r="AW2" s="166"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="135"/>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="135"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="168" t="s">
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="169"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="168" t="s">
+      <c r="K3" s="138"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="167" t="s">
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167" t="s">
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="167"/>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="167"/>
-      <c r="AH3" s="167"/>
-      <c r="AI3" s="167"/>
-      <c r="AJ3" s="167"/>
-      <c r="AK3" s="167"/>
-      <c r="AL3" s="167"/>
-      <c r="AM3" s="167"/>
-      <c r="AN3" s="167" t="s">
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="167"/>
-      <c r="AP3" s="167"/>
-      <c r="AQ3" s="167"/>
-      <c r="AR3" s="167"/>
-      <c r="AS3" s="167" t="s">
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="167"/>
-      <c r="AU3" s="167"/>
-      <c r="AV3" s="167"/>
-      <c r="AW3" s="167"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="172"/>
-      <c r="Q4" s="172"/>
-      <c r="R4" s="173"/>
-      <c r="S4" s="167"/>
-      <c r="T4" s="167"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="167"/>
-      <c r="W4" s="167"/>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="167"/>
-      <c r="Z4" s="167"/>
-      <c r="AA4" s="167"/>
-      <c r="AB4" s="167"/>
-      <c r="AC4" s="167"/>
-      <c r="AD4" s="167"/>
-      <c r="AE4" s="167"/>
-      <c r="AF4" s="167"/>
-      <c r="AG4" s="167"/>
-      <c r="AH4" s="167"/>
-      <c r="AI4" s="167"/>
-      <c r="AJ4" s="167"/>
-      <c r="AK4" s="167"/>
-      <c r="AL4" s="167"/>
-      <c r="AM4" s="167"/>
-      <c r="AN4" s="167"/>
-      <c r="AO4" s="167"/>
-      <c r="AP4" s="167"/>
-      <c r="AQ4" s="167"/>
-      <c r="AR4" s="167"/>
-      <c r="AS4" s="167"/>
-      <c r="AT4" s="167"/>
-      <c r="AU4" s="167"/>
-      <c r="AV4" s="167"/>
-      <c r="AW4" s="167"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="136"/>
+      <c r="AM4" s="136"/>
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="136"/>
+      <c r="AT4" s="136"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
-      <c r="B5" s="159">
+      <c r="B5" s="144">
         <v>1</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="140">
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145">
         <v>43703</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="141" t="s">
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="142"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="141" t="s">
+      <c r="K5" s="147"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="147" t="s">
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="158" t="s">
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="158"/>
-      <c r="X5" s="158"/>
-      <c r="Y5" s="158"/>
-      <c r="Z5" s="158"/>
-      <c r="AA5" s="158"/>
-      <c r="AB5" s="158"/>
-      <c r="AC5" s="158"/>
-      <c r="AD5" s="158"/>
-      <c r="AE5" s="158"/>
-      <c r="AF5" s="158"/>
-      <c r="AG5" s="158"/>
-      <c r="AH5" s="158"/>
-      <c r="AI5" s="158"/>
-      <c r="AJ5" s="158"/>
-      <c r="AK5" s="158"/>
-      <c r="AL5" s="158"/>
-      <c r="AM5" s="158"/>
-      <c r="AN5" s="147" t="s">
+      <c r="W5" s="152"/>
+      <c r="X5" s="152"/>
+      <c r="Y5" s="152"/>
+      <c r="Z5" s="152"/>
+      <c r="AA5" s="152"/>
+      <c r="AB5" s="152"/>
+      <c r="AC5" s="152"/>
+      <c r="AD5" s="152"/>
+      <c r="AE5" s="152"/>
+      <c r="AF5" s="152"/>
+      <c r="AG5" s="152"/>
+      <c r="AH5" s="152"/>
+      <c r="AI5" s="152"/>
+      <c r="AJ5" s="152"/>
+      <c r="AK5" s="152"/>
+      <c r="AL5" s="152"/>
+      <c r="AM5" s="152"/>
+      <c r="AN5" s="143" t="s">
         <v>116</v>
       </c>
-      <c r="AO5" s="147"/>
-      <c r="AP5" s="147"/>
-      <c r="AQ5" s="147"/>
-      <c r="AR5" s="147"/>
-      <c r="AS5" s="147"/>
-      <c r="AT5" s="147"/>
-      <c r="AU5" s="147"/>
-      <c r="AV5" s="147"/>
-      <c r="AW5" s="147"/>
+      <c r="AO5" s="143"/>
+      <c r="AP5" s="143"/>
+      <c r="AQ5" s="143"/>
+      <c r="AR5" s="143"/>
+      <c r="AS5" s="143"/>
+      <c r="AT5" s="143"/>
+      <c r="AU5" s="143"/>
+      <c r="AV5" s="143"/>
+      <c r="AW5" s="143"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="158"/>
-      <c r="X6" s="158"/>
-      <c r="Y6" s="158"/>
-      <c r="Z6" s="158"/>
-      <c r="AA6" s="158"/>
-      <c r="AB6" s="158"/>
-      <c r="AC6" s="158"/>
-      <c r="AD6" s="158"/>
-      <c r="AE6" s="158"/>
-      <c r="AF6" s="158"/>
-      <c r="AG6" s="158"/>
-      <c r="AH6" s="158"/>
-      <c r="AI6" s="158"/>
-      <c r="AJ6" s="158"/>
-      <c r="AK6" s="158"/>
-      <c r="AL6" s="158"/>
-      <c r="AM6" s="158"/>
-      <c r="AN6" s="147"/>
-      <c r="AO6" s="147"/>
-      <c r="AP6" s="147"/>
-      <c r="AQ6" s="147"/>
-      <c r="AR6" s="147"/>
-      <c r="AS6" s="147"/>
-      <c r="AT6" s="147"/>
-      <c r="AU6" s="147"/>
-      <c r="AV6" s="147"/>
-      <c r="AW6" s="147"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="152"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="152"/>
+      <c r="Y6" s="152"/>
+      <c r="Z6" s="152"/>
+      <c r="AA6" s="152"/>
+      <c r="AB6" s="152"/>
+      <c r="AC6" s="152"/>
+      <c r="AD6" s="152"/>
+      <c r="AE6" s="152"/>
+      <c r="AF6" s="152"/>
+      <c r="AG6" s="152"/>
+      <c r="AH6" s="152"/>
+      <c r="AI6" s="152"/>
+      <c r="AJ6" s="152"/>
+      <c r="AK6" s="152"/>
+      <c r="AL6" s="152"/>
+      <c r="AM6" s="152"/>
+      <c r="AN6" s="143"/>
+      <c r="AO6" s="143"/>
+      <c r="AP6" s="143"/>
+      <c r="AQ6" s="143"/>
+      <c r="AR6" s="143"/>
+      <c r="AS6" s="143"/>
+      <c r="AT6" s="143"/>
+      <c r="AU6" s="143"/>
+      <c r="AV6" s="143"/>
+      <c r="AW6" s="143"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="147"/>
-      <c r="U7" s="147"/>
-      <c r="V7" s="158"/>
-      <c r="W7" s="158"/>
-      <c r="X7" s="158"/>
-      <c r="Y7" s="158"/>
-      <c r="Z7" s="158"/>
-      <c r="AA7" s="158"/>
-      <c r="AB7" s="158"/>
-      <c r="AC7" s="158"/>
-      <c r="AD7" s="158"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="158"/>
-      <c r="AG7" s="158"/>
-      <c r="AH7" s="158"/>
-      <c r="AI7" s="158"/>
-      <c r="AJ7" s="158"/>
-      <c r="AK7" s="158"/>
-      <c r="AL7" s="158"/>
-      <c r="AM7" s="158"/>
-      <c r="AN7" s="147"/>
-      <c r="AO7" s="147"/>
-      <c r="AP7" s="147"/>
-      <c r="AQ7" s="147"/>
-      <c r="AR7" s="147"/>
-      <c r="AS7" s="147"/>
-      <c r="AT7" s="147"/>
-      <c r="AU7" s="147"/>
-      <c r="AV7" s="147"/>
-      <c r="AW7" s="147"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="152"/>
+      <c r="W7" s="152"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="152"/>
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="152"/>
+      <c r="AF7" s="152"/>
+      <c r="AG7" s="152"/>
+      <c r="AH7" s="152"/>
+      <c r="AI7" s="152"/>
+      <c r="AJ7" s="152"/>
+      <c r="AK7" s="152"/>
+      <c r="AL7" s="152"/>
+      <c r="AM7" s="152"/>
+      <c r="AN7" s="143"/>
+      <c r="AO7" s="143"/>
+      <c r="AP7" s="143"/>
+      <c r="AQ7" s="143"/>
+      <c r="AR7" s="143"/>
+      <c r="AS7" s="143"/>
+      <c r="AT7" s="143"/>
+      <c r="AU7" s="143"/>
+      <c r="AV7" s="143"/>
+      <c r="AW7" s="143"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="158"/>
-      <c r="W8" s="158"/>
-      <c r="X8" s="158"/>
-      <c r="Y8" s="158"/>
-      <c r="Z8" s="158"/>
-      <c r="AA8" s="158"/>
-      <c r="AB8" s="158"/>
-      <c r="AC8" s="158"/>
-      <c r="AD8" s="158"/>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="158"/>
-      <c r="AG8" s="158"/>
-      <c r="AH8" s="158"/>
-      <c r="AI8" s="158"/>
-      <c r="AJ8" s="158"/>
-      <c r="AK8" s="158"/>
-      <c r="AL8" s="158"/>
-      <c r="AM8" s="158"/>
-      <c r="AN8" s="147"/>
-      <c r="AO8" s="147"/>
-      <c r="AP8" s="147"/>
-      <c r="AQ8" s="147"/>
-      <c r="AR8" s="147"/>
-      <c r="AS8" s="147"/>
-      <c r="AT8" s="147"/>
-      <c r="AU8" s="147"/>
-      <c r="AV8" s="147"/>
-      <c r="AW8" s="147"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="151"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="152"/>
+      <c r="AF8" s="152"/>
+      <c r="AG8" s="152"/>
+      <c r="AH8" s="152"/>
+      <c r="AI8" s="152"/>
+      <c r="AJ8" s="152"/>
+      <c r="AK8" s="152"/>
+      <c r="AL8" s="152"/>
+      <c r="AM8" s="152"/>
+      <c r="AN8" s="143"/>
+      <c r="AO8" s="143"/>
+      <c r="AP8" s="143"/>
+      <c r="AQ8" s="143"/>
+      <c r="AR8" s="143"/>
+      <c r="AS8" s="143"/>
+      <c r="AT8" s="143"/>
+      <c r="AU8" s="143"/>
+      <c r="AV8" s="143"/>
+      <c r="AW8" s="143"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="158"/>
-      <c r="W9" s="158"/>
-      <c r="X9" s="158"/>
-      <c r="Y9" s="158"/>
-      <c r="Z9" s="158"/>
-      <c r="AA9" s="158"/>
-      <c r="AB9" s="158"/>
-      <c r="AC9" s="158"/>
-      <c r="AD9" s="158"/>
-      <c r="AE9" s="158"/>
-      <c r="AF9" s="158"/>
-      <c r="AG9" s="158"/>
-      <c r="AH9" s="158"/>
-      <c r="AI9" s="158"/>
-      <c r="AJ9" s="158"/>
-      <c r="AK9" s="158"/>
-      <c r="AL9" s="158"/>
-      <c r="AM9" s="158"/>
-      <c r="AN9" s="147"/>
-      <c r="AO9" s="147"/>
-      <c r="AP9" s="147"/>
-      <c r="AQ9" s="147"/>
-      <c r="AR9" s="147"/>
-      <c r="AS9" s="147"/>
-      <c r="AT9" s="147"/>
-      <c r="AU9" s="147"/>
-      <c r="AV9" s="147"/>
-      <c r="AW9" s="147"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="143"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="152"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="152"/>
+      <c r="AD9" s="152"/>
+      <c r="AE9" s="152"/>
+      <c r="AF9" s="152"/>
+      <c r="AG9" s="152"/>
+      <c r="AH9" s="152"/>
+      <c r="AI9" s="152"/>
+      <c r="AJ9" s="152"/>
+      <c r="AK9" s="152"/>
+      <c r="AL9" s="152"/>
+      <c r="AM9" s="152"/>
+      <c r="AN9" s="143"/>
+      <c r="AO9" s="143"/>
+      <c r="AP9" s="143"/>
+      <c r="AQ9" s="143"/>
+      <c r="AR9" s="143"/>
+      <c r="AS9" s="143"/>
+      <c r="AT9" s="143"/>
+      <c r="AU9" s="143"/>
+      <c r="AV9" s="143"/>
+      <c r="AW9" s="143"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="158"/>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="158"/>
-      <c r="AE10" s="158"/>
-      <c r="AF10" s="158"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="158"/>
-      <c r="AI10" s="158"/>
-      <c r="AJ10" s="158"/>
-      <c r="AK10" s="158"/>
-      <c r="AL10" s="158"/>
-      <c r="AM10" s="158"/>
-      <c r="AN10" s="147"/>
-      <c r="AO10" s="147"/>
-      <c r="AP10" s="147"/>
-      <c r="AQ10" s="147"/>
-      <c r="AR10" s="147"/>
-      <c r="AS10" s="147"/>
-      <c r="AT10" s="147"/>
-      <c r="AU10" s="147"/>
-      <c r="AV10" s="147"/>
-      <c r="AW10" s="147"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="152"/>
+      <c r="AG10" s="152"/>
+      <c r="AH10" s="152"/>
+      <c r="AI10" s="152"/>
+      <c r="AJ10" s="152"/>
+      <c r="AK10" s="152"/>
+      <c r="AL10" s="152"/>
+      <c r="AM10" s="152"/>
+      <c r="AN10" s="143"/>
+      <c r="AO10" s="143"/>
+      <c r="AP10" s="143"/>
+      <c r="AQ10" s="143"/>
+      <c r="AR10" s="143"/>
+      <c r="AS10" s="143"/>
+      <c r="AT10" s="143"/>
+      <c r="AU10" s="143"/>
+      <c r="AV10" s="143"/>
+      <c r="AW10" s="143"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="160"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="160"/>
-      <c r="AA11" s="160"/>
-      <c r="AB11" s="160"/>
-      <c r="AC11" s="160"/>
-      <c r="AD11" s="160"/>
-      <c r="AE11" s="160"/>
-      <c r="AF11" s="160"/>
-      <c r="AG11" s="160"/>
-      <c r="AH11" s="160"/>
-      <c r="AI11" s="160"/>
-      <c r="AJ11" s="160"/>
-      <c r="AK11" s="160"/>
-      <c r="AL11" s="160"/>
-      <c r="AM11" s="161"/>
-      <c r="AN11" s="147"/>
-      <c r="AO11" s="147"/>
-      <c r="AP11" s="147"/>
-      <c r="AQ11" s="147"/>
-      <c r="AR11" s="147"/>
-      <c r="AS11" s="147"/>
-      <c r="AT11" s="147"/>
-      <c r="AU11" s="147"/>
-      <c r="AV11" s="147"/>
-      <c r="AW11" s="147"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="157"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="143"/>
+      <c r="V11" s="159"/>
+      <c r="W11" s="165"/>
+      <c r="X11" s="165"/>
+      <c r="Y11" s="165"/>
+      <c r="Z11" s="165"/>
+      <c r="AA11" s="165"/>
+      <c r="AB11" s="165"/>
+      <c r="AC11" s="165"/>
+      <c r="AD11" s="165"/>
+      <c r="AE11" s="165"/>
+      <c r="AF11" s="165"/>
+      <c r="AG11" s="165"/>
+      <c r="AH11" s="165"/>
+      <c r="AI11" s="165"/>
+      <c r="AJ11" s="165"/>
+      <c r="AK11" s="165"/>
+      <c r="AL11" s="165"/>
+      <c r="AM11" s="166"/>
+      <c r="AN11" s="143"/>
+      <c r="AO11" s="143"/>
+      <c r="AP11" s="143"/>
+      <c r="AQ11" s="143"/>
+      <c r="AR11" s="143"/>
+      <c r="AS11" s="143"/>
+      <c r="AT11" s="143"/>
+      <c r="AU11" s="143"/>
+      <c r="AV11" s="143"/>
+      <c r="AW11" s="143"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="149"/>
-      <c r="X12" s="149"/>
-      <c r="Y12" s="149"/>
-      <c r="Z12" s="149"/>
-      <c r="AA12" s="149"/>
-      <c r="AB12" s="149"/>
-      <c r="AC12" s="149"/>
-      <c r="AD12" s="149"/>
-      <c r="AE12" s="149"/>
-      <c r="AF12" s="149"/>
-      <c r="AG12" s="149"/>
-      <c r="AH12" s="149"/>
-      <c r="AI12" s="149"/>
-      <c r="AJ12" s="149"/>
-      <c r="AK12" s="149"/>
-      <c r="AL12" s="149"/>
-      <c r="AM12" s="150"/>
-      <c r="AN12" s="134"/>
-      <c r="AO12" s="135"/>
-      <c r="AP12" s="135"/>
-      <c r="AQ12" s="135"/>
-      <c r="AR12" s="136"/>
-      <c r="AS12" s="134"/>
-      <c r="AT12" s="135"/>
-      <c r="AU12" s="135"/>
-      <c r="AV12" s="135"/>
-      <c r="AW12" s="136"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="157"/>
+      <c r="P12" s="157"/>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="158"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
+      <c r="U12" s="143"/>
+      <c r="V12" s="159"/>
+      <c r="W12" s="160"/>
+      <c r="X12" s="160"/>
+      <c r="Y12" s="160"/>
+      <c r="Z12" s="160"/>
+      <c r="AA12" s="160"/>
+      <c r="AB12" s="160"/>
+      <c r="AC12" s="160"/>
+      <c r="AD12" s="160"/>
+      <c r="AE12" s="160"/>
+      <c r="AF12" s="160"/>
+      <c r="AG12" s="160"/>
+      <c r="AH12" s="160"/>
+      <c r="AI12" s="160"/>
+      <c r="AJ12" s="160"/>
+      <c r="AK12" s="160"/>
+      <c r="AL12" s="160"/>
+      <c r="AM12" s="161"/>
+      <c r="AN12" s="162"/>
+      <c r="AO12" s="163"/>
+      <c r="AP12" s="163"/>
+      <c r="AQ12" s="163"/>
+      <c r="AR12" s="164"/>
+      <c r="AS12" s="162"/>
+      <c r="AT12" s="163"/>
+      <c r="AU12" s="163"/>
+      <c r="AV12" s="163"/>
+      <c r="AW12" s="164"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="149"/>
-      <c r="X13" s="149"/>
-      <c r="Y13" s="149"/>
-      <c r="Z13" s="149"/>
-      <c r="AA13" s="149"/>
-      <c r="AB13" s="149"/>
-      <c r="AC13" s="149"/>
-      <c r="AD13" s="149"/>
-      <c r="AE13" s="149"/>
-      <c r="AF13" s="149"/>
-      <c r="AG13" s="149"/>
-      <c r="AH13" s="149"/>
-      <c r="AI13" s="149"/>
-      <c r="AJ13" s="149"/>
-      <c r="AK13" s="149"/>
-      <c r="AL13" s="149"/>
-      <c r="AM13" s="150"/>
-      <c r="AN13" s="134"/>
-      <c r="AO13" s="135"/>
-      <c r="AP13" s="135"/>
-      <c r="AQ13" s="135"/>
-      <c r="AR13" s="136"/>
-      <c r="AS13" s="134"/>
-      <c r="AT13" s="135"/>
-      <c r="AU13" s="135"/>
-      <c r="AV13" s="135"/>
-      <c r="AW13" s="136"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="157"/>
+      <c r="P13" s="157"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="158"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="159"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="160"/>
+      <c r="Y13" s="160"/>
+      <c r="Z13" s="160"/>
+      <c r="AA13" s="160"/>
+      <c r="AB13" s="160"/>
+      <c r="AC13" s="160"/>
+      <c r="AD13" s="160"/>
+      <c r="AE13" s="160"/>
+      <c r="AF13" s="160"/>
+      <c r="AG13" s="160"/>
+      <c r="AH13" s="160"/>
+      <c r="AI13" s="160"/>
+      <c r="AJ13" s="160"/>
+      <c r="AK13" s="160"/>
+      <c r="AL13" s="160"/>
+      <c r="AM13" s="161"/>
+      <c r="AN13" s="162"/>
+      <c r="AO13" s="163"/>
+      <c r="AP13" s="163"/>
+      <c r="AQ13" s="163"/>
+      <c r="AR13" s="164"/>
+      <c r="AS13" s="162"/>
+      <c r="AT13" s="163"/>
+      <c r="AU13" s="163"/>
+      <c r="AV13" s="163"/>
+      <c r="AW13" s="164"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="157"/>
-      <c r="W14" s="158"/>
-      <c r="X14" s="158"/>
-      <c r="Y14" s="158"/>
-      <c r="Z14" s="158"/>
-      <c r="AA14" s="158"/>
-      <c r="AB14" s="158"/>
-      <c r="AC14" s="158"/>
-      <c r="AD14" s="158"/>
-      <c r="AE14" s="158"/>
-      <c r="AF14" s="158"/>
-      <c r="AG14" s="158"/>
-      <c r="AH14" s="158"/>
-      <c r="AI14" s="158"/>
-      <c r="AJ14" s="158"/>
-      <c r="AK14" s="158"/>
-      <c r="AL14" s="158"/>
-      <c r="AM14" s="158"/>
-      <c r="AN14" s="147"/>
-      <c r="AO14" s="147"/>
-      <c r="AP14" s="147"/>
-      <c r="AQ14" s="147"/>
-      <c r="AR14" s="147"/>
-      <c r="AS14" s="134"/>
-      <c r="AT14" s="135"/>
-      <c r="AU14" s="135"/>
-      <c r="AV14" s="135"/>
-      <c r="AW14" s="136"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="157"/>
+      <c r="O14" s="157"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="158"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="143"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="152"/>
+      <c r="AD14" s="152"/>
+      <c r="AE14" s="152"/>
+      <c r="AF14" s="152"/>
+      <c r="AG14" s="152"/>
+      <c r="AH14" s="152"/>
+      <c r="AI14" s="152"/>
+      <c r="AJ14" s="152"/>
+      <c r="AK14" s="152"/>
+      <c r="AL14" s="152"/>
+      <c r="AM14" s="152"/>
+      <c r="AN14" s="143"/>
+      <c r="AO14" s="143"/>
+      <c r="AP14" s="143"/>
+      <c r="AQ14" s="143"/>
+      <c r="AR14" s="143"/>
+      <c r="AS14" s="162"/>
+      <c r="AT14" s="163"/>
+      <c r="AU14" s="163"/>
+      <c r="AV14" s="163"/>
+      <c r="AW14" s="164"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="147"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="147"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="149"/>
-      <c r="Y15" s="149"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="149"/>
-      <c r="AB15" s="149"/>
-      <c r="AC15" s="149"/>
-      <c r="AD15" s="149"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="149"/>
-      <c r="AG15" s="149"/>
-      <c r="AH15" s="149"/>
-      <c r="AI15" s="149"/>
-      <c r="AJ15" s="149"/>
-      <c r="AK15" s="149"/>
-      <c r="AL15" s="149"/>
-      <c r="AM15" s="150"/>
-      <c r="AN15" s="134"/>
-      <c r="AO15" s="135"/>
-      <c r="AP15" s="135"/>
-      <c r="AQ15" s="135"/>
-      <c r="AR15" s="136"/>
-      <c r="AS15" s="134"/>
-      <c r="AT15" s="135"/>
-      <c r="AU15" s="135"/>
-      <c r="AV15" s="135"/>
-      <c r="AW15" s="136"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="157"/>
+      <c r="O15" s="157"/>
+      <c r="P15" s="157"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="158"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="159"/>
+      <c r="W15" s="160"/>
+      <c r="X15" s="160"/>
+      <c r="Y15" s="160"/>
+      <c r="Z15" s="160"/>
+      <c r="AA15" s="160"/>
+      <c r="AB15" s="160"/>
+      <c r="AC15" s="160"/>
+      <c r="AD15" s="160"/>
+      <c r="AE15" s="160"/>
+      <c r="AF15" s="160"/>
+      <c r="AG15" s="160"/>
+      <c r="AH15" s="160"/>
+      <c r="AI15" s="160"/>
+      <c r="AJ15" s="160"/>
+      <c r="AK15" s="160"/>
+      <c r="AL15" s="160"/>
+      <c r="AM15" s="161"/>
+      <c r="AN15" s="162"/>
+      <c r="AO15" s="163"/>
+      <c r="AP15" s="163"/>
+      <c r="AQ15" s="163"/>
+      <c r="AR15" s="164"/>
+      <c r="AS15" s="162"/>
+      <c r="AT15" s="163"/>
+      <c r="AU15" s="163"/>
+      <c r="AV15" s="163"/>
+      <c r="AW15" s="164"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="147"/>
-      <c r="T16" s="147"/>
-      <c r="U16" s="147"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="149"/>
-      <c r="X16" s="149"/>
-      <c r="Y16" s="149"/>
-      <c r="Z16" s="149"/>
-      <c r="AA16" s="149"/>
-      <c r="AB16" s="149"/>
-      <c r="AC16" s="149"/>
-      <c r="AD16" s="149"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="149"/>
-      <c r="AG16" s="149"/>
-      <c r="AH16" s="149"/>
-      <c r="AI16" s="149"/>
-      <c r="AJ16" s="149"/>
-      <c r="AK16" s="149"/>
-      <c r="AL16" s="149"/>
-      <c r="AM16" s="150"/>
-      <c r="AN16" s="134"/>
-      <c r="AO16" s="135"/>
-      <c r="AP16" s="135"/>
-      <c r="AQ16" s="135"/>
-      <c r="AR16" s="136"/>
-      <c r="AS16" s="134"/>
-      <c r="AT16" s="135"/>
-      <c r="AU16" s="135"/>
-      <c r="AV16" s="135"/>
-      <c r="AW16" s="136"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="157"/>
+      <c r="O16" s="157"/>
+      <c r="P16" s="157"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="158"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="159"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="160"/>
+      <c r="Y16" s="160"/>
+      <c r="Z16" s="160"/>
+      <c r="AA16" s="160"/>
+      <c r="AB16" s="160"/>
+      <c r="AC16" s="160"/>
+      <c r="AD16" s="160"/>
+      <c r="AE16" s="160"/>
+      <c r="AF16" s="160"/>
+      <c r="AG16" s="160"/>
+      <c r="AH16" s="160"/>
+      <c r="AI16" s="160"/>
+      <c r="AJ16" s="160"/>
+      <c r="AK16" s="160"/>
+      <c r="AL16" s="160"/>
+      <c r="AM16" s="161"/>
+      <c r="AN16" s="162"/>
+      <c r="AO16" s="163"/>
+      <c r="AP16" s="163"/>
+      <c r="AQ16" s="163"/>
+      <c r="AR16" s="164"/>
+      <c r="AS16" s="162"/>
+      <c r="AT16" s="163"/>
+      <c r="AU16" s="163"/>
+      <c r="AV16" s="163"/>
+      <c r="AW16" s="164"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="152"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="152"/>
-      <c r="R17" s="155"/>
-      <c r="S17" s="156"/>
-      <c r="T17" s="156"/>
-      <c r="U17" s="156"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="149"/>
-      <c r="X17" s="149"/>
-      <c r="Y17" s="149"/>
-      <c r="Z17" s="149"/>
-      <c r="AA17" s="149"/>
-      <c r="AB17" s="149"/>
-      <c r="AC17" s="149"/>
-      <c r="AD17" s="149"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="149"/>
-      <c r="AG17" s="149"/>
-      <c r="AH17" s="149"/>
-      <c r="AI17" s="149"/>
-      <c r="AJ17" s="149"/>
-      <c r="AK17" s="149"/>
-      <c r="AL17" s="149"/>
-      <c r="AM17" s="150"/>
-      <c r="AN17" s="134"/>
-      <c r="AO17" s="135"/>
-      <c r="AP17" s="135"/>
-      <c r="AQ17" s="135"/>
-      <c r="AR17" s="136"/>
-      <c r="AS17" s="134"/>
-      <c r="AT17" s="135"/>
-      <c r="AU17" s="135"/>
-      <c r="AV17" s="135"/>
-      <c r="AW17" s="136"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="157"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="157"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="169"/>
+      <c r="S17" s="170"/>
+      <c r="T17" s="170"/>
+      <c r="U17" s="170"/>
+      <c r="V17" s="159"/>
+      <c r="W17" s="160"/>
+      <c r="X17" s="160"/>
+      <c r="Y17" s="160"/>
+      <c r="Z17" s="160"/>
+      <c r="AA17" s="160"/>
+      <c r="AB17" s="160"/>
+      <c r="AC17" s="160"/>
+      <c r="AD17" s="160"/>
+      <c r="AE17" s="160"/>
+      <c r="AF17" s="160"/>
+      <c r="AG17" s="160"/>
+      <c r="AH17" s="160"/>
+      <c r="AI17" s="160"/>
+      <c r="AJ17" s="160"/>
+      <c r="AK17" s="160"/>
+      <c r="AL17" s="160"/>
+      <c r="AM17" s="161"/>
+      <c r="AN17" s="162"/>
+      <c r="AO17" s="163"/>
+      <c r="AP17" s="163"/>
+      <c r="AQ17" s="163"/>
+      <c r="AR17" s="164"/>
+      <c r="AS17" s="162"/>
+      <c r="AT17" s="163"/>
+      <c r="AU17" s="163"/>
+      <c r="AV17" s="163"/>
+      <c r="AW17" s="164"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="152"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="147"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="149"/>
-      <c r="X18" s="149"/>
-      <c r="Y18" s="149"/>
-      <c r="Z18" s="149"/>
-      <c r="AA18" s="149"/>
-      <c r="AB18" s="149"/>
-      <c r="AC18" s="149"/>
-      <c r="AD18" s="149"/>
-      <c r="AE18" s="149"/>
-      <c r="AF18" s="149"/>
-      <c r="AG18" s="149"/>
-      <c r="AH18" s="149"/>
-      <c r="AI18" s="149"/>
-      <c r="AJ18" s="149"/>
-      <c r="AK18" s="149"/>
-      <c r="AL18" s="149"/>
-      <c r="AM18" s="150"/>
-      <c r="AN18" s="134"/>
-      <c r="AO18" s="135"/>
-      <c r="AP18" s="135"/>
-      <c r="AQ18" s="135"/>
-      <c r="AR18" s="136"/>
-      <c r="AS18" s="134"/>
-      <c r="AT18" s="135"/>
-      <c r="AU18" s="135"/>
-      <c r="AV18" s="135"/>
-      <c r="AW18" s="136"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="167"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="157"/>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="158"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="159"/>
+      <c r="W18" s="160"/>
+      <c r="X18" s="160"/>
+      <c r="Y18" s="160"/>
+      <c r="Z18" s="160"/>
+      <c r="AA18" s="160"/>
+      <c r="AB18" s="160"/>
+      <c r="AC18" s="160"/>
+      <c r="AD18" s="160"/>
+      <c r="AE18" s="160"/>
+      <c r="AF18" s="160"/>
+      <c r="AG18" s="160"/>
+      <c r="AH18" s="160"/>
+      <c r="AI18" s="160"/>
+      <c r="AJ18" s="160"/>
+      <c r="AK18" s="160"/>
+      <c r="AL18" s="160"/>
+      <c r="AM18" s="161"/>
+      <c r="AN18" s="162"/>
+      <c r="AO18" s="163"/>
+      <c r="AP18" s="163"/>
+      <c r="AQ18" s="163"/>
+      <c r="AR18" s="164"/>
+      <c r="AS18" s="162"/>
+      <c r="AT18" s="163"/>
+      <c r="AU18" s="163"/>
+      <c r="AV18" s="163"/>
+      <c r="AW18" s="164"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="149"/>
-      <c r="X19" s="149"/>
-      <c r="Y19" s="149"/>
-      <c r="Z19" s="149"/>
-      <c r="AA19" s="149"/>
-      <c r="AB19" s="149"/>
-      <c r="AC19" s="149"/>
-      <c r="AD19" s="149"/>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="149"/>
-      <c r="AG19" s="149"/>
-      <c r="AH19" s="149"/>
-      <c r="AI19" s="149"/>
-      <c r="AJ19" s="149"/>
-      <c r="AK19" s="149"/>
-      <c r="AL19" s="149"/>
-      <c r="AM19" s="150"/>
-      <c r="AN19" s="147"/>
-      <c r="AO19" s="147"/>
-      <c r="AP19" s="147"/>
-      <c r="AQ19" s="147"/>
-      <c r="AR19" s="147"/>
-      <c r="AS19" s="134"/>
-      <c r="AT19" s="135"/>
-      <c r="AU19" s="135"/>
-      <c r="AV19" s="135"/>
-      <c r="AW19" s="136"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="158"/>
+      <c r="S19" s="143"/>
+      <c r="T19" s="143"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="159"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="160"/>
+      <c r="Y19" s="160"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="160"/>
+      <c r="AB19" s="160"/>
+      <c r="AC19" s="160"/>
+      <c r="AD19" s="160"/>
+      <c r="AE19" s="160"/>
+      <c r="AF19" s="160"/>
+      <c r="AG19" s="160"/>
+      <c r="AH19" s="160"/>
+      <c r="AI19" s="160"/>
+      <c r="AJ19" s="160"/>
+      <c r="AK19" s="160"/>
+      <c r="AL19" s="160"/>
+      <c r="AM19" s="161"/>
+      <c r="AN19" s="143"/>
+      <c r="AO19" s="143"/>
+      <c r="AP19" s="143"/>
+      <c r="AQ19" s="143"/>
+      <c r="AR19" s="143"/>
+      <c r="AS19" s="162"/>
+      <c r="AT19" s="163"/>
+      <c r="AU19" s="163"/>
+      <c r="AV19" s="163"/>
+      <c r="AW19" s="164"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="134"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="136"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="149"/>
-      <c r="X20" s="149"/>
-      <c r="Y20" s="149"/>
-      <c r="Z20" s="149"/>
-      <c r="AA20" s="149"/>
-      <c r="AB20" s="149"/>
-      <c r="AC20" s="149"/>
-      <c r="AD20" s="149"/>
-      <c r="AE20" s="149"/>
-      <c r="AF20" s="149"/>
-      <c r="AG20" s="149"/>
-      <c r="AH20" s="149"/>
-      <c r="AI20" s="149"/>
-      <c r="AJ20" s="149"/>
-      <c r="AK20" s="149"/>
-      <c r="AL20" s="149"/>
-      <c r="AM20" s="150"/>
-      <c r="AN20" s="134"/>
-      <c r="AO20" s="135"/>
-      <c r="AP20" s="135"/>
-      <c r="AQ20" s="135"/>
-      <c r="AR20" s="136"/>
-      <c r="AS20" s="134"/>
-      <c r="AT20" s="135"/>
-      <c r="AU20" s="135"/>
-      <c r="AV20" s="135"/>
-      <c r="AW20" s="136"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="157"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="158"/>
+      <c r="S20" s="162"/>
+      <c r="T20" s="163"/>
+      <c r="U20" s="164"/>
+      <c r="V20" s="159"/>
+      <c r="W20" s="160"/>
+      <c r="X20" s="160"/>
+      <c r="Y20" s="160"/>
+      <c r="Z20" s="160"/>
+      <c r="AA20" s="160"/>
+      <c r="AB20" s="160"/>
+      <c r="AC20" s="160"/>
+      <c r="AD20" s="160"/>
+      <c r="AE20" s="160"/>
+      <c r="AF20" s="160"/>
+      <c r="AG20" s="160"/>
+      <c r="AH20" s="160"/>
+      <c r="AI20" s="160"/>
+      <c r="AJ20" s="160"/>
+      <c r="AK20" s="160"/>
+      <c r="AL20" s="160"/>
+      <c r="AM20" s="161"/>
+      <c r="AN20" s="162"/>
+      <c r="AO20" s="163"/>
+      <c r="AP20" s="163"/>
+      <c r="AQ20" s="163"/>
+      <c r="AR20" s="164"/>
+      <c r="AS20" s="162"/>
+      <c r="AT20" s="163"/>
+      <c r="AU20" s="163"/>
+      <c r="AV20" s="163"/>
+      <c r="AW20" s="164"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="152"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="147"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="149"/>
-      <c r="X21" s="149"/>
-      <c r="Y21" s="149"/>
-      <c r="Z21" s="149"/>
-      <c r="AA21" s="149"/>
-      <c r="AB21" s="149"/>
-      <c r="AC21" s="149"/>
-      <c r="AD21" s="149"/>
-      <c r="AE21" s="149"/>
-      <c r="AF21" s="149"/>
-      <c r="AG21" s="149"/>
-      <c r="AH21" s="149"/>
-      <c r="AI21" s="149"/>
-      <c r="AJ21" s="149"/>
-      <c r="AK21" s="149"/>
-      <c r="AL21" s="149"/>
-      <c r="AM21" s="150"/>
-      <c r="AN21" s="134"/>
-      <c r="AO21" s="135"/>
-      <c r="AP21" s="135"/>
-      <c r="AQ21" s="135"/>
-      <c r="AR21" s="136"/>
-      <c r="AS21" s="134"/>
-      <c r="AT21" s="135"/>
-      <c r="AU21" s="135"/>
-      <c r="AV21" s="135"/>
-      <c r="AW21" s="136"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="158"/>
+      <c r="S21" s="143"/>
+      <c r="T21" s="143"/>
+      <c r="U21" s="143"/>
+      <c r="V21" s="159"/>
+      <c r="W21" s="160"/>
+      <c r="X21" s="160"/>
+      <c r="Y21" s="160"/>
+      <c r="Z21" s="160"/>
+      <c r="AA21" s="160"/>
+      <c r="AB21" s="160"/>
+      <c r="AC21" s="160"/>
+      <c r="AD21" s="160"/>
+      <c r="AE21" s="160"/>
+      <c r="AF21" s="160"/>
+      <c r="AG21" s="160"/>
+      <c r="AH21" s="160"/>
+      <c r="AI21" s="160"/>
+      <c r="AJ21" s="160"/>
+      <c r="AK21" s="160"/>
+      <c r="AL21" s="160"/>
+      <c r="AM21" s="161"/>
+      <c r="AN21" s="162"/>
+      <c r="AO21" s="163"/>
+      <c r="AP21" s="163"/>
+      <c r="AQ21" s="163"/>
+      <c r="AR21" s="164"/>
+      <c r="AS21" s="162"/>
+      <c r="AT21" s="163"/>
+      <c r="AU21" s="163"/>
+      <c r="AV21" s="163"/>
+      <c r="AW21" s="164"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="149"/>
-      <c r="X22" s="149"/>
-      <c r="Y22" s="149"/>
-      <c r="Z22" s="149"/>
-      <c r="AA22" s="149"/>
-      <c r="AB22" s="149"/>
-      <c r="AC22" s="149"/>
-      <c r="AD22" s="149"/>
-      <c r="AE22" s="149"/>
-      <c r="AF22" s="149"/>
-      <c r="AG22" s="149"/>
-      <c r="AH22" s="149"/>
-      <c r="AI22" s="149"/>
-      <c r="AJ22" s="149"/>
-      <c r="AK22" s="149"/>
-      <c r="AL22" s="149"/>
-      <c r="AM22" s="150"/>
-      <c r="AN22" s="134"/>
-      <c r="AO22" s="135"/>
-      <c r="AP22" s="135"/>
-      <c r="AQ22" s="135"/>
-      <c r="AR22" s="136"/>
-      <c r="AS22" s="134"/>
-      <c r="AT22" s="135"/>
-      <c r="AU22" s="135"/>
-      <c r="AV22" s="135"/>
-      <c r="AW22" s="136"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="158"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="143"/>
+      <c r="V22" s="159"/>
+      <c r="W22" s="160"/>
+      <c r="X22" s="160"/>
+      <c r="Y22" s="160"/>
+      <c r="Z22" s="160"/>
+      <c r="AA22" s="160"/>
+      <c r="AB22" s="160"/>
+      <c r="AC22" s="160"/>
+      <c r="AD22" s="160"/>
+      <c r="AE22" s="160"/>
+      <c r="AF22" s="160"/>
+      <c r="AG22" s="160"/>
+      <c r="AH22" s="160"/>
+      <c r="AI22" s="160"/>
+      <c r="AJ22" s="160"/>
+      <c r="AK22" s="160"/>
+      <c r="AL22" s="160"/>
+      <c r="AM22" s="161"/>
+      <c r="AN22" s="162"/>
+      <c r="AO22" s="163"/>
+      <c r="AP22" s="163"/>
+      <c r="AQ22" s="163"/>
+      <c r="AR22" s="164"/>
+      <c r="AS22" s="162"/>
+      <c r="AT22" s="163"/>
+      <c r="AU22" s="163"/>
+      <c r="AV22" s="163"/>
+      <c r="AW22" s="164"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="147"/>
-      <c r="U23" s="147"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="149"/>
-      <c r="X23" s="149"/>
-      <c r="Y23" s="149"/>
-      <c r="Z23" s="149"/>
-      <c r="AA23" s="149"/>
-      <c r="AB23" s="149"/>
-      <c r="AC23" s="149"/>
-      <c r="AD23" s="149"/>
-      <c r="AE23" s="149"/>
-      <c r="AF23" s="149"/>
-      <c r="AG23" s="149"/>
-      <c r="AH23" s="149"/>
-      <c r="AI23" s="149"/>
-      <c r="AJ23" s="149"/>
-      <c r="AK23" s="149"/>
-      <c r="AL23" s="149"/>
-      <c r="AM23" s="150"/>
-      <c r="AN23" s="134"/>
-      <c r="AO23" s="135"/>
-      <c r="AP23" s="135"/>
-      <c r="AQ23" s="135"/>
-      <c r="AR23" s="136"/>
-      <c r="AS23" s="134"/>
-      <c r="AT23" s="135"/>
-      <c r="AU23" s="135"/>
-      <c r="AV23" s="135"/>
-      <c r="AW23" s="136"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="158"/>
+      <c r="S23" s="143"/>
+      <c r="T23" s="143"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="159"/>
+      <c r="W23" s="160"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="160"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="160"/>
+      <c r="AB23" s="160"/>
+      <c r="AC23" s="160"/>
+      <c r="AD23" s="160"/>
+      <c r="AE23" s="160"/>
+      <c r="AF23" s="160"/>
+      <c r="AG23" s="160"/>
+      <c r="AH23" s="160"/>
+      <c r="AI23" s="160"/>
+      <c r="AJ23" s="160"/>
+      <c r="AK23" s="160"/>
+      <c r="AL23" s="160"/>
+      <c r="AM23" s="161"/>
+      <c r="AN23" s="162"/>
+      <c r="AO23" s="163"/>
+      <c r="AP23" s="163"/>
+      <c r="AQ23" s="163"/>
+      <c r="AR23" s="164"/>
+      <c r="AS23" s="162"/>
+      <c r="AT23" s="163"/>
+      <c r="AU23" s="163"/>
+      <c r="AV23" s="163"/>
+      <c r="AW23" s="164"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="149"/>
-      <c r="X24" s="149"/>
-      <c r="Y24" s="149"/>
-      <c r="Z24" s="149"/>
-      <c r="AA24" s="149"/>
-      <c r="AB24" s="149"/>
-      <c r="AC24" s="149"/>
-      <c r="AD24" s="149"/>
-      <c r="AE24" s="149"/>
-      <c r="AF24" s="149"/>
-      <c r="AG24" s="149"/>
-      <c r="AH24" s="149"/>
-      <c r="AI24" s="149"/>
-      <c r="AJ24" s="149"/>
-      <c r="AK24" s="149"/>
-      <c r="AL24" s="149"/>
-      <c r="AM24" s="150"/>
-      <c r="AN24" s="134"/>
-      <c r="AO24" s="135"/>
-      <c r="AP24" s="135"/>
-      <c r="AQ24" s="135"/>
-      <c r="AR24" s="136"/>
-      <c r="AS24" s="134"/>
-      <c r="AT24" s="135"/>
-      <c r="AU24" s="135"/>
-      <c r="AV24" s="135"/>
-      <c r="AW24" s="136"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="157"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="158"/>
+      <c r="S24" s="143"/>
+      <c r="T24" s="143"/>
+      <c r="U24" s="143"/>
+      <c r="V24" s="159"/>
+      <c r="W24" s="160"/>
+      <c r="X24" s="160"/>
+      <c r="Y24" s="160"/>
+      <c r="Z24" s="160"/>
+      <c r="AA24" s="160"/>
+      <c r="AB24" s="160"/>
+      <c r="AC24" s="160"/>
+      <c r="AD24" s="160"/>
+      <c r="AE24" s="160"/>
+      <c r="AF24" s="160"/>
+      <c r="AG24" s="160"/>
+      <c r="AH24" s="160"/>
+      <c r="AI24" s="160"/>
+      <c r="AJ24" s="160"/>
+      <c r="AK24" s="160"/>
+      <c r="AL24" s="160"/>
+      <c r="AM24" s="161"/>
+      <c r="AN24" s="162"/>
+      <c r="AO24" s="163"/>
+      <c r="AP24" s="163"/>
+      <c r="AQ24" s="163"/>
+      <c r="AR24" s="164"/>
+      <c r="AS24" s="162"/>
+      <c r="AT24" s="163"/>
+      <c r="AU24" s="163"/>
+      <c r="AV24" s="163"/>
+      <c r="AW24" s="164"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="152"/>
-      <c r="O25" s="152"/>
-      <c r="P25" s="152"/>
-      <c r="Q25" s="152"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="147"/>
-      <c r="U25" s="147"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="149"/>
-      <c r="X25" s="149"/>
-      <c r="Y25" s="149"/>
-      <c r="Z25" s="149"/>
-      <c r="AA25" s="149"/>
-      <c r="AB25" s="149"/>
-      <c r="AC25" s="149"/>
-      <c r="AD25" s="149"/>
-      <c r="AE25" s="149"/>
-      <c r="AF25" s="149"/>
-      <c r="AG25" s="149"/>
-      <c r="AH25" s="149"/>
-      <c r="AI25" s="149"/>
-      <c r="AJ25" s="149"/>
-      <c r="AK25" s="149"/>
-      <c r="AL25" s="149"/>
-      <c r="AM25" s="150"/>
-      <c r="AN25" s="134"/>
-      <c r="AO25" s="135"/>
-      <c r="AP25" s="135"/>
-      <c r="AQ25" s="135"/>
-      <c r="AR25" s="136"/>
-      <c r="AS25" s="134"/>
-      <c r="AT25" s="135"/>
-      <c r="AU25" s="135"/>
-      <c r="AV25" s="135"/>
-      <c r="AW25" s="136"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="167"/>
+      <c r="N25" s="157"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="157"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="158"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="159"/>
+      <c r="W25" s="160"/>
+      <c r="X25" s="160"/>
+      <c r="Y25" s="160"/>
+      <c r="Z25" s="160"/>
+      <c r="AA25" s="160"/>
+      <c r="AB25" s="160"/>
+      <c r="AC25" s="160"/>
+      <c r="AD25" s="160"/>
+      <c r="AE25" s="160"/>
+      <c r="AF25" s="160"/>
+      <c r="AG25" s="160"/>
+      <c r="AH25" s="160"/>
+      <c r="AI25" s="160"/>
+      <c r="AJ25" s="160"/>
+      <c r="AK25" s="160"/>
+      <c r="AL25" s="160"/>
+      <c r="AM25" s="161"/>
+      <c r="AN25" s="162"/>
+      <c r="AO25" s="163"/>
+      <c r="AP25" s="163"/>
+      <c r="AQ25" s="163"/>
+      <c r="AR25" s="164"/>
+      <c r="AS25" s="162"/>
+      <c r="AT25" s="163"/>
+      <c r="AU25" s="163"/>
+      <c r="AV25" s="163"/>
+      <c r="AW25" s="164"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="147"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="149"/>
-      <c r="X26" s="149"/>
-      <c r="Y26" s="149"/>
-      <c r="Z26" s="149"/>
-      <c r="AA26" s="149"/>
-      <c r="AB26" s="149"/>
-      <c r="AC26" s="149"/>
-      <c r="AD26" s="149"/>
-      <c r="AE26" s="149"/>
-      <c r="AF26" s="149"/>
-      <c r="AG26" s="149"/>
-      <c r="AH26" s="149"/>
-      <c r="AI26" s="149"/>
-      <c r="AJ26" s="149"/>
-      <c r="AK26" s="149"/>
-      <c r="AL26" s="149"/>
-      <c r="AM26" s="150"/>
-      <c r="AN26" s="134"/>
-      <c r="AO26" s="135"/>
-      <c r="AP26" s="135"/>
-      <c r="AQ26" s="135"/>
-      <c r="AR26" s="136"/>
-      <c r="AS26" s="134"/>
-      <c r="AT26" s="135"/>
-      <c r="AU26" s="135"/>
-      <c r="AV26" s="135"/>
-      <c r="AW26" s="136"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="157"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="143"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="160"/>
+      <c r="X26" s="160"/>
+      <c r="Y26" s="160"/>
+      <c r="Z26" s="160"/>
+      <c r="AA26" s="160"/>
+      <c r="AB26" s="160"/>
+      <c r="AC26" s="160"/>
+      <c r="AD26" s="160"/>
+      <c r="AE26" s="160"/>
+      <c r="AF26" s="160"/>
+      <c r="AG26" s="160"/>
+      <c r="AH26" s="160"/>
+      <c r="AI26" s="160"/>
+      <c r="AJ26" s="160"/>
+      <c r="AK26" s="160"/>
+      <c r="AL26" s="160"/>
+      <c r="AM26" s="161"/>
+      <c r="AN26" s="162"/>
+      <c r="AO26" s="163"/>
+      <c r="AP26" s="163"/>
+      <c r="AQ26" s="163"/>
+      <c r="AR26" s="164"/>
+      <c r="AS26" s="162"/>
+      <c r="AT26" s="163"/>
+      <c r="AU26" s="163"/>
+      <c r="AV26" s="163"/>
+      <c r="AW26" s="164"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="152"/>
-      <c r="O27" s="152"/>
-      <c r="P27" s="152"/>
-      <c r="Q27" s="152"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="147"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="147"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="149"/>
-      <c r="X27" s="149"/>
-      <c r="Y27" s="149"/>
-      <c r="Z27" s="149"/>
-      <c r="AA27" s="149"/>
-      <c r="AB27" s="149"/>
-      <c r="AC27" s="149"/>
-      <c r="AD27" s="149"/>
-      <c r="AE27" s="149"/>
-      <c r="AF27" s="149"/>
-      <c r="AG27" s="149"/>
-      <c r="AH27" s="149"/>
-      <c r="AI27" s="149"/>
-      <c r="AJ27" s="149"/>
-      <c r="AK27" s="149"/>
-      <c r="AL27" s="149"/>
-      <c r="AM27" s="150"/>
-      <c r="AN27" s="134"/>
-      <c r="AO27" s="135"/>
-      <c r="AP27" s="135"/>
-      <c r="AQ27" s="135"/>
-      <c r="AR27" s="136"/>
-      <c r="AS27" s="134"/>
-      <c r="AT27" s="135"/>
-      <c r="AU27" s="135"/>
-      <c r="AV27" s="135"/>
-      <c r="AW27" s="136"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="167"/>
+      <c r="N27" s="157"/>
+      <c r="O27" s="157"/>
+      <c r="P27" s="157"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="158"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="143"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="159"/>
+      <c r="W27" s="160"/>
+      <c r="X27" s="160"/>
+      <c r="Y27" s="160"/>
+      <c r="Z27" s="160"/>
+      <c r="AA27" s="160"/>
+      <c r="AB27" s="160"/>
+      <c r="AC27" s="160"/>
+      <c r="AD27" s="160"/>
+      <c r="AE27" s="160"/>
+      <c r="AF27" s="160"/>
+      <c r="AG27" s="160"/>
+      <c r="AH27" s="160"/>
+      <c r="AI27" s="160"/>
+      <c r="AJ27" s="160"/>
+      <c r="AK27" s="160"/>
+      <c r="AL27" s="160"/>
+      <c r="AM27" s="161"/>
+      <c r="AN27" s="162"/>
+      <c r="AO27" s="163"/>
+      <c r="AP27" s="163"/>
+      <c r="AQ27" s="163"/>
+      <c r="AR27" s="164"/>
+      <c r="AS27" s="162"/>
+      <c r="AT27" s="163"/>
+      <c r="AU27" s="163"/>
+      <c r="AV27" s="163"/>
+      <c r="AW27" s="164"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="152"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="147"/>
-      <c r="T28" s="147"/>
-      <c r="U28" s="147"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="149"/>
-      <c r="X28" s="149"/>
-      <c r="Y28" s="149"/>
-      <c r="Z28" s="149"/>
-      <c r="AA28" s="149"/>
-      <c r="AB28" s="149"/>
-      <c r="AC28" s="149"/>
-      <c r="AD28" s="149"/>
-      <c r="AE28" s="149"/>
-      <c r="AF28" s="149"/>
-      <c r="AG28" s="149"/>
-      <c r="AH28" s="149"/>
-      <c r="AI28" s="149"/>
-      <c r="AJ28" s="149"/>
-      <c r="AK28" s="149"/>
-      <c r="AL28" s="149"/>
-      <c r="AM28" s="150"/>
-      <c r="AN28" s="134"/>
-      <c r="AO28" s="135"/>
-      <c r="AP28" s="135"/>
-      <c r="AQ28" s="135"/>
-      <c r="AR28" s="136"/>
-      <c r="AS28" s="134"/>
-      <c r="AT28" s="135"/>
-      <c r="AU28" s="135"/>
-      <c r="AV28" s="135"/>
-      <c r="AW28" s="136"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="158"/>
+      <c r="S28" s="143"/>
+      <c r="T28" s="143"/>
+      <c r="U28" s="143"/>
+      <c r="V28" s="159"/>
+      <c r="W28" s="160"/>
+      <c r="X28" s="160"/>
+      <c r="Y28" s="160"/>
+      <c r="Z28" s="160"/>
+      <c r="AA28" s="160"/>
+      <c r="AB28" s="160"/>
+      <c r="AC28" s="160"/>
+      <c r="AD28" s="160"/>
+      <c r="AE28" s="160"/>
+      <c r="AF28" s="160"/>
+      <c r="AG28" s="160"/>
+      <c r="AH28" s="160"/>
+      <c r="AI28" s="160"/>
+      <c r="AJ28" s="160"/>
+      <c r="AK28" s="160"/>
+      <c r="AL28" s="160"/>
+      <c r="AM28" s="161"/>
+      <c r="AN28" s="162"/>
+      <c r="AO28" s="163"/>
+      <c r="AP28" s="163"/>
+      <c r="AQ28" s="163"/>
+      <c r="AR28" s="164"/>
+      <c r="AS28" s="162"/>
+      <c r="AT28" s="163"/>
+      <c r="AU28" s="163"/>
+      <c r="AV28" s="163"/>
+      <c r="AW28" s="164"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="152"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="152"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="149"/>
-      <c r="X29" s="149"/>
-      <c r="Y29" s="149"/>
-      <c r="Z29" s="149"/>
-      <c r="AA29" s="149"/>
-      <c r="AB29" s="149"/>
-      <c r="AC29" s="149"/>
-      <c r="AD29" s="149"/>
-      <c r="AE29" s="149"/>
-      <c r="AF29" s="149"/>
-      <c r="AG29" s="149"/>
-      <c r="AH29" s="149"/>
-      <c r="AI29" s="149"/>
-      <c r="AJ29" s="149"/>
-      <c r="AK29" s="149"/>
-      <c r="AL29" s="149"/>
-      <c r="AM29" s="150"/>
-      <c r="AN29" s="134"/>
-      <c r="AO29" s="135"/>
-      <c r="AP29" s="135"/>
-      <c r="AQ29" s="135"/>
-      <c r="AR29" s="136"/>
-      <c r="AS29" s="134"/>
-      <c r="AT29" s="135"/>
-      <c r="AU29" s="135"/>
-      <c r="AV29" s="135"/>
-      <c r="AW29" s="136"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="158"/>
+      <c r="S29" s="143"/>
+      <c r="T29" s="143"/>
+      <c r="U29" s="143"/>
+      <c r="V29" s="159"/>
+      <c r="W29" s="160"/>
+      <c r="X29" s="160"/>
+      <c r="Y29" s="160"/>
+      <c r="Z29" s="160"/>
+      <c r="AA29" s="160"/>
+      <c r="AB29" s="160"/>
+      <c r="AC29" s="160"/>
+      <c r="AD29" s="160"/>
+      <c r="AE29" s="160"/>
+      <c r="AF29" s="160"/>
+      <c r="AG29" s="160"/>
+      <c r="AH29" s="160"/>
+      <c r="AI29" s="160"/>
+      <c r="AJ29" s="160"/>
+      <c r="AK29" s="160"/>
+      <c r="AL29" s="160"/>
+      <c r="AM29" s="161"/>
+      <c r="AN29" s="162"/>
+      <c r="AO29" s="163"/>
+      <c r="AP29" s="163"/>
+      <c r="AQ29" s="163"/>
+      <c r="AR29" s="164"/>
+      <c r="AS29" s="162"/>
+      <c r="AT29" s="163"/>
+      <c r="AU29" s="163"/>
+      <c r="AV29" s="163"/>
+      <c r="AW29" s="164"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="143"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="152"/>
-      <c r="R30" s="153"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="147"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="149"/>
-      <c r="X30" s="149"/>
-      <c r="Y30" s="149"/>
-      <c r="Z30" s="149"/>
-      <c r="AA30" s="149"/>
-      <c r="AB30" s="149"/>
-      <c r="AC30" s="149"/>
-      <c r="AD30" s="149"/>
-      <c r="AE30" s="149"/>
-      <c r="AF30" s="149"/>
-      <c r="AG30" s="149"/>
-      <c r="AH30" s="149"/>
-      <c r="AI30" s="149"/>
-      <c r="AJ30" s="149"/>
-      <c r="AK30" s="149"/>
-      <c r="AL30" s="149"/>
-      <c r="AM30" s="150"/>
-      <c r="AN30" s="134"/>
-      <c r="AO30" s="135"/>
-      <c r="AP30" s="135"/>
-      <c r="AQ30" s="135"/>
-      <c r="AR30" s="136"/>
-      <c r="AS30" s="134"/>
-      <c r="AT30" s="135"/>
-      <c r="AU30" s="135"/>
-      <c r="AV30" s="135"/>
-      <c r="AW30" s="136"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="157"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="158"/>
+      <c r="S30" s="143"/>
+      <c r="T30" s="143"/>
+      <c r="U30" s="143"/>
+      <c r="V30" s="159"/>
+      <c r="W30" s="160"/>
+      <c r="X30" s="160"/>
+      <c r="Y30" s="160"/>
+      <c r="Z30" s="160"/>
+      <c r="AA30" s="160"/>
+      <c r="AB30" s="160"/>
+      <c r="AC30" s="160"/>
+      <c r="AD30" s="160"/>
+      <c r="AE30" s="160"/>
+      <c r="AF30" s="160"/>
+      <c r="AG30" s="160"/>
+      <c r="AH30" s="160"/>
+      <c r="AI30" s="160"/>
+      <c r="AJ30" s="160"/>
+      <c r="AK30" s="160"/>
+      <c r="AL30" s="160"/>
+      <c r="AM30" s="161"/>
+      <c r="AN30" s="162"/>
+      <c r="AO30" s="163"/>
+      <c r="AP30" s="163"/>
+      <c r="AQ30" s="163"/>
+      <c r="AR30" s="164"/>
+      <c r="AS30" s="162"/>
+      <c r="AT30" s="163"/>
+      <c r="AU30" s="163"/>
+      <c r="AV30" s="163"/>
+      <c r="AW30" s="164"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="142"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="152"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="152"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="147"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="149"/>
-      <c r="X31" s="149"/>
-      <c r="Y31" s="149"/>
-      <c r="Z31" s="149"/>
-      <c r="AA31" s="149"/>
-      <c r="AB31" s="149"/>
-      <c r="AC31" s="149"/>
-      <c r="AD31" s="149"/>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="149"/>
-      <c r="AG31" s="149"/>
-      <c r="AH31" s="149"/>
-      <c r="AI31" s="149"/>
-      <c r="AJ31" s="149"/>
-      <c r="AK31" s="149"/>
-      <c r="AL31" s="149"/>
-      <c r="AM31" s="150"/>
-      <c r="AN31" s="134"/>
-      <c r="AO31" s="135"/>
-      <c r="AP31" s="135"/>
-      <c r="AQ31" s="135"/>
-      <c r="AR31" s="136"/>
-      <c r="AS31" s="134"/>
-      <c r="AT31" s="135"/>
-      <c r="AU31" s="135"/>
-      <c r="AV31" s="135"/>
-      <c r="AW31" s="136"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="167"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="158"/>
+      <c r="S31" s="143"/>
+      <c r="T31" s="143"/>
+      <c r="U31" s="143"/>
+      <c r="V31" s="159"/>
+      <c r="W31" s="160"/>
+      <c r="X31" s="160"/>
+      <c r="Y31" s="160"/>
+      <c r="Z31" s="160"/>
+      <c r="AA31" s="160"/>
+      <c r="AB31" s="160"/>
+      <c r="AC31" s="160"/>
+      <c r="AD31" s="160"/>
+      <c r="AE31" s="160"/>
+      <c r="AF31" s="160"/>
+      <c r="AG31" s="160"/>
+      <c r="AH31" s="160"/>
+      <c r="AI31" s="160"/>
+      <c r="AJ31" s="160"/>
+      <c r="AK31" s="160"/>
+      <c r="AL31" s="160"/>
+      <c r="AM31" s="161"/>
+      <c r="AN31" s="162"/>
+      <c r="AO31" s="163"/>
+      <c r="AP31" s="163"/>
+      <c r="AQ31" s="163"/>
+      <c r="AR31" s="164"/>
+      <c r="AS31" s="162"/>
+      <c r="AT31" s="163"/>
+      <c r="AU31" s="163"/>
+      <c r="AV31" s="163"/>
+      <c r="AW31" s="164"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
-      <c r="B32" s="137"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="142"/>
-      <c r="L32" s="143"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="152"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="152"/>
-      <c r="R32" s="153"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="149"/>
-      <c r="X32" s="149"/>
-      <c r="Y32" s="149"/>
-      <c r="Z32" s="149"/>
-      <c r="AA32" s="149"/>
-      <c r="AB32" s="149"/>
-      <c r="AC32" s="149"/>
-      <c r="AD32" s="149"/>
-      <c r="AE32" s="149"/>
-      <c r="AF32" s="149"/>
-      <c r="AG32" s="149"/>
-      <c r="AH32" s="149"/>
-      <c r="AI32" s="149"/>
-      <c r="AJ32" s="149"/>
-      <c r="AK32" s="149"/>
-      <c r="AL32" s="149"/>
-      <c r="AM32" s="150"/>
-      <c r="AN32" s="134"/>
-      <c r="AO32" s="135"/>
-      <c r="AP32" s="135"/>
-      <c r="AQ32" s="135"/>
-      <c r="AR32" s="136"/>
-      <c r="AS32" s="134"/>
-      <c r="AT32" s="135"/>
-      <c r="AU32" s="135"/>
-      <c r="AV32" s="135"/>
-      <c r="AW32" s="136"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="157"/>
+      <c r="O32" s="157"/>
+      <c r="P32" s="157"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="158"/>
+      <c r="S32" s="143"/>
+      <c r="T32" s="143"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="159"/>
+      <c r="W32" s="160"/>
+      <c r="X32" s="160"/>
+      <c r="Y32" s="160"/>
+      <c r="Z32" s="160"/>
+      <c r="AA32" s="160"/>
+      <c r="AB32" s="160"/>
+      <c r="AC32" s="160"/>
+      <c r="AD32" s="160"/>
+      <c r="AE32" s="160"/>
+      <c r="AF32" s="160"/>
+      <c r="AG32" s="160"/>
+      <c r="AH32" s="160"/>
+      <c r="AI32" s="160"/>
+      <c r="AJ32" s="160"/>
+      <c r="AK32" s="160"/>
+      <c r="AL32" s="160"/>
+      <c r="AM32" s="161"/>
+      <c r="AN32" s="162"/>
+      <c r="AO32" s="163"/>
+      <c r="AP32" s="163"/>
+      <c r="AQ32" s="163"/>
+      <c r="AR32" s="164"/>
+      <c r="AS32" s="162"/>
+      <c r="AT32" s="163"/>
+      <c r="AU32" s="163"/>
+      <c r="AV32" s="163"/>
+      <c r="AW32" s="164"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="137"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="143"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="152"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="152"/>
-      <c r="R33" s="153"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="147"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="149"/>
-      <c r="X33" s="149"/>
-      <c r="Y33" s="149"/>
-      <c r="Z33" s="149"/>
-      <c r="AA33" s="149"/>
-      <c r="AB33" s="149"/>
-      <c r="AC33" s="149"/>
-      <c r="AD33" s="149"/>
-      <c r="AE33" s="149"/>
-      <c r="AF33" s="149"/>
-      <c r="AG33" s="149"/>
-      <c r="AH33" s="149"/>
-      <c r="AI33" s="149"/>
-      <c r="AJ33" s="149"/>
-      <c r="AK33" s="149"/>
-      <c r="AL33" s="149"/>
-      <c r="AM33" s="150"/>
-      <c r="AN33" s="134"/>
-      <c r="AO33" s="135"/>
-      <c r="AP33" s="135"/>
-      <c r="AQ33" s="135"/>
-      <c r="AR33" s="136"/>
-      <c r="AS33" s="134"/>
-      <c r="AT33" s="135"/>
-      <c r="AU33" s="135"/>
-      <c r="AV33" s="135"/>
-      <c r="AW33" s="136"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="157"/>
+      <c r="P33" s="157"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="158"/>
+      <c r="S33" s="143"/>
+      <c r="T33" s="143"/>
+      <c r="U33" s="143"/>
+      <c r="V33" s="159"/>
+      <c r="W33" s="160"/>
+      <c r="X33" s="160"/>
+      <c r="Y33" s="160"/>
+      <c r="Z33" s="160"/>
+      <c r="AA33" s="160"/>
+      <c r="AB33" s="160"/>
+      <c r="AC33" s="160"/>
+      <c r="AD33" s="160"/>
+      <c r="AE33" s="160"/>
+      <c r="AF33" s="160"/>
+      <c r="AG33" s="160"/>
+      <c r="AH33" s="160"/>
+      <c r="AI33" s="160"/>
+      <c r="AJ33" s="160"/>
+      <c r="AK33" s="160"/>
+      <c r="AL33" s="160"/>
+      <c r="AM33" s="161"/>
+      <c r="AN33" s="162"/>
+      <c r="AO33" s="163"/>
+      <c r="AP33" s="163"/>
+      <c r="AQ33" s="163"/>
+      <c r="AR33" s="164"/>
+      <c r="AS33" s="162"/>
+      <c r="AT33" s="163"/>
+      <c r="AU33" s="163"/>
+      <c r="AV33" s="163"/>
+      <c r="AW33" s="164"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="137"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="144"/>
-      <c r="N34" s="145"/>
-      <c r="O34" s="145"/>
-      <c r="P34" s="145"/>
-      <c r="Q34" s="145"/>
-      <c r="R34" s="146"/>
-      <c r="S34" s="147"/>
-      <c r="T34" s="147"/>
-      <c r="U34" s="147"/>
-      <c r="V34" s="148"/>
-      <c r="W34" s="149"/>
-      <c r="X34" s="149"/>
-      <c r="Y34" s="149"/>
-      <c r="Z34" s="149"/>
-      <c r="AA34" s="149"/>
-      <c r="AB34" s="149"/>
-      <c r="AC34" s="149"/>
-      <c r="AD34" s="149"/>
-      <c r="AE34" s="149"/>
-      <c r="AF34" s="149"/>
-      <c r="AG34" s="149"/>
-      <c r="AH34" s="149"/>
-      <c r="AI34" s="149"/>
-      <c r="AJ34" s="149"/>
-      <c r="AK34" s="149"/>
-      <c r="AL34" s="149"/>
-      <c r="AM34" s="150"/>
-      <c r="AN34" s="134"/>
-      <c r="AO34" s="135"/>
-      <c r="AP34" s="135"/>
-      <c r="AQ34" s="135"/>
-      <c r="AR34" s="136"/>
-      <c r="AS34" s="134"/>
-      <c r="AT34" s="135"/>
-      <c r="AU34" s="135"/>
-      <c r="AV34" s="135"/>
-      <c r="AW34" s="136"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="171"/>
+      <c r="N34" s="172"/>
+      <c r="O34" s="172"/>
+      <c r="P34" s="172"/>
+      <c r="Q34" s="172"/>
+      <c r="R34" s="173"/>
+      <c r="S34" s="143"/>
+      <c r="T34" s="143"/>
+      <c r="U34" s="143"/>
+      <c r="V34" s="159"/>
+      <c r="W34" s="160"/>
+      <c r="X34" s="160"/>
+      <c r="Y34" s="160"/>
+      <c r="Z34" s="160"/>
+      <c r="AA34" s="160"/>
+      <c r="AB34" s="160"/>
+      <c r="AC34" s="160"/>
+      <c r="AD34" s="160"/>
+      <c r="AE34" s="160"/>
+      <c r="AF34" s="160"/>
+      <c r="AG34" s="160"/>
+      <c r="AH34" s="160"/>
+      <c r="AI34" s="160"/>
+      <c r="AJ34" s="160"/>
+      <c r="AK34" s="160"/>
+      <c r="AL34" s="160"/>
+      <c r="AM34" s="161"/>
+      <c r="AN34" s="162"/>
+      <c r="AO34" s="163"/>
+      <c r="AP34" s="163"/>
+      <c r="AQ34" s="163"/>
+      <c r="AR34" s="164"/>
+      <c r="AS34" s="162"/>
+      <c r="AT34" s="163"/>
+      <c r="AU34" s="163"/>
+      <c r="AV34" s="163"/>
+      <c r="AW34" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -7166,230 +7369,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7521,7 +7509,7 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" s="98"/>
       <c r="T2" s="98"/>
@@ -7549,11 +7537,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="174"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="175"/>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="176"/>
+      <c r="AO2" s="178"/>
+      <c r="AP2" s="179"/>
+      <c r="AQ2" s="179"/>
+      <c r="AR2" s="179"/>
+      <c r="AS2" s="180"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -7562,14 +7550,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="177"/>
-      <c r="BA2" s="178"/>
-      <c r="BB2" s="178"/>
-      <c r="BC2" s="178"/>
-      <c r="BD2" s="178"/>
-      <c r="BE2" s="178"/>
-      <c r="BF2" s="178"/>
-      <c r="BG2" s="179"/>
+      <c r="AZ2" s="181"/>
+      <c r="BA2" s="182"/>
+      <c r="BB2" s="182"/>
+      <c r="BC2" s="182"/>
+      <c r="BD2" s="182"/>
+      <c r="BE2" s="182"/>
+      <c r="BF2" s="182"/>
+      <c r="BG2" s="183"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -7650,7 +7638,7 @@
     </row>
     <row r="8" spans="1:59" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="83"/>
       <c r="D8" s="83"/>
@@ -8755,7 +8743,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O36" s="9"/>
       <c r="T36" s="9"/>
@@ -8764,7 +8752,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -8804,7 +8792,7 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O37" s="9"/>
       <c r="T37" s="9"/>
@@ -8851,7 +8839,7 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O38" s="9"/>
       <c r="T38" s="9"/>
@@ -9326,10 +9314,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="182" t="s">
+      <c r="B50" s="184" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="183"/>
+      <c r="C50" s="185"/>
       <c r="D50" s="91" t="s">
         <v>105</v>
       </c>
@@ -9412,12 +9400,12 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="184">
+      <c r="B51" s="176">
         <v>1</v>
       </c>
-      <c r="C51" s="185"/>
+      <c r="C51" s="177"/>
       <c r="D51" s="116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E51" s="89"/>
       <c r="F51" s="89"/>
@@ -9426,7 +9414,7 @@
       <c r="I51" s="89"/>
       <c r="J51" s="117"/>
       <c r="K51" s="116" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L51" s="89"/>
       <c r="M51" s="89"/>
@@ -9447,18 +9435,18 @@
       <c r="AB51" s="89"/>
       <c r="AC51" s="89"/>
       <c r="AD51" s="117"/>
-      <c r="AE51" s="180" t="s">
+      <c r="AE51" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AF51" s="181"/>
-      <c r="AG51" s="180"/>
-      <c r="AH51" s="181"/>
-      <c r="AI51" s="180"/>
-      <c r="AJ51" s="181"/>
-      <c r="AK51" s="180"/>
-      <c r="AL51" s="181"/>
+      <c r="AF51" s="175"/>
+      <c r="AG51" s="174"/>
+      <c r="AH51" s="175"/>
+      <c r="AI51" s="174"/>
+      <c r="AJ51" s="175"/>
+      <c r="AK51" s="174"/>
+      <c r="AL51" s="175"/>
       <c r="AM51" s="86" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AN51" s="87"/>
       <c r="AO51" s="87"/>
@@ -9490,12 +9478,12 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="184">
+      <c r="B52" s="176">
         <v>2</v>
       </c>
-      <c r="C52" s="185"/>
+      <c r="C52" s="177"/>
       <c r="D52" s="116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E52" s="89"/>
       <c r="F52" s="89"/>
@@ -9504,7 +9492,7 @@
       <c r="I52" s="89"/>
       <c r="J52" s="117"/>
       <c r="K52" s="116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L52" s="89"/>
       <c r="M52" s="89"/>
@@ -9525,18 +9513,18 @@
       <c r="AB52" s="89"/>
       <c r="AC52" s="89"/>
       <c r="AD52" s="117"/>
-      <c r="AE52" s="180" t="s">
+      <c r="AE52" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AF52" s="181"/>
-      <c r="AG52" s="180"/>
-      <c r="AH52" s="181"/>
-      <c r="AI52" s="180"/>
-      <c r="AJ52" s="181"/>
-      <c r="AK52" s="180"/>
-      <c r="AL52" s="181"/>
+      <c r="AF52" s="175"/>
+      <c r="AG52" s="174"/>
+      <c r="AH52" s="175"/>
+      <c r="AI52" s="174"/>
+      <c r="AJ52" s="175"/>
+      <c r="AK52" s="174"/>
+      <c r="AL52" s="175"/>
       <c r="AM52" s="86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AN52" s="87"/>
       <c r="AO52" s="87"/>
@@ -9568,12 +9556,12 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="184">
+      <c r="B53" s="176">
         <v>3</v>
       </c>
-      <c r="C53" s="185"/>
+      <c r="C53" s="177"/>
       <c r="D53" s="116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E53" s="89"/>
       <c r="F53" s="89"/>
@@ -9582,7 +9570,7 @@
       <c r="I53" s="89"/>
       <c r="J53" s="111"/>
       <c r="K53" s="110" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L53" s="89"/>
       <c r="M53" s="89"/>
@@ -9603,18 +9591,18 @@
       <c r="AB53" s="89"/>
       <c r="AC53" s="89"/>
       <c r="AD53" s="111"/>
-      <c r="AE53" s="180" t="s">
+      <c r="AE53" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AF53" s="181"/>
-      <c r="AG53" s="180"/>
-      <c r="AH53" s="181"/>
-      <c r="AI53" s="180"/>
-      <c r="AJ53" s="181"/>
-      <c r="AK53" s="180"/>
-      <c r="AL53" s="181"/>
+      <c r="AF53" s="175"/>
+      <c r="AG53" s="174"/>
+      <c r="AH53" s="175"/>
+      <c r="AI53" s="174"/>
+      <c r="AJ53" s="175"/>
+      <c r="AK53" s="174"/>
+      <c r="AL53" s="175"/>
       <c r="AM53" s="86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AN53" s="87"/>
       <c r="AO53" s="87"/>
@@ -9646,12 +9634,12 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="184">
+      <c r="B54" s="176">
         <v>4</v>
       </c>
-      <c r="C54" s="185"/>
+      <c r="C54" s="177"/>
       <c r="D54" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E54" s="89"/>
       <c r="F54" s="89"/>
@@ -9660,7 +9648,7 @@
       <c r="I54" s="89"/>
       <c r="J54" s="90"/>
       <c r="K54" s="85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L54" s="89"/>
       <c r="M54" s="89"/>
@@ -9681,24 +9669,24 @@
       <c r="AB54" s="89"/>
       <c r="AC54" s="89"/>
       <c r="AD54" s="90"/>
-      <c r="AE54" s="180" t="s">
+      <c r="AE54" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AF54" s="181"/>
-      <c r="AG54" s="180" t="s">
+      <c r="AF54" s="175"/>
+      <c r="AG54" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AH54" s="181"/>
-      <c r="AI54" s="180" t="s">
+      <c r="AH54" s="175"/>
+      <c r="AI54" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AJ54" s="181"/>
-      <c r="AK54" s="180" t="s">
+      <c r="AJ54" s="175"/>
+      <c r="AK54" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AL54" s="181"/>
+      <c r="AL54" s="175"/>
       <c r="AM54" s="86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AN54" s="87"/>
       <c r="AO54" s="87"/>
@@ -9735,13 +9723,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK54:AL54"/>
@@ -9758,11 +9739,18 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -9778,7 +9766,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DH6"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft"/>
@@ -9903,7 +9891,7 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="177" t="str">
+      <c r="CU1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -9976,7 +9964,7 @@
       <c r="AS2" s="99"/>
       <c r="AT2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
-        <v>設備マスタメンテ</v>
+        <v>設備マスタ</v>
       </c>
       <c r="AU2" s="193"/>
       <c r="AV2" s="193"/>
@@ -10034,7 +10022,7 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="177"/>
+      <c r="CU2" s="181"/>
       <c r="CV2" s="186"/>
       <c r="CW2" s="186"/>
       <c r="CX2" s="186"/>
@@ -10129,9 +10117,9 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="topRight" activeCell="L31" sqref="L31"/>
@@ -10214,7 +10202,7 @@
       </c>
       <c r="G2" s="37" t="str">
         <f>'１．機能概要'!W2</f>
-        <v>設備マスタメンテ</v>
+        <v>設備マスタ</v>
       </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
@@ -10252,37 +10240,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="167" t="s">
+      <c r="D6" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="167" t="s">
+      <c r="E6" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="167" t="s">
+      <c r="F6" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="167" t="s">
+      <c r="G6" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="167" t="s">
+      <c r="H6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="197" t="s">
+      <c r="I6" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="197" t="s">
+      <c r="J6" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="167" t="s">
+      <c r="K6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="167" t="s">
+      <c r="L6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="167" t="s">
+      <c r="M6" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="72" t="s">
@@ -10290,24 +10278,24 @@
       </c>
       <c r="O6" s="72"/>
       <c r="P6" s="72"/>
-      <c r="Q6" s="197" t="s">
+      <c r="Q6" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
       <c r="N7" s="43" t="s">
         <v>82</v>
       </c>
@@ -10317,7 +10305,7 @@
       <c r="P7" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="197"/>
+      <c r="Q7" s="195"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -10365,7 +10353,7 @@
         <v>34</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -10378,10 +10366,10 @@
         <v>59</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>117</v>
@@ -10414,7 +10402,7 @@
         <v>34</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -10427,10 +10415,10 @@
         <v>60</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>117</v>
@@ -10463,7 +10451,7 @@
         <v>34</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -10476,10 +10464,10 @@
         <v>61</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>117</v>
@@ -10512,7 +10500,7 @@
         <v>34</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -10522,7 +10510,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="44" t="s">
         <v>52</v>
@@ -10561,7 +10549,7 @@
         <v>34</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
@@ -10571,13 +10559,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>39</v>
@@ -10610,7 +10598,7 @@
         <v>34</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
@@ -10620,7 +10608,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>42</v>
@@ -10659,7 +10647,7 @@
         <v>34</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
@@ -10675,37 +10663,37 @@
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="167" t="s">
+      <c r="D17" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="167" t="s">
+      <c r="E17" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="167" t="s">
+      <c r="F17" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="167" t="s">
+      <c r="G17" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="167" t="s">
+      <c r="H17" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="195" t="s">
+      <c r="I17" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="197" t="s">
+      <c r="J17" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="167" t="s">
+      <c r="K17" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="167" t="s">
+      <c r="L17" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="167" t="s">
+      <c r="M17" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N17" s="72" t="s">
@@ -10713,24 +10701,24 @@
       </c>
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
-      <c r="Q17" s="195" t="s">
+      <c r="Q17" s="196" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
-      <c r="M18" s="167"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="195"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
       <c r="N18" s="43" t="s">
         <v>82</v>
       </c>
@@ -10740,7 +10728,7 @@
       <c r="P18" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="196"/>
+      <c r="Q18" s="197"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
@@ -10752,10 +10740,10 @@
         <v>62</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>118</v>
@@ -10773,19 +10761,19 @@
         <v>83</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>34</v>
@@ -10804,37 +10792,37 @@
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="64"/>
-      <c r="C22" s="167" t="s">
+      <c r="C22" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="167" t="s">
+      <c r="D22" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="167" t="s">
+      <c r="E22" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="167" t="s">
+      <c r="F22" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="167" t="s">
+      <c r="G22" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="167" t="s">
+      <c r="H22" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="197" t="s">
+      <c r="I22" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="197" t="s">
+      <c r="J22" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="167" t="s">
+      <c r="K22" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="167" t="s">
+      <c r="L22" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="167" t="s">
+      <c r="M22" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="72" t="s">
@@ -10842,24 +10830,24 @@
       </c>
       <c r="O22" s="72"/>
       <c r="P22" s="72"/>
-      <c r="Q22" s="197" t="s">
+      <c r="Q22" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="64"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="197"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="167"/>
-      <c r="L23" s="167"/>
-      <c r="M23" s="167"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
       <c r="N23" s="43" t="s">
         <v>82</v>
       </c>
@@ -10869,7 +10857,7 @@
       <c r="P23" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q23" s="197"/>
+      <c r="Q23" s="195"/>
     </row>
     <row r="24" spans="1:17" s="51" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
@@ -10954,10 +10942,10 @@
         <v>83</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="45" t="s">
         <v>196</v>
-      </c>
-      <c r="G26" s="45" t="s">
-        <v>197</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>35</v>
@@ -10972,7 +10960,7 @@
         <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>34</v>
@@ -11000,10 +10988,10 @@
         <v>65</v>
       </c>
       <c r="E27" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>50</v>
@@ -11033,7 +11021,7 @@
         <v>35</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>35</v>
@@ -11049,10 +11037,10 @@
         <v>66</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G28" s="45" t="s">
         <v>50</v>
@@ -11073,7 +11061,7 @@
         <v>35</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>34</v>
@@ -11082,10 +11070,10 @@
         <v>35</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11098,10 +11086,10 @@
         <v>67</v>
       </c>
       <c r="E29" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>118</v>
@@ -11122,7 +11110,7 @@
         <v>35</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>34</v>
@@ -11131,10 +11119,10 @@
         <v>35</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11147,10 +11135,10 @@
         <v>133</v>
       </c>
       <c r="E30" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>118</v>
@@ -11180,7 +11168,7 @@
         <v>35</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>35</v>
@@ -11193,13 +11181,13 @@
         <v>7</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>118</v>
@@ -11229,7 +11217,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>35</v>
@@ -11242,13 +11230,13 @@
         <v>8</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E32" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>118</v>
@@ -11278,7 +11266,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -11291,13 +11279,13 @@
         <v>9</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G33" s="45" t="s">
         <v>50</v>
@@ -11327,7 +11315,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>35</v>
@@ -11361,37 +11349,37 @@
     <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="64"/>
-      <c r="C36" s="167" t="s">
+      <c r="C36" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="167" t="s">
+      <c r="D36" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="167" t="s">
+      <c r="E36" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="167" t="s">
+      <c r="F36" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="167" t="s">
+      <c r="G36" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="167" t="s">
+      <c r="H36" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="197" t="s">
+      <c r="I36" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="J36" s="197" t="s">
+      <c r="J36" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="167" t="s">
+      <c r="K36" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L36" s="167" t="s">
+      <c r="L36" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="167" t="s">
+      <c r="M36" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N36" s="72" t="s">
@@ -11399,24 +11387,24 @@
       </c>
       <c r="O36" s="72"/>
       <c r="P36" s="72"/>
-      <c r="Q36" s="197" t="s">
+      <c r="Q36" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="64"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="197"/>
-      <c r="J37" s="197"/>
-      <c r="K37" s="167"/>
-      <c r="L37" s="167"/>
-      <c r="M37" s="167"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="195"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
       <c r="N37" s="96" t="s">
         <v>82</v>
       </c>
@@ -11426,43 +11414,71 @@
       <c r="P37" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="Q37" s="197"/>
-    </row>
-    <row r="38" spans="1:17" s="51" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="57"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="50"/>
-    </row>
-    <row r="39" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="Q37" s="195"/>
+    </row>
+    <row r="38" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G38" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="129">
+        <v>4</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="64"/>
       <c r="C39" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="G39" s="45" t="s">
         <v>119</v>
@@ -11471,7 +11487,7 @@
         <v>120</v>
       </c>
       <c r="I39" s="129">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>35</v>
@@ -11495,32 +11511,32 @@
         <v>34</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
       <c r="B40" s="64"/>
       <c r="C40" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G40" s="45" t="s">
-        <v>119</v>
+        <v>201</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I40" s="129">
-        <v>20</v>
+      <c r="I40" s="129" t="s">
+        <v>35</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>35</v>
@@ -11531,36 +11547,36 @@
       <c r="L40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M40" s="8" t="s">
-        <v>168</v>
+      <c r="M40" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="O40" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
       <c r="B41" s="64"/>
       <c r="C41" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>118</v>
@@ -11581,10 +11597,10 @@
         <v>35</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>34</v>
@@ -11593,23 +11609,23 @@
         <v>229</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>227</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="64"/>
       <c r="C42" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>162</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>118</v>
@@ -11633,7 +11649,7 @@
         <v>35</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>34</v>
@@ -11645,29 +11661,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="64"/>
       <c r="C43" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>118</v>
+        <v>218</v>
+      </c>
+      <c r="G43" s="45" t="s">
+        <v>119</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I43" s="129" t="s">
-        <v>35</v>
+      <c r="I43" s="129">
+        <v>8</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>35</v>
@@ -11678,45 +11694,45 @@
       <c r="L43" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M43" s="7" t="s">
-        <v>35</v>
+      <c r="M43" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A44" s="15"/>
       <c r="B44" s="64"/>
       <c r="C44" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>220</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G44" s="45" t="s">
-        <v>119</v>
+        <v>205</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I44" s="129">
-        <v>8</v>
+      <c r="I44" s="129" t="s">
+        <v>35</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>35</v>
@@ -11727,11 +11743,11 @@
       <c r="L44" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="M44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N44" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>34</v>
@@ -11743,29 +11759,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="15"/>
       <c r="B45" s="64"/>
       <c r="C45" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>221</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>118</v>
+      <c r="G45" s="45" t="s">
+        <v>119</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I45" s="129" t="s">
-        <v>35</v>
+      <c r="I45" s="129">
+        <v>50</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>35</v>
@@ -11776,112 +11792,31 @@
       <c r="L45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="M45" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="N45" s="8"/>
+      <c r="O45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N45" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q45" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="15"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="7">
-        <v>8</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G46" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I46" s="129">
-        <v>50</v>
-      </c>
-      <c r="J46" s="7" t="s">
+      <c r="P45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L46" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="N46" s="8"/>
-      <c r="O46" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" s="52" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B47" s="66"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="M47" s="53"/>
-      <c r="Q47" s="53"/>
+    </row>
+    <row r="46" spans="1:17" s="52" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B46" s="66"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="M46" s="53"/>
+      <c r="Q46" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="I22:I23"/>
@@ -11898,6 +11833,38 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11971,7 +11938,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="174">
+      <c r="AI1" s="178">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -11987,7 +11954,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="177" t="str">
+      <c r="AT1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -12026,7 +11993,7 @@
       <c r="R2" s="39"/>
       <c r="S2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
-        <v>設備マスタメンテ</v>
+        <v>設備マスタ</v>
       </c>
       <c r="T2" s="193"/>
       <c r="U2" s="193"/>
@@ -12058,7 +12025,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="177"/>
+      <c r="AT2" s="181"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -12415,7 +12382,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="23"/>
       <c r="L11" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
@@ -12518,7 +12485,7 @@
       <c r="K13" s="76"/>
       <c r="L13" s="24"/>
       <c r="M13" s="130" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N13" s="130"/>
       <c r="O13" s="130"/>
@@ -12569,7 +12536,7 @@
       <c r="K14" s="76"/>
       <c r="L14" s="24"/>
       <c r="N14" s="130" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O14" s="130"/>
       <c r="P14" s="130"/>
@@ -12668,7 +12635,7 @@
       <c r="K16" s="76"/>
       <c r="L16" s="24"/>
       <c r="M16" s="130" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N16" s="130"/>
       <c r="O16" s="130"/>
@@ -12720,7 +12687,7 @@
       <c r="L17" s="24"/>
       <c r="M17" s="130"/>
       <c r="N17" s="130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O17" s="130"/>
       <c r="P17" s="130"/>
@@ -12731,16 +12698,16 @@
       <c r="U17" s="130"/>
       <c r="V17" s="130"/>
       <c r="X17" s="130" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y17" s="130" t="s">
         <v>240</v>
-      </c>
-      <c r="Y17" s="130" t="s">
-        <v>241</v>
       </c>
       <c r="Z17" s="130"/>
       <c r="AA17" s="130"/>
       <c r="AB17" s="130"/>
       <c r="AG17" s="130" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH17" s="130"/>
       <c r="AI17" s="130"/>
@@ -12827,7 +12794,7 @@
       <c r="K20" s="76"/>
       <c r="L20" s="24"/>
       <c r="N20" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AJ20" s="24"/>
       <c r="AK20" s="24"/>
@@ -12857,7 +12824,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -12948,20 +12915,20 @@
         <v>3</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="23"/>
       <c r="G23" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="23"/>
       <c r="L23" s="75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
@@ -13014,7 +12981,7 @@
       <c r="J24" s="24"/>
       <c r="K24" s="76"/>
       <c r="L24" s="75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
@@ -13114,7 +13081,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="76"/>
       <c r="L26" s="75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -13165,7 +13132,7 @@
       <c r="J27" s="24"/>
       <c r="K27" s="76"/>
       <c r="L27" s="75" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
@@ -13265,7 +13232,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="76"/>
       <c r="L29" s="75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
@@ -13358,20 +13325,20 @@
         <v>4</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="23"/>
       <c r="G31" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="23"/>
       <c r="L31" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -13424,7 +13391,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="76"/>
       <c r="L32" s="75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
@@ -13524,7 +13491,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="76"/>
       <c r="L34" s="75" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
@@ -13617,20 +13584,20 @@
         <v>5</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="23"/>
       <c r="G36" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
       <c r="K36" s="23"/>
       <c r="L36" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -13787,7 +13754,7 @@
       <c r="J39" s="22"/>
       <c r="K39" s="23"/>
       <c r="L39" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -13931,20 +13898,20 @@
         <v>7</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="23"/>
       <c r="G42" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="23"/>
       <c r="L42" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -14101,7 +14068,7 @@
       <c r="J45" s="22"/>
       <c r="K45" s="23"/>
       <c r="L45" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -21507,7 +21474,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="174">
+      <c r="AI1" s="178">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -21523,7 +21490,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="177" t="str">
+      <c r="AT1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -21562,7 +21529,7 @@
       <c r="R2" s="39"/>
       <c r="S2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
-        <v>設備マスタメンテ</v>
+        <v>設備マスタ</v>
       </c>
       <c r="T2" s="193"/>
       <c r="U2" s="193"/>
@@ -21594,7 +21561,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="177"/>
+      <c r="AT2" s="181"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -21968,7 +21935,7 @@
       <c r="AB9" s="22"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22"/>
@@ -22045,7 +22012,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -22068,7 +22035,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="23"/>
       <c r="T11" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
@@ -22281,7 +22248,7 @@
       <c r="O15" s="22"/>
       <c r="P15" s="23"/>
       <c r="Q15" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R15" s="22"/>
       <c r="S15" s="23"/>
@@ -22296,7 +22263,7 @@
       <c r="AB15" s="118"/>
       <c r="AC15" s="119"/>
       <c r="AD15" s="77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE15" s="78"/>
       <c r="AF15" s="78"/>
@@ -22393,20 +22360,20 @@
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="206" t="s">
-        <v>135</v>
-      </c>
-      <c r="U17" s="207"/>
-      <c r="V17" s="207"/>
-      <c r="W17" s="207"/>
-      <c r="X17" s="207"/>
-      <c r="Y17" s="207"/>
-      <c r="Z17" s="207"/>
-      <c r="AA17" s="207"/>
-      <c r="AB17" s="207"/>
-      <c r="AC17" s="208"/>
+      <c r="T17" s="200" t="s">
+        <v>272</v>
+      </c>
+      <c r="U17" s="201"/>
+      <c r="V17" s="201"/>
+      <c r="W17" s="201"/>
+      <c r="X17" s="201"/>
+      <c r="Y17" s="201"/>
+      <c r="Z17" s="201"/>
+      <c r="AA17" s="201"/>
+      <c r="AB17" s="201"/>
+      <c r="AC17" s="202"/>
       <c r="AD17" s="77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE17" s="78"/>
       <c r="AF17" s="78"/>
@@ -22447,16 +22414,16 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="26"/>
       <c r="S18" s="27"/>
-      <c r="T18" s="209"/>
-      <c r="U18" s="210"/>
-      <c r="V18" s="210"/>
-      <c r="W18" s="210"/>
-      <c r="X18" s="210"/>
-      <c r="Y18" s="210"/>
-      <c r="Z18" s="210"/>
-      <c r="AA18" s="210"/>
-      <c r="AB18" s="210"/>
-      <c r="AC18" s="211"/>
+      <c r="T18" s="203"/>
+      <c r="U18" s="204"/>
+      <c r="V18" s="204"/>
+      <c r="W18" s="204"/>
+      <c r="X18" s="204"/>
+      <c r="Y18" s="204"/>
+      <c r="Z18" s="204"/>
+      <c r="AA18" s="204"/>
+      <c r="AB18" s="204"/>
+      <c r="AC18" s="205"/>
       <c r="AD18" s="80"/>
       <c r="AE18" s="81"/>
       <c r="AF18" s="81"/>
@@ -22483,7 +22450,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -22506,7 +22473,7 @@
       <c r="R19" s="22"/>
       <c r="S19" s="23"/>
       <c r="T19" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U19" s="22"/>
       <c r="V19" s="22"/>
@@ -22712,7 +22679,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="76"/>
       <c r="J23" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
@@ -22725,20 +22692,20 @@
       </c>
       <c r="R23" s="22"/>
       <c r="S23" s="23"/>
-      <c r="T23" s="206" t="s">
-        <v>140</v>
-      </c>
-      <c r="U23" s="207"/>
-      <c r="V23" s="207"/>
-      <c r="W23" s="207"/>
-      <c r="X23" s="207"/>
-      <c r="Y23" s="207"/>
-      <c r="Z23" s="207"/>
-      <c r="AA23" s="207"/>
-      <c r="AB23" s="207"/>
-      <c r="AC23" s="208"/>
+      <c r="T23" s="200" t="s">
+        <v>139</v>
+      </c>
+      <c r="U23" s="201"/>
+      <c r="V23" s="201"/>
+      <c r="W23" s="201"/>
+      <c r="X23" s="201"/>
+      <c r="Y23" s="201"/>
+      <c r="Z23" s="201"/>
+      <c r="AA23" s="201"/>
+      <c r="AB23" s="201"/>
+      <c r="AC23" s="202"/>
       <c r="AD23" s="77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AE23" s="78"/>
       <c r="AF23" s="78"/>
@@ -22779,16 +22746,16 @@
       <c r="Q24" s="25"/>
       <c r="R24" s="26"/>
       <c r="S24" s="27"/>
-      <c r="T24" s="209"/>
-      <c r="U24" s="210"/>
-      <c r="V24" s="210"/>
-      <c r="W24" s="210"/>
-      <c r="X24" s="210"/>
-      <c r="Y24" s="210"/>
-      <c r="Z24" s="210"/>
-      <c r="AA24" s="210"/>
-      <c r="AB24" s="210"/>
-      <c r="AC24" s="211"/>
+      <c r="T24" s="203"/>
+      <c r="U24" s="204"/>
+      <c r="V24" s="204"/>
+      <c r="W24" s="204"/>
+      <c r="X24" s="204"/>
+      <c r="Y24" s="204"/>
+      <c r="Z24" s="204"/>
+      <c r="AA24" s="204"/>
+      <c r="AB24" s="204"/>
+      <c r="AC24" s="205"/>
       <c r="AD24" s="80"/>
       <c r="AE24" s="81"/>
       <c r="AF24" s="81"/>
@@ -22829,7 +22796,7 @@
       <c r="O25" s="22"/>
       <c r="P25" s="23"/>
       <c r="Q25" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R25" s="22"/>
       <c r="S25" s="23"/>
@@ -22844,7 +22811,7 @@
       <c r="AB25" s="118"/>
       <c r="AC25" s="119"/>
       <c r="AD25" s="77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AE25" s="78"/>
       <c r="AF25" s="78"/>
@@ -22928,7 +22895,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="76"/>
       <c r="J27" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
@@ -22941,20 +22908,20 @@
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="23"/>
-      <c r="T27" s="212" t="s">
-        <v>272</v>
-      </c>
-      <c r="U27" s="213"/>
-      <c r="V27" s="213"/>
-      <c r="W27" s="213"/>
-      <c r="X27" s="213"/>
-      <c r="Y27" s="213"/>
-      <c r="Z27" s="213"/>
-      <c r="AA27" s="213"/>
-      <c r="AB27" s="213"/>
-      <c r="AC27" s="214"/>
+      <c r="T27" s="206" t="s">
+        <v>270</v>
+      </c>
+      <c r="U27" s="207"/>
+      <c r="V27" s="207"/>
+      <c r="W27" s="207"/>
+      <c r="X27" s="207"/>
+      <c r="Y27" s="207"/>
+      <c r="Z27" s="207"/>
+      <c r="AA27" s="207"/>
+      <c r="AB27" s="207"/>
+      <c r="AC27" s="208"/>
       <c r="AD27" s="77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AE27" s="78"/>
       <c r="AF27" s="78"/>
@@ -22995,16 +22962,16 @@
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
-      <c r="T28" s="215"/>
-      <c r="U28" s="216"/>
-      <c r="V28" s="216"/>
-      <c r="W28" s="216"/>
-      <c r="X28" s="216"/>
-      <c r="Y28" s="216"/>
-      <c r="Z28" s="216"/>
-      <c r="AA28" s="216"/>
-      <c r="AB28" s="216"/>
-      <c r="AC28" s="217"/>
+      <c r="T28" s="209"/>
+      <c r="U28" s="210"/>
+      <c r="V28" s="210"/>
+      <c r="W28" s="210"/>
+      <c r="X28" s="210"/>
+      <c r="Y28" s="210"/>
+      <c r="Z28" s="210"/>
+      <c r="AA28" s="210"/>
+      <c r="AB28" s="210"/>
+      <c r="AC28" s="211"/>
       <c r="AD28" s="80"/>
       <c r="AE28" s="81"/>
       <c r="AF28" s="81"/>
@@ -23031,7 +22998,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -23040,7 +23007,7 @@
       <c r="H29" s="22"/>
       <c r="I29" s="23"/>
       <c r="J29" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
@@ -23053,20 +23020,20 @@
       </c>
       <c r="R29" s="22"/>
       <c r="S29" s="23"/>
-      <c r="T29" s="206" t="s">
-        <v>139</v>
-      </c>
-      <c r="U29" s="207"/>
-      <c r="V29" s="207"/>
-      <c r="W29" s="207"/>
-      <c r="X29" s="207"/>
-      <c r="Y29" s="207"/>
-      <c r="Z29" s="207"/>
-      <c r="AA29" s="207"/>
-      <c r="AB29" s="207"/>
-      <c r="AC29" s="208"/>
+      <c r="T29" s="200" t="s">
+        <v>138</v>
+      </c>
+      <c r="U29" s="201"/>
+      <c r="V29" s="201"/>
+      <c r="W29" s="201"/>
+      <c r="X29" s="201"/>
+      <c r="Y29" s="201"/>
+      <c r="Z29" s="201"/>
+      <c r="AA29" s="201"/>
+      <c r="AB29" s="201"/>
+      <c r="AC29" s="202"/>
       <c r="AD29" s="77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE29" s="78"/>
       <c r="AF29" s="78"/>
@@ -23107,16 +23074,16 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="26"/>
       <c r="S30" s="27"/>
-      <c r="T30" s="209"/>
-      <c r="U30" s="210"/>
-      <c r="V30" s="210"/>
-      <c r="W30" s="210"/>
-      <c r="X30" s="210"/>
-      <c r="Y30" s="210"/>
-      <c r="Z30" s="210"/>
-      <c r="AA30" s="210"/>
-      <c r="AB30" s="210"/>
-      <c r="AC30" s="211"/>
+      <c r="T30" s="203"/>
+      <c r="U30" s="204"/>
+      <c r="V30" s="204"/>
+      <c r="W30" s="204"/>
+      <c r="X30" s="204"/>
+      <c r="Y30" s="204"/>
+      <c r="Z30" s="204"/>
+      <c r="AA30" s="204"/>
+      <c r="AB30" s="204"/>
+      <c r="AC30" s="205"/>
       <c r="AD30" s="80"/>
       <c r="AE30" s="81"/>
       <c r="AF30" s="81"/>
@@ -23157,7 +23124,7 @@
       <c r="O31" s="22"/>
       <c r="P31" s="23"/>
       <c r="Q31" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R31" s="22"/>
       <c r="S31" s="23"/>
@@ -23172,7 +23139,7 @@
       <c r="AB31" s="118"/>
       <c r="AC31" s="119"/>
       <c r="AD31" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE31" s="78"/>
       <c r="AF31" s="78"/>
@@ -23249,7 +23216,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D33" s="78"/>
       <c r="E33" s="78"/>
@@ -23258,7 +23225,7 @@
       <c r="H33" s="78"/>
       <c r="I33" s="79"/>
       <c r="J33" s="77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K33" s="78"/>
       <c r="L33" s="78"/>
@@ -23282,7 +23249,7 @@
       <c r="AB33" s="78"/>
       <c r="AC33" s="78"/>
       <c r="AD33" s="77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AE33" s="78"/>
       <c r="AF33" s="78"/>
@@ -23390,7 +23357,7 @@
       <c r="AB35" s="78"/>
       <c r="AC35" s="78"/>
       <c r="AD35" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE35" s="78"/>
       <c r="AF35" s="78"/>
@@ -23487,20 +23454,20 @@
       </c>
       <c r="R37" s="78"/>
       <c r="S37" s="79"/>
-      <c r="T37" s="200" t="s">
+      <c r="T37" s="212" t="s">
+        <v>262</v>
+      </c>
+      <c r="U37" s="213"/>
+      <c r="V37" s="213"/>
+      <c r="W37" s="213"/>
+      <c r="X37" s="213"/>
+      <c r="Y37" s="213"/>
+      <c r="Z37" s="213"/>
+      <c r="AA37" s="213"/>
+      <c r="AB37" s="213"/>
+      <c r="AC37" s="214"/>
+      <c r="AD37" s="77" t="s">
         <v>263</v>
-      </c>
-      <c r="U37" s="201"/>
-      <c r="V37" s="201"/>
-      <c r="W37" s="201"/>
-      <c r="X37" s="201"/>
-      <c r="Y37" s="201"/>
-      <c r="Z37" s="201"/>
-      <c r="AA37" s="201"/>
-      <c r="AB37" s="201"/>
-      <c r="AC37" s="202"/>
-      <c r="AD37" s="77" t="s">
-        <v>264</v>
       </c>
       <c r="AE37" s="78"/>
       <c r="AF37" s="78"/>
@@ -23541,16 +23508,16 @@
       <c r="Q38" s="80"/>
       <c r="R38" s="81"/>
       <c r="S38" s="82"/>
-      <c r="T38" s="203"/>
-      <c r="U38" s="204"/>
-      <c r="V38" s="204"/>
-      <c r="W38" s="204"/>
-      <c r="X38" s="204"/>
-      <c r="Y38" s="204"/>
-      <c r="Z38" s="204"/>
-      <c r="AA38" s="204"/>
-      <c r="AB38" s="204"/>
-      <c r="AC38" s="205"/>
+      <c r="T38" s="215"/>
+      <c r="U38" s="216"/>
+      <c r="V38" s="216"/>
+      <c r="W38" s="216"/>
+      <c r="X38" s="216"/>
+      <c r="Y38" s="216"/>
+      <c r="Z38" s="216"/>
+      <c r="AA38" s="216"/>
+      <c r="AB38" s="216"/>
+      <c r="AC38" s="217"/>
       <c r="AD38" s="80"/>
       <c r="AE38" s="81"/>
       <c r="AF38" s="81"/>
@@ -23596,7 +23563,7 @@
       <c r="R39" s="78"/>
       <c r="S39" s="79"/>
       <c r="T39" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U39" s="123"/>
       <c r="V39" s="123"/>
@@ -23608,7 +23575,7 @@
       <c r="AB39" s="123"/>
       <c r="AC39" s="124"/>
       <c r="AD39" s="77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AE39" s="78"/>
       <c r="AF39" s="78"/>
@@ -27676,6 +27643,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="T37:AC38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B29:B30"/>
@@ -27692,18 +27671,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="T37:AC38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -27777,7 +27744,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="174">
+      <c r="AI1" s="178">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -27793,7 +27760,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="177" t="str">
+      <c r="AT1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -27832,7 +27799,7 @@
       <c r="R2" s="39"/>
       <c r="S2" s="192" t="str">
         <f>'１．機能概要'!W2</f>
-        <v>設備マスタメンテ</v>
+        <v>設備マスタ</v>
       </c>
       <c r="T2" s="193"/>
       <c r="U2" s="193"/>
@@ -27864,7 +27831,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="177"/>
+      <c r="AT2" s="181"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -28150,10 +28117,10 @@
       <c r="A8" s="57"/>
       <c r="B8" s="57"/>
       <c r="C8" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
@@ -28208,10 +28175,10 @@
       <c r="A9" s="57"/>
       <c r="B9" s="57"/>
       <c r="C9" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
@@ -28267,7 +28234,7 @@
       <c r="B10" s="57"/>
       <c r="C10" s="57"/>
       <c r="D10" s="57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
@@ -39091,6 +39058,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -39248,12 +39221,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
@@ -39263,6 +39230,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39278,13 +39254,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/06_SC-M_マスタ系/SC-M10_設備マスタ.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/SC-M10_設備マスタ.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5987E260-AB73-496D-9F12-C698014388F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B764D28-5627-442D-92DD-D5D7CEA7659A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'１．機能概要'!$A$1:$BG$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'２．レイアウト'!$A$1:$DH$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'３．項目一覧'!$A$1:$Q$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'３．項目一覧'!$A$1:$Q$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'５．メッセージ仕様'!$A$1:$AZ$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'６．補足事項'!$A$1:$AZ$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AW$35</definedName>
@@ -125,11 +125,14 @@
     <definedName name="振分けポリシー">#REF!</definedName>
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -137,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="275">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1961,6 +1964,13 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>RSLT-DTL1-010</t>
+  </si>
+  <si>
+    <t>設備マスタの表示順序</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -2835,6 +2845,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2862,103 +2957,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2977,10 +2975,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3010,13 +3020,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3024,6 +3034,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3059,24 +3087,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4105,8 +4115,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="22167397" y="10289721"/>
-          <a:ext cx="6372225" cy="4139293"/>
+          <a:off x="21314910" y="10408784"/>
+          <a:ext cx="6129337" cy="4189299"/>
           <a:chOff x="6857979" y="28984575"/>
           <a:chExt cx="6369263" cy="4143375"/>
         </a:xfrm>
@@ -4425,10 +4435,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23496786-010E-4CAC-9596-65B9769F6FFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1909EAD3-08C1-47A5-8828-DAE54CD1124E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5365,1770 +5375,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
-      <c r="AQ1" s="134"/>
-      <c r="AR1" s="134"/>
-      <c r="AS1" s="134"/>
-      <c r="AT1" s="134"/>
-      <c r="AU1" s="134"/>
-      <c r="AV1" s="134"/>
-      <c r="AW1" s="134"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="165"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="165"/>
+      <c r="AJ1" s="165"/>
+      <c r="AK1" s="165"/>
+      <c r="AL1" s="165"/>
+      <c r="AM1" s="165"/>
+      <c r="AN1" s="165"/>
+      <c r="AO1" s="165"/>
+      <c r="AP1" s="165"/>
+      <c r="AQ1" s="165"/>
+      <c r="AR1" s="165"/>
+      <c r="AS1" s="165"/>
+      <c r="AT1" s="165"/>
+      <c r="AU1" s="165"/>
+      <c r="AV1" s="165"/>
+      <c r="AW1" s="165"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="166"/>
+      <c r="AJ2" s="166"/>
+      <c r="AK2" s="166"/>
+      <c r="AL2" s="166"/>
+      <c r="AM2" s="166"/>
+      <c r="AN2" s="166"/>
+      <c r="AO2" s="166"/>
+      <c r="AP2" s="166"/>
+      <c r="AQ2" s="166"/>
+      <c r="AR2" s="166"/>
+      <c r="AS2" s="166"/>
+      <c r="AT2" s="166"/>
+      <c r="AU2" s="166"/>
+      <c r="AV2" s="166"/>
+      <c r="AW2" s="166"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136" t="s">
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="137" t="s">
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="138"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="137" t="s">
+      <c r="K3" s="169"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="136" t="s">
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136" t="s">
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136" t="s">
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="167"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="167"/>
+      <c r="AJ3" s="167"/>
+      <c r="AK3" s="167"/>
+      <c r="AL3" s="167"/>
+      <c r="AM3" s="167"/>
+      <c r="AN3" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="136" t="s">
+      <c r="AO3" s="167"/>
+      <c r="AP3" s="167"/>
+      <c r="AQ3" s="167"/>
+      <c r="AR3" s="167"/>
+      <c r="AS3" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="136"/>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136"/>
-      <c r="AW3" s="136"/>
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="167"/>
+      <c r="AV3" s="167"/>
+      <c r="AW3" s="167"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="136"/>
-      <c r="AM4" s="136"/>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="136"/>
-      <c r="AR4" s="136"/>
-      <c r="AS4" s="136"/>
-      <c r="AT4" s="136"/>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="172"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AD4" s="167"/>
+      <c r="AE4" s="167"/>
+      <c r="AF4" s="167"/>
+      <c r="AG4" s="167"/>
+      <c r="AH4" s="167"/>
+      <c r="AI4" s="167"/>
+      <c r="AJ4" s="167"/>
+      <c r="AK4" s="167"/>
+      <c r="AL4" s="167"/>
+      <c r="AM4" s="167"/>
+      <c r="AN4" s="167"/>
+      <c r="AO4" s="167"/>
+      <c r="AP4" s="167"/>
+      <c r="AQ4" s="167"/>
+      <c r="AR4" s="167"/>
+      <c r="AS4" s="167"/>
+      <c r="AT4" s="167"/>
+      <c r="AU4" s="167"/>
+      <c r="AV4" s="167"/>
+      <c r="AW4" s="167"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
-      <c r="B5" s="144">
+      <c r="B5" s="159">
         <v>1</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145">
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="140">
         <v>43703</v>
       </c>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="146" t="s">
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="146" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="143" t="s">
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="152" t="s">
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="152"/>
-      <c r="X5" s="152"/>
-      <c r="Y5" s="152"/>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="152"/>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="152"/>
-      <c r="AE5" s="152"/>
-      <c r="AF5" s="152"/>
-      <c r="AG5" s="152"/>
-      <c r="AH5" s="152"/>
-      <c r="AI5" s="152"/>
-      <c r="AJ5" s="152"/>
-      <c r="AK5" s="152"/>
-      <c r="AL5" s="152"/>
-      <c r="AM5" s="152"/>
-      <c r="AN5" s="143" t="s">
+      <c r="W5" s="158"/>
+      <c r="X5" s="158"/>
+      <c r="Y5" s="158"/>
+      <c r="Z5" s="158"/>
+      <c r="AA5" s="158"/>
+      <c r="AB5" s="158"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="158"/>
+      <c r="AE5" s="158"/>
+      <c r="AF5" s="158"/>
+      <c r="AG5" s="158"/>
+      <c r="AH5" s="158"/>
+      <c r="AI5" s="158"/>
+      <c r="AJ5" s="158"/>
+      <c r="AK5" s="158"/>
+      <c r="AL5" s="158"/>
+      <c r="AM5" s="158"/>
+      <c r="AN5" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="AO5" s="143"/>
-      <c r="AP5" s="143"/>
-      <c r="AQ5" s="143"/>
-      <c r="AR5" s="143"/>
-      <c r="AS5" s="143"/>
-      <c r="AT5" s="143"/>
-      <c r="AU5" s="143"/>
-      <c r="AV5" s="143"/>
-      <c r="AW5" s="143"/>
+      <c r="AO5" s="147"/>
+      <c r="AP5" s="147"/>
+      <c r="AQ5" s="147"/>
+      <c r="AR5" s="147"/>
+      <c r="AS5" s="147"/>
+      <c r="AT5" s="147"/>
+      <c r="AU5" s="147"/>
+      <c r="AV5" s="147"/>
+      <c r="AW5" s="147"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="143"/>
-      <c r="T6" s="143"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="152"/>
-      <c r="W6" s="152"/>
-      <c r="X6" s="152"/>
-      <c r="Y6" s="152"/>
-      <c r="Z6" s="152"/>
-      <c r="AA6" s="152"/>
-      <c r="AB6" s="152"/>
-      <c r="AC6" s="152"/>
-      <c r="AD6" s="152"/>
-      <c r="AE6" s="152"/>
-      <c r="AF6" s="152"/>
-      <c r="AG6" s="152"/>
-      <c r="AH6" s="152"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="152"/>
-      <c r="AK6" s="152"/>
-      <c r="AL6" s="152"/>
-      <c r="AM6" s="152"/>
-      <c r="AN6" s="143"/>
-      <c r="AO6" s="143"/>
-      <c r="AP6" s="143"/>
-      <c r="AQ6" s="143"/>
-      <c r="AR6" s="143"/>
-      <c r="AS6" s="143"/>
-      <c r="AT6" s="143"/>
-      <c r="AU6" s="143"/>
-      <c r="AV6" s="143"/>
-      <c r="AW6" s="143"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="158"/>
+      <c r="AB6" s="158"/>
+      <c r="AC6" s="158"/>
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="158"/>
+      <c r="AG6" s="158"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="158"/>
+      <c r="AJ6" s="158"/>
+      <c r="AK6" s="158"/>
+      <c r="AL6" s="158"/>
+      <c r="AM6" s="158"/>
+      <c r="AN6" s="147"/>
+      <c r="AO6" s="147"/>
+      <c r="AP6" s="147"/>
+      <c r="AQ6" s="147"/>
+      <c r="AR6" s="147"/>
+      <c r="AS6" s="147"/>
+      <c r="AT6" s="147"/>
+      <c r="AU6" s="147"/>
+      <c r="AV6" s="147"/>
+      <c r="AW6" s="147"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="152"/>
-      <c r="W7" s="152"/>
-      <c r="X7" s="152"/>
-      <c r="Y7" s="152"/>
-      <c r="Z7" s="152"/>
-      <c r="AA7" s="152"/>
-      <c r="AB7" s="152"/>
-      <c r="AC7" s="152"/>
-      <c r="AD7" s="152"/>
-      <c r="AE7" s="152"/>
-      <c r="AF7" s="152"/>
-      <c r="AG7" s="152"/>
-      <c r="AH7" s="152"/>
-      <c r="AI7" s="152"/>
-      <c r="AJ7" s="152"/>
-      <c r="AK7" s="152"/>
-      <c r="AL7" s="152"/>
-      <c r="AM7" s="152"/>
-      <c r="AN7" s="143"/>
-      <c r="AO7" s="143"/>
-      <c r="AP7" s="143"/>
-      <c r="AQ7" s="143"/>
-      <c r="AR7" s="143"/>
-      <c r="AS7" s="143"/>
-      <c r="AT7" s="143"/>
-      <c r="AU7" s="143"/>
-      <c r="AV7" s="143"/>
-      <c r="AW7" s="143"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="147"/>
+      <c r="T7" s="147"/>
+      <c r="U7" s="147"/>
+      <c r="V7" s="158"/>
+      <c r="W7" s="158"/>
+      <c r="X7" s="158"/>
+      <c r="Y7" s="158"/>
+      <c r="Z7" s="158"/>
+      <c r="AA7" s="158"/>
+      <c r="AB7" s="158"/>
+      <c r="AC7" s="158"/>
+      <c r="AD7" s="158"/>
+      <c r="AE7" s="158"/>
+      <c r="AF7" s="158"/>
+      <c r="AG7" s="158"/>
+      <c r="AH7" s="158"/>
+      <c r="AI7" s="158"/>
+      <c r="AJ7" s="158"/>
+      <c r="AK7" s="158"/>
+      <c r="AL7" s="158"/>
+      <c r="AM7" s="158"/>
+      <c r="AN7" s="147"/>
+      <c r="AO7" s="147"/>
+      <c r="AP7" s="147"/>
+      <c r="AQ7" s="147"/>
+      <c r="AR7" s="147"/>
+      <c r="AS7" s="147"/>
+      <c r="AT7" s="147"/>
+      <c r="AU7" s="147"/>
+      <c r="AV7" s="147"/>
+      <c r="AW7" s="147"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="150"/>
-      <c r="R8" s="151"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="152"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="152"/>
-      <c r="AE8" s="152"/>
-      <c r="AF8" s="152"/>
-      <c r="AG8" s="152"/>
-      <c r="AH8" s="152"/>
-      <c r="AI8" s="152"/>
-      <c r="AJ8" s="152"/>
-      <c r="AK8" s="152"/>
-      <c r="AL8" s="152"/>
-      <c r="AM8" s="152"/>
-      <c r="AN8" s="143"/>
-      <c r="AO8" s="143"/>
-      <c r="AP8" s="143"/>
-      <c r="AQ8" s="143"/>
-      <c r="AR8" s="143"/>
-      <c r="AS8" s="143"/>
-      <c r="AT8" s="143"/>
-      <c r="AU8" s="143"/>
-      <c r="AV8" s="143"/>
-      <c r="AW8" s="143"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="158"/>
+      <c r="W8" s="158"/>
+      <c r="X8" s="158"/>
+      <c r="Y8" s="158"/>
+      <c r="Z8" s="158"/>
+      <c r="AA8" s="158"/>
+      <c r="AB8" s="158"/>
+      <c r="AC8" s="158"/>
+      <c r="AD8" s="158"/>
+      <c r="AE8" s="158"/>
+      <c r="AF8" s="158"/>
+      <c r="AG8" s="158"/>
+      <c r="AH8" s="158"/>
+      <c r="AI8" s="158"/>
+      <c r="AJ8" s="158"/>
+      <c r="AK8" s="158"/>
+      <c r="AL8" s="158"/>
+      <c r="AM8" s="158"/>
+      <c r="AN8" s="147"/>
+      <c r="AO8" s="147"/>
+      <c r="AP8" s="147"/>
+      <c r="AQ8" s="147"/>
+      <c r="AR8" s="147"/>
+      <c r="AS8" s="147"/>
+      <c r="AT8" s="147"/>
+      <c r="AU8" s="147"/>
+      <c r="AV8" s="147"/>
+      <c r="AW8" s="147"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="152"/>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="152"/>
-      <c r="AC9" s="152"/>
-      <c r="AD9" s="152"/>
-      <c r="AE9" s="152"/>
-      <c r="AF9" s="152"/>
-      <c r="AG9" s="152"/>
-      <c r="AH9" s="152"/>
-      <c r="AI9" s="152"/>
-      <c r="AJ9" s="152"/>
-      <c r="AK9" s="152"/>
-      <c r="AL9" s="152"/>
-      <c r="AM9" s="152"/>
-      <c r="AN9" s="143"/>
-      <c r="AO9" s="143"/>
-      <c r="AP9" s="143"/>
-      <c r="AQ9" s="143"/>
-      <c r="AR9" s="143"/>
-      <c r="AS9" s="143"/>
-      <c r="AT9" s="143"/>
-      <c r="AU9" s="143"/>
-      <c r="AV9" s="143"/>
-      <c r="AW9" s="143"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="158"/>
+      <c r="W9" s="158"/>
+      <c r="X9" s="158"/>
+      <c r="Y9" s="158"/>
+      <c r="Z9" s="158"/>
+      <c r="AA9" s="158"/>
+      <c r="AB9" s="158"/>
+      <c r="AC9" s="158"/>
+      <c r="AD9" s="158"/>
+      <c r="AE9" s="158"/>
+      <c r="AF9" s="158"/>
+      <c r="AG9" s="158"/>
+      <c r="AH9" s="158"/>
+      <c r="AI9" s="158"/>
+      <c r="AJ9" s="158"/>
+      <c r="AK9" s="158"/>
+      <c r="AL9" s="158"/>
+      <c r="AM9" s="158"/>
+      <c r="AN9" s="147"/>
+      <c r="AO9" s="147"/>
+      <c r="AP9" s="147"/>
+      <c r="AQ9" s="147"/>
+      <c r="AR9" s="147"/>
+      <c r="AS9" s="147"/>
+      <c r="AT9" s="147"/>
+      <c r="AU9" s="147"/>
+      <c r="AV9" s="147"/>
+      <c r="AW9" s="147"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="150"/>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="152"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="152"/>
-      <c r="AE10" s="152"/>
-      <c r="AF10" s="152"/>
-      <c r="AG10" s="152"/>
-      <c r="AH10" s="152"/>
-      <c r="AI10" s="152"/>
-      <c r="AJ10" s="152"/>
-      <c r="AK10" s="152"/>
-      <c r="AL10" s="152"/>
-      <c r="AM10" s="152"/>
-      <c r="AN10" s="143"/>
-      <c r="AO10" s="143"/>
-      <c r="AP10" s="143"/>
-      <c r="AQ10" s="143"/>
-      <c r="AR10" s="143"/>
-      <c r="AS10" s="143"/>
-      <c r="AT10" s="143"/>
-      <c r="AU10" s="143"/>
-      <c r="AV10" s="143"/>
-      <c r="AW10" s="143"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="158"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="158"/>
+      <c r="Y10" s="158"/>
+      <c r="Z10" s="158"/>
+      <c r="AA10" s="158"/>
+      <c r="AB10" s="158"/>
+      <c r="AC10" s="158"/>
+      <c r="AD10" s="158"/>
+      <c r="AE10" s="158"/>
+      <c r="AF10" s="158"/>
+      <c r="AG10" s="158"/>
+      <c r="AH10" s="158"/>
+      <c r="AI10" s="158"/>
+      <c r="AJ10" s="158"/>
+      <c r="AK10" s="158"/>
+      <c r="AL10" s="158"/>
+      <c r="AM10" s="158"/>
+      <c r="AN10" s="147"/>
+      <c r="AO10" s="147"/>
+      <c r="AP10" s="147"/>
+      <c r="AQ10" s="147"/>
+      <c r="AR10" s="147"/>
+      <c r="AS10" s="147"/>
+      <c r="AT10" s="147"/>
+      <c r="AU10" s="147"/>
+      <c r="AV10" s="147"/>
+      <c r="AW10" s="147"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="159"/>
-      <c r="W11" s="165"/>
-      <c r="X11" s="165"/>
-      <c r="Y11" s="165"/>
-      <c r="Z11" s="165"/>
-      <c r="AA11" s="165"/>
-      <c r="AB11" s="165"/>
-      <c r="AC11" s="165"/>
-      <c r="AD11" s="165"/>
-      <c r="AE11" s="165"/>
-      <c r="AF11" s="165"/>
-      <c r="AG11" s="165"/>
-      <c r="AH11" s="165"/>
-      <c r="AI11" s="165"/>
-      <c r="AJ11" s="165"/>
-      <c r="AK11" s="165"/>
-      <c r="AL11" s="165"/>
-      <c r="AM11" s="166"/>
-      <c r="AN11" s="143"/>
-      <c r="AO11" s="143"/>
-      <c r="AP11" s="143"/>
-      <c r="AQ11" s="143"/>
-      <c r="AR11" s="143"/>
-      <c r="AS11" s="143"/>
-      <c r="AT11" s="143"/>
-      <c r="AU11" s="143"/>
-      <c r="AV11" s="143"/>
-      <c r="AW11" s="143"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="147"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="160"/>
+      <c r="X11" s="160"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="160"/>
+      <c r="AA11" s="160"/>
+      <c r="AB11" s="160"/>
+      <c r="AC11" s="160"/>
+      <c r="AD11" s="160"/>
+      <c r="AE11" s="160"/>
+      <c r="AF11" s="160"/>
+      <c r="AG11" s="160"/>
+      <c r="AH11" s="160"/>
+      <c r="AI11" s="160"/>
+      <c r="AJ11" s="160"/>
+      <c r="AK11" s="160"/>
+      <c r="AL11" s="160"/>
+      <c r="AM11" s="161"/>
+      <c r="AN11" s="147"/>
+      <c r="AO11" s="147"/>
+      <c r="AP11" s="147"/>
+      <c r="AQ11" s="147"/>
+      <c r="AR11" s="147"/>
+      <c r="AS11" s="147"/>
+      <c r="AT11" s="147"/>
+      <c r="AU11" s="147"/>
+      <c r="AV11" s="147"/>
+      <c r="AW11" s="147"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="157"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="158"/>
-      <c r="S12" s="143"/>
-      <c r="T12" s="143"/>
-      <c r="U12" s="143"/>
-      <c r="V12" s="159"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="160"/>
-      <c r="AA12" s="160"/>
-      <c r="AB12" s="160"/>
-      <c r="AC12" s="160"/>
-      <c r="AD12" s="160"/>
-      <c r="AE12" s="160"/>
-      <c r="AF12" s="160"/>
-      <c r="AG12" s="160"/>
-      <c r="AH12" s="160"/>
-      <c r="AI12" s="160"/>
-      <c r="AJ12" s="160"/>
-      <c r="AK12" s="160"/>
-      <c r="AL12" s="160"/>
-      <c r="AM12" s="161"/>
-      <c r="AN12" s="162"/>
-      <c r="AO12" s="163"/>
-      <c r="AP12" s="163"/>
-      <c r="AQ12" s="163"/>
-      <c r="AR12" s="164"/>
-      <c r="AS12" s="162"/>
-      <c r="AT12" s="163"/>
-      <c r="AU12" s="163"/>
-      <c r="AV12" s="163"/>
-      <c r="AW12" s="164"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="149"/>
+      <c r="AG12" s="149"/>
+      <c r="AH12" s="149"/>
+      <c r="AI12" s="149"/>
+      <c r="AJ12" s="149"/>
+      <c r="AK12" s="149"/>
+      <c r="AL12" s="149"/>
+      <c r="AM12" s="150"/>
+      <c r="AN12" s="134"/>
+      <c r="AO12" s="135"/>
+      <c r="AP12" s="135"/>
+      <c r="AQ12" s="135"/>
+      <c r="AR12" s="136"/>
+      <c r="AS12" s="134"/>
+      <c r="AT12" s="135"/>
+      <c r="AU12" s="135"/>
+      <c r="AV12" s="135"/>
+      <c r="AW12" s="136"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="158"/>
-      <c r="S13" s="143"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="143"/>
-      <c r="V13" s="159"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="160"/>
-      <c r="AA13" s="160"/>
-      <c r="AB13" s="160"/>
-      <c r="AC13" s="160"/>
-      <c r="AD13" s="160"/>
-      <c r="AE13" s="160"/>
-      <c r="AF13" s="160"/>
-      <c r="AG13" s="160"/>
-      <c r="AH13" s="160"/>
-      <c r="AI13" s="160"/>
-      <c r="AJ13" s="160"/>
-      <c r="AK13" s="160"/>
-      <c r="AL13" s="160"/>
-      <c r="AM13" s="161"/>
-      <c r="AN13" s="162"/>
-      <c r="AO13" s="163"/>
-      <c r="AP13" s="163"/>
-      <c r="AQ13" s="163"/>
-      <c r="AR13" s="164"/>
-      <c r="AS13" s="162"/>
-      <c r="AT13" s="163"/>
-      <c r="AU13" s="163"/>
-      <c r="AV13" s="163"/>
-      <c r="AW13" s="164"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="149"/>
+      <c r="AH13" s="149"/>
+      <c r="AI13" s="149"/>
+      <c r="AJ13" s="149"/>
+      <c r="AK13" s="149"/>
+      <c r="AL13" s="149"/>
+      <c r="AM13" s="150"/>
+      <c r="AN13" s="134"/>
+      <c r="AO13" s="135"/>
+      <c r="AP13" s="135"/>
+      <c r="AQ13" s="135"/>
+      <c r="AR13" s="136"/>
+      <c r="AS13" s="134"/>
+      <c r="AT13" s="135"/>
+      <c r="AU13" s="135"/>
+      <c r="AV13" s="135"/>
+      <c r="AW13" s="136"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="143"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="152"/>
-      <c r="X14" s="152"/>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="152"/>
-      <c r="AC14" s="152"/>
-      <c r="AD14" s="152"/>
-      <c r="AE14" s="152"/>
-      <c r="AF14" s="152"/>
-      <c r="AG14" s="152"/>
-      <c r="AH14" s="152"/>
-      <c r="AI14" s="152"/>
-      <c r="AJ14" s="152"/>
-      <c r="AK14" s="152"/>
-      <c r="AL14" s="152"/>
-      <c r="AM14" s="152"/>
-      <c r="AN14" s="143"/>
-      <c r="AO14" s="143"/>
-      <c r="AP14" s="143"/>
-      <c r="AQ14" s="143"/>
-      <c r="AR14" s="143"/>
-      <c r="AS14" s="162"/>
-      <c r="AT14" s="163"/>
-      <c r="AU14" s="163"/>
-      <c r="AV14" s="163"/>
-      <c r="AW14" s="164"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="157"/>
+      <c r="W14" s="158"/>
+      <c r="X14" s="158"/>
+      <c r="Y14" s="158"/>
+      <c r="Z14" s="158"/>
+      <c r="AA14" s="158"/>
+      <c r="AB14" s="158"/>
+      <c r="AC14" s="158"/>
+      <c r="AD14" s="158"/>
+      <c r="AE14" s="158"/>
+      <c r="AF14" s="158"/>
+      <c r="AG14" s="158"/>
+      <c r="AH14" s="158"/>
+      <c r="AI14" s="158"/>
+      <c r="AJ14" s="158"/>
+      <c r="AK14" s="158"/>
+      <c r="AL14" s="158"/>
+      <c r="AM14" s="158"/>
+      <c r="AN14" s="147"/>
+      <c r="AO14" s="147"/>
+      <c r="AP14" s="147"/>
+      <c r="AQ14" s="147"/>
+      <c r="AR14" s="147"/>
+      <c r="AS14" s="134"/>
+      <c r="AT14" s="135"/>
+      <c r="AU14" s="135"/>
+      <c r="AV14" s="135"/>
+      <c r="AW14" s="136"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="157"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="158"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="159"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="160"/>
-      <c r="AC15" s="160"/>
-      <c r="AD15" s="160"/>
-      <c r="AE15" s="160"/>
-      <c r="AF15" s="160"/>
-      <c r="AG15" s="160"/>
-      <c r="AH15" s="160"/>
-      <c r="AI15" s="160"/>
-      <c r="AJ15" s="160"/>
-      <c r="AK15" s="160"/>
-      <c r="AL15" s="160"/>
-      <c r="AM15" s="161"/>
-      <c r="AN15" s="162"/>
-      <c r="AO15" s="163"/>
-      <c r="AP15" s="163"/>
-      <c r="AQ15" s="163"/>
-      <c r="AR15" s="164"/>
-      <c r="AS15" s="162"/>
-      <c r="AT15" s="163"/>
-      <c r="AU15" s="163"/>
-      <c r="AV15" s="163"/>
-      <c r="AW15" s="164"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="149"/>
+      <c r="Z15" s="149"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="149"/>
+      <c r="AH15" s="149"/>
+      <c r="AI15" s="149"/>
+      <c r="AJ15" s="149"/>
+      <c r="AK15" s="149"/>
+      <c r="AL15" s="149"/>
+      <c r="AM15" s="150"/>
+      <c r="AN15" s="134"/>
+      <c r="AO15" s="135"/>
+      <c r="AP15" s="135"/>
+      <c r="AQ15" s="135"/>
+      <c r="AR15" s="136"/>
+      <c r="AS15" s="134"/>
+      <c r="AT15" s="135"/>
+      <c r="AU15" s="135"/>
+      <c r="AV15" s="135"/>
+      <c r="AW15" s="136"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="157"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="143"/>
-      <c r="T16" s="143"/>
-      <c r="U16" s="143"/>
-      <c r="V16" s="159"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="160"/>
-      <c r="AB16" s="160"/>
-      <c r="AC16" s="160"/>
-      <c r="AD16" s="160"/>
-      <c r="AE16" s="160"/>
-      <c r="AF16" s="160"/>
-      <c r="AG16" s="160"/>
-      <c r="AH16" s="160"/>
-      <c r="AI16" s="160"/>
-      <c r="AJ16" s="160"/>
-      <c r="AK16" s="160"/>
-      <c r="AL16" s="160"/>
-      <c r="AM16" s="161"/>
-      <c r="AN16" s="162"/>
-      <c r="AO16" s="163"/>
-      <c r="AP16" s="163"/>
-      <c r="AQ16" s="163"/>
-      <c r="AR16" s="164"/>
-      <c r="AS16" s="162"/>
-      <c r="AT16" s="163"/>
-      <c r="AU16" s="163"/>
-      <c r="AV16" s="163"/>
-      <c r="AW16" s="164"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="147"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="149"/>
+      <c r="Z16" s="149"/>
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="149"/>
+      <c r="AG16" s="149"/>
+      <c r="AH16" s="149"/>
+      <c r="AI16" s="149"/>
+      <c r="AJ16" s="149"/>
+      <c r="AK16" s="149"/>
+      <c r="AL16" s="149"/>
+      <c r="AM16" s="150"/>
+      <c r="AN16" s="134"/>
+      <c r="AO16" s="135"/>
+      <c r="AP16" s="135"/>
+      <c r="AQ16" s="135"/>
+      <c r="AR16" s="136"/>
+      <c r="AS16" s="134"/>
+      <c r="AT16" s="135"/>
+      <c r="AU16" s="135"/>
+      <c r="AV16" s="135"/>
+      <c r="AW16" s="136"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="169"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="170"/>
-      <c r="U17" s="170"/>
-      <c r="V17" s="159"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="160"/>
-      <c r="AB17" s="160"/>
-      <c r="AC17" s="160"/>
-      <c r="AD17" s="160"/>
-      <c r="AE17" s="160"/>
-      <c r="AF17" s="160"/>
-      <c r="AG17" s="160"/>
-      <c r="AH17" s="160"/>
-      <c r="AI17" s="160"/>
-      <c r="AJ17" s="160"/>
-      <c r="AK17" s="160"/>
-      <c r="AL17" s="160"/>
-      <c r="AM17" s="161"/>
-      <c r="AN17" s="162"/>
-      <c r="AO17" s="163"/>
-      <c r="AP17" s="163"/>
-      <c r="AQ17" s="163"/>
-      <c r="AR17" s="164"/>
-      <c r="AS17" s="162"/>
-      <c r="AT17" s="163"/>
-      <c r="AU17" s="163"/>
-      <c r="AV17" s="163"/>
-      <c r="AW17" s="164"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="155"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="149"/>
+      <c r="Y17" s="149"/>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="149"/>
+      <c r="AH17" s="149"/>
+      <c r="AI17" s="149"/>
+      <c r="AJ17" s="149"/>
+      <c r="AK17" s="149"/>
+      <c r="AL17" s="149"/>
+      <c r="AM17" s="150"/>
+      <c r="AN17" s="134"/>
+      <c r="AO17" s="135"/>
+      <c r="AP17" s="135"/>
+      <c r="AQ17" s="135"/>
+      <c r="AR17" s="136"/>
+      <c r="AS17" s="134"/>
+      <c r="AT17" s="135"/>
+      <c r="AU17" s="135"/>
+      <c r="AV17" s="135"/>
+      <c r="AW17" s="136"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="157"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="143"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="159"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="160"/>
-      <c r="Y18" s="160"/>
-      <c r="Z18" s="160"/>
-      <c r="AA18" s="160"/>
-      <c r="AB18" s="160"/>
-      <c r="AC18" s="160"/>
-      <c r="AD18" s="160"/>
-      <c r="AE18" s="160"/>
-      <c r="AF18" s="160"/>
-      <c r="AG18" s="160"/>
-      <c r="AH18" s="160"/>
-      <c r="AI18" s="160"/>
-      <c r="AJ18" s="160"/>
-      <c r="AK18" s="160"/>
-      <c r="AL18" s="160"/>
-      <c r="AM18" s="161"/>
-      <c r="AN18" s="162"/>
-      <c r="AO18" s="163"/>
-      <c r="AP18" s="163"/>
-      <c r="AQ18" s="163"/>
-      <c r="AR18" s="164"/>
-      <c r="AS18" s="162"/>
-      <c r="AT18" s="163"/>
-      <c r="AU18" s="163"/>
-      <c r="AV18" s="163"/>
-      <c r="AW18" s="164"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="149"/>
+      <c r="Z18" s="149"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="149"/>
+      <c r="AC18" s="149"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="149"/>
+      <c r="AG18" s="149"/>
+      <c r="AH18" s="149"/>
+      <c r="AI18" s="149"/>
+      <c r="AJ18" s="149"/>
+      <c r="AK18" s="149"/>
+      <c r="AL18" s="149"/>
+      <c r="AM18" s="150"/>
+      <c r="AN18" s="134"/>
+      <c r="AO18" s="135"/>
+      <c r="AP18" s="135"/>
+      <c r="AQ18" s="135"/>
+      <c r="AR18" s="136"/>
+      <c r="AS18" s="134"/>
+      <c r="AT18" s="135"/>
+      <c r="AU18" s="135"/>
+      <c r="AV18" s="135"/>
+      <c r="AW18" s="136"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="158"/>
-      <c r="S19" s="143"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="143"/>
-      <c r="V19" s="159"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="160"/>
-      <c r="Y19" s="160"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="160"/>
-      <c r="AB19" s="160"/>
-      <c r="AC19" s="160"/>
-      <c r="AD19" s="160"/>
-      <c r="AE19" s="160"/>
-      <c r="AF19" s="160"/>
-      <c r="AG19" s="160"/>
-      <c r="AH19" s="160"/>
-      <c r="AI19" s="160"/>
-      <c r="AJ19" s="160"/>
-      <c r="AK19" s="160"/>
-      <c r="AL19" s="160"/>
-      <c r="AM19" s="161"/>
-      <c r="AN19" s="143"/>
-      <c r="AO19" s="143"/>
-      <c r="AP19" s="143"/>
-      <c r="AQ19" s="143"/>
-      <c r="AR19" s="143"/>
-      <c r="AS19" s="162"/>
-      <c r="AT19" s="163"/>
-      <c r="AU19" s="163"/>
-      <c r="AV19" s="163"/>
-      <c r="AW19" s="164"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="149"/>
+      <c r="X19" s="149"/>
+      <c r="Y19" s="149"/>
+      <c r="Z19" s="149"/>
+      <c r="AA19" s="149"/>
+      <c r="AB19" s="149"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="149"/>
+      <c r="AG19" s="149"/>
+      <c r="AH19" s="149"/>
+      <c r="AI19" s="149"/>
+      <c r="AJ19" s="149"/>
+      <c r="AK19" s="149"/>
+      <c r="AL19" s="149"/>
+      <c r="AM19" s="150"/>
+      <c r="AN19" s="147"/>
+      <c r="AO19" s="147"/>
+      <c r="AP19" s="147"/>
+      <c r="AQ19" s="147"/>
+      <c r="AR19" s="147"/>
+      <c r="AS19" s="134"/>
+      <c r="AT19" s="135"/>
+      <c r="AU19" s="135"/>
+      <c r="AV19" s="135"/>
+      <c r="AW19" s="136"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="157"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="158"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="163"/>
-      <c r="U20" s="164"/>
-      <c r="V20" s="159"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="160"/>
-      <c r="AA20" s="160"/>
-      <c r="AB20" s="160"/>
-      <c r="AC20" s="160"/>
-      <c r="AD20" s="160"/>
-      <c r="AE20" s="160"/>
-      <c r="AF20" s="160"/>
-      <c r="AG20" s="160"/>
-      <c r="AH20" s="160"/>
-      <c r="AI20" s="160"/>
-      <c r="AJ20" s="160"/>
-      <c r="AK20" s="160"/>
-      <c r="AL20" s="160"/>
-      <c r="AM20" s="161"/>
-      <c r="AN20" s="162"/>
-      <c r="AO20" s="163"/>
-      <c r="AP20" s="163"/>
-      <c r="AQ20" s="163"/>
-      <c r="AR20" s="164"/>
-      <c r="AS20" s="162"/>
-      <c r="AT20" s="163"/>
-      <c r="AU20" s="163"/>
-      <c r="AV20" s="163"/>
-      <c r="AW20" s="164"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="136"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="149"/>
+      <c r="Z20" s="149"/>
+      <c r="AA20" s="149"/>
+      <c r="AB20" s="149"/>
+      <c r="AC20" s="149"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="149"/>
+      <c r="AF20" s="149"/>
+      <c r="AG20" s="149"/>
+      <c r="AH20" s="149"/>
+      <c r="AI20" s="149"/>
+      <c r="AJ20" s="149"/>
+      <c r="AK20" s="149"/>
+      <c r="AL20" s="149"/>
+      <c r="AM20" s="150"/>
+      <c r="AN20" s="134"/>
+      <c r="AO20" s="135"/>
+      <c r="AP20" s="135"/>
+      <c r="AQ20" s="135"/>
+      <c r="AR20" s="136"/>
+      <c r="AS20" s="134"/>
+      <c r="AT20" s="135"/>
+      <c r="AU20" s="135"/>
+      <c r="AV20" s="135"/>
+      <c r="AW20" s="136"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="157"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="158"/>
-      <c r="S21" s="143"/>
-      <c r="T21" s="143"/>
-      <c r="U21" s="143"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="160"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="160"/>
-      <c r="AA21" s="160"/>
-      <c r="AB21" s="160"/>
-      <c r="AC21" s="160"/>
-      <c r="AD21" s="160"/>
-      <c r="AE21" s="160"/>
-      <c r="AF21" s="160"/>
-      <c r="AG21" s="160"/>
-      <c r="AH21" s="160"/>
-      <c r="AI21" s="160"/>
-      <c r="AJ21" s="160"/>
-      <c r="AK21" s="160"/>
-      <c r="AL21" s="160"/>
-      <c r="AM21" s="161"/>
-      <c r="AN21" s="162"/>
-      <c r="AO21" s="163"/>
-      <c r="AP21" s="163"/>
-      <c r="AQ21" s="163"/>
-      <c r="AR21" s="164"/>
-      <c r="AS21" s="162"/>
-      <c r="AT21" s="163"/>
-      <c r="AU21" s="163"/>
-      <c r="AV21" s="163"/>
-      <c r="AW21" s="164"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="149"/>
+      <c r="X21" s="149"/>
+      <c r="Y21" s="149"/>
+      <c r="Z21" s="149"/>
+      <c r="AA21" s="149"/>
+      <c r="AB21" s="149"/>
+      <c r="AC21" s="149"/>
+      <c r="AD21" s="149"/>
+      <c r="AE21" s="149"/>
+      <c r="AF21" s="149"/>
+      <c r="AG21" s="149"/>
+      <c r="AH21" s="149"/>
+      <c r="AI21" s="149"/>
+      <c r="AJ21" s="149"/>
+      <c r="AK21" s="149"/>
+      <c r="AL21" s="149"/>
+      <c r="AM21" s="150"/>
+      <c r="AN21" s="134"/>
+      <c r="AO21" s="135"/>
+      <c r="AP21" s="135"/>
+      <c r="AQ21" s="135"/>
+      <c r="AR21" s="136"/>
+      <c r="AS21" s="134"/>
+      <c r="AT21" s="135"/>
+      <c r="AU21" s="135"/>
+      <c r="AV21" s="135"/>
+      <c r="AW21" s="136"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="158"/>
-      <c r="S22" s="143"/>
-      <c r="T22" s="143"/>
-      <c r="U22" s="143"/>
-      <c r="V22" s="159"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="160"/>
-      <c r="AB22" s="160"/>
-      <c r="AC22" s="160"/>
-      <c r="AD22" s="160"/>
-      <c r="AE22" s="160"/>
-      <c r="AF22" s="160"/>
-      <c r="AG22" s="160"/>
-      <c r="AH22" s="160"/>
-      <c r="AI22" s="160"/>
-      <c r="AJ22" s="160"/>
-      <c r="AK22" s="160"/>
-      <c r="AL22" s="160"/>
-      <c r="AM22" s="161"/>
-      <c r="AN22" s="162"/>
-      <c r="AO22" s="163"/>
-      <c r="AP22" s="163"/>
-      <c r="AQ22" s="163"/>
-      <c r="AR22" s="164"/>
-      <c r="AS22" s="162"/>
-      <c r="AT22" s="163"/>
-      <c r="AU22" s="163"/>
-      <c r="AV22" s="163"/>
-      <c r="AW22" s="164"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147"/>
+      <c r="U22" s="147"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="149"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="149"/>
+      <c r="Z22" s="149"/>
+      <c r="AA22" s="149"/>
+      <c r="AB22" s="149"/>
+      <c r="AC22" s="149"/>
+      <c r="AD22" s="149"/>
+      <c r="AE22" s="149"/>
+      <c r="AF22" s="149"/>
+      <c r="AG22" s="149"/>
+      <c r="AH22" s="149"/>
+      <c r="AI22" s="149"/>
+      <c r="AJ22" s="149"/>
+      <c r="AK22" s="149"/>
+      <c r="AL22" s="149"/>
+      <c r="AM22" s="150"/>
+      <c r="AN22" s="134"/>
+      <c r="AO22" s="135"/>
+      <c r="AP22" s="135"/>
+      <c r="AQ22" s="135"/>
+      <c r="AR22" s="136"/>
+      <c r="AS22" s="134"/>
+      <c r="AT22" s="135"/>
+      <c r="AU22" s="135"/>
+      <c r="AV22" s="135"/>
+      <c r="AW22" s="136"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="157"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="143"/>
-      <c r="T23" s="143"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="159"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="160"/>
-      <c r="AB23" s="160"/>
-      <c r="AC23" s="160"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="160"/>
-      <c r="AF23" s="160"/>
-      <c r="AG23" s="160"/>
-      <c r="AH23" s="160"/>
-      <c r="AI23" s="160"/>
-      <c r="AJ23" s="160"/>
-      <c r="AK23" s="160"/>
-      <c r="AL23" s="160"/>
-      <c r="AM23" s="161"/>
-      <c r="AN23" s="162"/>
-      <c r="AO23" s="163"/>
-      <c r="AP23" s="163"/>
-      <c r="AQ23" s="163"/>
-      <c r="AR23" s="164"/>
-      <c r="AS23" s="162"/>
-      <c r="AT23" s="163"/>
-      <c r="AU23" s="163"/>
-      <c r="AV23" s="163"/>
-      <c r="AW23" s="164"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="147"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="149"/>
+      <c r="Y23" s="149"/>
+      <c r="Z23" s="149"/>
+      <c r="AA23" s="149"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="149"/>
+      <c r="AD23" s="149"/>
+      <c r="AE23" s="149"/>
+      <c r="AF23" s="149"/>
+      <c r="AG23" s="149"/>
+      <c r="AH23" s="149"/>
+      <c r="AI23" s="149"/>
+      <c r="AJ23" s="149"/>
+      <c r="AK23" s="149"/>
+      <c r="AL23" s="149"/>
+      <c r="AM23" s="150"/>
+      <c r="AN23" s="134"/>
+      <c r="AO23" s="135"/>
+      <c r="AP23" s="135"/>
+      <c r="AQ23" s="135"/>
+      <c r="AR23" s="136"/>
+      <c r="AS23" s="134"/>
+      <c r="AT23" s="135"/>
+      <c r="AU23" s="135"/>
+      <c r="AV23" s="135"/>
+      <c r="AW23" s="136"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="157"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="143"/>
-      <c r="T24" s="143"/>
-      <c r="U24" s="143"/>
-      <c r="V24" s="159"/>
-      <c r="W24" s="160"/>
-      <c r="X24" s="160"/>
-      <c r="Y24" s="160"/>
-      <c r="Z24" s="160"/>
-      <c r="AA24" s="160"/>
-      <c r="AB24" s="160"/>
-      <c r="AC24" s="160"/>
-      <c r="AD24" s="160"/>
-      <c r="AE24" s="160"/>
-      <c r="AF24" s="160"/>
-      <c r="AG24" s="160"/>
-      <c r="AH24" s="160"/>
-      <c r="AI24" s="160"/>
-      <c r="AJ24" s="160"/>
-      <c r="AK24" s="160"/>
-      <c r="AL24" s="160"/>
-      <c r="AM24" s="161"/>
-      <c r="AN24" s="162"/>
-      <c r="AO24" s="163"/>
-      <c r="AP24" s="163"/>
-      <c r="AQ24" s="163"/>
-      <c r="AR24" s="164"/>
-      <c r="AS24" s="162"/>
-      <c r="AT24" s="163"/>
-      <c r="AU24" s="163"/>
-      <c r="AV24" s="163"/>
-      <c r="AW24" s="164"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="149"/>
+      <c r="X24" s="149"/>
+      <c r="Y24" s="149"/>
+      <c r="Z24" s="149"/>
+      <c r="AA24" s="149"/>
+      <c r="AB24" s="149"/>
+      <c r="AC24" s="149"/>
+      <c r="AD24" s="149"/>
+      <c r="AE24" s="149"/>
+      <c r="AF24" s="149"/>
+      <c r="AG24" s="149"/>
+      <c r="AH24" s="149"/>
+      <c r="AI24" s="149"/>
+      <c r="AJ24" s="149"/>
+      <c r="AK24" s="149"/>
+      <c r="AL24" s="149"/>
+      <c r="AM24" s="150"/>
+      <c r="AN24" s="134"/>
+      <c r="AO24" s="135"/>
+      <c r="AP24" s="135"/>
+      <c r="AQ24" s="135"/>
+      <c r="AR24" s="136"/>
+      <c r="AS24" s="134"/>
+      <c r="AT24" s="135"/>
+      <c r="AU24" s="135"/>
+      <c r="AV24" s="135"/>
+      <c r="AW24" s="136"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="167"/>
-      <c r="N25" s="157"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="157"/>
-      <c r="Q25" s="157"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="143"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="159"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
-      <c r="Y25" s="160"/>
-      <c r="Z25" s="160"/>
-      <c r="AA25" s="160"/>
-      <c r="AB25" s="160"/>
-      <c r="AC25" s="160"/>
-      <c r="AD25" s="160"/>
-      <c r="AE25" s="160"/>
-      <c r="AF25" s="160"/>
-      <c r="AG25" s="160"/>
-      <c r="AH25" s="160"/>
-      <c r="AI25" s="160"/>
-      <c r="AJ25" s="160"/>
-      <c r="AK25" s="160"/>
-      <c r="AL25" s="160"/>
-      <c r="AM25" s="161"/>
-      <c r="AN25" s="162"/>
-      <c r="AO25" s="163"/>
-      <c r="AP25" s="163"/>
-      <c r="AQ25" s="163"/>
-      <c r="AR25" s="164"/>
-      <c r="AS25" s="162"/>
-      <c r="AT25" s="163"/>
-      <c r="AU25" s="163"/>
-      <c r="AV25" s="163"/>
-      <c r="AW25" s="164"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="152"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="149"/>
+      <c r="X25" s="149"/>
+      <c r="Y25" s="149"/>
+      <c r="Z25" s="149"/>
+      <c r="AA25" s="149"/>
+      <c r="AB25" s="149"/>
+      <c r="AC25" s="149"/>
+      <c r="AD25" s="149"/>
+      <c r="AE25" s="149"/>
+      <c r="AF25" s="149"/>
+      <c r="AG25" s="149"/>
+      <c r="AH25" s="149"/>
+      <c r="AI25" s="149"/>
+      <c r="AJ25" s="149"/>
+      <c r="AK25" s="149"/>
+      <c r="AL25" s="149"/>
+      <c r="AM25" s="150"/>
+      <c r="AN25" s="134"/>
+      <c r="AO25" s="135"/>
+      <c r="AP25" s="135"/>
+      <c r="AQ25" s="135"/>
+      <c r="AR25" s="136"/>
+      <c r="AS25" s="134"/>
+      <c r="AT25" s="135"/>
+      <c r="AU25" s="135"/>
+      <c r="AV25" s="135"/>
+      <c r="AW25" s="136"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="157"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="143"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="160"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="160"/>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="160"/>
-      <c r="AB26" s="160"/>
-      <c r="AC26" s="160"/>
-      <c r="AD26" s="160"/>
-      <c r="AE26" s="160"/>
-      <c r="AF26" s="160"/>
-      <c r="AG26" s="160"/>
-      <c r="AH26" s="160"/>
-      <c r="AI26" s="160"/>
-      <c r="AJ26" s="160"/>
-      <c r="AK26" s="160"/>
-      <c r="AL26" s="160"/>
-      <c r="AM26" s="161"/>
-      <c r="AN26" s="162"/>
-      <c r="AO26" s="163"/>
-      <c r="AP26" s="163"/>
-      <c r="AQ26" s="163"/>
-      <c r="AR26" s="164"/>
-      <c r="AS26" s="162"/>
-      <c r="AT26" s="163"/>
-      <c r="AU26" s="163"/>
-      <c r="AV26" s="163"/>
-      <c r="AW26" s="164"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="148"/>
+      <c r="W26" s="149"/>
+      <c r="X26" s="149"/>
+      <c r="Y26" s="149"/>
+      <c r="Z26" s="149"/>
+      <c r="AA26" s="149"/>
+      <c r="AB26" s="149"/>
+      <c r="AC26" s="149"/>
+      <c r="AD26" s="149"/>
+      <c r="AE26" s="149"/>
+      <c r="AF26" s="149"/>
+      <c r="AG26" s="149"/>
+      <c r="AH26" s="149"/>
+      <c r="AI26" s="149"/>
+      <c r="AJ26" s="149"/>
+      <c r="AK26" s="149"/>
+      <c r="AL26" s="149"/>
+      <c r="AM26" s="150"/>
+      <c r="AN26" s="134"/>
+      <c r="AO26" s="135"/>
+      <c r="AP26" s="135"/>
+      <c r="AQ26" s="135"/>
+      <c r="AR26" s="136"/>
+      <c r="AS26" s="134"/>
+      <c r="AT26" s="135"/>
+      <c r="AU26" s="135"/>
+      <c r="AV26" s="135"/>
+      <c r="AW26" s="136"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="157"/>
-      <c r="P27" s="157"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="160"/>
-      <c r="X27" s="160"/>
-      <c r="Y27" s="160"/>
-      <c r="Z27" s="160"/>
-      <c r="AA27" s="160"/>
-      <c r="AB27" s="160"/>
-      <c r="AC27" s="160"/>
-      <c r="AD27" s="160"/>
-      <c r="AE27" s="160"/>
-      <c r="AF27" s="160"/>
-      <c r="AG27" s="160"/>
-      <c r="AH27" s="160"/>
-      <c r="AI27" s="160"/>
-      <c r="AJ27" s="160"/>
-      <c r="AK27" s="160"/>
-      <c r="AL27" s="160"/>
-      <c r="AM27" s="161"/>
-      <c r="AN27" s="162"/>
-      <c r="AO27" s="163"/>
-      <c r="AP27" s="163"/>
-      <c r="AQ27" s="163"/>
-      <c r="AR27" s="164"/>
-      <c r="AS27" s="162"/>
-      <c r="AT27" s="163"/>
-      <c r="AU27" s="163"/>
-      <c r="AV27" s="163"/>
-      <c r="AW27" s="164"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="148"/>
+      <c r="W27" s="149"/>
+      <c r="X27" s="149"/>
+      <c r="Y27" s="149"/>
+      <c r="Z27" s="149"/>
+      <c r="AA27" s="149"/>
+      <c r="AB27" s="149"/>
+      <c r="AC27" s="149"/>
+      <c r="AD27" s="149"/>
+      <c r="AE27" s="149"/>
+      <c r="AF27" s="149"/>
+      <c r="AG27" s="149"/>
+      <c r="AH27" s="149"/>
+      <c r="AI27" s="149"/>
+      <c r="AJ27" s="149"/>
+      <c r="AK27" s="149"/>
+      <c r="AL27" s="149"/>
+      <c r="AM27" s="150"/>
+      <c r="AN27" s="134"/>
+      <c r="AO27" s="135"/>
+      <c r="AP27" s="135"/>
+      <c r="AQ27" s="135"/>
+      <c r="AR27" s="136"/>
+      <c r="AS27" s="134"/>
+      <c r="AT27" s="135"/>
+      <c r="AU27" s="135"/>
+      <c r="AV27" s="135"/>
+      <c r="AW27" s="136"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="157"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="143"/>
-      <c r="T28" s="143"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="160"/>
-      <c r="X28" s="160"/>
-      <c r="Y28" s="160"/>
-      <c r="Z28" s="160"/>
-      <c r="AA28" s="160"/>
-      <c r="AB28" s="160"/>
-      <c r="AC28" s="160"/>
-      <c r="AD28" s="160"/>
-      <c r="AE28" s="160"/>
-      <c r="AF28" s="160"/>
-      <c r="AG28" s="160"/>
-      <c r="AH28" s="160"/>
-      <c r="AI28" s="160"/>
-      <c r="AJ28" s="160"/>
-      <c r="AK28" s="160"/>
-      <c r="AL28" s="160"/>
-      <c r="AM28" s="161"/>
-      <c r="AN28" s="162"/>
-      <c r="AO28" s="163"/>
-      <c r="AP28" s="163"/>
-      <c r="AQ28" s="163"/>
-      <c r="AR28" s="164"/>
-      <c r="AS28" s="162"/>
-      <c r="AT28" s="163"/>
-      <c r="AU28" s="163"/>
-      <c r="AV28" s="163"/>
-      <c r="AW28" s="164"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="152"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="147"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="149"/>
+      <c r="X28" s="149"/>
+      <c r="Y28" s="149"/>
+      <c r="Z28" s="149"/>
+      <c r="AA28" s="149"/>
+      <c r="AB28" s="149"/>
+      <c r="AC28" s="149"/>
+      <c r="AD28" s="149"/>
+      <c r="AE28" s="149"/>
+      <c r="AF28" s="149"/>
+      <c r="AG28" s="149"/>
+      <c r="AH28" s="149"/>
+      <c r="AI28" s="149"/>
+      <c r="AJ28" s="149"/>
+      <c r="AK28" s="149"/>
+      <c r="AL28" s="149"/>
+      <c r="AM28" s="150"/>
+      <c r="AN28" s="134"/>
+      <c r="AO28" s="135"/>
+      <c r="AP28" s="135"/>
+      <c r="AQ28" s="135"/>
+      <c r="AR28" s="136"/>
+      <c r="AS28" s="134"/>
+      <c r="AT28" s="135"/>
+      <c r="AU28" s="135"/>
+      <c r="AV28" s="135"/>
+      <c r="AW28" s="136"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="158"/>
-      <c r="S29" s="143"/>
-      <c r="T29" s="143"/>
-      <c r="U29" s="143"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="160"/>
-      <c r="X29" s="160"/>
-      <c r="Y29" s="160"/>
-      <c r="Z29" s="160"/>
-      <c r="AA29" s="160"/>
-      <c r="AB29" s="160"/>
-      <c r="AC29" s="160"/>
-      <c r="AD29" s="160"/>
-      <c r="AE29" s="160"/>
-      <c r="AF29" s="160"/>
-      <c r="AG29" s="160"/>
-      <c r="AH29" s="160"/>
-      <c r="AI29" s="160"/>
-      <c r="AJ29" s="160"/>
-      <c r="AK29" s="160"/>
-      <c r="AL29" s="160"/>
-      <c r="AM29" s="161"/>
-      <c r="AN29" s="162"/>
-      <c r="AO29" s="163"/>
-      <c r="AP29" s="163"/>
-      <c r="AQ29" s="163"/>
-      <c r="AR29" s="164"/>
-      <c r="AS29" s="162"/>
-      <c r="AT29" s="163"/>
-      <c r="AU29" s="163"/>
-      <c r="AV29" s="163"/>
-      <c r="AW29" s="164"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="149"/>
+      <c r="X29" s="149"/>
+      <c r="Y29" s="149"/>
+      <c r="Z29" s="149"/>
+      <c r="AA29" s="149"/>
+      <c r="AB29" s="149"/>
+      <c r="AC29" s="149"/>
+      <c r="AD29" s="149"/>
+      <c r="AE29" s="149"/>
+      <c r="AF29" s="149"/>
+      <c r="AG29" s="149"/>
+      <c r="AH29" s="149"/>
+      <c r="AI29" s="149"/>
+      <c r="AJ29" s="149"/>
+      <c r="AK29" s="149"/>
+      <c r="AL29" s="149"/>
+      <c r="AM29" s="150"/>
+      <c r="AN29" s="134"/>
+      <c r="AO29" s="135"/>
+      <c r="AP29" s="135"/>
+      <c r="AQ29" s="135"/>
+      <c r="AR29" s="136"/>
+      <c r="AS29" s="134"/>
+      <c r="AT29" s="135"/>
+      <c r="AU29" s="135"/>
+      <c r="AV29" s="135"/>
+      <c r="AW29" s="136"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="167"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="157"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="158"/>
-      <c r="S30" s="143"/>
-      <c r="T30" s="143"/>
-      <c r="U30" s="143"/>
-      <c r="V30" s="159"/>
-      <c r="W30" s="160"/>
-      <c r="X30" s="160"/>
-      <c r="Y30" s="160"/>
-      <c r="Z30" s="160"/>
-      <c r="AA30" s="160"/>
-      <c r="AB30" s="160"/>
-      <c r="AC30" s="160"/>
-      <c r="AD30" s="160"/>
-      <c r="AE30" s="160"/>
-      <c r="AF30" s="160"/>
-      <c r="AG30" s="160"/>
-      <c r="AH30" s="160"/>
-      <c r="AI30" s="160"/>
-      <c r="AJ30" s="160"/>
-      <c r="AK30" s="160"/>
-      <c r="AL30" s="160"/>
-      <c r="AM30" s="161"/>
-      <c r="AN30" s="162"/>
-      <c r="AO30" s="163"/>
-      <c r="AP30" s="163"/>
-      <c r="AQ30" s="163"/>
-      <c r="AR30" s="164"/>
-      <c r="AS30" s="162"/>
-      <c r="AT30" s="163"/>
-      <c r="AU30" s="163"/>
-      <c r="AV30" s="163"/>
-      <c r="AW30" s="164"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="147"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="148"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="149"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="149"/>
+      <c r="AC30" s="149"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="149"/>
+      <c r="AF30" s="149"/>
+      <c r="AG30" s="149"/>
+      <c r="AH30" s="149"/>
+      <c r="AI30" s="149"/>
+      <c r="AJ30" s="149"/>
+      <c r="AK30" s="149"/>
+      <c r="AL30" s="149"/>
+      <c r="AM30" s="150"/>
+      <c r="AN30" s="134"/>
+      <c r="AO30" s="135"/>
+      <c r="AP30" s="135"/>
+      <c r="AQ30" s="135"/>
+      <c r="AR30" s="136"/>
+      <c r="AS30" s="134"/>
+      <c r="AT30" s="135"/>
+      <c r="AU30" s="135"/>
+      <c r="AV30" s="135"/>
+      <c r="AW30" s="136"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="167"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="143"/>
-      <c r="T31" s="143"/>
-      <c r="U31" s="143"/>
-      <c r="V31" s="159"/>
-      <c r="W31" s="160"/>
-      <c r="X31" s="160"/>
-      <c r="Y31" s="160"/>
-      <c r="Z31" s="160"/>
-      <c r="AA31" s="160"/>
-      <c r="AB31" s="160"/>
-      <c r="AC31" s="160"/>
-      <c r="AD31" s="160"/>
-      <c r="AE31" s="160"/>
-      <c r="AF31" s="160"/>
-      <c r="AG31" s="160"/>
-      <c r="AH31" s="160"/>
-      <c r="AI31" s="160"/>
-      <c r="AJ31" s="160"/>
-      <c r="AK31" s="160"/>
-      <c r="AL31" s="160"/>
-      <c r="AM31" s="161"/>
-      <c r="AN31" s="162"/>
-      <c r="AO31" s="163"/>
-      <c r="AP31" s="163"/>
-      <c r="AQ31" s="163"/>
-      <c r="AR31" s="164"/>
-      <c r="AS31" s="162"/>
-      <c r="AT31" s="163"/>
-      <c r="AU31" s="163"/>
-      <c r="AV31" s="163"/>
-      <c r="AW31" s="164"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="148"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="149"/>
+      <c r="Z31" s="149"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="149"/>
+      <c r="AC31" s="149"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="149"/>
+      <c r="AG31" s="149"/>
+      <c r="AH31" s="149"/>
+      <c r="AI31" s="149"/>
+      <c r="AJ31" s="149"/>
+      <c r="AK31" s="149"/>
+      <c r="AL31" s="149"/>
+      <c r="AM31" s="150"/>
+      <c r="AN31" s="134"/>
+      <c r="AO31" s="135"/>
+      <c r="AP31" s="135"/>
+      <c r="AQ31" s="135"/>
+      <c r="AR31" s="136"/>
+      <c r="AS31" s="134"/>
+      <c r="AT31" s="135"/>
+      <c r="AU31" s="135"/>
+      <c r="AV31" s="135"/>
+      <c r="AW31" s="136"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="167"/>
-      <c r="N32" s="157"/>
-      <c r="O32" s="157"/>
-      <c r="P32" s="157"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="158"/>
-      <c r="S32" s="143"/>
-      <c r="T32" s="143"/>
-      <c r="U32" s="143"/>
-      <c r="V32" s="159"/>
-      <c r="W32" s="160"/>
-      <c r="X32" s="160"/>
-      <c r="Y32" s="160"/>
-      <c r="Z32" s="160"/>
-      <c r="AA32" s="160"/>
-      <c r="AB32" s="160"/>
-      <c r="AC32" s="160"/>
-      <c r="AD32" s="160"/>
-      <c r="AE32" s="160"/>
-      <c r="AF32" s="160"/>
-      <c r="AG32" s="160"/>
-      <c r="AH32" s="160"/>
-      <c r="AI32" s="160"/>
-      <c r="AJ32" s="160"/>
-      <c r="AK32" s="160"/>
-      <c r="AL32" s="160"/>
-      <c r="AM32" s="161"/>
-      <c r="AN32" s="162"/>
-      <c r="AO32" s="163"/>
-      <c r="AP32" s="163"/>
-      <c r="AQ32" s="163"/>
-      <c r="AR32" s="164"/>
-      <c r="AS32" s="162"/>
-      <c r="AT32" s="163"/>
-      <c r="AU32" s="163"/>
-      <c r="AV32" s="163"/>
-      <c r="AW32" s="164"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="149"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="149"/>
+      <c r="Z32" s="149"/>
+      <c r="AA32" s="149"/>
+      <c r="AB32" s="149"/>
+      <c r="AC32" s="149"/>
+      <c r="AD32" s="149"/>
+      <c r="AE32" s="149"/>
+      <c r="AF32" s="149"/>
+      <c r="AG32" s="149"/>
+      <c r="AH32" s="149"/>
+      <c r="AI32" s="149"/>
+      <c r="AJ32" s="149"/>
+      <c r="AK32" s="149"/>
+      <c r="AL32" s="149"/>
+      <c r="AM32" s="150"/>
+      <c r="AN32" s="134"/>
+      <c r="AO32" s="135"/>
+      <c r="AP32" s="135"/>
+      <c r="AQ32" s="135"/>
+      <c r="AR32" s="136"/>
+      <c r="AS32" s="134"/>
+      <c r="AT32" s="135"/>
+      <c r="AU32" s="135"/>
+      <c r="AV32" s="135"/>
+      <c r="AW32" s="136"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="153"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157"/>
-      <c r="P33" s="157"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="143"/>
-      <c r="T33" s="143"/>
-      <c r="U33" s="143"/>
-      <c r="V33" s="159"/>
-      <c r="W33" s="160"/>
-      <c r="X33" s="160"/>
-      <c r="Y33" s="160"/>
-      <c r="Z33" s="160"/>
-      <c r="AA33" s="160"/>
-      <c r="AB33" s="160"/>
-      <c r="AC33" s="160"/>
-      <c r="AD33" s="160"/>
-      <c r="AE33" s="160"/>
-      <c r="AF33" s="160"/>
-      <c r="AG33" s="160"/>
-      <c r="AH33" s="160"/>
-      <c r="AI33" s="160"/>
-      <c r="AJ33" s="160"/>
-      <c r="AK33" s="160"/>
-      <c r="AL33" s="160"/>
-      <c r="AM33" s="161"/>
-      <c r="AN33" s="162"/>
-      <c r="AO33" s="163"/>
-      <c r="AP33" s="163"/>
-      <c r="AQ33" s="163"/>
-      <c r="AR33" s="164"/>
-      <c r="AS33" s="162"/>
-      <c r="AT33" s="163"/>
-      <c r="AU33" s="163"/>
-      <c r="AV33" s="163"/>
-      <c r="AW33" s="164"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="147"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="148"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="149"/>
+      <c r="Z33" s="149"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="149"/>
+      <c r="AC33" s="149"/>
+      <c r="AD33" s="149"/>
+      <c r="AE33" s="149"/>
+      <c r="AF33" s="149"/>
+      <c r="AG33" s="149"/>
+      <c r="AH33" s="149"/>
+      <c r="AI33" s="149"/>
+      <c r="AJ33" s="149"/>
+      <c r="AK33" s="149"/>
+      <c r="AL33" s="149"/>
+      <c r="AM33" s="150"/>
+      <c r="AN33" s="134"/>
+      <c r="AO33" s="135"/>
+      <c r="AP33" s="135"/>
+      <c r="AQ33" s="135"/>
+      <c r="AR33" s="136"/>
+      <c r="AS33" s="134"/>
+      <c r="AT33" s="135"/>
+      <c r="AU33" s="135"/>
+      <c r="AV33" s="135"/>
+      <c r="AW33" s="136"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="153"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="171"/>
-      <c r="N34" s="172"/>
-      <c r="O34" s="172"/>
-      <c r="P34" s="172"/>
-      <c r="Q34" s="172"/>
-      <c r="R34" s="173"/>
-      <c r="S34" s="143"/>
-      <c r="T34" s="143"/>
-      <c r="U34" s="143"/>
-      <c r="V34" s="159"/>
-      <c r="W34" s="160"/>
-      <c r="X34" s="160"/>
-      <c r="Y34" s="160"/>
-      <c r="Z34" s="160"/>
-      <c r="AA34" s="160"/>
-      <c r="AB34" s="160"/>
-      <c r="AC34" s="160"/>
-      <c r="AD34" s="160"/>
-      <c r="AE34" s="160"/>
-      <c r="AF34" s="160"/>
-      <c r="AG34" s="160"/>
-      <c r="AH34" s="160"/>
-      <c r="AI34" s="160"/>
-      <c r="AJ34" s="160"/>
-      <c r="AK34" s="160"/>
-      <c r="AL34" s="160"/>
-      <c r="AM34" s="161"/>
-      <c r="AN34" s="162"/>
-      <c r="AO34" s="163"/>
-      <c r="AP34" s="163"/>
-      <c r="AQ34" s="163"/>
-      <c r="AR34" s="164"/>
-      <c r="AS34" s="162"/>
-      <c r="AT34" s="163"/>
-      <c r="AU34" s="163"/>
-      <c r="AV34" s="163"/>
-      <c r="AW34" s="164"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="145"/>
+      <c r="Q34" s="145"/>
+      <c r="R34" s="146"/>
+      <c r="S34" s="147"/>
+      <c r="T34" s="147"/>
+      <c r="U34" s="147"/>
+      <c r="V34" s="148"/>
+      <c r="W34" s="149"/>
+      <c r="X34" s="149"/>
+      <c r="Y34" s="149"/>
+      <c r="Z34" s="149"/>
+      <c r="AA34" s="149"/>
+      <c r="AB34" s="149"/>
+      <c r="AC34" s="149"/>
+      <c r="AD34" s="149"/>
+      <c r="AE34" s="149"/>
+      <c r="AF34" s="149"/>
+      <c r="AG34" s="149"/>
+      <c r="AH34" s="149"/>
+      <c r="AI34" s="149"/>
+      <c r="AJ34" s="149"/>
+      <c r="AK34" s="149"/>
+      <c r="AL34" s="149"/>
+      <c r="AM34" s="150"/>
+      <c r="AN34" s="134"/>
+      <c r="AO34" s="135"/>
+      <c r="AP34" s="135"/>
+      <c r="AQ34" s="135"/>
+      <c r="AR34" s="136"/>
+      <c r="AS34" s="134"/>
+      <c r="AT34" s="135"/>
+      <c r="AU34" s="135"/>
+      <c r="AV34" s="135"/>
+      <c r="AW34" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -7145,239 +7388,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7537,11 +7547,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="178"/>
-      <c r="AP2" s="179"/>
-      <c r="AQ2" s="179"/>
-      <c r="AR2" s="179"/>
-      <c r="AS2" s="180"/>
+      <c r="AO2" s="174"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="175"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="176"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -7550,14 +7560,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="181"/>
-      <c r="BA2" s="182"/>
-      <c r="BB2" s="182"/>
-      <c r="BC2" s="182"/>
-      <c r="BD2" s="182"/>
-      <c r="BE2" s="182"/>
-      <c r="BF2" s="182"/>
-      <c r="BG2" s="183"/>
+      <c r="AZ2" s="177"/>
+      <c r="BA2" s="178"/>
+      <c r="BB2" s="178"/>
+      <c r="BC2" s="178"/>
+      <c r="BD2" s="178"/>
+      <c r="BE2" s="178"/>
+      <c r="BF2" s="178"/>
+      <c r="BG2" s="179"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -9314,10 +9324,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="184" t="s">
+      <c r="B50" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="185"/>
+      <c r="C50" s="183"/>
       <c r="D50" s="91" t="s">
         <v>105</v>
       </c>
@@ -9400,10 +9410,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="176">
+      <c r="B51" s="184">
         <v>1</v>
       </c>
-      <c r="C51" s="177"/>
+      <c r="C51" s="185"/>
       <c r="D51" s="116" t="s">
         <v>257</v>
       </c>
@@ -9435,16 +9445,16 @@
       <c r="AB51" s="89"/>
       <c r="AC51" s="89"/>
       <c r="AD51" s="117"/>
-      <c r="AE51" s="174" t="s">
+      <c r="AE51" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AF51" s="175"/>
-      <c r="AG51" s="174"/>
-      <c r="AH51" s="175"/>
-      <c r="AI51" s="174"/>
-      <c r="AJ51" s="175"/>
-      <c r="AK51" s="174"/>
-      <c r="AL51" s="175"/>
+      <c r="AF51" s="181"/>
+      <c r="AG51" s="180"/>
+      <c r="AH51" s="181"/>
+      <c r="AI51" s="180"/>
+      <c r="AJ51" s="181"/>
+      <c r="AK51" s="180"/>
+      <c r="AL51" s="181"/>
       <c r="AM51" s="86" t="s">
         <v>258</v>
       </c>
@@ -9478,10 +9488,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="176">
+      <c r="B52" s="184">
         <v>2</v>
       </c>
-      <c r="C52" s="177"/>
+      <c r="C52" s="185"/>
       <c r="D52" s="116" t="s">
         <v>257</v>
       </c>
@@ -9513,16 +9523,16 @@
       <c r="AB52" s="89"/>
       <c r="AC52" s="89"/>
       <c r="AD52" s="117"/>
-      <c r="AE52" s="174" t="s">
+      <c r="AE52" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AF52" s="175"/>
-      <c r="AG52" s="174"/>
-      <c r="AH52" s="175"/>
-      <c r="AI52" s="174"/>
-      <c r="AJ52" s="175"/>
-      <c r="AK52" s="174"/>
-      <c r="AL52" s="175"/>
+      <c r="AF52" s="181"/>
+      <c r="AG52" s="180"/>
+      <c r="AH52" s="181"/>
+      <c r="AI52" s="180"/>
+      <c r="AJ52" s="181"/>
+      <c r="AK52" s="180"/>
+      <c r="AL52" s="181"/>
       <c r="AM52" s="86" t="s">
         <v>259</v>
       </c>
@@ -9556,10 +9566,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="176">
+      <c r="B53" s="184">
         <v>3</v>
       </c>
-      <c r="C53" s="177"/>
+      <c r="C53" s="185"/>
       <c r="D53" s="116" t="s">
         <v>257</v>
       </c>
@@ -9591,16 +9601,16 @@
       <c r="AB53" s="89"/>
       <c r="AC53" s="89"/>
       <c r="AD53" s="111"/>
-      <c r="AE53" s="174" t="s">
+      <c r="AE53" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AF53" s="175"/>
-      <c r="AG53" s="174"/>
-      <c r="AH53" s="175"/>
-      <c r="AI53" s="174"/>
-      <c r="AJ53" s="175"/>
-      <c r="AK53" s="174"/>
-      <c r="AL53" s="175"/>
+      <c r="AF53" s="181"/>
+      <c r="AG53" s="180"/>
+      <c r="AH53" s="181"/>
+      <c r="AI53" s="180"/>
+      <c r="AJ53" s="181"/>
+      <c r="AK53" s="180"/>
+      <c r="AL53" s="181"/>
       <c r="AM53" s="86" t="s">
         <v>260</v>
       </c>
@@ -9634,10 +9644,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="176">
+      <c r="B54" s="184">
         <v>4</v>
       </c>
-      <c r="C54" s="177"/>
+      <c r="C54" s="185"/>
       <c r="D54" s="85" t="s">
         <v>150</v>
       </c>
@@ -9669,22 +9679,22 @@
       <c r="AB54" s="89"/>
       <c r="AC54" s="89"/>
       <c r="AD54" s="90"/>
-      <c r="AE54" s="174" t="s">
+      <c r="AE54" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AF54" s="175"/>
-      <c r="AG54" s="174" t="s">
+      <c r="AF54" s="181"/>
+      <c r="AG54" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AH54" s="175"/>
-      <c r="AI54" s="174" t="s">
+      <c r="AH54" s="181"/>
+      <c r="AI54" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AJ54" s="175"/>
-      <c r="AK54" s="174" t="s">
+      <c r="AJ54" s="181"/>
+      <c r="AK54" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AL54" s="175"/>
+      <c r="AL54" s="181"/>
       <c r="AM54" s="86" t="s">
         <v>152</v>
       </c>
@@ -9723,6 +9733,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK54:AL54"/>
@@ -9739,18 +9756,11 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -9766,7 +9776,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DH6"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft"/>
@@ -9891,7 +9901,7 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="181" t="str">
+      <c r="CU1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -10022,7 +10032,7 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="181"/>
+      <c r="CU2" s="177"/>
       <c r="CV2" s="186"/>
       <c r="CW2" s="186"/>
       <c r="CX2" s="186"/>
@@ -10117,7 +10127,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
@@ -10240,37 +10250,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="F6" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="136" t="s">
+      <c r="G6" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="H6" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="195" t="s">
+      <c r="I6" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="195" t="s">
+      <c r="J6" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="136" t="s">
+      <c r="K6" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="136" t="s">
+      <c r="L6" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="136" t="s">
+      <c r="M6" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="72" t="s">
@@ -10278,24 +10288,24 @@
       </c>
       <c r="O6" s="72"/>
       <c r="P6" s="72"/>
-      <c r="Q6" s="195" t="s">
+      <c r="Q6" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
       <c r="N7" s="43" t="s">
         <v>82</v>
       </c>
@@ -10305,7 +10315,7 @@
       <c r="P7" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="195"/>
+      <c r="Q7" s="197"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -10663,37 +10673,37 @@
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="136" t="s">
+      <c r="D17" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="136" t="s">
+      <c r="E17" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="136" t="s">
+      <c r="F17" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="136" t="s">
+      <c r="G17" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="136" t="s">
+      <c r="H17" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="196" t="s">
+      <c r="I17" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="195" t="s">
+      <c r="J17" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="136" t="s">
+      <c r="K17" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="136" t="s">
+      <c r="L17" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="136" t="s">
+      <c r="M17" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N17" s="72" t="s">
@@ -10701,24 +10711,24 @@
       </c>
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
-      <c r="Q17" s="196" t="s">
+      <c r="Q17" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="195"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="167"/>
+      <c r="L18" s="167"/>
+      <c r="M18" s="167"/>
       <c r="N18" s="43" t="s">
         <v>82</v>
       </c>
@@ -10728,7 +10738,7 @@
       <c r="P18" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="197"/>
+      <c r="Q18" s="196"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
@@ -10792,37 +10802,37 @@
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="64"/>
-      <c r="C22" s="136" t="s">
+      <c r="C22" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="136" t="s">
+      <c r="D22" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="136" t="s">
+      <c r="E22" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="136" t="s">
+      <c r="F22" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="136" t="s">
+      <c r="G22" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="136" t="s">
+      <c r="H22" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="195" t="s">
+      <c r="I22" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="195" t="s">
+      <c r="J22" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="136" t="s">
+      <c r="K22" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="136" t="s">
+      <c r="L22" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="136" t="s">
+      <c r="M22" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="72" t="s">
@@ -10830,24 +10840,24 @@
       </c>
       <c r="O22" s="72"/>
       <c r="P22" s="72"/>
-      <c r="Q22" s="195" t="s">
+      <c r="Q22" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="64"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
       <c r="N23" s="43" t="s">
         <v>82</v>
       </c>
@@ -10857,7 +10867,7 @@
       <c r="P23" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q23" s="195"/>
+      <c r="Q23" s="197"/>
     </row>
     <row r="24" spans="1:17" s="51" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
@@ -11233,19 +11243,19 @@
         <v>208</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>118</v>
+        <v>218</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="129" t="s">
-        <v>35</v>
+      <c r="I32" s="129">
+        <v>8</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>35</v>
@@ -11266,7 +11276,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -11282,19 +11292,19 @@
         <v>209</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G33" s="45" t="s">
-        <v>50</v>
+        <v>205</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="129">
-        <v>50</v>
+      <c r="I33" s="129" t="s">
+        <v>35</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>35</v>
@@ -11315,7 +11325,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>35</v>
@@ -11324,161 +11334,161 @@
     <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="64"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="107"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="107"/>
+      <c r="C34" s="7">
+        <v>10</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="129">
+        <v>50</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="107"/>
+    </row>
+    <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="136" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="136" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="136" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="136" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="195" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="195" t="s">
-        <v>45</v>
-      </c>
-      <c r="K36" s="136" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="136" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36" s="136" t="s">
-        <v>33</v>
-      </c>
-      <c r="N36" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="195" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="64"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="195"/>
-      <c r="J37" s="195"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="96" t="s">
-        <v>82</v>
-      </c>
-      <c r="O37" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="P37" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q37" s="195"/>
-    </row>
-    <row r="38" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="C37" s="167" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="167" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="167" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="167" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="197" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="197" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="167" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="167" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="197" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="64"/>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G38" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I38" s="129">
-        <v>4</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q38" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="167"/>
+      <c r="L38" s="167"/>
+      <c r="M38" s="167"/>
+      <c r="N38" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="O38" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="P38" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q38" s="197"/>
+    </row>
+    <row r="39" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="64"/>
       <c r="C39" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="G39" s="45" t="s">
         <v>119</v>
@@ -11487,7 +11497,7 @@
         <v>120</v>
       </c>
       <c r="I39" s="129">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>35</v>
@@ -11499,7 +11509,7 @@
         <v>35</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N39" s="8" t="s">
         <v>34</v>
@@ -11518,25 +11528,25 @@
       <c r="A40" s="15"/>
       <c r="B40" s="64"/>
       <c r="C40" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>118</v>
+        <v>159</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>119</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I40" s="129" t="s">
-        <v>35</v>
+      <c r="I40" s="129">
+        <v>20</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>35</v>
@@ -11547,36 +11557,36 @@
       <c r="L40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M40" s="7" t="s">
-        <v>163</v>
+      <c r="M40" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>254</v>
+        <v>34</v>
       </c>
       <c r="O40" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="Q40" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
       <c r="B41" s="64"/>
       <c r="C41" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>118</v>
@@ -11597,7 +11607,7 @@
         <v>35</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>254</v>
@@ -11606,26 +11616,26 @@
         <v>34</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="64"/>
       <c r="C42" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>118</v>
@@ -11655,35 +11665,35 @@
         <v>34</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q42" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="64"/>
       <c r="C43" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G43" s="45" t="s">
-        <v>119</v>
+        <v>193</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I43" s="129">
-        <v>8</v>
+      <c r="I43" s="129" t="s">
+        <v>35</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>35</v>
@@ -11694,45 +11704,45 @@
       <c r="L43" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M43" s="8" t="s">
-        <v>223</v>
+      <c r="M43" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A44" s="15"/>
       <c r="B44" s="64"/>
       <c r="C44" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>118</v>
+        <v>218</v>
+      </c>
+      <c r="G44" s="45" t="s">
+        <v>119</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I44" s="129" t="s">
-        <v>35</v>
+      <c r="I44" s="129">
+        <v>8</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>35</v>
@@ -11743,11 +11753,11 @@
       <c r="L44" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M44" s="7" t="s">
-        <v>35</v>
+      <c r="M44" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>34</v>
@@ -11759,29 +11769,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A45" s="15"/>
       <c r="B45" s="64"/>
       <c r="C45" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G45" s="45" t="s">
-        <v>119</v>
+        <v>205</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I45" s="129">
-        <v>50</v>
+      <c r="I45" s="129" t="s">
+        <v>35</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>35</v>
@@ -11792,31 +11802,112 @@
       <c r="L45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="M45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="15"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="7">
+        <v>8</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I46" s="129">
+        <v>50</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M46" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="N45" s="8"/>
-      <c r="O45" s="7" t="s">
+      <c r="N46" s="8"/>
+      <c r="O46" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="P46" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q45" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="52" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B46" s="66"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="M46" s="53"/>
-      <c r="Q46" s="53"/>
+    <row r="47" spans="1:17" s="52" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B47" s="66"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="M47" s="53"/>
+      <c r="Q47" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="I22:I23"/>
@@ -11833,38 +11924,6 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11938,7 +11997,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="178">
+      <c r="AI1" s="174">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -11954,7 +12013,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="181" t="str">
+      <c r="AT1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -12025,7 +12084,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="181"/>
+      <c r="AT2" s="177"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -21474,7 +21533,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="178">
+      <c r="AI1" s="174">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -21490,7 +21549,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="181" t="str">
+      <c r="AT1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -21561,7 +21620,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="181"/>
+      <c r="AT2" s="177"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -22360,18 +22419,18 @@
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="200" t="s">
+      <c r="T17" s="206" t="s">
         <v>272</v>
       </c>
-      <c r="U17" s="201"/>
-      <c r="V17" s="201"/>
-      <c r="W17" s="201"/>
-      <c r="X17" s="201"/>
-      <c r="Y17" s="201"/>
-      <c r="Z17" s="201"/>
-      <c r="AA17" s="201"/>
-      <c r="AB17" s="201"/>
-      <c r="AC17" s="202"/>
+      <c r="U17" s="207"/>
+      <c r="V17" s="207"/>
+      <c r="W17" s="207"/>
+      <c r="X17" s="207"/>
+      <c r="Y17" s="207"/>
+      <c r="Z17" s="207"/>
+      <c r="AA17" s="207"/>
+      <c r="AB17" s="207"/>
+      <c r="AC17" s="208"/>
       <c r="AD17" s="77" t="s">
         <v>145</v>
       </c>
@@ -22414,16 +22473,16 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="26"/>
       <c r="S18" s="27"/>
-      <c r="T18" s="203"/>
-      <c r="U18" s="204"/>
-      <c r="V18" s="204"/>
-      <c r="W18" s="204"/>
-      <c r="X18" s="204"/>
-      <c r="Y18" s="204"/>
-      <c r="Z18" s="204"/>
-      <c r="AA18" s="204"/>
-      <c r="AB18" s="204"/>
-      <c r="AC18" s="205"/>
+      <c r="T18" s="209"/>
+      <c r="U18" s="210"/>
+      <c r="V18" s="210"/>
+      <c r="W18" s="210"/>
+      <c r="X18" s="210"/>
+      <c r="Y18" s="210"/>
+      <c r="Z18" s="210"/>
+      <c r="AA18" s="210"/>
+      <c r="AB18" s="210"/>
+      <c r="AC18" s="211"/>
       <c r="AD18" s="80"/>
       <c r="AE18" s="81"/>
       <c r="AF18" s="81"/>
@@ -22692,18 +22751,18 @@
       </c>
       <c r="R23" s="22"/>
       <c r="S23" s="23"/>
-      <c r="T23" s="200" t="s">
+      <c r="T23" s="206" t="s">
         <v>139</v>
       </c>
-      <c r="U23" s="201"/>
-      <c r="V23" s="201"/>
-      <c r="W23" s="201"/>
-      <c r="X23" s="201"/>
-      <c r="Y23" s="201"/>
-      <c r="Z23" s="201"/>
-      <c r="AA23" s="201"/>
-      <c r="AB23" s="201"/>
-      <c r="AC23" s="202"/>
+      <c r="U23" s="207"/>
+      <c r="V23" s="207"/>
+      <c r="W23" s="207"/>
+      <c r="X23" s="207"/>
+      <c r="Y23" s="207"/>
+      <c r="Z23" s="207"/>
+      <c r="AA23" s="207"/>
+      <c r="AB23" s="207"/>
+      <c r="AC23" s="208"/>
       <c r="AD23" s="77" t="s">
         <v>141</v>
       </c>
@@ -22746,16 +22805,16 @@
       <c r="Q24" s="25"/>
       <c r="R24" s="26"/>
       <c r="S24" s="27"/>
-      <c r="T24" s="203"/>
-      <c r="U24" s="204"/>
-      <c r="V24" s="204"/>
-      <c r="W24" s="204"/>
-      <c r="X24" s="204"/>
-      <c r="Y24" s="204"/>
-      <c r="Z24" s="204"/>
-      <c r="AA24" s="204"/>
-      <c r="AB24" s="204"/>
-      <c r="AC24" s="205"/>
+      <c r="T24" s="209"/>
+      <c r="U24" s="210"/>
+      <c r="V24" s="210"/>
+      <c r="W24" s="210"/>
+      <c r="X24" s="210"/>
+      <c r="Y24" s="210"/>
+      <c r="Z24" s="210"/>
+      <c r="AA24" s="210"/>
+      <c r="AB24" s="210"/>
+      <c r="AC24" s="211"/>
       <c r="AD24" s="80"/>
       <c r="AE24" s="81"/>
       <c r="AF24" s="81"/>
@@ -22908,18 +22967,18 @@
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="23"/>
-      <c r="T27" s="206" t="s">
+      <c r="T27" s="212" t="s">
         <v>270</v>
       </c>
-      <c r="U27" s="207"/>
-      <c r="V27" s="207"/>
-      <c r="W27" s="207"/>
-      <c r="X27" s="207"/>
-      <c r="Y27" s="207"/>
-      <c r="Z27" s="207"/>
-      <c r="AA27" s="207"/>
-      <c r="AB27" s="207"/>
-      <c r="AC27" s="208"/>
+      <c r="U27" s="213"/>
+      <c r="V27" s="213"/>
+      <c r="W27" s="213"/>
+      <c r="X27" s="213"/>
+      <c r="Y27" s="213"/>
+      <c r="Z27" s="213"/>
+      <c r="AA27" s="213"/>
+      <c r="AB27" s="213"/>
+      <c r="AC27" s="214"/>
       <c r="AD27" s="77" t="s">
         <v>143</v>
       </c>
@@ -22962,16 +23021,16 @@
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
-      <c r="T28" s="209"/>
-      <c r="U28" s="210"/>
-      <c r="V28" s="210"/>
-      <c r="W28" s="210"/>
-      <c r="X28" s="210"/>
-      <c r="Y28" s="210"/>
-      <c r="Z28" s="210"/>
-      <c r="AA28" s="210"/>
-      <c r="AB28" s="210"/>
-      <c r="AC28" s="211"/>
+      <c r="T28" s="215"/>
+      <c r="U28" s="216"/>
+      <c r="V28" s="216"/>
+      <c r="W28" s="216"/>
+      <c r="X28" s="216"/>
+      <c r="Y28" s="216"/>
+      <c r="Z28" s="216"/>
+      <c r="AA28" s="216"/>
+      <c r="AB28" s="216"/>
+      <c r="AC28" s="217"/>
       <c r="AD28" s="80"/>
       <c r="AE28" s="81"/>
       <c r="AF28" s="81"/>
@@ -23020,18 +23079,18 @@
       </c>
       <c r="R29" s="22"/>
       <c r="S29" s="23"/>
-      <c r="T29" s="200" t="s">
+      <c r="T29" s="206" t="s">
         <v>138</v>
       </c>
-      <c r="U29" s="201"/>
-      <c r="V29" s="201"/>
-      <c r="W29" s="201"/>
-      <c r="X29" s="201"/>
-      <c r="Y29" s="201"/>
-      <c r="Z29" s="201"/>
-      <c r="AA29" s="201"/>
-      <c r="AB29" s="201"/>
-      <c r="AC29" s="202"/>
+      <c r="U29" s="207"/>
+      <c r="V29" s="207"/>
+      <c r="W29" s="207"/>
+      <c r="X29" s="207"/>
+      <c r="Y29" s="207"/>
+      <c r="Z29" s="207"/>
+      <c r="AA29" s="207"/>
+      <c r="AB29" s="207"/>
+      <c r="AC29" s="208"/>
       <c r="AD29" s="77" t="s">
         <v>146</v>
       </c>
@@ -23074,16 +23133,16 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="26"/>
       <c r="S30" s="27"/>
-      <c r="T30" s="203"/>
-      <c r="U30" s="204"/>
-      <c r="V30" s="204"/>
-      <c r="W30" s="204"/>
-      <c r="X30" s="204"/>
-      <c r="Y30" s="204"/>
-      <c r="Z30" s="204"/>
-      <c r="AA30" s="204"/>
-      <c r="AB30" s="204"/>
-      <c r="AC30" s="205"/>
+      <c r="T30" s="209"/>
+      <c r="U30" s="210"/>
+      <c r="V30" s="210"/>
+      <c r="W30" s="210"/>
+      <c r="X30" s="210"/>
+      <c r="Y30" s="210"/>
+      <c r="Z30" s="210"/>
+      <c r="AA30" s="210"/>
+      <c r="AB30" s="210"/>
+      <c r="AC30" s="211"/>
       <c r="AD30" s="80"/>
       <c r="AE30" s="81"/>
       <c r="AF30" s="81"/>
@@ -23454,18 +23513,18 @@
       </c>
       <c r="R37" s="78"/>
       <c r="S37" s="79"/>
-      <c r="T37" s="212" t="s">
+      <c r="T37" s="200" t="s">
         <v>262</v>
       </c>
-      <c r="U37" s="213"/>
-      <c r="V37" s="213"/>
-      <c r="W37" s="213"/>
-      <c r="X37" s="213"/>
-      <c r="Y37" s="213"/>
-      <c r="Z37" s="213"/>
-      <c r="AA37" s="213"/>
-      <c r="AB37" s="213"/>
-      <c r="AC37" s="214"/>
+      <c r="U37" s="201"/>
+      <c r="V37" s="201"/>
+      <c r="W37" s="201"/>
+      <c r="X37" s="201"/>
+      <c r="Y37" s="201"/>
+      <c r="Z37" s="201"/>
+      <c r="AA37" s="201"/>
+      <c r="AB37" s="201"/>
+      <c r="AC37" s="202"/>
       <c r="AD37" s="77" t="s">
         <v>263</v>
       </c>
@@ -23508,16 +23567,16 @@
       <c r="Q38" s="80"/>
       <c r="R38" s="81"/>
       <c r="S38" s="82"/>
-      <c r="T38" s="215"/>
-      <c r="U38" s="216"/>
-      <c r="V38" s="216"/>
-      <c r="W38" s="216"/>
-      <c r="X38" s="216"/>
-      <c r="Y38" s="216"/>
-      <c r="Z38" s="216"/>
-      <c r="AA38" s="216"/>
-      <c r="AB38" s="216"/>
-      <c r="AC38" s="217"/>
+      <c r="T38" s="203"/>
+      <c r="U38" s="204"/>
+      <c r="V38" s="204"/>
+      <c r="W38" s="204"/>
+      <c r="X38" s="204"/>
+      <c r="Y38" s="204"/>
+      <c r="Z38" s="204"/>
+      <c r="AA38" s="204"/>
+      <c r="AB38" s="204"/>
+      <c r="AC38" s="205"/>
       <c r="AD38" s="80"/>
       <c r="AE38" s="81"/>
       <c r="AF38" s="81"/>
@@ -27643,18 +27702,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="T37:AC38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B29:B30"/>
@@ -27671,6 +27718,18 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="T37:AC38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -27744,7 +27803,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="178">
+      <c r="AI1" s="174">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -27760,7 +27819,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="181" t="str">
+      <c r="AT1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -27831,7 +27890,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="181"/>
+      <c r="AT2" s="177"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -39049,21 +39108,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -39221,24 +39265,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39254,4 +39296,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/06_SC-M_マスタ系/SC-M10_設備マスタ.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/SC-M10_設備マスタ.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B764D28-5627-442D-92DD-D5D7CEA7659A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C2AC69-EFB8-46CB-9D47-FADD8FBBCF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1539,10 +1539,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>コードマスタのコード、コード名称</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>工程マスタの工程コード、工程略称</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1969,6 +1965,10 @@
   </si>
   <si>
     <t>設備マスタの表示順序</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コードマスタ(コード区分='87')のコード、コード名称</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2845,91 +2845,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2957,6 +2872,103 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2975,22 +2987,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3020,13 +3020,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3034,24 +3034,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3087,6 +3069,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5375,1779 +5375,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="165"/>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="165"/>
-      <c r="AF1" s="165"/>
-      <c r="AG1" s="165"/>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="165"/>
-      <c r="AJ1" s="165"/>
-      <c r="AK1" s="165"/>
-      <c r="AL1" s="165"/>
-      <c r="AM1" s="165"/>
-      <c r="AN1" s="165"/>
-      <c r="AO1" s="165"/>
-      <c r="AP1" s="165"/>
-      <c r="AQ1" s="165"/>
-      <c r="AR1" s="165"/>
-      <c r="AS1" s="165"/>
-      <c r="AT1" s="165"/>
-      <c r="AU1" s="165"/>
-      <c r="AV1" s="165"/>
-      <c r="AW1" s="165"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="134"/>
+      <c r="AJ1" s="134"/>
+      <c r="AK1" s="134"/>
+      <c r="AL1" s="134"/>
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="134"/>
+      <c r="AR1" s="134"/>
+      <c r="AS1" s="134"/>
+      <c r="AT1" s="134"/>
+      <c r="AU1" s="134"/>
+      <c r="AV1" s="134"/>
+      <c r="AW1" s="134"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="166"/>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="166"/>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="166"/>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="166"/>
-      <c r="AJ2" s="166"/>
-      <c r="AK2" s="166"/>
-      <c r="AL2" s="166"/>
-      <c r="AM2" s="166"/>
-      <c r="AN2" s="166"/>
-      <c r="AO2" s="166"/>
-      <c r="AP2" s="166"/>
-      <c r="AQ2" s="166"/>
-      <c r="AR2" s="166"/>
-      <c r="AS2" s="166"/>
-      <c r="AT2" s="166"/>
-      <c r="AU2" s="166"/>
-      <c r="AV2" s="166"/>
-      <c r="AW2" s="166"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="135"/>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="135"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="168" t="s">
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="169"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="168" t="s">
+      <c r="K3" s="138"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="167" t="s">
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167" t="s">
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="167"/>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="167"/>
-      <c r="AH3" s="167"/>
-      <c r="AI3" s="167"/>
-      <c r="AJ3" s="167"/>
-      <c r="AK3" s="167"/>
-      <c r="AL3" s="167"/>
-      <c r="AM3" s="167"/>
-      <c r="AN3" s="167" t="s">
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="167"/>
-      <c r="AP3" s="167"/>
-      <c r="AQ3" s="167"/>
-      <c r="AR3" s="167"/>
-      <c r="AS3" s="167" t="s">
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="167"/>
-      <c r="AU3" s="167"/>
-      <c r="AV3" s="167"/>
-      <c r="AW3" s="167"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="172"/>
-      <c r="Q4" s="172"/>
-      <c r="R4" s="173"/>
-      <c r="S4" s="167"/>
-      <c r="T4" s="167"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="167"/>
-      <c r="W4" s="167"/>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="167"/>
-      <c r="Z4" s="167"/>
-      <c r="AA4" s="167"/>
-      <c r="AB4" s="167"/>
-      <c r="AC4" s="167"/>
-      <c r="AD4" s="167"/>
-      <c r="AE4" s="167"/>
-      <c r="AF4" s="167"/>
-      <c r="AG4" s="167"/>
-      <c r="AH4" s="167"/>
-      <c r="AI4" s="167"/>
-      <c r="AJ4" s="167"/>
-      <c r="AK4" s="167"/>
-      <c r="AL4" s="167"/>
-      <c r="AM4" s="167"/>
-      <c r="AN4" s="167"/>
-      <c r="AO4" s="167"/>
-      <c r="AP4" s="167"/>
-      <c r="AQ4" s="167"/>
-      <c r="AR4" s="167"/>
-      <c r="AS4" s="167"/>
-      <c r="AT4" s="167"/>
-      <c r="AU4" s="167"/>
-      <c r="AV4" s="167"/>
-      <c r="AW4" s="167"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="136"/>
+      <c r="AM4" s="136"/>
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="136"/>
+      <c r="AT4" s="136"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
-      <c r="B5" s="159">
+      <c r="B5" s="144">
         <v>1</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="140">
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145">
         <v>43703</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="141" t="s">
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="142"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="141" t="s">
+      <c r="K5" s="147"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="147" t="s">
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="158" t="s">
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="158"/>
-      <c r="X5" s="158"/>
-      <c r="Y5" s="158"/>
-      <c r="Z5" s="158"/>
-      <c r="AA5" s="158"/>
-      <c r="AB5" s="158"/>
-      <c r="AC5" s="158"/>
-      <c r="AD5" s="158"/>
-      <c r="AE5" s="158"/>
-      <c r="AF5" s="158"/>
-      <c r="AG5" s="158"/>
-      <c r="AH5" s="158"/>
-      <c r="AI5" s="158"/>
-      <c r="AJ5" s="158"/>
-      <c r="AK5" s="158"/>
-      <c r="AL5" s="158"/>
-      <c r="AM5" s="158"/>
-      <c r="AN5" s="147" t="s">
+      <c r="W5" s="152"/>
+      <c r="X5" s="152"/>
+      <c r="Y5" s="152"/>
+      <c r="Z5" s="152"/>
+      <c r="AA5" s="152"/>
+      <c r="AB5" s="152"/>
+      <c r="AC5" s="152"/>
+      <c r="AD5" s="152"/>
+      <c r="AE5" s="152"/>
+      <c r="AF5" s="152"/>
+      <c r="AG5" s="152"/>
+      <c r="AH5" s="152"/>
+      <c r="AI5" s="152"/>
+      <c r="AJ5" s="152"/>
+      <c r="AK5" s="152"/>
+      <c r="AL5" s="152"/>
+      <c r="AM5" s="152"/>
+      <c r="AN5" s="143" t="s">
         <v>116</v>
       </c>
-      <c r="AO5" s="147"/>
-      <c r="AP5" s="147"/>
-      <c r="AQ5" s="147"/>
-      <c r="AR5" s="147"/>
-      <c r="AS5" s="147"/>
-      <c r="AT5" s="147"/>
-      <c r="AU5" s="147"/>
-      <c r="AV5" s="147"/>
-      <c r="AW5" s="147"/>
+      <c r="AO5" s="143"/>
+      <c r="AP5" s="143"/>
+      <c r="AQ5" s="143"/>
+      <c r="AR5" s="143"/>
+      <c r="AS5" s="143"/>
+      <c r="AT5" s="143"/>
+      <c r="AU5" s="143"/>
+      <c r="AV5" s="143"/>
+      <c r="AW5" s="143"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="158"/>
-      <c r="X6" s="158"/>
-      <c r="Y6" s="158"/>
-      <c r="Z6" s="158"/>
-      <c r="AA6" s="158"/>
-      <c r="AB6" s="158"/>
-      <c r="AC6" s="158"/>
-      <c r="AD6" s="158"/>
-      <c r="AE6" s="158"/>
-      <c r="AF6" s="158"/>
-      <c r="AG6" s="158"/>
-      <c r="AH6" s="158"/>
-      <c r="AI6" s="158"/>
-      <c r="AJ6" s="158"/>
-      <c r="AK6" s="158"/>
-      <c r="AL6" s="158"/>
-      <c r="AM6" s="158"/>
-      <c r="AN6" s="147"/>
-      <c r="AO6" s="147"/>
-      <c r="AP6" s="147"/>
-      <c r="AQ6" s="147"/>
-      <c r="AR6" s="147"/>
-      <c r="AS6" s="147"/>
-      <c r="AT6" s="147"/>
-      <c r="AU6" s="147"/>
-      <c r="AV6" s="147"/>
-      <c r="AW6" s="147"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="152"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="152"/>
+      <c r="Y6" s="152"/>
+      <c r="Z6" s="152"/>
+      <c r="AA6" s="152"/>
+      <c r="AB6" s="152"/>
+      <c r="AC6" s="152"/>
+      <c r="AD6" s="152"/>
+      <c r="AE6" s="152"/>
+      <c r="AF6" s="152"/>
+      <c r="AG6" s="152"/>
+      <c r="AH6" s="152"/>
+      <c r="AI6" s="152"/>
+      <c r="AJ6" s="152"/>
+      <c r="AK6" s="152"/>
+      <c r="AL6" s="152"/>
+      <c r="AM6" s="152"/>
+      <c r="AN6" s="143"/>
+      <c r="AO6" s="143"/>
+      <c r="AP6" s="143"/>
+      <c r="AQ6" s="143"/>
+      <c r="AR6" s="143"/>
+      <c r="AS6" s="143"/>
+      <c r="AT6" s="143"/>
+      <c r="AU6" s="143"/>
+      <c r="AV6" s="143"/>
+      <c r="AW6" s="143"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="147"/>
-      <c r="U7" s="147"/>
-      <c r="V7" s="158"/>
-      <c r="W7" s="158"/>
-      <c r="X7" s="158"/>
-      <c r="Y7" s="158"/>
-      <c r="Z7" s="158"/>
-      <c r="AA7" s="158"/>
-      <c r="AB7" s="158"/>
-      <c r="AC7" s="158"/>
-      <c r="AD7" s="158"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="158"/>
-      <c r="AG7" s="158"/>
-      <c r="AH7" s="158"/>
-      <c r="AI7" s="158"/>
-      <c r="AJ7" s="158"/>
-      <c r="AK7" s="158"/>
-      <c r="AL7" s="158"/>
-      <c r="AM7" s="158"/>
-      <c r="AN7" s="147"/>
-      <c r="AO7" s="147"/>
-      <c r="AP7" s="147"/>
-      <c r="AQ7" s="147"/>
-      <c r="AR7" s="147"/>
-      <c r="AS7" s="147"/>
-      <c r="AT7" s="147"/>
-      <c r="AU7" s="147"/>
-      <c r="AV7" s="147"/>
-      <c r="AW7" s="147"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="152"/>
+      <c r="W7" s="152"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="152"/>
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="152"/>
+      <c r="AF7" s="152"/>
+      <c r="AG7" s="152"/>
+      <c r="AH7" s="152"/>
+      <c r="AI7" s="152"/>
+      <c r="AJ7" s="152"/>
+      <c r="AK7" s="152"/>
+      <c r="AL7" s="152"/>
+      <c r="AM7" s="152"/>
+      <c r="AN7" s="143"/>
+      <c r="AO7" s="143"/>
+      <c r="AP7" s="143"/>
+      <c r="AQ7" s="143"/>
+      <c r="AR7" s="143"/>
+      <c r="AS7" s="143"/>
+      <c r="AT7" s="143"/>
+      <c r="AU7" s="143"/>
+      <c r="AV7" s="143"/>
+      <c r="AW7" s="143"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="158"/>
-      <c r="W8" s="158"/>
-      <c r="X8" s="158"/>
-      <c r="Y8" s="158"/>
-      <c r="Z8" s="158"/>
-      <c r="AA8" s="158"/>
-      <c r="AB8" s="158"/>
-      <c r="AC8" s="158"/>
-      <c r="AD8" s="158"/>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="158"/>
-      <c r="AG8" s="158"/>
-      <c r="AH8" s="158"/>
-      <c r="AI8" s="158"/>
-      <c r="AJ8" s="158"/>
-      <c r="AK8" s="158"/>
-      <c r="AL8" s="158"/>
-      <c r="AM8" s="158"/>
-      <c r="AN8" s="147"/>
-      <c r="AO8" s="147"/>
-      <c r="AP8" s="147"/>
-      <c r="AQ8" s="147"/>
-      <c r="AR8" s="147"/>
-      <c r="AS8" s="147"/>
-      <c r="AT8" s="147"/>
-      <c r="AU8" s="147"/>
-      <c r="AV8" s="147"/>
-      <c r="AW8" s="147"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="151"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="152"/>
+      <c r="AF8" s="152"/>
+      <c r="AG8" s="152"/>
+      <c r="AH8" s="152"/>
+      <c r="AI8" s="152"/>
+      <c r="AJ8" s="152"/>
+      <c r="AK8" s="152"/>
+      <c r="AL8" s="152"/>
+      <c r="AM8" s="152"/>
+      <c r="AN8" s="143"/>
+      <c r="AO8" s="143"/>
+      <c r="AP8" s="143"/>
+      <c r="AQ8" s="143"/>
+      <c r="AR8" s="143"/>
+      <c r="AS8" s="143"/>
+      <c r="AT8" s="143"/>
+      <c r="AU8" s="143"/>
+      <c r="AV8" s="143"/>
+      <c r="AW8" s="143"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="158"/>
-      <c r="W9" s="158"/>
-      <c r="X9" s="158"/>
-      <c r="Y9" s="158"/>
-      <c r="Z9" s="158"/>
-      <c r="AA9" s="158"/>
-      <c r="AB9" s="158"/>
-      <c r="AC9" s="158"/>
-      <c r="AD9" s="158"/>
-      <c r="AE9" s="158"/>
-      <c r="AF9" s="158"/>
-      <c r="AG9" s="158"/>
-      <c r="AH9" s="158"/>
-      <c r="AI9" s="158"/>
-      <c r="AJ9" s="158"/>
-      <c r="AK9" s="158"/>
-      <c r="AL9" s="158"/>
-      <c r="AM9" s="158"/>
-      <c r="AN9" s="147"/>
-      <c r="AO9" s="147"/>
-      <c r="AP9" s="147"/>
-      <c r="AQ9" s="147"/>
-      <c r="AR9" s="147"/>
-      <c r="AS9" s="147"/>
-      <c r="AT9" s="147"/>
-      <c r="AU9" s="147"/>
-      <c r="AV9" s="147"/>
-      <c r="AW9" s="147"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="143"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="152"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="152"/>
+      <c r="AD9" s="152"/>
+      <c r="AE9" s="152"/>
+      <c r="AF9" s="152"/>
+      <c r="AG9" s="152"/>
+      <c r="AH9" s="152"/>
+      <c r="AI9" s="152"/>
+      <c r="AJ9" s="152"/>
+      <c r="AK9" s="152"/>
+      <c r="AL9" s="152"/>
+      <c r="AM9" s="152"/>
+      <c r="AN9" s="143"/>
+      <c r="AO9" s="143"/>
+      <c r="AP9" s="143"/>
+      <c r="AQ9" s="143"/>
+      <c r="AR9" s="143"/>
+      <c r="AS9" s="143"/>
+      <c r="AT9" s="143"/>
+      <c r="AU9" s="143"/>
+      <c r="AV9" s="143"/>
+      <c r="AW9" s="143"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="158"/>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="158"/>
-      <c r="AE10" s="158"/>
-      <c r="AF10" s="158"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="158"/>
-      <c r="AI10" s="158"/>
-      <c r="AJ10" s="158"/>
-      <c r="AK10" s="158"/>
-      <c r="AL10" s="158"/>
-      <c r="AM10" s="158"/>
-      <c r="AN10" s="147"/>
-      <c r="AO10" s="147"/>
-      <c r="AP10" s="147"/>
-      <c r="AQ10" s="147"/>
-      <c r="AR10" s="147"/>
-      <c r="AS10" s="147"/>
-      <c r="AT10" s="147"/>
-      <c r="AU10" s="147"/>
-      <c r="AV10" s="147"/>
-      <c r="AW10" s="147"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="152"/>
+      <c r="AG10" s="152"/>
+      <c r="AH10" s="152"/>
+      <c r="AI10" s="152"/>
+      <c r="AJ10" s="152"/>
+      <c r="AK10" s="152"/>
+      <c r="AL10" s="152"/>
+      <c r="AM10" s="152"/>
+      <c r="AN10" s="143"/>
+      <c r="AO10" s="143"/>
+      <c r="AP10" s="143"/>
+      <c r="AQ10" s="143"/>
+      <c r="AR10" s="143"/>
+      <c r="AS10" s="143"/>
+      <c r="AT10" s="143"/>
+      <c r="AU10" s="143"/>
+      <c r="AV10" s="143"/>
+      <c r="AW10" s="143"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="160"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="160"/>
-      <c r="AA11" s="160"/>
-      <c r="AB11" s="160"/>
-      <c r="AC11" s="160"/>
-      <c r="AD11" s="160"/>
-      <c r="AE11" s="160"/>
-      <c r="AF11" s="160"/>
-      <c r="AG11" s="160"/>
-      <c r="AH11" s="160"/>
-      <c r="AI11" s="160"/>
-      <c r="AJ11" s="160"/>
-      <c r="AK11" s="160"/>
-      <c r="AL11" s="160"/>
-      <c r="AM11" s="161"/>
-      <c r="AN11" s="147"/>
-      <c r="AO11" s="147"/>
-      <c r="AP11" s="147"/>
-      <c r="AQ11" s="147"/>
-      <c r="AR11" s="147"/>
-      <c r="AS11" s="147"/>
-      <c r="AT11" s="147"/>
-      <c r="AU11" s="147"/>
-      <c r="AV11" s="147"/>
-      <c r="AW11" s="147"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="157"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="143"/>
+      <c r="V11" s="159"/>
+      <c r="W11" s="165"/>
+      <c r="X11" s="165"/>
+      <c r="Y11" s="165"/>
+      <c r="Z11" s="165"/>
+      <c r="AA11" s="165"/>
+      <c r="AB11" s="165"/>
+      <c r="AC11" s="165"/>
+      <c r="AD11" s="165"/>
+      <c r="AE11" s="165"/>
+      <c r="AF11" s="165"/>
+      <c r="AG11" s="165"/>
+      <c r="AH11" s="165"/>
+      <c r="AI11" s="165"/>
+      <c r="AJ11" s="165"/>
+      <c r="AK11" s="165"/>
+      <c r="AL11" s="165"/>
+      <c r="AM11" s="166"/>
+      <c r="AN11" s="143"/>
+      <c r="AO11" s="143"/>
+      <c r="AP11" s="143"/>
+      <c r="AQ11" s="143"/>
+      <c r="AR11" s="143"/>
+      <c r="AS11" s="143"/>
+      <c r="AT11" s="143"/>
+      <c r="AU11" s="143"/>
+      <c r="AV11" s="143"/>
+      <c r="AW11" s="143"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="149"/>
-      <c r="X12" s="149"/>
-      <c r="Y12" s="149"/>
-      <c r="Z12" s="149"/>
-      <c r="AA12" s="149"/>
-      <c r="AB12" s="149"/>
-      <c r="AC12" s="149"/>
-      <c r="AD12" s="149"/>
-      <c r="AE12" s="149"/>
-      <c r="AF12" s="149"/>
-      <c r="AG12" s="149"/>
-      <c r="AH12" s="149"/>
-      <c r="AI12" s="149"/>
-      <c r="AJ12" s="149"/>
-      <c r="AK12" s="149"/>
-      <c r="AL12" s="149"/>
-      <c r="AM12" s="150"/>
-      <c r="AN12" s="134"/>
-      <c r="AO12" s="135"/>
-      <c r="AP12" s="135"/>
-      <c r="AQ12" s="135"/>
-      <c r="AR12" s="136"/>
-      <c r="AS12" s="134"/>
-      <c r="AT12" s="135"/>
-      <c r="AU12" s="135"/>
-      <c r="AV12" s="135"/>
-      <c r="AW12" s="136"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="157"/>
+      <c r="P12" s="157"/>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="158"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
+      <c r="U12" s="143"/>
+      <c r="V12" s="159"/>
+      <c r="W12" s="160"/>
+      <c r="X12" s="160"/>
+      <c r="Y12" s="160"/>
+      <c r="Z12" s="160"/>
+      <c r="AA12" s="160"/>
+      <c r="AB12" s="160"/>
+      <c r="AC12" s="160"/>
+      <c r="AD12" s="160"/>
+      <c r="AE12" s="160"/>
+      <c r="AF12" s="160"/>
+      <c r="AG12" s="160"/>
+      <c r="AH12" s="160"/>
+      <c r="AI12" s="160"/>
+      <c r="AJ12" s="160"/>
+      <c r="AK12" s="160"/>
+      <c r="AL12" s="160"/>
+      <c r="AM12" s="161"/>
+      <c r="AN12" s="162"/>
+      <c r="AO12" s="163"/>
+      <c r="AP12" s="163"/>
+      <c r="AQ12" s="163"/>
+      <c r="AR12" s="164"/>
+      <c r="AS12" s="162"/>
+      <c r="AT12" s="163"/>
+      <c r="AU12" s="163"/>
+      <c r="AV12" s="163"/>
+      <c r="AW12" s="164"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="149"/>
-      <c r="X13" s="149"/>
-      <c r="Y13" s="149"/>
-      <c r="Z13" s="149"/>
-      <c r="AA13" s="149"/>
-      <c r="AB13" s="149"/>
-      <c r="AC13" s="149"/>
-      <c r="AD13" s="149"/>
-      <c r="AE13" s="149"/>
-      <c r="AF13" s="149"/>
-      <c r="AG13" s="149"/>
-      <c r="AH13" s="149"/>
-      <c r="AI13" s="149"/>
-      <c r="AJ13" s="149"/>
-      <c r="AK13" s="149"/>
-      <c r="AL13" s="149"/>
-      <c r="AM13" s="150"/>
-      <c r="AN13" s="134"/>
-      <c r="AO13" s="135"/>
-      <c r="AP13" s="135"/>
-      <c r="AQ13" s="135"/>
-      <c r="AR13" s="136"/>
-      <c r="AS13" s="134"/>
-      <c r="AT13" s="135"/>
-      <c r="AU13" s="135"/>
-      <c r="AV13" s="135"/>
-      <c r="AW13" s="136"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="157"/>
+      <c r="P13" s="157"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="158"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="159"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="160"/>
+      <c r="Y13" s="160"/>
+      <c r="Z13" s="160"/>
+      <c r="AA13" s="160"/>
+      <c r="AB13" s="160"/>
+      <c r="AC13" s="160"/>
+      <c r="AD13" s="160"/>
+      <c r="AE13" s="160"/>
+      <c r="AF13" s="160"/>
+      <c r="AG13" s="160"/>
+      <c r="AH13" s="160"/>
+      <c r="AI13" s="160"/>
+      <c r="AJ13" s="160"/>
+      <c r="AK13" s="160"/>
+      <c r="AL13" s="160"/>
+      <c r="AM13" s="161"/>
+      <c r="AN13" s="162"/>
+      <c r="AO13" s="163"/>
+      <c r="AP13" s="163"/>
+      <c r="AQ13" s="163"/>
+      <c r="AR13" s="164"/>
+      <c r="AS13" s="162"/>
+      <c r="AT13" s="163"/>
+      <c r="AU13" s="163"/>
+      <c r="AV13" s="163"/>
+      <c r="AW13" s="164"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="157"/>
-      <c r="W14" s="158"/>
-      <c r="X14" s="158"/>
-      <c r="Y14" s="158"/>
-      <c r="Z14" s="158"/>
-      <c r="AA14" s="158"/>
-      <c r="AB14" s="158"/>
-      <c r="AC14" s="158"/>
-      <c r="AD14" s="158"/>
-      <c r="AE14" s="158"/>
-      <c r="AF14" s="158"/>
-      <c r="AG14" s="158"/>
-      <c r="AH14" s="158"/>
-      <c r="AI14" s="158"/>
-      <c r="AJ14" s="158"/>
-      <c r="AK14" s="158"/>
-      <c r="AL14" s="158"/>
-      <c r="AM14" s="158"/>
-      <c r="AN14" s="147"/>
-      <c r="AO14" s="147"/>
-      <c r="AP14" s="147"/>
-      <c r="AQ14" s="147"/>
-      <c r="AR14" s="147"/>
-      <c r="AS14" s="134"/>
-      <c r="AT14" s="135"/>
-      <c r="AU14" s="135"/>
-      <c r="AV14" s="135"/>
-      <c r="AW14" s="136"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="157"/>
+      <c r="O14" s="157"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="158"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="143"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="152"/>
+      <c r="AD14" s="152"/>
+      <c r="AE14" s="152"/>
+      <c r="AF14" s="152"/>
+      <c r="AG14" s="152"/>
+      <c r="AH14" s="152"/>
+      <c r="AI14" s="152"/>
+      <c r="AJ14" s="152"/>
+      <c r="AK14" s="152"/>
+      <c r="AL14" s="152"/>
+      <c r="AM14" s="152"/>
+      <c r="AN14" s="143"/>
+      <c r="AO14" s="143"/>
+      <c r="AP14" s="143"/>
+      <c r="AQ14" s="143"/>
+      <c r="AR14" s="143"/>
+      <c r="AS14" s="162"/>
+      <c r="AT14" s="163"/>
+      <c r="AU14" s="163"/>
+      <c r="AV14" s="163"/>
+      <c r="AW14" s="164"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="147"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="147"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="149"/>
-      <c r="Y15" s="149"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="149"/>
-      <c r="AB15" s="149"/>
-      <c r="AC15" s="149"/>
-      <c r="AD15" s="149"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="149"/>
-      <c r="AG15" s="149"/>
-      <c r="AH15" s="149"/>
-      <c r="AI15" s="149"/>
-      <c r="AJ15" s="149"/>
-      <c r="AK15" s="149"/>
-      <c r="AL15" s="149"/>
-      <c r="AM15" s="150"/>
-      <c r="AN15" s="134"/>
-      <c r="AO15" s="135"/>
-      <c r="AP15" s="135"/>
-      <c r="AQ15" s="135"/>
-      <c r="AR15" s="136"/>
-      <c r="AS15" s="134"/>
-      <c r="AT15" s="135"/>
-      <c r="AU15" s="135"/>
-      <c r="AV15" s="135"/>
-      <c r="AW15" s="136"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="157"/>
+      <c r="O15" s="157"/>
+      <c r="P15" s="157"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="158"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="159"/>
+      <c r="W15" s="160"/>
+      <c r="X15" s="160"/>
+      <c r="Y15" s="160"/>
+      <c r="Z15" s="160"/>
+      <c r="AA15" s="160"/>
+      <c r="AB15" s="160"/>
+      <c r="AC15" s="160"/>
+      <c r="AD15" s="160"/>
+      <c r="AE15" s="160"/>
+      <c r="AF15" s="160"/>
+      <c r="AG15" s="160"/>
+      <c r="AH15" s="160"/>
+      <c r="AI15" s="160"/>
+      <c r="AJ15" s="160"/>
+      <c r="AK15" s="160"/>
+      <c r="AL15" s="160"/>
+      <c r="AM15" s="161"/>
+      <c r="AN15" s="162"/>
+      <c r="AO15" s="163"/>
+      <c r="AP15" s="163"/>
+      <c r="AQ15" s="163"/>
+      <c r="AR15" s="164"/>
+      <c r="AS15" s="162"/>
+      <c r="AT15" s="163"/>
+      <c r="AU15" s="163"/>
+      <c r="AV15" s="163"/>
+      <c r="AW15" s="164"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="147"/>
-      <c r="T16" s="147"/>
-      <c r="U16" s="147"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="149"/>
-      <c r="X16" s="149"/>
-      <c r="Y16" s="149"/>
-      <c r="Z16" s="149"/>
-      <c r="AA16" s="149"/>
-      <c r="AB16" s="149"/>
-      <c r="AC16" s="149"/>
-      <c r="AD16" s="149"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="149"/>
-      <c r="AG16" s="149"/>
-      <c r="AH16" s="149"/>
-      <c r="AI16" s="149"/>
-      <c r="AJ16" s="149"/>
-      <c r="AK16" s="149"/>
-      <c r="AL16" s="149"/>
-      <c r="AM16" s="150"/>
-      <c r="AN16" s="134"/>
-      <c r="AO16" s="135"/>
-      <c r="AP16" s="135"/>
-      <c r="AQ16" s="135"/>
-      <c r="AR16" s="136"/>
-      <c r="AS16" s="134"/>
-      <c r="AT16" s="135"/>
-      <c r="AU16" s="135"/>
-      <c r="AV16" s="135"/>
-      <c r="AW16" s="136"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="157"/>
+      <c r="O16" s="157"/>
+      <c r="P16" s="157"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="158"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="159"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="160"/>
+      <c r="Y16" s="160"/>
+      <c r="Z16" s="160"/>
+      <c r="AA16" s="160"/>
+      <c r="AB16" s="160"/>
+      <c r="AC16" s="160"/>
+      <c r="AD16" s="160"/>
+      <c r="AE16" s="160"/>
+      <c r="AF16" s="160"/>
+      <c r="AG16" s="160"/>
+      <c r="AH16" s="160"/>
+      <c r="AI16" s="160"/>
+      <c r="AJ16" s="160"/>
+      <c r="AK16" s="160"/>
+      <c r="AL16" s="160"/>
+      <c r="AM16" s="161"/>
+      <c r="AN16" s="162"/>
+      <c r="AO16" s="163"/>
+      <c r="AP16" s="163"/>
+      <c r="AQ16" s="163"/>
+      <c r="AR16" s="164"/>
+      <c r="AS16" s="162"/>
+      <c r="AT16" s="163"/>
+      <c r="AU16" s="163"/>
+      <c r="AV16" s="163"/>
+      <c r="AW16" s="164"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="152"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="152"/>
-      <c r="R17" s="155"/>
-      <c r="S17" s="156"/>
-      <c r="T17" s="156"/>
-      <c r="U17" s="156"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="149"/>
-      <c r="X17" s="149"/>
-      <c r="Y17" s="149"/>
-      <c r="Z17" s="149"/>
-      <c r="AA17" s="149"/>
-      <c r="AB17" s="149"/>
-      <c r="AC17" s="149"/>
-      <c r="AD17" s="149"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="149"/>
-      <c r="AG17" s="149"/>
-      <c r="AH17" s="149"/>
-      <c r="AI17" s="149"/>
-      <c r="AJ17" s="149"/>
-      <c r="AK17" s="149"/>
-      <c r="AL17" s="149"/>
-      <c r="AM17" s="150"/>
-      <c r="AN17" s="134"/>
-      <c r="AO17" s="135"/>
-      <c r="AP17" s="135"/>
-      <c r="AQ17" s="135"/>
-      <c r="AR17" s="136"/>
-      <c r="AS17" s="134"/>
-      <c r="AT17" s="135"/>
-      <c r="AU17" s="135"/>
-      <c r="AV17" s="135"/>
-      <c r="AW17" s="136"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="157"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="157"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="169"/>
+      <c r="S17" s="170"/>
+      <c r="T17" s="170"/>
+      <c r="U17" s="170"/>
+      <c r="V17" s="159"/>
+      <c r="W17" s="160"/>
+      <c r="X17" s="160"/>
+      <c r="Y17" s="160"/>
+      <c r="Z17" s="160"/>
+      <c r="AA17" s="160"/>
+      <c r="AB17" s="160"/>
+      <c r="AC17" s="160"/>
+      <c r="AD17" s="160"/>
+      <c r="AE17" s="160"/>
+      <c r="AF17" s="160"/>
+      <c r="AG17" s="160"/>
+      <c r="AH17" s="160"/>
+      <c r="AI17" s="160"/>
+      <c r="AJ17" s="160"/>
+      <c r="AK17" s="160"/>
+      <c r="AL17" s="160"/>
+      <c r="AM17" s="161"/>
+      <c r="AN17" s="162"/>
+      <c r="AO17" s="163"/>
+      <c r="AP17" s="163"/>
+      <c r="AQ17" s="163"/>
+      <c r="AR17" s="164"/>
+      <c r="AS17" s="162"/>
+      <c r="AT17" s="163"/>
+      <c r="AU17" s="163"/>
+      <c r="AV17" s="163"/>
+      <c r="AW17" s="164"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="152"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="147"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="149"/>
-      <c r="X18" s="149"/>
-      <c r="Y18" s="149"/>
-      <c r="Z18" s="149"/>
-      <c r="AA18" s="149"/>
-      <c r="AB18" s="149"/>
-      <c r="AC18" s="149"/>
-      <c r="AD18" s="149"/>
-      <c r="AE18" s="149"/>
-      <c r="AF18" s="149"/>
-      <c r="AG18" s="149"/>
-      <c r="AH18" s="149"/>
-      <c r="AI18" s="149"/>
-      <c r="AJ18" s="149"/>
-      <c r="AK18" s="149"/>
-      <c r="AL18" s="149"/>
-      <c r="AM18" s="150"/>
-      <c r="AN18" s="134"/>
-      <c r="AO18" s="135"/>
-      <c r="AP18" s="135"/>
-      <c r="AQ18" s="135"/>
-      <c r="AR18" s="136"/>
-      <c r="AS18" s="134"/>
-      <c r="AT18" s="135"/>
-      <c r="AU18" s="135"/>
-      <c r="AV18" s="135"/>
-      <c r="AW18" s="136"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="167"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="157"/>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="158"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="159"/>
+      <c r="W18" s="160"/>
+      <c r="X18" s="160"/>
+      <c r="Y18" s="160"/>
+      <c r="Z18" s="160"/>
+      <c r="AA18" s="160"/>
+      <c r="AB18" s="160"/>
+      <c r="AC18" s="160"/>
+      <c r="AD18" s="160"/>
+      <c r="AE18" s="160"/>
+      <c r="AF18" s="160"/>
+      <c r="AG18" s="160"/>
+      <c r="AH18" s="160"/>
+      <c r="AI18" s="160"/>
+      <c r="AJ18" s="160"/>
+      <c r="AK18" s="160"/>
+      <c r="AL18" s="160"/>
+      <c r="AM18" s="161"/>
+      <c r="AN18" s="162"/>
+      <c r="AO18" s="163"/>
+      <c r="AP18" s="163"/>
+      <c r="AQ18" s="163"/>
+      <c r="AR18" s="164"/>
+      <c r="AS18" s="162"/>
+      <c r="AT18" s="163"/>
+      <c r="AU18" s="163"/>
+      <c r="AV18" s="163"/>
+      <c r="AW18" s="164"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="149"/>
-      <c r="X19" s="149"/>
-      <c r="Y19" s="149"/>
-      <c r="Z19" s="149"/>
-      <c r="AA19" s="149"/>
-      <c r="AB19" s="149"/>
-      <c r="AC19" s="149"/>
-      <c r="AD19" s="149"/>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="149"/>
-      <c r="AG19" s="149"/>
-      <c r="AH19" s="149"/>
-      <c r="AI19" s="149"/>
-      <c r="AJ19" s="149"/>
-      <c r="AK19" s="149"/>
-      <c r="AL19" s="149"/>
-      <c r="AM19" s="150"/>
-      <c r="AN19" s="147"/>
-      <c r="AO19" s="147"/>
-      <c r="AP19" s="147"/>
-      <c r="AQ19" s="147"/>
-      <c r="AR19" s="147"/>
-      <c r="AS19" s="134"/>
-      <c r="AT19" s="135"/>
-      <c r="AU19" s="135"/>
-      <c r="AV19" s="135"/>
-      <c r="AW19" s="136"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="158"/>
+      <c r="S19" s="143"/>
+      <c r="T19" s="143"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="159"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="160"/>
+      <c r="Y19" s="160"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="160"/>
+      <c r="AB19" s="160"/>
+      <c r="AC19" s="160"/>
+      <c r="AD19" s="160"/>
+      <c r="AE19" s="160"/>
+      <c r="AF19" s="160"/>
+      <c r="AG19" s="160"/>
+      <c r="AH19" s="160"/>
+      <c r="AI19" s="160"/>
+      <c r="AJ19" s="160"/>
+      <c r="AK19" s="160"/>
+      <c r="AL19" s="160"/>
+      <c r="AM19" s="161"/>
+      <c r="AN19" s="143"/>
+      <c r="AO19" s="143"/>
+      <c r="AP19" s="143"/>
+      <c r="AQ19" s="143"/>
+      <c r="AR19" s="143"/>
+      <c r="AS19" s="162"/>
+      <c r="AT19" s="163"/>
+      <c r="AU19" s="163"/>
+      <c r="AV19" s="163"/>
+      <c r="AW19" s="164"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="134"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="136"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="149"/>
-      <c r="X20" s="149"/>
-      <c r="Y20" s="149"/>
-      <c r="Z20" s="149"/>
-      <c r="AA20" s="149"/>
-      <c r="AB20" s="149"/>
-      <c r="AC20" s="149"/>
-      <c r="AD20" s="149"/>
-      <c r="AE20" s="149"/>
-      <c r="AF20" s="149"/>
-      <c r="AG20" s="149"/>
-      <c r="AH20" s="149"/>
-      <c r="AI20" s="149"/>
-      <c r="AJ20" s="149"/>
-      <c r="AK20" s="149"/>
-      <c r="AL20" s="149"/>
-      <c r="AM20" s="150"/>
-      <c r="AN20" s="134"/>
-      <c r="AO20" s="135"/>
-      <c r="AP20" s="135"/>
-      <c r="AQ20" s="135"/>
-      <c r="AR20" s="136"/>
-      <c r="AS20" s="134"/>
-      <c r="AT20" s="135"/>
-      <c r="AU20" s="135"/>
-      <c r="AV20" s="135"/>
-      <c r="AW20" s="136"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="157"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="158"/>
+      <c r="S20" s="162"/>
+      <c r="T20" s="163"/>
+      <c r="U20" s="164"/>
+      <c r="V20" s="159"/>
+      <c r="W20" s="160"/>
+      <c r="X20" s="160"/>
+      <c r="Y20" s="160"/>
+      <c r="Z20" s="160"/>
+      <c r="AA20" s="160"/>
+      <c r="AB20" s="160"/>
+      <c r="AC20" s="160"/>
+      <c r="AD20" s="160"/>
+      <c r="AE20" s="160"/>
+      <c r="AF20" s="160"/>
+      <c r="AG20" s="160"/>
+      <c r="AH20" s="160"/>
+      <c r="AI20" s="160"/>
+      <c r="AJ20" s="160"/>
+      <c r="AK20" s="160"/>
+      <c r="AL20" s="160"/>
+      <c r="AM20" s="161"/>
+      <c r="AN20" s="162"/>
+      <c r="AO20" s="163"/>
+      <c r="AP20" s="163"/>
+      <c r="AQ20" s="163"/>
+      <c r="AR20" s="164"/>
+      <c r="AS20" s="162"/>
+      <c r="AT20" s="163"/>
+      <c r="AU20" s="163"/>
+      <c r="AV20" s="163"/>
+      <c r="AW20" s="164"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="152"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="147"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="149"/>
-      <c r="X21" s="149"/>
-      <c r="Y21" s="149"/>
-      <c r="Z21" s="149"/>
-      <c r="AA21" s="149"/>
-      <c r="AB21" s="149"/>
-      <c r="AC21" s="149"/>
-      <c r="AD21" s="149"/>
-      <c r="AE21" s="149"/>
-      <c r="AF21" s="149"/>
-      <c r="AG21" s="149"/>
-      <c r="AH21" s="149"/>
-      <c r="AI21" s="149"/>
-      <c r="AJ21" s="149"/>
-      <c r="AK21" s="149"/>
-      <c r="AL21" s="149"/>
-      <c r="AM21" s="150"/>
-      <c r="AN21" s="134"/>
-      <c r="AO21" s="135"/>
-      <c r="AP21" s="135"/>
-      <c r="AQ21" s="135"/>
-      <c r="AR21" s="136"/>
-      <c r="AS21" s="134"/>
-      <c r="AT21" s="135"/>
-      <c r="AU21" s="135"/>
-      <c r="AV21" s="135"/>
-      <c r="AW21" s="136"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="158"/>
+      <c r="S21" s="143"/>
+      <c r="T21" s="143"/>
+      <c r="U21" s="143"/>
+      <c r="V21" s="159"/>
+      <c r="W21" s="160"/>
+      <c r="X21" s="160"/>
+      <c r="Y21" s="160"/>
+      <c r="Z21" s="160"/>
+      <c r="AA21" s="160"/>
+      <c r="AB21" s="160"/>
+      <c r="AC21" s="160"/>
+      <c r="AD21" s="160"/>
+      <c r="AE21" s="160"/>
+      <c r="AF21" s="160"/>
+      <c r="AG21" s="160"/>
+      <c r="AH21" s="160"/>
+      <c r="AI21" s="160"/>
+      <c r="AJ21" s="160"/>
+      <c r="AK21" s="160"/>
+      <c r="AL21" s="160"/>
+      <c r="AM21" s="161"/>
+      <c r="AN21" s="162"/>
+      <c r="AO21" s="163"/>
+      <c r="AP21" s="163"/>
+      <c r="AQ21" s="163"/>
+      <c r="AR21" s="164"/>
+      <c r="AS21" s="162"/>
+      <c r="AT21" s="163"/>
+      <c r="AU21" s="163"/>
+      <c r="AV21" s="163"/>
+      <c r="AW21" s="164"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="149"/>
-      <c r="X22" s="149"/>
-      <c r="Y22" s="149"/>
-      <c r="Z22" s="149"/>
-      <c r="AA22" s="149"/>
-      <c r="AB22" s="149"/>
-      <c r="AC22" s="149"/>
-      <c r="AD22" s="149"/>
-      <c r="AE22" s="149"/>
-      <c r="AF22" s="149"/>
-      <c r="AG22" s="149"/>
-      <c r="AH22" s="149"/>
-      <c r="AI22" s="149"/>
-      <c r="AJ22" s="149"/>
-      <c r="AK22" s="149"/>
-      <c r="AL22" s="149"/>
-      <c r="AM22" s="150"/>
-      <c r="AN22" s="134"/>
-      <c r="AO22" s="135"/>
-      <c r="AP22" s="135"/>
-      <c r="AQ22" s="135"/>
-      <c r="AR22" s="136"/>
-      <c r="AS22" s="134"/>
-      <c r="AT22" s="135"/>
-      <c r="AU22" s="135"/>
-      <c r="AV22" s="135"/>
-      <c r="AW22" s="136"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="158"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="143"/>
+      <c r="V22" s="159"/>
+      <c r="W22" s="160"/>
+      <c r="X22" s="160"/>
+      <c r="Y22" s="160"/>
+      <c r="Z22" s="160"/>
+      <c r="AA22" s="160"/>
+      <c r="AB22" s="160"/>
+      <c r="AC22" s="160"/>
+      <c r="AD22" s="160"/>
+      <c r="AE22" s="160"/>
+      <c r="AF22" s="160"/>
+      <c r="AG22" s="160"/>
+      <c r="AH22" s="160"/>
+      <c r="AI22" s="160"/>
+      <c r="AJ22" s="160"/>
+      <c r="AK22" s="160"/>
+      <c r="AL22" s="160"/>
+      <c r="AM22" s="161"/>
+      <c r="AN22" s="162"/>
+      <c r="AO22" s="163"/>
+      <c r="AP22" s="163"/>
+      <c r="AQ22" s="163"/>
+      <c r="AR22" s="164"/>
+      <c r="AS22" s="162"/>
+      <c r="AT22" s="163"/>
+      <c r="AU22" s="163"/>
+      <c r="AV22" s="163"/>
+      <c r="AW22" s="164"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="147"/>
-      <c r="U23" s="147"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="149"/>
-      <c r="X23" s="149"/>
-      <c r="Y23" s="149"/>
-      <c r="Z23" s="149"/>
-      <c r="AA23" s="149"/>
-      <c r="AB23" s="149"/>
-      <c r="AC23" s="149"/>
-      <c r="AD23" s="149"/>
-      <c r="AE23" s="149"/>
-      <c r="AF23" s="149"/>
-      <c r="AG23" s="149"/>
-      <c r="AH23" s="149"/>
-      <c r="AI23" s="149"/>
-      <c r="AJ23" s="149"/>
-      <c r="AK23" s="149"/>
-      <c r="AL23" s="149"/>
-      <c r="AM23" s="150"/>
-      <c r="AN23" s="134"/>
-      <c r="AO23" s="135"/>
-      <c r="AP23" s="135"/>
-      <c r="AQ23" s="135"/>
-      <c r="AR23" s="136"/>
-      <c r="AS23" s="134"/>
-      <c r="AT23" s="135"/>
-      <c r="AU23" s="135"/>
-      <c r="AV23" s="135"/>
-      <c r="AW23" s="136"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="158"/>
+      <c r="S23" s="143"/>
+      <c r="T23" s="143"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="159"/>
+      <c r="W23" s="160"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="160"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="160"/>
+      <c r="AB23" s="160"/>
+      <c r="AC23" s="160"/>
+      <c r="AD23" s="160"/>
+      <c r="AE23" s="160"/>
+      <c r="AF23" s="160"/>
+      <c r="AG23" s="160"/>
+      <c r="AH23" s="160"/>
+      <c r="AI23" s="160"/>
+      <c r="AJ23" s="160"/>
+      <c r="AK23" s="160"/>
+      <c r="AL23" s="160"/>
+      <c r="AM23" s="161"/>
+      <c r="AN23" s="162"/>
+      <c r="AO23" s="163"/>
+      <c r="AP23" s="163"/>
+      <c r="AQ23" s="163"/>
+      <c r="AR23" s="164"/>
+      <c r="AS23" s="162"/>
+      <c r="AT23" s="163"/>
+      <c r="AU23" s="163"/>
+      <c r="AV23" s="163"/>
+      <c r="AW23" s="164"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="149"/>
-      <c r="X24" s="149"/>
-      <c r="Y24" s="149"/>
-      <c r="Z24" s="149"/>
-      <c r="AA24" s="149"/>
-      <c r="AB24" s="149"/>
-      <c r="AC24" s="149"/>
-      <c r="AD24" s="149"/>
-      <c r="AE24" s="149"/>
-      <c r="AF24" s="149"/>
-      <c r="AG24" s="149"/>
-      <c r="AH24" s="149"/>
-      <c r="AI24" s="149"/>
-      <c r="AJ24" s="149"/>
-      <c r="AK24" s="149"/>
-      <c r="AL24" s="149"/>
-      <c r="AM24" s="150"/>
-      <c r="AN24" s="134"/>
-      <c r="AO24" s="135"/>
-      <c r="AP24" s="135"/>
-      <c r="AQ24" s="135"/>
-      <c r="AR24" s="136"/>
-      <c r="AS24" s="134"/>
-      <c r="AT24" s="135"/>
-      <c r="AU24" s="135"/>
-      <c r="AV24" s="135"/>
-      <c r="AW24" s="136"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="157"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="158"/>
+      <c r="S24" s="143"/>
+      <c r="T24" s="143"/>
+      <c r="U24" s="143"/>
+      <c r="V24" s="159"/>
+      <c r="W24" s="160"/>
+      <c r="X24" s="160"/>
+      <c r="Y24" s="160"/>
+      <c r="Z24" s="160"/>
+      <c r="AA24" s="160"/>
+      <c r="AB24" s="160"/>
+      <c r="AC24" s="160"/>
+      <c r="AD24" s="160"/>
+      <c r="AE24" s="160"/>
+      <c r="AF24" s="160"/>
+      <c r="AG24" s="160"/>
+      <c r="AH24" s="160"/>
+      <c r="AI24" s="160"/>
+      <c r="AJ24" s="160"/>
+      <c r="AK24" s="160"/>
+      <c r="AL24" s="160"/>
+      <c r="AM24" s="161"/>
+      <c r="AN24" s="162"/>
+      <c r="AO24" s="163"/>
+      <c r="AP24" s="163"/>
+      <c r="AQ24" s="163"/>
+      <c r="AR24" s="164"/>
+      <c r="AS24" s="162"/>
+      <c r="AT24" s="163"/>
+      <c r="AU24" s="163"/>
+      <c r="AV24" s="163"/>
+      <c r="AW24" s="164"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="152"/>
-      <c r="O25" s="152"/>
-      <c r="P25" s="152"/>
-      <c r="Q25" s="152"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="147"/>
-      <c r="U25" s="147"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="149"/>
-      <c r="X25" s="149"/>
-      <c r="Y25" s="149"/>
-      <c r="Z25" s="149"/>
-      <c r="AA25" s="149"/>
-      <c r="AB25" s="149"/>
-      <c r="AC25" s="149"/>
-      <c r="AD25" s="149"/>
-      <c r="AE25" s="149"/>
-      <c r="AF25" s="149"/>
-      <c r="AG25" s="149"/>
-      <c r="AH25" s="149"/>
-      <c r="AI25" s="149"/>
-      <c r="AJ25" s="149"/>
-      <c r="AK25" s="149"/>
-      <c r="AL25" s="149"/>
-      <c r="AM25" s="150"/>
-      <c r="AN25" s="134"/>
-      <c r="AO25" s="135"/>
-      <c r="AP25" s="135"/>
-      <c r="AQ25" s="135"/>
-      <c r="AR25" s="136"/>
-      <c r="AS25" s="134"/>
-      <c r="AT25" s="135"/>
-      <c r="AU25" s="135"/>
-      <c r="AV25" s="135"/>
-      <c r="AW25" s="136"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="167"/>
+      <c r="N25" s="157"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="157"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="158"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="159"/>
+      <c r="W25" s="160"/>
+      <c r="X25" s="160"/>
+      <c r="Y25" s="160"/>
+      <c r="Z25" s="160"/>
+      <c r="AA25" s="160"/>
+      <c r="AB25" s="160"/>
+      <c r="AC25" s="160"/>
+      <c r="AD25" s="160"/>
+      <c r="AE25" s="160"/>
+      <c r="AF25" s="160"/>
+      <c r="AG25" s="160"/>
+      <c r="AH25" s="160"/>
+      <c r="AI25" s="160"/>
+      <c r="AJ25" s="160"/>
+      <c r="AK25" s="160"/>
+      <c r="AL25" s="160"/>
+      <c r="AM25" s="161"/>
+      <c r="AN25" s="162"/>
+      <c r="AO25" s="163"/>
+      <c r="AP25" s="163"/>
+      <c r="AQ25" s="163"/>
+      <c r="AR25" s="164"/>
+      <c r="AS25" s="162"/>
+      <c r="AT25" s="163"/>
+      <c r="AU25" s="163"/>
+      <c r="AV25" s="163"/>
+      <c r="AW25" s="164"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="147"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="149"/>
-      <c r="X26" s="149"/>
-      <c r="Y26" s="149"/>
-      <c r="Z26" s="149"/>
-      <c r="AA26" s="149"/>
-      <c r="AB26" s="149"/>
-      <c r="AC26" s="149"/>
-      <c r="AD26" s="149"/>
-      <c r="AE26" s="149"/>
-      <c r="AF26" s="149"/>
-      <c r="AG26" s="149"/>
-      <c r="AH26" s="149"/>
-      <c r="AI26" s="149"/>
-      <c r="AJ26" s="149"/>
-      <c r="AK26" s="149"/>
-      <c r="AL26" s="149"/>
-      <c r="AM26" s="150"/>
-      <c r="AN26" s="134"/>
-      <c r="AO26" s="135"/>
-      <c r="AP26" s="135"/>
-      <c r="AQ26" s="135"/>
-      <c r="AR26" s="136"/>
-      <c r="AS26" s="134"/>
-      <c r="AT26" s="135"/>
-      <c r="AU26" s="135"/>
-      <c r="AV26" s="135"/>
-      <c r="AW26" s="136"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="157"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="143"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="160"/>
+      <c r="X26" s="160"/>
+      <c r="Y26" s="160"/>
+      <c r="Z26" s="160"/>
+      <c r="AA26" s="160"/>
+      <c r="AB26" s="160"/>
+      <c r="AC26" s="160"/>
+      <c r="AD26" s="160"/>
+      <c r="AE26" s="160"/>
+      <c r="AF26" s="160"/>
+      <c r="AG26" s="160"/>
+      <c r="AH26" s="160"/>
+      <c r="AI26" s="160"/>
+      <c r="AJ26" s="160"/>
+      <c r="AK26" s="160"/>
+      <c r="AL26" s="160"/>
+      <c r="AM26" s="161"/>
+      <c r="AN26" s="162"/>
+      <c r="AO26" s="163"/>
+      <c r="AP26" s="163"/>
+      <c r="AQ26" s="163"/>
+      <c r="AR26" s="164"/>
+      <c r="AS26" s="162"/>
+      <c r="AT26" s="163"/>
+      <c r="AU26" s="163"/>
+      <c r="AV26" s="163"/>
+      <c r="AW26" s="164"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="152"/>
-      <c r="O27" s="152"/>
-      <c r="P27" s="152"/>
-      <c r="Q27" s="152"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="147"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="147"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="149"/>
-      <c r="X27" s="149"/>
-      <c r="Y27" s="149"/>
-      <c r="Z27" s="149"/>
-      <c r="AA27" s="149"/>
-      <c r="AB27" s="149"/>
-      <c r="AC27" s="149"/>
-      <c r="AD27" s="149"/>
-      <c r="AE27" s="149"/>
-      <c r="AF27" s="149"/>
-      <c r="AG27" s="149"/>
-      <c r="AH27" s="149"/>
-      <c r="AI27" s="149"/>
-      <c r="AJ27" s="149"/>
-      <c r="AK27" s="149"/>
-      <c r="AL27" s="149"/>
-      <c r="AM27" s="150"/>
-      <c r="AN27" s="134"/>
-      <c r="AO27" s="135"/>
-      <c r="AP27" s="135"/>
-      <c r="AQ27" s="135"/>
-      <c r="AR27" s="136"/>
-      <c r="AS27" s="134"/>
-      <c r="AT27" s="135"/>
-      <c r="AU27" s="135"/>
-      <c r="AV27" s="135"/>
-      <c r="AW27" s="136"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="167"/>
+      <c r="N27" s="157"/>
+      <c r="O27" s="157"/>
+      <c r="P27" s="157"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="158"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="143"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="159"/>
+      <c r="W27" s="160"/>
+      <c r="X27" s="160"/>
+      <c r="Y27" s="160"/>
+      <c r="Z27" s="160"/>
+      <c r="AA27" s="160"/>
+      <c r="AB27" s="160"/>
+      <c r="AC27" s="160"/>
+      <c r="AD27" s="160"/>
+      <c r="AE27" s="160"/>
+      <c r="AF27" s="160"/>
+      <c r="AG27" s="160"/>
+      <c r="AH27" s="160"/>
+      <c r="AI27" s="160"/>
+      <c r="AJ27" s="160"/>
+      <c r="AK27" s="160"/>
+      <c r="AL27" s="160"/>
+      <c r="AM27" s="161"/>
+      <c r="AN27" s="162"/>
+      <c r="AO27" s="163"/>
+      <c r="AP27" s="163"/>
+      <c r="AQ27" s="163"/>
+      <c r="AR27" s="164"/>
+      <c r="AS27" s="162"/>
+      <c r="AT27" s="163"/>
+      <c r="AU27" s="163"/>
+      <c r="AV27" s="163"/>
+      <c r="AW27" s="164"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="152"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="147"/>
-      <c r="T28" s="147"/>
-      <c r="U28" s="147"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="149"/>
-      <c r="X28" s="149"/>
-      <c r="Y28" s="149"/>
-      <c r="Z28" s="149"/>
-      <c r="AA28" s="149"/>
-      <c r="AB28" s="149"/>
-      <c r="AC28" s="149"/>
-      <c r="AD28" s="149"/>
-      <c r="AE28" s="149"/>
-      <c r="AF28" s="149"/>
-      <c r="AG28" s="149"/>
-      <c r="AH28" s="149"/>
-      <c r="AI28" s="149"/>
-      <c r="AJ28" s="149"/>
-      <c r="AK28" s="149"/>
-      <c r="AL28" s="149"/>
-      <c r="AM28" s="150"/>
-      <c r="AN28" s="134"/>
-      <c r="AO28" s="135"/>
-      <c r="AP28" s="135"/>
-      <c r="AQ28" s="135"/>
-      <c r="AR28" s="136"/>
-      <c r="AS28" s="134"/>
-      <c r="AT28" s="135"/>
-      <c r="AU28" s="135"/>
-      <c r="AV28" s="135"/>
-      <c r="AW28" s="136"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="158"/>
+      <c r="S28" s="143"/>
+      <c r="T28" s="143"/>
+      <c r="U28" s="143"/>
+      <c r="V28" s="159"/>
+      <c r="W28" s="160"/>
+      <c r="X28" s="160"/>
+      <c r="Y28" s="160"/>
+      <c r="Z28" s="160"/>
+      <c r="AA28" s="160"/>
+      <c r="AB28" s="160"/>
+      <c r="AC28" s="160"/>
+      <c r="AD28" s="160"/>
+      <c r="AE28" s="160"/>
+      <c r="AF28" s="160"/>
+      <c r="AG28" s="160"/>
+      <c r="AH28" s="160"/>
+      <c r="AI28" s="160"/>
+      <c r="AJ28" s="160"/>
+      <c r="AK28" s="160"/>
+      <c r="AL28" s="160"/>
+      <c r="AM28" s="161"/>
+      <c r="AN28" s="162"/>
+      <c r="AO28" s="163"/>
+      <c r="AP28" s="163"/>
+      <c r="AQ28" s="163"/>
+      <c r="AR28" s="164"/>
+      <c r="AS28" s="162"/>
+      <c r="AT28" s="163"/>
+      <c r="AU28" s="163"/>
+      <c r="AV28" s="163"/>
+      <c r="AW28" s="164"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="152"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="152"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="149"/>
-      <c r="X29" s="149"/>
-      <c r="Y29" s="149"/>
-      <c r="Z29" s="149"/>
-      <c r="AA29" s="149"/>
-      <c r="AB29" s="149"/>
-      <c r="AC29" s="149"/>
-      <c r="AD29" s="149"/>
-      <c r="AE29" s="149"/>
-      <c r="AF29" s="149"/>
-      <c r="AG29" s="149"/>
-      <c r="AH29" s="149"/>
-      <c r="AI29" s="149"/>
-      <c r="AJ29" s="149"/>
-      <c r="AK29" s="149"/>
-      <c r="AL29" s="149"/>
-      <c r="AM29" s="150"/>
-      <c r="AN29" s="134"/>
-      <c r="AO29" s="135"/>
-      <c r="AP29" s="135"/>
-      <c r="AQ29" s="135"/>
-      <c r="AR29" s="136"/>
-      <c r="AS29" s="134"/>
-      <c r="AT29" s="135"/>
-      <c r="AU29" s="135"/>
-      <c r="AV29" s="135"/>
-      <c r="AW29" s="136"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="158"/>
+      <c r="S29" s="143"/>
+      <c r="T29" s="143"/>
+      <c r="U29" s="143"/>
+      <c r="V29" s="159"/>
+      <c r="W29" s="160"/>
+      <c r="X29" s="160"/>
+      <c r="Y29" s="160"/>
+      <c r="Z29" s="160"/>
+      <c r="AA29" s="160"/>
+      <c r="AB29" s="160"/>
+      <c r="AC29" s="160"/>
+      <c r="AD29" s="160"/>
+      <c r="AE29" s="160"/>
+      <c r="AF29" s="160"/>
+      <c r="AG29" s="160"/>
+      <c r="AH29" s="160"/>
+      <c r="AI29" s="160"/>
+      <c r="AJ29" s="160"/>
+      <c r="AK29" s="160"/>
+      <c r="AL29" s="160"/>
+      <c r="AM29" s="161"/>
+      <c r="AN29" s="162"/>
+      <c r="AO29" s="163"/>
+      <c r="AP29" s="163"/>
+      <c r="AQ29" s="163"/>
+      <c r="AR29" s="164"/>
+      <c r="AS29" s="162"/>
+      <c r="AT29" s="163"/>
+      <c r="AU29" s="163"/>
+      <c r="AV29" s="163"/>
+      <c r="AW29" s="164"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="143"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="152"/>
-      <c r="R30" s="153"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="147"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="149"/>
-      <c r="X30" s="149"/>
-      <c r="Y30" s="149"/>
-      <c r="Z30" s="149"/>
-      <c r="AA30" s="149"/>
-      <c r="AB30" s="149"/>
-      <c r="AC30" s="149"/>
-      <c r="AD30" s="149"/>
-      <c r="AE30" s="149"/>
-      <c r="AF30" s="149"/>
-      <c r="AG30" s="149"/>
-      <c r="AH30" s="149"/>
-      <c r="AI30" s="149"/>
-      <c r="AJ30" s="149"/>
-      <c r="AK30" s="149"/>
-      <c r="AL30" s="149"/>
-      <c r="AM30" s="150"/>
-      <c r="AN30" s="134"/>
-      <c r="AO30" s="135"/>
-      <c r="AP30" s="135"/>
-      <c r="AQ30" s="135"/>
-      <c r="AR30" s="136"/>
-      <c r="AS30" s="134"/>
-      <c r="AT30" s="135"/>
-      <c r="AU30" s="135"/>
-      <c r="AV30" s="135"/>
-      <c r="AW30" s="136"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="157"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="158"/>
+      <c r="S30" s="143"/>
+      <c r="T30" s="143"/>
+      <c r="U30" s="143"/>
+      <c r="V30" s="159"/>
+      <c r="W30" s="160"/>
+      <c r="X30" s="160"/>
+      <c r="Y30" s="160"/>
+      <c r="Z30" s="160"/>
+      <c r="AA30" s="160"/>
+      <c r="AB30" s="160"/>
+      <c r="AC30" s="160"/>
+      <c r="AD30" s="160"/>
+      <c r="AE30" s="160"/>
+      <c r="AF30" s="160"/>
+      <c r="AG30" s="160"/>
+      <c r="AH30" s="160"/>
+      <c r="AI30" s="160"/>
+      <c r="AJ30" s="160"/>
+      <c r="AK30" s="160"/>
+      <c r="AL30" s="160"/>
+      <c r="AM30" s="161"/>
+      <c r="AN30" s="162"/>
+      <c r="AO30" s="163"/>
+      <c r="AP30" s="163"/>
+      <c r="AQ30" s="163"/>
+      <c r="AR30" s="164"/>
+      <c r="AS30" s="162"/>
+      <c r="AT30" s="163"/>
+      <c r="AU30" s="163"/>
+      <c r="AV30" s="163"/>
+      <c r="AW30" s="164"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="142"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="152"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="152"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="147"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="149"/>
-      <c r="X31" s="149"/>
-      <c r="Y31" s="149"/>
-      <c r="Z31" s="149"/>
-      <c r="AA31" s="149"/>
-      <c r="AB31" s="149"/>
-      <c r="AC31" s="149"/>
-      <c r="AD31" s="149"/>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="149"/>
-      <c r="AG31" s="149"/>
-      <c r="AH31" s="149"/>
-      <c r="AI31" s="149"/>
-      <c r="AJ31" s="149"/>
-      <c r="AK31" s="149"/>
-      <c r="AL31" s="149"/>
-      <c r="AM31" s="150"/>
-      <c r="AN31" s="134"/>
-      <c r="AO31" s="135"/>
-      <c r="AP31" s="135"/>
-      <c r="AQ31" s="135"/>
-      <c r="AR31" s="136"/>
-      <c r="AS31" s="134"/>
-      <c r="AT31" s="135"/>
-      <c r="AU31" s="135"/>
-      <c r="AV31" s="135"/>
-      <c r="AW31" s="136"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="167"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="158"/>
+      <c r="S31" s="143"/>
+      <c r="T31" s="143"/>
+      <c r="U31" s="143"/>
+      <c r="V31" s="159"/>
+      <c r="W31" s="160"/>
+      <c r="X31" s="160"/>
+      <c r="Y31" s="160"/>
+      <c r="Z31" s="160"/>
+      <c r="AA31" s="160"/>
+      <c r="AB31" s="160"/>
+      <c r="AC31" s="160"/>
+      <c r="AD31" s="160"/>
+      <c r="AE31" s="160"/>
+      <c r="AF31" s="160"/>
+      <c r="AG31" s="160"/>
+      <c r="AH31" s="160"/>
+      <c r="AI31" s="160"/>
+      <c r="AJ31" s="160"/>
+      <c r="AK31" s="160"/>
+      <c r="AL31" s="160"/>
+      <c r="AM31" s="161"/>
+      <c r="AN31" s="162"/>
+      <c r="AO31" s="163"/>
+      <c r="AP31" s="163"/>
+      <c r="AQ31" s="163"/>
+      <c r="AR31" s="164"/>
+      <c r="AS31" s="162"/>
+      <c r="AT31" s="163"/>
+      <c r="AU31" s="163"/>
+      <c r="AV31" s="163"/>
+      <c r="AW31" s="164"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
-      <c r="B32" s="137"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="142"/>
-      <c r="L32" s="143"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="152"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="152"/>
-      <c r="R32" s="153"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="149"/>
-      <c r="X32" s="149"/>
-      <c r="Y32" s="149"/>
-      <c r="Z32" s="149"/>
-      <c r="AA32" s="149"/>
-      <c r="AB32" s="149"/>
-      <c r="AC32" s="149"/>
-      <c r="AD32" s="149"/>
-      <c r="AE32" s="149"/>
-      <c r="AF32" s="149"/>
-      <c r="AG32" s="149"/>
-      <c r="AH32" s="149"/>
-      <c r="AI32" s="149"/>
-      <c r="AJ32" s="149"/>
-      <c r="AK32" s="149"/>
-      <c r="AL32" s="149"/>
-      <c r="AM32" s="150"/>
-      <c r="AN32" s="134"/>
-      <c r="AO32" s="135"/>
-      <c r="AP32" s="135"/>
-      <c r="AQ32" s="135"/>
-      <c r="AR32" s="136"/>
-      <c r="AS32" s="134"/>
-      <c r="AT32" s="135"/>
-      <c r="AU32" s="135"/>
-      <c r="AV32" s="135"/>
-      <c r="AW32" s="136"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="157"/>
+      <c r="O32" s="157"/>
+      <c r="P32" s="157"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="158"/>
+      <c r="S32" s="143"/>
+      <c r="T32" s="143"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="159"/>
+      <c r="W32" s="160"/>
+      <c r="X32" s="160"/>
+      <c r="Y32" s="160"/>
+      <c r="Z32" s="160"/>
+      <c r="AA32" s="160"/>
+      <c r="AB32" s="160"/>
+      <c r="AC32" s="160"/>
+      <c r="AD32" s="160"/>
+      <c r="AE32" s="160"/>
+      <c r="AF32" s="160"/>
+      <c r="AG32" s="160"/>
+      <c r="AH32" s="160"/>
+      <c r="AI32" s="160"/>
+      <c r="AJ32" s="160"/>
+      <c r="AK32" s="160"/>
+      <c r="AL32" s="160"/>
+      <c r="AM32" s="161"/>
+      <c r="AN32" s="162"/>
+      <c r="AO32" s="163"/>
+      <c r="AP32" s="163"/>
+      <c r="AQ32" s="163"/>
+      <c r="AR32" s="164"/>
+      <c r="AS32" s="162"/>
+      <c r="AT32" s="163"/>
+      <c r="AU32" s="163"/>
+      <c r="AV32" s="163"/>
+      <c r="AW32" s="164"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="137"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="143"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="152"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="152"/>
-      <c r="R33" s="153"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="147"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="149"/>
-      <c r="X33" s="149"/>
-      <c r="Y33" s="149"/>
-      <c r="Z33" s="149"/>
-      <c r="AA33" s="149"/>
-      <c r="AB33" s="149"/>
-      <c r="AC33" s="149"/>
-      <c r="AD33" s="149"/>
-      <c r="AE33" s="149"/>
-      <c r="AF33" s="149"/>
-      <c r="AG33" s="149"/>
-      <c r="AH33" s="149"/>
-      <c r="AI33" s="149"/>
-      <c r="AJ33" s="149"/>
-      <c r="AK33" s="149"/>
-      <c r="AL33" s="149"/>
-      <c r="AM33" s="150"/>
-      <c r="AN33" s="134"/>
-      <c r="AO33" s="135"/>
-      <c r="AP33" s="135"/>
-      <c r="AQ33" s="135"/>
-      <c r="AR33" s="136"/>
-      <c r="AS33" s="134"/>
-      <c r="AT33" s="135"/>
-      <c r="AU33" s="135"/>
-      <c r="AV33" s="135"/>
-      <c r="AW33" s="136"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="157"/>
+      <c r="P33" s="157"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="158"/>
+      <c r="S33" s="143"/>
+      <c r="T33" s="143"/>
+      <c r="U33" s="143"/>
+      <c r="V33" s="159"/>
+      <c r="W33" s="160"/>
+      <c r="X33" s="160"/>
+      <c r="Y33" s="160"/>
+      <c r="Z33" s="160"/>
+      <c r="AA33" s="160"/>
+      <c r="AB33" s="160"/>
+      <c r="AC33" s="160"/>
+      <c r="AD33" s="160"/>
+      <c r="AE33" s="160"/>
+      <c r="AF33" s="160"/>
+      <c r="AG33" s="160"/>
+      <c r="AH33" s="160"/>
+      <c r="AI33" s="160"/>
+      <c r="AJ33" s="160"/>
+      <c r="AK33" s="160"/>
+      <c r="AL33" s="160"/>
+      <c r="AM33" s="161"/>
+      <c r="AN33" s="162"/>
+      <c r="AO33" s="163"/>
+      <c r="AP33" s="163"/>
+      <c r="AQ33" s="163"/>
+      <c r="AR33" s="164"/>
+      <c r="AS33" s="162"/>
+      <c r="AT33" s="163"/>
+      <c r="AU33" s="163"/>
+      <c r="AV33" s="163"/>
+      <c r="AW33" s="164"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="137"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="144"/>
-      <c r="N34" s="145"/>
-      <c r="O34" s="145"/>
-      <c r="P34" s="145"/>
-      <c r="Q34" s="145"/>
-      <c r="R34" s="146"/>
-      <c r="S34" s="147"/>
-      <c r="T34" s="147"/>
-      <c r="U34" s="147"/>
-      <c r="V34" s="148"/>
-      <c r="W34" s="149"/>
-      <c r="X34" s="149"/>
-      <c r="Y34" s="149"/>
-      <c r="Z34" s="149"/>
-      <c r="AA34" s="149"/>
-      <c r="AB34" s="149"/>
-      <c r="AC34" s="149"/>
-      <c r="AD34" s="149"/>
-      <c r="AE34" s="149"/>
-      <c r="AF34" s="149"/>
-      <c r="AG34" s="149"/>
-      <c r="AH34" s="149"/>
-      <c r="AI34" s="149"/>
-      <c r="AJ34" s="149"/>
-      <c r="AK34" s="149"/>
-      <c r="AL34" s="149"/>
-      <c r="AM34" s="150"/>
-      <c r="AN34" s="134"/>
-      <c r="AO34" s="135"/>
-      <c r="AP34" s="135"/>
-      <c r="AQ34" s="135"/>
-      <c r="AR34" s="136"/>
-      <c r="AS34" s="134"/>
-      <c r="AT34" s="135"/>
-      <c r="AU34" s="135"/>
-      <c r="AV34" s="135"/>
-      <c r="AW34" s="136"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="171"/>
+      <c r="N34" s="172"/>
+      <c r="O34" s="172"/>
+      <c r="P34" s="172"/>
+      <c r="Q34" s="172"/>
+      <c r="R34" s="173"/>
+      <c r="S34" s="143"/>
+      <c r="T34" s="143"/>
+      <c r="U34" s="143"/>
+      <c r="V34" s="159"/>
+      <c r="W34" s="160"/>
+      <c r="X34" s="160"/>
+      <c r="Y34" s="160"/>
+      <c r="Z34" s="160"/>
+      <c r="AA34" s="160"/>
+      <c r="AB34" s="160"/>
+      <c r="AC34" s="160"/>
+      <c r="AD34" s="160"/>
+      <c r="AE34" s="160"/>
+      <c r="AF34" s="160"/>
+      <c r="AG34" s="160"/>
+      <c r="AH34" s="160"/>
+      <c r="AI34" s="160"/>
+      <c r="AJ34" s="160"/>
+      <c r="AK34" s="160"/>
+      <c r="AL34" s="160"/>
+      <c r="AM34" s="161"/>
+      <c r="AN34" s="162"/>
+      <c r="AO34" s="163"/>
+      <c r="AP34" s="163"/>
+      <c r="AQ34" s="163"/>
+      <c r="AR34" s="164"/>
+      <c r="AS34" s="162"/>
+      <c r="AT34" s="163"/>
+      <c r="AU34" s="163"/>
+      <c r="AV34" s="163"/>
+      <c r="AW34" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -7164,230 +7379,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7526,7 +7526,7 @@
       <c r="U2" s="98"/>
       <c r="V2" s="99"/>
       <c r="W2" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X2" s="40"/>
       <c r="Y2" s="40"/>
@@ -7547,11 +7547,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="174"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="175"/>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="176"/>
+      <c r="AO2" s="178"/>
+      <c r="AP2" s="179"/>
+      <c r="AQ2" s="179"/>
+      <c r="AR2" s="179"/>
+      <c r="AS2" s="180"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -7560,14 +7560,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="177"/>
-      <c r="BA2" s="178"/>
-      <c r="BB2" s="178"/>
-      <c r="BC2" s="178"/>
-      <c r="BD2" s="178"/>
-      <c r="BE2" s="178"/>
-      <c r="BF2" s="178"/>
-      <c r="BG2" s="179"/>
+      <c r="AZ2" s="181"/>
+      <c r="BA2" s="182"/>
+      <c r="BB2" s="182"/>
+      <c r="BC2" s="182"/>
+      <c r="BD2" s="182"/>
+      <c r="BE2" s="182"/>
+      <c r="BF2" s="182"/>
+      <c r="BG2" s="183"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -8753,7 +8753,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O36" s="9"/>
       <c r="T36" s="9"/>
@@ -8802,7 +8802,7 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O37" s="9"/>
       <c r="T37" s="9"/>
@@ -8849,7 +8849,7 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O38" s="9"/>
       <c r="T38" s="9"/>
@@ -9324,10 +9324,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="182" t="s">
+      <c r="B50" s="184" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="183"/>
+      <c r="C50" s="185"/>
       <c r="D50" s="91" t="s">
         <v>105</v>
       </c>
@@ -9410,12 +9410,12 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="184">
+      <c r="B51" s="176">
         <v>1</v>
       </c>
-      <c r="C51" s="185"/>
+      <c r="C51" s="177"/>
       <c r="D51" s="116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E51" s="89"/>
       <c r="F51" s="89"/>
@@ -9445,18 +9445,18 @@
       <c r="AB51" s="89"/>
       <c r="AC51" s="89"/>
       <c r="AD51" s="117"/>
-      <c r="AE51" s="180" t="s">
+      <c r="AE51" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AF51" s="181"/>
-      <c r="AG51" s="180"/>
-      <c r="AH51" s="181"/>
-      <c r="AI51" s="180"/>
-      <c r="AJ51" s="181"/>
-      <c r="AK51" s="180"/>
-      <c r="AL51" s="181"/>
+      <c r="AF51" s="175"/>
+      <c r="AG51" s="174"/>
+      <c r="AH51" s="175"/>
+      <c r="AI51" s="174"/>
+      <c r="AJ51" s="175"/>
+      <c r="AK51" s="174"/>
+      <c r="AL51" s="175"/>
       <c r="AM51" s="86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AN51" s="87"/>
       <c r="AO51" s="87"/>
@@ -9488,12 +9488,12 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="184">
+      <c r="B52" s="176">
         <v>2</v>
       </c>
-      <c r="C52" s="185"/>
+      <c r="C52" s="177"/>
       <c r="D52" s="116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E52" s="89"/>
       <c r="F52" s="89"/>
@@ -9502,7 +9502,7 @@
       <c r="I52" s="89"/>
       <c r="J52" s="117"/>
       <c r="K52" s="116" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L52" s="89"/>
       <c r="M52" s="89"/>
@@ -9523,18 +9523,18 @@
       <c r="AB52" s="89"/>
       <c r="AC52" s="89"/>
       <c r="AD52" s="117"/>
-      <c r="AE52" s="180" t="s">
+      <c r="AE52" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AF52" s="181"/>
-      <c r="AG52" s="180"/>
-      <c r="AH52" s="181"/>
-      <c r="AI52" s="180"/>
-      <c r="AJ52" s="181"/>
-      <c r="AK52" s="180"/>
-      <c r="AL52" s="181"/>
+      <c r="AF52" s="175"/>
+      <c r="AG52" s="174"/>
+      <c r="AH52" s="175"/>
+      <c r="AI52" s="174"/>
+      <c r="AJ52" s="175"/>
+      <c r="AK52" s="174"/>
+      <c r="AL52" s="175"/>
       <c r="AM52" s="86" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AN52" s="87"/>
       <c r="AO52" s="87"/>
@@ -9566,12 +9566,12 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="184">
+      <c r="B53" s="176">
         <v>3</v>
       </c>
-      <c r="C53" s="185"/>
+      <c r="C53" s="177"/>
       <c r="D53" s="116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E53" s="89"/>
       <c r="F53" s="89"/>
@@ -9580,7 +9580,7 @@
       <c r="I53" s="89"/>
       <c r="J53" s="111"/>
       <c r="K53" s="110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L53" s="89"/>
       <c r="M53" s="89"/>
@@ -9601,18 +9601,18 @@
       <c r="AB53" s="89"/>
       <c r="AC53" s="89"/>
       <c r="AD53" s="111"/>
-      <c r="AE53" s="180" t="s">
+      <c r="AE53" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AF53" s="181"/>
-      <c r="AG53" s="180"/>
-      <c r="AH53" s="181"/>
-      <c r="AI53" s="180"/>
-      <c r="AJ53" s="181"/>
-      <c r="AK53" s="180"/>
-      <c r="AL53" s="181"/>
+      <c r="AF53" s="175"/>
+      <c r="AG53" s="174"/>
+      <c r="AH53" s="175"/>
+      <c r="AI53" s="174"/>
+      <c r="AJ53" s="175"/>
+      <c r="AK53" s="174"/>
+      <c r="AL53" s="175"/>
       <c r="AM53" s="86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AN53" s="87"/>
       <c r="AO53" s="87"/>
@@ -9644,10 +9644,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="184">
+      <c r="B54" s="176">
         <v>4</v>
       </c>
-      <c r="C54" s="185"/>
+      <c r="C54" s="177"/>
       <c r="D54" s="85" t="s">
         <v>150</v>
       </c>
@@ -9679,22 +9679,22 @@
       <c r="AB54" s="89"/>
       <c r="AC54" s="89"/>
       <c r="AD54" s="90"/>
-      <c r="AE54" s="180" t="s">
+      <c r="AE54" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AF54" s="181"/>
-      <c r="AG54" s="180" t="s">
+      <c r="AF54" s="175"/>
+      <c r="AG54" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AH54" s="181"/>
-      <c r="AI54" s="180" t="s">
+      <c r="AH54" s="175"/>
+      <c r="AI54" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AJ54" s="181"/>
-      <c r="AK54" s="180" t="s">
+      <c r="AJ54" s="175"/>
+      <c r="AK54" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AL54" s="181"/>
+      <c r="AL54" s="175"/>
       <c r="AM54" s="86" t="s">
         <v>152</v>
       </c>
@@ -9733,13 +9733,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK54:AL54"/>
@@ -9756,6 +9749,13 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9901,7 +9901,7 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="177" t="str">
+      <c r="CU1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -10032,7 +10032,7 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="177"/>
+      <c r="CU2" s="181"/>
       <c r="CV2" s="186"/>
       <c r="CW2" s="186"/>
       <c r="CX2" s="186"/>
@@ -10250,37 +10250,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="167" t="s">
+      <c r="D6" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="167" t="s">
+      <c r="E6" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="167" t="s">
+      <c r="F6" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="167" t="s">
+      <c r="G6" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="167" t="s">
+      <c r="H6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="197" t="s">
+      <c r="I6" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="197" t="s">
+      <c r="J6" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="167" t="s">
+      <c r="K6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="167" t="s">
+      <c r="L6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="167" t="s">
+      <c r="M6" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="72" t="s">
@@ -10288,24 +10288,24 @@
       </c>
       <c r="O6" s="72"/>
       <c r="P6" s="72"/>
-      <c r="Q6" s="197" t="s">
+      <c r="Q6" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
       <c r="N7" s="43" t="s">
         <v>82</v>
       </c>
@@ -10315,7 +10315,7 @@
       <c r="P7" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="197"/>
+      <c r="Q7" s="195"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -10572,7 +10572,7 @@
         <v>190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>155</v>
@@ -10673,37 +10673,37 @@
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="167" t="s">
+      <c r="D17" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="167" t="s">
+      <c r="E17" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="167" t="s">
+      <c r="F17" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="167" t="s">
+      <c r="G17" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="167" t="s">
+      <c r="H17" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="195" t="s">
+      <c r="I17" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="197" t="s">
+      <c r="J17" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="167" t="s">
+      <c r="K17" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="167" t="s">
+      <c r="L17" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="167" t="s">
+      <c r="M17" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N17" s="72" t="s">
@@ -10711,24 +10711,24 @@
       </c>
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
-      <c r="Q17" s="195" t="s">
+      <c r="Q17" s="196" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
-      <c r="M18" s="167"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="195"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
       <c r="N18" s="43" t="s">
         <v>82</v>
       </c>
@@ -10738,7 +10738,7 @@
       <c r="P18" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="196"/>
+      <c r="Q18" s="197"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
@@ -10802,37 +10802,37 @@
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="64"/>
-      <c r="C22" s="167" t="s">
+      <c r="C22" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="167" t="s">
+      <c r="D22" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="167" t="s">
+      <c r="E22" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="167" t="s">
+      <c r="F22" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="167" t="s">
+      <c r="G22" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="167" t="s">
+      <c r="H22" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="197" t="s">
+      <c r="I22" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="197" t="s">
+      <c r="J22" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="167" t="s">
+      <c r="K22" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="167" t="s">
+      <c r="L22" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="167" t="s">
+      <c r="M22" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="72" t="s">
@@ -10840,24 +10840,24 @@
       </c>
       <c r="O22" s="72"/>
       <c r="P22" s="72"/>
-      <c r="Q22" s="197" t="s">
+      <c r="Q22" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="64"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="197"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="167"/>
-      <c r="L23" s="167"/>
-      <c r="M23" s="167"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
       <c r="N23" s="43" t="s">
         <v>82</v>
       </c>
@@ -10867,7 +10867,7 @@
       <c r="P23" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q23" s="197"/>
+      <c r="Q23" s="195"/>
     </row>
     <row r="24" spans="1:17" s="51" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
@@ -10998,10 +10998,10 @@
         <v>65</v>
       </c>
       <c r="E27" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>50</v>
@@ -11276,7 +11276,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -11338,7 +11338,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>32</v>
@@ -11408,37 +11408,37 @@
     <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="64"/>
-      <c r="C37" s="167" t="s">
+      <c r="C37" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="167" t="s">
+      <c r="D37" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="167" t="s">
+      <c r="E37" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="167" t="s">
+      <c r="F37" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="167" t="s">
+      <c r="G37" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="167" t="s">
+      <c r="H37" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="197" t="s">
+      <c r="I37" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="197" t="s">
+      <c r="J37" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="167" t="s">
+      <c r="K37" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L37" s="167" t="s">
+      <c r="L37" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="167" t="s">
+      <c r="M37" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N37" s="72" t="s">
@@ -11446,24 +11446,24 @@
       </c>
       <c r="O37" s="72"/>
       <c r="P37" s="72"/>
-      <c r="Q37" s="197" t="s">
+      <c r="Q37" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="64"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="197"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="167"/>
-      <c r="L38" s="167"/>
-      <c r="M38" s="167"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="195"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="136"/>
+      <c r="M38" s="136"/>
       <c r="N38" s="96" t="s">
         <v>82</v>
       </c>
@@ -11473,7 +11473,7 @@
       <c r="P38" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="Q38" s="197"/>
+      <c r="Q38" s="195"/>
     </row>
     <row r="39" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
@@ -11610,7 +11610,7 @@
         <v>163</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>34</v>
@@ -11659,13 +11659,13 @@
         <v>35</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="Q42" s="8" t="s">
         <v>34</v>
@@ -11708,13 +11708,13 @@
         <v>35</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>34</v>
@@ -11876,38 +11876,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="I22:I23"/>
@@ -11924,6 +11892,38 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11997,7 +11997,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="174">
+      <c r="AI1" s="178">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -12013,7 +12013,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="177" t="str">
+      <c r="AT1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -12084,7 +12084,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="177"/>
+      <c r="AT2" s="181"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -12441,7 +12441,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="23"/>
       <c r="L11" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
@@ -12544,7 +12544,7 @@
       <c r="K13" s="76"/>
       <c r="L13" s="24"/>
       <c r="M13" s="130" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N13" s="130"/>
       <c r="O13" s="130"/>
@@ -12595,7 +12595,7 @@
       <c r="K14" s="76"/>
       <c r="L14" s="24"/>
       <c r="N14" s="130" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O14" s="130"/>
       <c r="P14" s="130"/>
@@ -12694,7 +12694,7 @@
       <c r="K16" s="76"/>
       <c r="L16" s="24"/>
       <c r="M16" s="130" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N16" s="130"/>
       <c r="O16" s="130"/>
@@ -12757,16 +12757,16 @@
       <c r="U17" s="130"/>
       <c r="V17" s="130"/>
       <c r="X17" s="130" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y17" s="130" t="s">
         <v>239</v>
-      </c>
-      <c r="Y17" s="130" t="s">
-        <v>240</v>
       </c>
       <c r="Z17" s="130"/>
       <c r="AA17" s="130"/>
       <c r="AB17" s="130"/>
       <c r="AG17" s="130" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH17" s="130"/>
       <c r="AI17" s="130"/>
@@ -12853,7 +12853,7 @@
       <c r="K20" s="76"/>
       <c r="L20" s="24"/>
       <c r="N20" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AJ20" s="24"/>
       <c r="AK20" s="24"/>
@@ -12883,7 +12883,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -12987,7 +12987,7 @@
       <c r="J23" s="22"/>
       <c r="K23" s="23"/>
       <c r="L23" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
@@ -13040,7 +13040,7 @@
       <c r="J24" s="24"/>
       <c r="K24" s="76"/>
       <c r="L24" s="75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
@@ -13140,7 +13140,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="76"/>
       <c r="L26" s="75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -13191,7 +13191,7 @@
       <c r="J27" s="24"/>
       <c r="K27" s="76"/>
       <c r="L27" s="75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
@@ -13291,7 +13291,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="76"/>
       <c r="L29" s="75" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
@@ -13397,7 +13397,7 @@
       <c r="J31" s="22"/>
       <c r="K31" s="23"/>
       <c r="L31" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -13450,7 +13450,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="76"/>
       <c r="L32" s="75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
@@ -13550,7 +13550,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="76"/>
       <c r="L34" s="75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
@@ -13656,7 +13656,7 @@
       <c r="J36" s="22"/>
       <c r="K36" s="23"/>
       <c r="L36" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -21533,7 +21533,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="174">
+      <c r="AI1" s="178">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -21549,7 +21549,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="177" t="str">
+      <c r="AT1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -21620,7 +21620,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="177"/>
+      <c r="AT2" s="181"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -22419,18 +22419,18 @@
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="206" t="s">
-        <v>272</v>
-      </c>
-      <c r="U17" s="207"/>
-      <c r="V17" s="207"/>
-      <c r="W17" s="207"/>
-      <c r="X17" s="207"/>
-      <c r="Y17" s="207"/>
-      <c r="Z17" s="207"/>
-      <c r="AA17" s="207"/>
-      <c r="AB17" s="207"/>
-      <c r="AC17" s="208"/>
+      <c r="T17" s="200" t="s">
+        <v>271</v>
+      </c>
+      <c r="U17" s="201"/>
+      <c r="V17" s="201"/>
+      <c r="W17" s="201"/>
+      <c r="X17" s="201"/>
+      <c r="Y17" s="201"/>
+      <c r="Z17" s="201"/>
+      <c r="AA17" s="201"/>
+      <c r="AB17" s="201"/>
+      <c r="AC17" s="202"/>
       <c r="AD17" s="77" t="s">
         <v>145</v>
       </c>
@@ -22473,16 +22473,16 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="26"/>
       <c r="S18" s="27"/>
-      <c r="T18" s="209"/>
-      <c r="U18" s="210"/>
-      <c r="V18" s="210"/>
-      <c r="W18" s="210"/>
-      <c r="X18" s="210"/>
-      <c r="Y18" s="210"/>
-      <c r="Z18" s="210"/>
-      <c r="AA18" s="210"/>
-      <c r="AB18" s="210"/>
-      <c r="AC18" s="211"/>
+      <c r="T18" s="203"/>
+      <c r="U18" s="204"/>
+      <c r="V18" s="204"/>
+      <c r="W18" s="204"/>
+      <c r="X18" s="204"/>
+      <c r="Y18" s="204"/>
+      <c r="Z18" s="204"/>
+      <c r="AA18" s="204"/>
+      <c r="AB18" s="204"/>
+      <c r="AC18" s="205"/>
       <c r="AD18" s="80"/>
       <c r="AE18" s="81"/>
       <c r="AF18" s="81"/>
@@ -22751,18 +22751,18 @@
       </c>
       <c r="R23" s="22"/>
       <c r="S23" s="23"/>
-      <c r="T23" s="206" t="s">
+      <c r="T23" s="200" t="s">
         <v>139</v>
       </c>
-      <c r="U23" s="207"/>
-      <c r="V23" s="207"/>
-      <c r="W23" s="207"/>
-      <c r="X23" s="207"/>
-      <c r="Y23" s="207"/>
-      <c r="Z23" s="207"/>
-      <c r="AA23" s="207"/>
-      <c r="AB23" s="207"/>
-      <c r="AC23" s="208"/>
+      <c r="U23" s="201"/>
+      <c r="V23" s="201"/>
+      <c r="W23" s="201"/>
+      <c r="X23" s="201"/>
+      <c r="Y23" s="201"/>
+      <c r="Z23" s="201"/>
+      <c r="AA23" s="201"/>
+      <c r="AB23" s="201"/>
+      <c r="AC23" s="202"/>
       <c r="AD23" s="77" t="s">
         <v>141</v>
       </c>
@@ -22805,16 +22805,16 @@
       <c r="Q24" s="25"/>
       <c r="R24" s="26"/>
       <c r="S24" s="27"/>
-      <c r="T24" s="209"/>
-      <c r="U24" s="210"/>
-      <c r="V24" s="210"/>
-      <c r="W24" s="210"/>
-      <c r="X24" s="210"/>
-      <c r="Y24" s="210"/>
-      <c r="Z24" s="210"/>
-      <c r="AA24" s="210"/>
-      <c r="AB24" s="210"/>
-      <c r="AC24" s="211"/>
+      <c r="T24" s="203"/>
+      <c r="U24" s="204"/>
+      <c r="V24" s="204"/>
+      <c r="W24" s="204"/>
+      <c r="X24" s="204"/>
+      <c r="Y24" s="204"/>
+      <c r="Z24" s="204"/>
+      <c r="AA24" s="204"/>
+      <c r="AB24" s="204"/>
+      <c r="AC24" s="205"/>
       <c r="AD24" s="80"/>
       <c r="AE24" s="81"/>
       <c r="AF24" s="81"/>
@@ -22967,18 +22967,18 @@
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="23"/>
-      <c r="T27" s="212" t="s">
-        <v>270</v>
-      </c>
-      <c r="U27" s="213"/>
-      <c r="V27" s="213"/>
-      <c r="W27" s="213"/>
-      <c r="X27" s="213"/>
-      <c r="Y27" s="213"/>
-      <c r="Z27" s="213"/>
-      <c r="AA27" s="213"/>
-      <c r="AB27" s="213"/>
-      <c r="AC27" s="214"/>
+      <c r="T27" s="206" t="s">
+        <v>269</v>
+      </c>
+      <c r="U27" s="207"/>
+      <c r="V27" s="207"/>
+      <c r="W27" s="207"/>
+      <c r="X27" s="207"/>
+      <c r="Y27" s="207"/>
+      <c r="Z27" s="207"/>
+      <c r="AA27" s="207"/>
+      <c r="AB27" s="207"/>
+      <c r="AC27" s="208"/>
       <c r="AD27" s="77" t="s">
         <v>143</v>
       </c>
@@ -23021,16 +23021,16 @@
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
-      <c r="T28" s="215"/>
-      <c r="U28" s="216"/>
-      <c r="V28" s="216"/>
-      <c r="W28" s="216"/>
-      <c r="X28" s="216"/>
-      <c r="Y28" s="216"/>
-      <c r="Z28" s="216"/>
-      <c r="AA28" s="216"/>
-      <c r="AB28" s="216"/>
-      <c r="AC28" s="217"/>
+      <c r="T28" s="209"/>
+      <c r="U28" s="210"/>
+      <c r="V28" s="210"/>
+      <c r="W28" s="210"/>
+      <c r="X28" s="210"/>
+      <c r="Y28" s="210"/>
+      <c r="Z28" s="210"/>
+      <c r="AA28" s="210"/>
+      <c r="AB28" s="210"/>
+      <c r="AC28" s="211"/>
       <c r="AD28" s="80"/>
       <c r="AE28" s="81"/>
       <c r="AF28" s="81"/>
@@ -23079,18 +23079,18 @@
       </c>
       <c r="R29" s="22"/>
       <c r="S29" s="23"/>
-      <c r="T29" s="206" t="s">
+      <c r="T29" s="200" t="s">
         <v>138</v>
       </c>
-      <c r="U29" s="207"/>
-      <c r="V29" s="207"/>
-      <c r="W29" s="207"/>
-      <c r="X29" s="207"/>
-      <c r="Y29" s="207"/>
-      <c r="Z29" s="207"/>
-      <c r="AA29" s="207"/>
-      <c r="AB29" s="207"/>
-      <c r="AC29" s="208"/>
+      <c r="U29" s="201"/>
+      <c r="V29" s="201"/>
+      <c r="W29" s="201"/>
+      <c r="X29" s="201"/>
+      <c r="Y29" s="201"/>
+      <c r="Z29" s="201"/>
+      <c r="AA29" s="201"/>
+      <c r="AB29" s="201"/>
+      <c r="AC29" s="202"/>
       <c r="AD29" s="77" t="s">
         <v>146</v>
       </c>
@@ -23133,16 +23133,16 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="26"/>
       <c r="S30" s="27"/>
-      <c r="T30" s="209"/>
-      <c r="U30" s="210"/>
-      <c r="V30" s="210"/>
-      <c r="W30" s="210"/>
-      <c r="X30" s="210"/>
-      <c r="Y30" s="210"/>
-      <c r="Z30" s="210"/>
-      <c r="AA30" s="210"/>
-      <c r="AB30" s="210"/>
-      <c r="AC30" s="211"/>
+      <c r="T30" s="203"/>
+      <c r="U30" s="204"/>
+      <c r="V30" s="204"/>
+      <c r="W30" s="204"/>
+      <c r="X30" s="204"/>
+      <c r="Y30" s="204"/>
+      <c r="Z30" s="204"/>
+      <c r="AA30" s="204"/>
+      <c r="AB30" s="204"/>
+      <c r="AC30" s="205"/>
       <c r="AD30" s="80"/>
       <c r="AE30" s="81"/>
       <c r="AF30" s="81"/>
@@ -23513,20 +23513,20 @@
       </c>
       <c r="R37" s="78"/>
       <c r="S37" s="79"/>
-      <c r="T37" s="200" t="s">
+      <c r="T37" s="212" t="s">
+        <v>261</v>
+      </c>
+      <c r="U37" s="213"/>
+      <c r="V37" s="213"/>
+      <c r="W37" s="213"/>
+      <c r="X37" s="213"/>
+      <c r="Y37" s="213"/>
+      <c r="Z37" s="213"/>
+      <c r="AA37" s="213"/>
+      <c r="AB37" s="213"/>
+      <c r="AC37" s="214"/>
+      <c r="AD37" s="77" t="s">
         <v>262</v>
-      </c>
-      <c r="U37" s="201"/>
-      <c r="V37" s="201"/>
-      <c r="W37" s="201"/>
-      <c r="X37" s="201"/>
-      <c r="Y37" s="201"/>
-      <c r="Z37" s="201"/>
-      <c r="AA37" s="201"/>
-      <c r="AB37" s="201"/>
-      <c r="AC37" s="202"/>
-      <c r="AD37" s="77" t="s">
-        <v>263</v>
       </c>
       <c r="AE37" s="78"/>
       <c r="AF37" s="78"/>
@@ -23567,16 +23567,16 @@
       <c r="Q38" s="80"/>
       <c r="R38" s="81"/>
       <c r="S38" s="82"/>
-      <c r="T38" s="203"/>
-      <c r="U38" s="204"/>
-      <c r="V38" s="204"/>
-      <c r="W38" s="204"/>
-      <c r="X38" s="204"/>
-      <c r="Y38" s="204"/>
-      <c r="Z38" s="204"/>
-      <c r="AA38" s="204"/>
-      <c r="AB38" s="204"/>
-      <c r="AC38" s="205"/>
+      <c r="T38" s="215"/>
+      <c r="U38" s="216"/>
+      <c r="V38" s="216"/>
+      <c r="W38" s="216"/>
+      <c r="X38" s="216"/>
+      <c r="Y38" s="216"/>
+      <c r="Z38" s="216"/>
+      <c r="AA38" s="216"/>
+      <c r="AB38" s="216"/>
+      <c r="AC38" s="217"/>
       <c r="AD38" s="80"/>
       <c r="AE38" s="81"/>
       <c r="AF38" s="81"/>
@@ -23622,7 +23622,7 @@
       <c r="R39" s="78"/>
       <c r="S39" s="79"/>
       <c r="T39" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U39" s="123"/>
       <c r="V39" s="123"/>
@@ -23634,7 +23634,7 @@
       <c r="AB39" s="123"/>
       <c r="AC39" s="124"/>
       <c r="AD39" s="77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AE39" s="78"/>
       <c r="AF39" s="78"/>
@@ -27702,6 +27702,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="T37:AC38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B29:B30"/>
@@ -27718,18 +27730,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="T37:AC38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -27803,7 +27803,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="174">
+      <c r="AI1" s="178">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -27819,7 +27819,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="177" t="str">
+      <c r="AT1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -27890,7 +27890,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="177"/>
+      <c r="AT2" s="181"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -28179,7 +28179,7 @@
         <v>171</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
@@ -28234,10 +28234,10 @@
       <c r="A9" s="57"/>
       <c r="B9" s="57"/>
       <c r="C9" s="57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
@@ -28293,7 +28293,7 @@
       <c r="B10" s="57"/>
       <c r="C10" s="57"/>
       <c r="D10" s="57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
@@ -39108,6 +39108,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -39265,22 +39280,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39296,21 +39313,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/06_SC-M_マスタ系/SC-M10_設備マスタ.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/SC-M10_設備マスタ.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C2AC69-EFB8-46CB-9D47-FADD8FBBCF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE5313-8886-4E28-BD0E-3CAD74B63367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -2845,6 +2845,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2872,103 +2957,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2987,10 +2975,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3020,13 +3020,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3034,6 +3034,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3069,24 +3087,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5375,1770 +5375,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
-      <c r="AQ1" s="134"/>
-      <c r="AR1" s="134"/>
-      <c r="AS1" s="134"/>
-      <c r="AT1" s="134"/>
-      <c r="AU1" s="134"/>
-      <c r="AV1" s="134"/>
-      <c r="AW1" s="134"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="165"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="165"/>
+      <c r="AJ1" s="165"/>
+      <c r="AK1" s="165"/>
+      <c r="AL1" s="165"/>
+      <c r="AM1" s="165"/>
+      <c r="AN1" s="165"/>
+      <c r="AO1" s="165"/>
+      <c r="AP1" s="165"/>
+      <c r="AQ1" s="165"/>
+      <c r="AR1" s="165"/>
+      <c r="AS1" s="165"/>
+      <c r="AT1" s="165"/>
+      <c r="AU1" s="165"/>
+      <c r="AV1" s="165"/>
+      <c r="AW1" s="165"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="166"/>
+      <c r="AJ2" s="166"/>
+      <c r="AK2" s="166"/>
+      <c r="AL2" s="166"/>
+      <c r="AM2" s="166"/>
+      <c r="AN2" s="166"/>
+      <c r="AO2" s="166"/>
+      <c r="AP2" s="166"/>
+      <c r="AQ2" s="166"/>
+      <c r="AR2" s="166"/>
+      <c r="AS2" s="166"/>
+      <c r="AT2" s="166"/>
+      <c r="AU2" s="166"/>
+      <c r="AV2" s="166"/>
+      <c r="AW2" s="166"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136" t="s">
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="137" t="s">
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="138"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="137" t="s">
+      <c r="K3" s="169"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="136" t="s">
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136" t="s">
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136" t="s">
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="167"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="167"/>
+      <c r="AJ3" s="167"/>
+      <c r="AK3" s="167"/>
+      <c r="AL3" s="167"/>
+      <c r="AM3" s="167"/>
+      <c r="AN3" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="136" t="s">
+      <c r="AO3" s="167"/>
+      <c r="AP3" s="167"/>
+      <c r="AQ3" s="167"/>
+      <c r="AR3" s="167"/>
+      <c r="AS3" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="136"/>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136"/>
-      <c r="AW3" s="136"/>
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="167"/>
+      <c r="AV3" s="167"/>
+      <c r="AW3" s="167"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="136"/>
-      <c r="AM4" s="136"/>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="136"/>
-      <c r="AR4" s="136"/>
-      <c r="AS4" s="136"/>
-      <c r="AT4" s="136"/>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="172"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AD4" s="167"/>
+      <c r="AE4" s="167"/>
+      <c r="AF4" s="167"/>
+      <c r="AG4" s="167"/>
+      <c r="AH4" s="167"/>
+      <c r="AI4" s="167"/>
+      <c r="AJ4" s="167"/>
+      <c r="AK4" s="167"/>
+      <c r="AL4" s="167"/>
+      <c r="AM4" s="167"/>
+      <c r="AN4" s="167"/>
+      <c r="AO4" s="167"/>
+      <c r="AP4" s="167"/>
+      <c r="AQ4" s="167"/>
+      <c r="AR4" s="167"/>
+      <c r="AS4" s="167"/>
+      <c r="AT4" s="167"/>
+      <c r="AU4" s="167"/>
+      <c r="AV4" s="167"/>
+      <c r="AW4" s="167"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
-      <c r="B5" s="144">
+      <c r="B5" s="159">
         <v>1</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145">
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="140">
         <v>43703</v>
       </c>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="146" t="s">
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="146" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="143" t="s">
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="152" t="s">
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="152"/>
-      <c r="X5" s="152"/>
-      <c r="Y5" s="152"/>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="152"/>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="152"/>
-      <c r="AE5" s="152"/>
-      <c r="AF5" s="152"/>
-      <c r="AG5" s="152"/>
-      <c r="AH5" s="152"/>
-      <c r="AI5" s="152"/>
-      <c r="AJ5" s="152"/>
-      <c r="AK5" s="152"/>
-      <c r="AL5" s="152"/>
-      <c r="AM5" s="152"/>
-      <c r="AN5" s="143" t="s">
+      <c r="W5" s="158"/>
+      <c r="X5" s="158"/>
+      <c r="Y5" s="158"/>
+      <c r="Z5" s="158"/>
+      <c r="AA5" s="158"/>
+      <c r="AB5" s="158"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="158"/>
+      <c r="AE5" s="158"/>
+      <c r="AF5" s="158"/>
+      <c r="AG5" s="158"/>
+      <c r="AH5" s="158"/>
+      <c r="AI5" s="158"/>
+      <c r="AJ5" s="158"/>
+      <c r="AK5" s="158"/>
+      <c r="AL5" s="158"/>
+      <c r="AM5" s="158"/>
+      <c r="AN5" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="AO5" s="143"/>
-      <c r="AP5" s="143"/>
-      <c r="AQ5" s="143"/>
-      <c r="AR5" s="143"/>
-      <c r="AS5" s="143"/>
-      <c r="AT5" s="143"/>
-      <c r="AU5" s="143"/>
-      <c r="AV5" s="143"/>
-      <c r="AW5" s="143"/>
+      <c r="AO5" s="147"/>
+      <c r="AP5" s="147"/>
+      <c r="AQ5" s="147"/>
+      <c r="AR5" s="147"/>
+      <c r="AS5" s="147"/>
+      <c r="AT5" s="147"/>
+      <c r="AU5" s="147"/>
+      <c r="AV5" s="147"/>
+      <c r="AW5" s="147"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="143"/>
-      <c r="T6" s="143"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="152"/>
-      <c r="W6" s="152"/>
-      <c r="X6" s="152"/>
-      <c r="Y6" s="152"/>
-      <c r="Z6" s="152"/>
-      <c r="AA6" s="152"/>
-      <c r="AB6" s="152"/>
-      <c r="AC6" s="152"/>
-      <c r="AD6" s="152"/>
-      <c r="AE6" s="152"/>
-      <c r="AF6" s="152"/>
-      <c r="AG6" s="152"/>
-      <c r="AH6" s="152"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="152"/>
-      <c r="AK6" s="152"/>
-      <c r="AL6" s="152"/>
-      <c r="AM6" s="152"/>
-      <c r="AN6" s="143"/>
-      <c r="AO6" s="143"/>
-      <c r="AP6" s="143"/>
-      <c r="AQ6" s="143"/>
-      <c r="AR6" s="143"/>
-      <c r="AS6" s="143"/>
-      <c r="AT6" s="143"/>
-      <c r="AU6" s="143"/>
-      <c r="AV6" s="143"/>
-      <c r="AW6" s="143"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="158"/>
+      <c r="AB6" s="158"/>
+      <c r="AC6" s="158"/>
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="158"/>
+      <c r="AG6" s="158"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="158"/>
+      <c r="AJ6" s="158"/>
+      <c r="AK6" s="158"/>
+      <c r="AL6" s="158"/>
+      <c r="AM6" s="158"/>
+      <c r="AN6" s="147"/>
+      <c r="AO6" s="147"/>
+      <c r="AP6" s="147"/>
+      <c r="AQ6" s="147"/>
+      <c r="AR6" s="147"/>
+      <c r="AS6" s="147"/>
+      <c r="AT6" s="147"/>
+      <c r="AU6" s="147"/>
+      <c r="AV6" s="147"/>
+      <c r="AW6" s="147"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="152"/>
-      <c r="W7" s="152"/>
-      <c r="X7" s="152"/>
-      <c r="Y7" s="152"/>
-      <c r="Z7" s="152"/>
-      <c r="AA7" s="152"/>
-      <c r="AB7" s="152"/>
-      <c r="AC7" s="152"/>
-      <c r="AD7" s="152"/>
-      <c r="AE7" s="152"/>
-      <c r="AF7" s="152"/>
-      <c r="AG7" s="152"/>
-      <c r="AH7" s="152"/>
-      <c r="AI7" s="152"/>
-      <c r="AJ7" s="152"/>
-      <c r="AK7" s="152"/>
-      <c r="AL7" s="152"/>
-      <c r="AM7" s="152"/>
-      <c r="AN7" s="143"/>
-      <c r="AO7" s="143"/>
-      <c r="AP7" s="143"/>
-      <c r="AQ7" s="143"/>
-      <c r="AR7" s="143"/>
-      <c r="AS7" s="143"/>
-      <c r="AT7" s="143"/>
-      <c r="AU7" s="143"/>
-      <c r="AV7" s="143"/>
-      <c r="AW7" s="143"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="147"/>
+      <c r="T7" s="147"/>
+      <c r="U7" s="147"/>
+      <c r="V7" s="158"/>
+      <c r="W7" s="158"/>
+      <c r="X7" s="158"/>
+      <c r="Y7" s="158"/>
+      <c r="Z7" s="158"/>
+      <c r="AA7" s="158"/>
+      <c r="AB7" s="158"/>
+      <c r="AC7" s="158"/>
+      <c r="AD7" s="158"/>
+      <c r="AE7" s="158"/>
+      <c r="AF7" s="158"/>
+      <c r="AG7" s="158"/>
+      <c r="AH7" s="158"/>
+      <c r="AI7" s="158"/>
+      <c r="AJ7" s="158"/>
+      <c r="AK7" s="158"/>
+      <c r="AL7" s="158"/>
+      <c r="AM7" s="158"/>
+      <c r="AN7" s="147"/>
+      <c r="AO7" s="147"/>
+      <c r="AP7" s="147"/>
+      <c r="AQ7" s="147"/>
+      <c r="AR7" s="147"/>
+      <c r="AS7" s="147"/>
+      <c r="AT7" s="147"/>
+      <c r="AU7" s="147"/>
+      <c r="AV7" s="147"/>
+      <c r="AW7" s="147"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="150"/>
-      <c r="R8" s="151"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="152"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="152"/>
-      <c r="AE8" s="152"/>
-      <c r="AF8" s="152"/>
-      <c r="AG8" s="152"/>
-      <c r="AH8" s="152"/>
-      <c r="AI8" s="152"/>
-      <c r="AJ8" s="152"/>
-      <c r="AK8" s="152"/>
-      <c r="AL8" s="152"/>
-      <c r="AM8" s="152"/>
-      <c r="AN8" s="143"/>
-      <c r="AO8" s="143"/>
-      <c r="AP8" s="143"/>
-      <c r="AQ8" s="143"/>
-      <c r="AR8" s="143"/>
-      <c r="AS8" s="143"/>
-      <c r="AT8" s="143"/>
-      <c r="AU8" s="143"/>
-      <c r="AV8" s="143"/>
-      <c r="AW8" s="143"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="158"/>
+      <c r="W8" s="158"/>
+      <c r="X8" s="158"/>
+      <c r="Y8" s="158"/>
+      <c r="Z8" s="158"/>
+      <c r="AA8" s="158"/>
+      <c r="AB8" s="158"/>
+      <c r="AC8" s="158"/>
+      <c r="AD8" s="158"/>
+      <c r="AE8" s="158"/>
+      <c r="AF8" s="158"/>
+      <c r="AG8" s="158"/>
+      <c r="AH8" s="158"/>
+      <c r="AI8" s="158"/>
+      <c r="AJ8" s="158"/>
+      <c r="AK8" s="158"/>
+      <c r="AL8" s="158"/>
+      <c r="AM8" s="158"/>
+      <c r="AN8" s="147"/>
+      <c r="AO8" s="147"/>
+      <c r="AP8" s="147"/>
+      <c r="AQ8" s="147"/>
+      <c r="AR8" s="147"/>
+      <c r="AS8" s="147"/>
+      <c r="AT8" s="147"/>
+      <c r="AU8" s="147"/>
+      <c r="AV8" s="147"/>
+      <c r="AW8" s="147"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="152"/>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="152"/>
-      <c r="AC9" s="152"/>
-      <c r="AD9" s="152"/>
-      <c r="AE9" s="152"/>
-      <c r="AF9" s="152"/>
-      <c r="AG9" s="152"/>
-      <c r="AH9" s="152"/>
-      <c r="AI9" s="152"/>
-      <c r="AJ9" s="152"/>
-      <c r="AK9" s="152"/>
-      <c r="AL9" s="152"/>
-      <c r="AM9" s="152"/>
-      <c r="AN9" s="143"/>
-      <c r="AO9" s="143"/>
-      <c r="AP9" s="143"/>
-      <c r="AQ9" s="143"/>
-      <c r="AR9" s="143"/>
-      <c r="AS9" s="143"/>
-      <c r="AT9" s="143"/>
-      <c r="AU9" s="143"/>
-      <c r="AV9" s="143"/>
-      <c r="AW9" s="143"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="158"/>
+      <c r="W9" s="158"/>
+      <c r="X9" s="158"/>
+      <c r="Y9" s="158"/>
+      <c r="Z9" s="158"/>
+      <c r="AA9" s="158"/>
+      <c r="AB9" s="158"/>
+      <c r="AC9" s="158"/>
+      <c r="AD9" s="158"/>
+      <c r="AE9" s="158"/>
+      <c r="AF9" s="158"/>
+      <c r="AG9" s="158"/>
+      <c r="AH9" s="158"/>
+      <c r="AI9" s="158"/>
+      <c r="AJ9" s="158"/>
+      <c r="AK9" s="158"/>
+      <c r="AL9" s="158"/>
+      <c r="AM9" s="158"/>
+      <c r="AN9" s="147"/>
+      <c r="AO9" s="147"/>
+      <c r="AP9" s="147"/>
+      <c r="AQ9" s="147"/>
+      <c r="AR9" s="147"/>
+      <c r="AS9" s="147"/>
+      <c r="AT9" s="147"/>
+      <c r="AU9" s="147"/>
+      <c r="AV9" s="147"/>
+      <c r="AW9" s="147"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="150"/>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="152"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="152"/>
-      <c r="AE10" s="152"/>
-      <c r="AF10" s="152"/>
-      <c r="AG10" s="152"/>
-      <c r="AH10" s="152"/>
-      <c r="AI10" s="152"/>
-      <c r="AJ10" s="152"/>
-      <c r="AK10" s="152"/>
-      <c r="AL10" s="152"/>
-      <c r="AM10" s="152"/>
-      <c r="AN10" s="143"/>
-      <c r="AO10" s="143"/>
-      <c r="AP10" s="143"/>
-      <c r="AQ10" s="143"/>
-      <c r="AR10" s="143"/>
-      <c r="AS10" s="143"/>
-      <c r="AT10" s="143"/>
-      <c r="AU10" s="143"/>
-      <c r="AV10" s="143"/>
-      <c r="AW10" s="143"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="158"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="158"/>
+      <c r="Y10" s="158"/>
+      <c r="Z10" s="158"/>
+      <c r="AA10" s="158"/>
+      <c r="AB10" s="158"/>
+      <c r="AC10" s="158"/>
+      <c r="AD10" s="158"/>
+      <c r="AE10" s="158"/>
+      <c r="AF10" s="158"/>
+      <c r="AG10" s="158"/>
+      <c r="AH10" s="158"/>
+      <c r="AI10" s="158"/>
+      <c r="AJ10" s="158"/>
+      <c r="AK10" s="158"/>
+      <c r="AL10" s="158"/>
+      <c r="AM10" s="158"/>
+      <c r="AN10" s="147"/>
+      <c r="AO10" s="147"/>
+      <c r="AP10" s="147"/>
+      <c r="AQ10" s="147"/>
+      <c r="AR10" s="147"/>
+      <c r="AS10" s="147"/>
+      <c r="AT10" s="147"/>
+      <c r="AU10" s="147"/>
+      <c r="AV10" s="147"/>
+      <c r="AW10" s="147"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="159"/>
-      <c r="W11" s="165"/>
-      <c r="X11" s="165"/>
-      <c r="Y11" s="165"/>
-      <c r="Z11" s="165"/>
-      <c r="AA11" s="165"/>
-      <c r="AB11" s="165"/>
-      <c r="AC11" s="165"/>
-      <c r="AD11" s="165"/>
-      <c r="AE11" s="165"/>
-      <c r="AF11" s="165"/>
-      <c r="AG11" s="165"/>
-      <c r="AH11" s="165"/>
-      <c r="AI11" s="165"/>
-      <c r="AJ11" s="165"/>
-      <c r="AK11" s="165"/>
-      <c r="AL11" s="165"/>
-      <c r="AM11" s="166"/>
-      <c r="AN11" s="143"/>
-      <c r="AO11" s="143"/>
-      <c r="AP11" s="143"/>
-      <c r="AQ11" s="143"/>
-      <c r="AR11" s="143"/>
-      <c r="AS11" s="143"/>
-      <c r="AT11" s="143"/>
-      <c r="AU11" s="143"/>
-      <c r="AV11" s="143"/>
-      <c r="AW11" s="143"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="147"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="160"/>
+      <c r="X11" s="160"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="160"/>
+      <c r="AA11" s="160"/>
+      <c r="AB11" s="160"/>
+      <c r="AC11" s="160"/>
+      <c r="AD11" s="160"/>
+      <c r="AE11" s="160"/>
+      <c r="AF11" s="160"/>
+      <c r="AG11" s="160"/>
+      <c r="AH11" s="160"/>
+      <c r="AI11" s="160"/>
+      <c r="AJ11" s="160"/>
+      <c r="AK11" s="160"/>
+      <c r="AL11" s="160"/>
+      <c r="AM11" s="161"/>
+      <c r="AN11" s="147"/>
+      <c r="AO11" s="147"/>
+      <c r="AP11" s="147"/>
+      <c r="AQ11" s="147"/>
+      <c r="AR11" s="147"/>
+      <c r="AS11" s="147"/>
+      <c r="AT11" s="147"/>
+      <c r="AU11" s="147"/>
+      <c r="AV11" s="147"/>
+      <c r="AW11" s="147"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="157"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="158"/>
-      <c r="S12" s="143"/>
-      <c r="T12" s="143"/>
-      <c r="U12" s="143"/>
-      <c r="V12" s="159"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="160"/>
-      <c r="AA12" s="160"/>
-      <c r="AB12" s="160"/>
-      <c r="AC12" s="160"/>
-      <c r="AD12" s="160"/>
-      <c r="AE12" s="160"/>
-      <c r="AF12" s="160"/>
-      <c r="AG12" s="160"/>
-      <c r="AH12" s="160"/>
-      <c r="AI12" s="160"/>
-      <c r="AJ12" s="160"/>
-      <c r="AK12" s="160"/>
-      <c r="AL12" s="160"/>
-      <c r="AM12" s="161"/>
-      <c r="AN12" s="162"/>
-      <c r="AO12" s="163"/>
-      <c r="AP12" s="163"/>
-      <c r="AQ12" s="163"/>
-      <c r="AR12" s="164"/>
-      <c r="AS12" s="162"/>
-      <c r="AT12" s="163"/>
-      <c r="AU12" s="163"/>
-      <c r="AV12" s="163"/>
-      <c r="AW12" s="164"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="149"/>
+      <c r="AG12" s="149"/>
+      <c r="AH12" s="149"/>
+      <c r="AI12" s="149"/>
+      <c r="AJ12" s="149"/>
+      <c r="AK12" s="149"/>
+      <c r="AL12" s="149"/>
+      <c r="AM12" s="150"/>
+      <c r="AN12" s="134"/>
+      <c r="AO12" s="135"/>
+      <c r="AP12" s="135"/>
+      <c r="AQ12" s="135"/>
+      <c r="AR12" s="136"/>
+      <c r="AS12" s="134"/>
+      <c r="AT12" s="135"/>
+      <c r="AU12" s="135"/>
+      <c r="AV12" s="135"/>
+      <c r="AW12" s="136"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="158"/>
-      <c r="S13" s="143"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="143"/>
-      <c r="V13" s="159"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="160"/>
-      <c r="AA13" s="160"/>
-      <c r="AB13" s="160"/>
-      <c r="AC13" s="160"/>
-      <c r="AD13" s="160"/>
-      <c r="AE13" s="160"/>
-      <c r="AF13" s="160"/>
-      <c r="AG13" s="160"/>
-      <c r="AH13" s="160"/>
-      <c r="AI13" s="160"/>
-      <c r="AJ13" s="160"/>
-      <c r="AK13" s="160"/>
-      <c r="AL13" s="160"/>
-      <c r="AM13" s="161"/>
-      <c r="AN13" s="162"/>
-      <c r="AO13" s="163"/>
-      <c r="AP13" s="163"/>
-      <c r="AQ13" s="163"/>
-      <c r="AR13" s="164"/>
-      <c r="AS13" s="162"/>
-      <c r="AT13" s="163"/>
-      <c r="AU13" s="163"/>
-      <c r="AV13" s="163"/>
-      <c r="AW13" s="164"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="149"/>
+      <c r="AH13" s="149"/>
+      <c r="AI13" s="149"/>
+      <c r="AJ13" s="149"/>
+      <c r="AK13" s="149"/>
+      <c r="AL13" s="149"/>
+      <c r="AM13" s="150"/>
+      <c r="AN13" s="134"/>
+      <c r="AO13" s="135"/>
+      <c r="AP13" s="135"/>
+      <c r="AQ13" s="135"/>
+      <c r="AR13" s="136"/>
+      <c r="AS13" s="134"/>
+      <c r="AT13" s="135"/>
+      <c r="AU13" s="135"/>
+      <c r="AV13" s="135"/>
+      <c r="AW13" s="136"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="143"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="152"/>
-      <c r="X14" s="152"/>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="152"/>
-      <c r="AC14" s="152"/>
-      <c r="AD14" s="152"/>
-      <c r="AE14" s="152"/>
-      <c r="AF14" s="152"/>
-      <c r="AG14" s="152"/>
-      <c r="AH14" s="152"/>
-      <c r="AI14" s="152"/>
-      <c r="AJ14" s="152"/>
-      <c r="AK14" s="152"/>
-      <c r="AL14" s="152"/>
-      <c r="AM14" s="152"/>
-      <c r="AN14" s="143"/>
-      <c r="AO14" s="143"/>
-      <c r="AP14" s="143"/>
-      <c r="AQ14" s="143"/>
-      <c r="AR14" s="143"/>
-      <c r="AS14" s="162"/>
-      <c r="AT14" s="163"/>
-      <c r="AU14" s="163"/>
-      <c r="AV14" s="163"/>
-      <c r="AW14" s="164"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="157"/>
+      <c r="W14" s="158"/>
+      <c r="X14" s="158"/>
+      <c r="Y14" s="158"/>
+      <c r="Z14" s="158"/>
+      <c r="AA14" s="158"/>
+      <c r="AB14" s="158"/>
+      <c r="AC14" s="158"/>
+      <c r="AD14" s="158"/>
+      <c r="AE14" s="158"/>
+      <c r="AF14" s="158"/>
+      <c r="AG14" s="158"/>
+      <c r="AH14" s="158"/>
+      <c r="AI14" s="158"/>
+      <c r="AJ14" s="158"/>
+      <c r="AK14" s="158"/>
+      <c r="AL14" s="158"/>
+      <c r="AM14" s="158"/>
+      <c r="AN14" s="147"/>
+      <c r="AO14" s="147"/>
+      <c r="AP14" s="147"/>
+      <c r="AQ14" s="147"/>
+      <c r="AR14" s="147"/>
+      <c r="AS14" s="134"/>
+      <c r="AT14" s="135"/>
+      <c r="AU14" s="135"/>
+      <c r="AV14" s="135"/>
+      <c r="AW14" s="136"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="157"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="158"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="159"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="160"/>
-      <c r="AC15" s="160"/>
-      <c r="AD15" s="160"/>
-      <c r="AE15" s="160"/>
-      <c r="AF15" s="160"/>
-      <c r="AG15" s="160"/>
-      <c r="AH15" s="160"/>
-      <c r="AI15" s="160"/>
-      <c r="AJ15" s="160"/>
-      <c r="AK15" s="160"/>
-      <c r="AL15" s="160"/>
-      <c r="AM15" s="161"/>
-      <c r="AN15" s="162"/>
-      <c r="AO15" s="163"/>
-      <c r="AP15" s="163"/>
-      <c r="AQ15" s="163"/>
-      <c r="AR15" s="164"/>
-      <c r="AS15" s="162"/>
-      <c r="AT15" s="163"/>
-      <c r="AU15" s="163"/>
-      <c r="AV15" s="163"/>
-      <c r="AW15" s="164"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="149"/>
+      <c r="Z15" s="149"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="149"/>
+      <c r="AH15" s="149"/>
+      <c r="AI15" s="149"/>
+      <c r="AJ15" s="149"/>
+      <c r="AK15" s="149"/>
+      <c r="AL15" s="149"/>
+      <c r="AM15" s="150"/>
+      <c r="AN15" s="134"/>
+      <c r="AO15" s="135"/>
+      <c r="AP15" s="135"/>
+      <c r="AQ15" s="135"/>
+      <c r="AR15" s="136"/>
+      <c r="AS15" s="134"/>
+      <c r="AT15" s="135"/>
+      <c r="AU15" s="135"/>
+      <c r="AV15" s="135"/>
+      <c r="AW15" s="136"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="157"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="143"/>
-      <c r="T16" s="143"/>
-      <c r="U16" s="143"/>
-      <c r="V16" s="159"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="160"/>
-      <c r="AB16" s="160"/>
-      <c r="AC16" s="160"/>
-      <c r="AD16" s="160"/>
-      <c r="AE16" s="160"/>
-      <c r="AF16" s="160"/>
-      <c r="AG16" s="160"/>
-      <c r="AH16" s="160"/>
-      <c r="AI16" s="160"/>
-      <c r="AJ16" s="160"/>
-      <c r="AK16" s="160"/>
-      <c r="AL16" s="160"/>
-      <c r="AM16" s="161"/>
-      <c r="AN16" s="162"/>
-      <c r="AO16" s="163"/>
-      <c r="AP16" s="163"/>
-      <c r="AQ16" s="163"/>
-      <c r="AR16" s="164"/>
-      <c r="AS16" s="162"/>
-      <c r="AT16" s="163"/>
-      <c r="AU16" s="163"/>
-      <c r="AV16" s="163"/>
-      <c r="AW16" s="164"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="147"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="149"/>
+      <c r="Z16" s="149"/>
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="149"/>
+      <c r="AG16" s="149"/>
+      <c r="AH16" s="149"/>
+      <c r="AI16" s="149"/>
+      <c r="AJ16" s="149"/>
+      <c r="AK16" s="149"/>
+      <c r="AL16" s="149"/>
+      <c r="AM16" s="150"/>
+      <c r="AN16" s="134"/>
+      <c r="AO16" s="135"/>
+      <c r="AP16" s="135"/>
+      <c r="AQ16" s="135"/>
+      <c r="AR16" s="136"/>
+      <c r="AS16" s="134"/>
+      <c r="AT16" s="135"/>
+      <c r="AU16" s="135"/>
+      <c r="AV16" s="135"/>
+      <c r="AW16" s="136"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="169"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="170"/>
-      <c r="U17" s="170"/>
-      <c r="V17" s="159"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="160"/>
-      <c r="AB17" s="160"/>
-      <c r="AC17" s="160"/>
-      <c r="AD17" s="160"/>
-      <c r="AE17" s="160"/>
-      <c r="AF17" s="160"/>
-      <c r="AG17" s="160"/>
-      <c r="AH17" s="160"/>
-      <c r="AI17" s="160"/>
-      <c r="AJ17" s="160"/>
-      <c r="AK17" s="160"/>
-      <c r="AL17" s="160"/>
-      <c r="AM17" s="161"/>
-      <c r="AN17" s="162"/>
-      <c r="AO17" s="163"/>
-      <c r="AP17" s="163"/>
-      <c r="AQ17" s="163"/>
-      <c r="AR17" s="164"/>
-      <c r="AS17" s="162"/>
-      <c r="AT17" s="163"/>
-      <c r="AU17" s="163"/>
-      <c r="AV17" s="163"/>
-      <c r="AW17" s="164"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="155"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="149"/>
+      <c r="Y17" s="149"/>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="149"/>
+      <c r="AH17" s="149"/>
+      <c r="AI17" s="149"/>
+      <c r="AJ17" s="149"/>
+      <c r="AK17" s="149"/>
+      <c r="AL17" s="149"/>
+      <c r="AM17" s="150"/>
+      <c r="AN17" s="134"/>
+      <c r="AO17" s="135"/>
+      <c r="AP17" s="135"/>
+      <c r="AQ17" s="135"/>
+      <c r="AR17" s="136"/>
+      <c r="AS17" s="134"/>
+      <c r="AT17" s="135"/>
+      <c r="AU17" s="135"/>
+      <c r="AV17" s="135"/>
+      <c r="AW17" s="136"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="157"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="143"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="159"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="160"/>
-      <c r="Y18" s="160"/>
-      <c r="Z18" s="160"/>
-      <c r="AA18" s="160"/>
-      <c r="AB18" s="160"/>
-      <c r="AC18" s="160"/>
-      <c r="AD18" s="160"/>
-      <c r="AE18" s="160"/>
-      <c r="AF18" s="160"/>
-      <c r="AG18" s="160"/>
-      <c r="AH18" s="160"/>
-      <c r="AI18" s="160"/>
-      <c r="AJ18" s="160"/>
-      <c r="AK18" s="160"/>
-      <c r="AL18" s="160"/>
-      <c r="AM18" s="161"/>
-      <c r="AN18" s="162"/>
-      <c r="AO18" s="163"/>
-      <c r="AP18" s="163"/>
-      <c r="AQ18" s="163"/>
-      <c r="AR18" s="164"/>
-      <c r="AS18" s="162"/>
-      <c r="AT18" s="163"/>
-      <c r="AU18" s="163"/>
-      <c r="AV18" s="163"/>
-      <c r="AW18" s="164"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="149"/>
+      <c r="Z18" s="149"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="149"/>
+      <c r="AC18" s="149"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="149"/>
+      <c r="AG18" s="149"/>
+      <c r="AH18" s="149"/>
+      <c r="AI18" s="149"/>
+      <c r="AJ18" s="149"/>
+      <c r="AK18" s="149"/>
+      <c r="AL18" s="149"/>
+      <c r="AM18" s="150"/>
+      <c r="AN18" s="134"/>
+      <c r="AO18" s="135"/>
+      <c r="AP18" s="135"/>
+      <c r="AQ18" s="135"/>
+      <c r="AR18" s="136"/>
+      <c r="AS18" s="134"/>
+      <c r="AT18" s="135"/>
+      <c r="AU18" s="135"/>
+      <c r="AV18" s="135"/>
+      <c r="AW18" s="136"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="158"/>
-      <c r="S19" s="143"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="143"/>
-      <c r="V19" s="159"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="160"/>
-      <c r="Y19" s="160"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="160"/>
-      <c r="AB19" s="160"/>
-      <c r="AC19" s="160"/>
-      <c r="AD19" s="160"/>
-      <c r="AE19" s="160"/>
-      <c r="AF19" s="160"/>
-      <c r="AG19" s="160"/>
-      <c r="AH19" s="160"/>
-      <c r="AI19" s="160"/>
-      <c r="AJ19" s="160"/>
-      <c r="AK19" s="160"/>
-      <c r="AL19" s="160"/>
-      <c r="AM19" s="161"/>
-      <c r="AN19" s="143"/>
-      <c r="AO19" s="143"/>
-      <c r="AP19" s="143"/>
-      <c r="AQ19" s="143"/>
-      <c r="AR19" s="143"/>
-      <c r="AS19" s="162"/>
-      <c r="AT19" s="163"/>
-      <c r="AU19" s="163"/>
-      <c r="AV19" s="163"/>
-      <c r="AW19" s="164"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="149"/>
+      <c r="X19" s="149"/>
+      <c r="Y19" s="149"/>
+      <c r="Z19" s="149"/>
+      <c r="AA19" s="149"/>
+      <c r="AB19" s="149"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="149"/>
+      <c r="AG19" s="149"/>
+      <c r="AH19" s="149"/>
+      <c r="AI19" s="149"/>
+      <c r="AJ19" s="149"/>
+      <c r="AK19" s="149"/>
+      <c r="AL19" s="149"/>
+      <c r="AM19" s="150"/>
+      <c r="AN19" s="147"/>
+      <c r="AO19" s="147"/>
+      <c r="AP19" s="147"/>
+      <c r="AQ19" s="147"/>
+      <c r="AR19" s="147"/>
+      <c r="AS19" s="134"/>
+      <c r="AT19" s="135"/>
+      <c r="AU19" s="135"/>
+      <c r="AV19" s="135"/>
+      <c r="AW19" s="136"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="157"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="158"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="163"/>
-      <c r="U20" s="164"/>
-      <c r="V20" s="159"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="160"/>
-      <c r="AA20" s="160"/>
-      <c r="AB20" s="160"/>
-      <c r="AC20" s="160"/>
-      <c r="AD20" s="160"/>
-      <c r="AE20" s="160"/>
-      <c r="AF20" s="160"/>
-      <c r="AG20" s="160"/>
-      <c r="AH20" s="160"/>
-      <c r="AI20" s="160"/>
-      <c r="AJ20" s="160"/>
-      <c r="AK20" s="160"/>
-      <c r="AL20" s="160"/>
-      <c r="AM20" s="161"/>
-      <c r="AN20" s="162"/>
-      <c r="AO20" s="163"/>
-      <c r="AP20" s="163"/>
-      <c r="AQ20" s="163"/>
-      <c r="AR20" s="164"/>
-      <c r="AS20" s="162"/>
-      <c r="AT20" s="163"/>
-      <c r="AU20" s="163"/>
-      <c r="AV20" s="163"/>
-      <c r="AW20" s="164"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="136"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="149"/>
+      <c r="Z20" s="149"/>
+      <c r="AA20" s="149"/>
+      <c r="AB20" s="149"/>
+      <c r="AC20" s="149"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="149"/>
+      <c r="AF20" s="149"/>
+      <c r="AG20" s="149"/>
+      <c r="AH20" s="149"/>
+      <c r="AI20" s="149"/>
+      <c r="AJ20" s="149"/>
+      <c r="AK20" s="149"/>
+      <c r="AL20" s="149"/>
+      <c r="AM20" s="150"/>
+      <c r="AN20" s="134"/>
+      <c r="AO20" s="135"/>
+      <c r="AP20" s="135"/>
+      <c r="AQ20" s="135"/>
+      <c r="AR20" s="136"/>
+      <c r="AS20" s="134"/>
+      <c r="AT20" s="135"/>
+      <c r="AU20" s="135"/>
+      <c r="AV20" s="135"/>
+      <c r="AW20" s="136"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="157"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="158"/>
-      <c r="S21" s="143"/>
-      <c r="T21" s="143"/>
-      <c r="U21" s="143"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="160"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="160"/>
-      <c r="AA21" s="160"/>
-      <c r="AB21" s="160"/>
-      <c r="AC21" s="160"/>
-      <c r="AD21" s="160"/>
-      <c r="AE21" s="160"/>
-      <c r="AF21" s="160"/>
-      <c r="AG21" s="160"/>
-      <c r="AH21" s="160"/>
-      <c r="AI21" s="160"/>
-      <c r="AJ21" s="160"/>
-      <c r="AK21" s="160"/>
-      <c r="AL21" s="160"/>
-      <c r="AM21" s="161"/>
-      <c r="AN21" s="162"/>
-      <c r="AO21" s="163"/>
-      <c r="AP21" s="163"/>
-      <c r="AQ21" s="163"/>
-      <c r="AR21" s="164"/>
-      <c r="AS21" s="162"/>
-      <c r="AT21" s="163"/>
-      <c r="AU21" s="163"/>
-      <c r="AV21" s="163"/>
-      <c r="AW21" s="164"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="149"/>
+      <c r="X21" s="149"/>
+      <c r="Y21" s="149"/>
+      <c r="Z21" s="149"/>
+      <c r="AA21" s="149"/>
+      <c r="AB21" s="149"/>
+      <c r="AC21" s="149"/>
+      <c r="AD21" s="149"/>
+      <c r="AE21" s="149"/>
+      <c r="AF21" s="149"/>
+      <c r="AG21" s="149"/>
+      <c r="AH21" s="149"/>
+      <c r="AI21" s="149"/>
+      <c r="AJ21" s="149"/>
+      <c r="AK21" s="149"/>
+      <c r="AL21" s="149"/>
+      <c r="AM21" s="150"/>
+      <c r="AN21" s="134"/>
+      <c r="AO21" s="135"/>
+      <c r="AP21" s="135"/>
+      <c r="AQ21" s="135"/>
+      <c r="AR21" s="136"/>
+      <c r="AS21" s="134"/>
+      <c r="AT21" s="135"/>
+      <c r="AU21" s="135"/>
+      <c r="AV21" s="135"/>
+      <c r="AW21" s="136"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="158"/>
-      <c r="S22" s="143"/>
-      <c r="T22" s="143"/>
-      <c r="U22" s="143"/>
-      <c r="V22" s="159"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="160"/>
-      <c r="AB22" s="160"/>
-      <c r="AC22" s="160"/>
-      <c r="AD22" s="160"/>
-      <c r="AE22" s="160"/>
-      <c r="AF22" s="160"/>
-      <c r="AG22" s="160"/>
-      <c r="AH22" s="160"/>
-      <c r="AI22" s="160"/>
-      <c r="AJ22" s="160"/>
-      <c r="AK22" s="160"/>
-      <c r="AL22" s="160"/>
-      <c r="AM22" s="161"/>
-      <c r="AN22" s="162"/>
-      <c r="AO22" s="163"/>
-      <c r="AP22" s="163"/>
-      <c r="AQ22" s="163"/>
-      <c r="AR22" s="164"/>
-      <c r="AS22" s="162"/>
-      <c r="AT22" s="163"/>
-      <c r="AU22" s="163"/>
-      <c r="AV22" s="163"/>
-      <c r="AW22" s="164"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147"/>
+      <c r="U22" s="147"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="149"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="149"/>
+      <c r="Z22" s="149"/>
+      <c r="AA22" s="149"/>
+      <c r="AB22" s="149"/>
+      <c r="AC22" s="149"/>
+      <c r="AD22" s="149"/>
+      <c r="AE22" s="149"/>
+      <c r="AF22" s="149"/>
+      <c r="AG22" s="149"/>
+      <c r="AH22" s="149"/>
+      <c r="AI22" s="149"/>
+      <c r="AJ22" s="149"/>
+      <c r="AK22" s="149"/>
+      <c r="AL22" s="149"/>
+      <c r="AM22" s="150"/>
+      <c r="AN22" s="134"/>
+      <c r="AO22" s="135"/>
+      <c r="AP22" s="135"/>
+      <c r="AQ22" s="135"/>
+      <c r="AR22" s="136"/>
+      <c r="AS22" s="134"/>
+      <c r="AT22" s="135"/>
+      <c r="AU22" s="135"/>
+      <c r="AV22" s="135"/>
+      <c r="AW22" s="136"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="157"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="143"/>
-      <c r="T23" s="143"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="159"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="160"/>
-      <c r="AB23" s="160"/>
-      <c r="AC23" s="160"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="160"/>
-      <c r="AF23" s="160"/>
-      <c r="AG23" s="160"/>
-      <c r="AH23" s="160"/>
-      <c r="AI23" s="160"/>
-      <c r="AJ23" s="160"/>
-      <c r="AK23" s="160"/>
-      <c r="AL23" s="160"/>
-      <c r="AM23" s="161"/>
-      <c r="AN23" s="162"/>
-      <c r="AO23" s="163"/>
-      <c r="AP23" s="163"/>
-      <c r="AQ23" s="163"/>
-      <c r="AR23" s="164"/>
-      <c r="AS23" s="162"/>
-      <c r="AT23" s="163"/>
-      <c r="AU23" s="163"/>
-      <c r="AV23" s="163"/>
-      <c r="AW23" s="164"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="147"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="149"/>
+      <c r="Y23" s="149"/>
+      <c r="Z23" s="149"/>
+      <c r="AA23" s="149"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="149"/>
+      <c r="AD23" s="149"/>
+      <c r="AE23" s="149"/>
+      <c r="AF23" s="149"/>
+      <c r="AG23" s="149"/>
+      <c r="AH23" s="149"/>
+      <c r="AI23" s="149"/>
+      <c r="AJ23" s="149"/>
+      <c r="AK23" s="149"/>
+      <c r="AL23" s="149"/>
+      <c r="AM23" s="150"/>
+      <c r="AN23" s="134"/>
+      <c r="AO23" s="135"/>
+      <c r="AP23" s="135"/>
+      <c r="AQ23" s="135"/>
+      <c r="AR23" s="136"/>
+      <c r="AS23" s="134"/>
+      <c r="AT23" s="135"/>
+      <c r="AU23" s="135"/>
+      <c r="AV23" s="135"/>
+      <c r="AW23" s="136"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="157"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="143"/>
-      <c r="T24" s="143"/>
-      <c r="U24" s="143"/>
-      <c r="V24" s="159"/>
-      <c r="W24" s="160"/>
-      <c r="X24" s="160"/>
-      <c r="Y24" s="160"/>
-      <c r="Z24" s="160"/>
-      <c r="AA24" s="160"/>
-      <c r="AB24" s="160"/>
-      <c r="AC24" s="160"/>
-      <c r="AD24" s="160"/>
-      <c r="AE24" s="160"/>
-      <c r="AF24" s="160"/>
-      <c r="AG24" s="160"/>
-      <c r="AH24" s="160"/>
-      <c r="AI24" s="160"/>
-      <c r="AJ24" s="160"/>
-      <c r="AK24" s="160"/>
-      <c r="AL24" s="160"/>
-      <c r="AM24" s="161"/>
-      <c r="AN24" s="162"/>
-      <c r="AO24" s="163"/>
-      <c r="AP24" s="163"/>
-      <c r="AQ24" s="163"/>
-      <c r="AR24" s="164"/>
-      <c r="AS24" s="162"/>
-      <c r="AT24" s="163"/>
-      <c r="AU24" s="163"/>
-      <c r="AV24" s="163"/>
-      <c r="AW24" s="164"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="149"/>
+      <c r="X24" s="149"/>
+      <c r="Y24" s="149"/>
+      <c r="Z24" s="149"/>
+      <c r="AA24" s="149"/>
+      <c r="AB24" s="149"/>
+      <c r="AC24" s="149"/>
+      <c r="AD24" s="149"/>
+      <c r="AE24" s="149"/>
+      <c r="AF24" s="149"/>
+      <c r="AG24" s="149"/>
+      <c r="AH24" s="149"/>
+      <c r="AI24" s="149"/>
+      <c r="AJ24" s="149"/>
+      <c r="AK24" s="149"/>
+      <c r="AL24" s="149"/>
+      <c r="AM24" s="150"/>
+      <c r="AN24" s="134"/>
+      <c r="AO24" s="135"/>
+      <c r="AP24" s="135"/>
+      <c r="AQ24" s="135"/>
+      <c r="AR24" s="136"/>
+      <c r="AS24" s="134"/>
+      <c r="AT24" s="135"/>
+      <c r="AU24" s="135"/>
+      <c r="AV24" s="135"/>
+      <c r="AW24" s="136"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="167"/>
-      <c r="N25" s="157"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="157"/>
-      <c r="Q25" s="157"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="143"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="159"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
-      <c r="Y25" s="160"/>
-      <c r="Z25" s="160"/>
-      <c r="AA25" s="160"/>
-      <c r="AB25" s="160"/>
-      <c r="AC25" s="160"/>
-      <c r="AD25" s="160"/>
-      <c r="AE25" s="160"/>
-      <c r="AF25" s="160"/>
-      <c r="AG25" s="160"/>
-      <c r="AH25" s="160"/>
-      <c r="AI25" s="160"/>
-      <c r="AJ25" s="160"/>
-      <c r="AK25" s="160"/>
-      <c r="AL25" s="160"/>
-      <c r="AM25" s="161"/>
-      <c r="AN25" s="162"/>
-      <c r="AO25" s="163"/>
-      <c r="AP25" s="163"/>
-      <c r="AQ25" s="163"/>
-      <c r="AR25" s="164"/>
-      <c r="AS25" s="162"/>
-      <c r="AT25" s="163"/>
-      <c r="AU25" s="163"/>
-      <c r="AV25" s="163"/>
-      <c r="AW25" s="164"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="152"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="149"/>
+      <c r="X25" s="149"/>
+      <c r="Y25" s="149"/>
+      <c r="Z25" s="149"/>
+      <c r="AA25" s="149"/>
+      <c r="AB25" s="149"/>
+      <c r="AC25" s="149"/>
+      <c r="AD25" s="149"/>
+      <c r="AE25" s="149"/>
+      <c r="AF25" s="149"/>
+      <c r="AG25" s="149"/>
+      <c r="AH25" s="149"/>
+      <c r="AI25" s="149"/>
+      <c r="AJ25" s="149"/>
+      <c r="AK25" s="149"/>
+      <c r="AL25" s="149"/>
+      <c r="AM25" s="150"/>
+      <c r="AN25" s="134"/>
+      <c r="AO25" s="135"/>
+      <c r="AP25" s="135"/>
+      <c r="AQ25" s="135"/>
+      <c r="AR25" s="136"/>
+      <c r="AS25" s="134"/>
+      <c r="AT25" s="135"/>
+      <c r="AU25" s="135"/>
+      <c r="AV25" s="135"/>
+      <c r="AW25" s="136"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="157"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="143"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="160"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="160"/>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="160"/>
-      <c r="AB26" s="160"/>
-      <c r="AC26" s="160"/>
-      <c r="AD26" s="160"/>
-      <c r="AE26" s="160"/>
-      <c r="AF26" s="160"/>
-      <c r="AG26" s="160"/>
-      <c r="AH26" s="160"/>
-      <c r="AI26" s="160"/>
-      <c r="AJ26" s="160"/>
-      <c r="AK26" s="160"/>
-      <c r="AL26" s="160"/>
-      <c r="AM26" s="161"/>
-      <c r="AN26" s="162"/>
-      <c r="AO26" s="163"/>
-      <c r="AP26" s="163"/>
-      <c r="AQ26" s="163"/>
-      <c r="AR26" s="164"/>
-      <c r="AS26" s="162"/>
-      <c r="AT26" s="163"/>
-      <c r="AU26" s="163"/>
-      <c r="AV26" s="163"/>
-      <c r="AW26" s="164"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="148"/>
+      <c r="W26" s="149"/>
+      <c r="X26" s="149"/>
+      <c r="Y26" s="149"/>
+      <c r="Z26" s="149"/>
+      <c r="AA26" s="149"/>
+      <c r="AB26" s="149"/>
+      <c r="AC26" s="149"/>
+      <c r="AD26" s="149"/>
+      <c r="AE26" s="149"/>
+      <c r="AF26" s="149"/>
+      <c r="AG26" s="149"/>
+      <c r="AH26" s="149"/>
+      <c r="AI26" s="149"/>
+      <c r="AJ26" s="149"/>
+      <c r="AK26" s="149"/>
+      <c r="AL26" s="149"/>
+      <c r="AM26" s="150"/>
+      <c r="AN26" s="134"/>
+      <c r="AO26" s="135"/>
+      <c r="AP26" s="135"/>
+      <c r="AQ26" s="135"/>
+      <c r="AR26" s="136"/>
+      <c r="AS26" s="134"/>
+      <c r="AT26" s="135"/>
+      <c r="AU26" s="135"/>
+      <c r="AV26" s="135"/>
+      <c r="AW26" s="136"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="157"/>
-      <c r="P27" s="157"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="160"/>
-      <c r="X27" s="160"/>
-      <c r="Y27" s="160"/>
-      <c r="Z27" s="160"/>
-      <c r="AA27" s="160"/>
-      <c r="AB27" s="160"/>
-      <c r="AC27" s="160"/>
-      <c r="AD27" s="160"/>
-      <c r="AE27" s="160"/>
-      <c r="AF27" s="160"/>
-      <c r="AG27" s="160"/>
-      <c r="AH27" s="160"/>
-      <c r="AI27" s="160"/>
-      <c r="AJ27" s="160"/>
-      <c r="AK27" s="160"/>
-      <c r="AL27" s="160"/>
-      <c r="AM27" s="161"/>
-      <c r="AN27" s="162"/>
-      <c r="AO27" s="163"/>
-      <c r="AP27" s="163"/>
-      <c r="AQ27" s="163"/>
-      <c r="AR27" s="164"/>
-      <c r="AS27" s="162"/>
-      <c r="AT27" s="163"/>
-      <c r="AU27" s="163"/>
-      <c r="AV27" s="163"/>
-      <c r="AW27" s="164"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="148"/>
+      <c r="W27" s="149"/>
+      <c r="X27" s="149"/>
+      <c r="Y27" s="149"/>
+      <c r="Z27" s="149"/>
+      <c r="AA27" s="149"/>
+      <c r="AB27" s="149"/>
+      <c r="AC27" s="149"/>
+      <c r="AD27" s="149"/>
+      <c r="AE27" s="149"/>
+      <c r="AF27" s="149"/>
+      <c r="AG27" s="149"/>
+      <c r="AH27" s="149"/>
+      <c r="AI27" s="149"/>
+      <c r="AJ27" s="149"/>
+      <c r="AK27" s="149"/>
+      <c r="AL27" s="149"/>
+      <c r="AM27" s="150"/>
+      <c r="AN27" s="134"/>
+      <c r="AO27" s="135"/>
+      <c r="AP27" s="135"/>
+      <c r="AQ27" s="135"/>
+      <c r="AR27" s="136"/>
+      <c r="AS27" s="134"/>
+      <c r="AT27" s="135"/>
+      <c r="AU27" s="135"/>
+      <c r="AV27" s="135"/>
+      <c r="AW27" s="136"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="157"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="143"/>
-      <c r="T28" s="143"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="160"/>
-      <c r="X28" s="160"/>
-      <c r="Y28" s="160"/>
-      <c r="Z28" s="160"/>
-      <c r="AA28" s="160"/>
-      <c r="AB28" s="160"/>
-      <c r="AC28" s="160"/>
-      <c r="AD28" s="160"/>
-      <c r="AE28" s="160"/>
-      <c r="AF28" s="160"/>
-      <c r="AG28" s="160"/>
-      <c r="AH28" s="160"/>
-      <c r="AI28" s="160"/>
-      <c r="AJ28" s="160"/>
-      <c r="AK28" s="160"/>
-      <c r="AL28" s="160"/>
-      <c r="AM28" s="161"/>
-      <c r="AN28" s="162"/>
-      <c r="AO28" s="163"/>
-      <c r="AP28" s="163"/>
-      <c r="AQ28" s="163"/>
-      <c r="AR28" s="164"/>
-      <c r="AS28" s="162"/>
-      <c r="AT28" s="163"/>
-      <c r="AU28" s="163"/>
-      <c r="AV28" s="163"/>
-      <c r="AW28" s="164"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="152"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="147"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="149"/>
+      <c r="X28" s="149"/>
+      <c r="Y28" s="149"/>
+      <c r="Z28" s="149"/>
+      <c r="AA28" s="149"/>
+      <c r="AB28" s="149"/>
+      <c r="AC28" s="149"/>
+      <c r="AD28" s="149"/>
+      <c r="AE28" s="149"/>
+      <c r="AF28" s="149"/>
+      <c r="AG28" s="149"/>
+      <c r="AH28" s="149"/>
+      <c r="AI28" s="149"/>
+      <c r="AJ28" s="149"/>
+      <c r="AK28" s="149"/>
+      <c r="AL28" s="149"/>
+      <c r="AM28" s="150"/>
+      <c r="AN28" s="134"/>
+      <c r="AO28" s="135"/>
+      <c r="AP28" s="135"/>
+      <c r="AQ28" s="135"/>
+      <c r="AR28" s="136"/>
+      <c r="AS28" s="134"/>
+      <c r="AT28" s="135"/>
+      <c r="AU28" s="135"/>
+      <c r="AV28" s="135"/>
+      <c r="AW28" s="136"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="158"/>
-      <c r="S29" s="143"/>
-      <c r="T29" s="143"/>
-      <c r="U29" s="143"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="160"/>
-      <c r="X29" s="160"/>
-      <c r="Y29" s="160"/>
-      <c r="Z29" s="160"/>
-      <c r="AA29" s="160"/>
-      <c r="AB29" s="160"/>
-      <c r="AC29" s="160"/>
-      <c r="AD29" s="160"/>
-      <c r="AE29" s="160"/>
-      <c r="AF29" s="160"/>
-      <c r="AG29" s="160"/>
-      <c r="AH29" s="160"/>
-      <c r="AI29" s="160"/>
-      <c r="AJ29" s="160"/>
-      <c r="AK29" s="160"/>
-      <c r="AL29" s="160"/>
-      <c r="AM29" s="161"/>
-      <c r="AN29" s="162"/>
-      <c r="AO29" s="163"/>
-      <c r="AP29" s="163"/>
-      <c r="AQ29" s="163"/>
-      <c r="AR29" s="164"/>
-      <c r="AS29" s="162"/>
-      <c r="AT29" s="163"/>
-      <c r="AU29" s="163"/>
-      <c r="AV29" s="163"/>
-      <c r="AW29" s="164"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="149"/>
+      <c r="X29" s="149"/>
+      <c r="Y29" s="149"/>
+      <c r="Z29" s="149"/>
+      <c r="AA29" s="149"/>
+      <c r="AB29" s="149"/>
+      <c r="AC29" s="149"/>
+      <c r="AD29" s="149"/>
+      <c r="AE29" s="149"/>
+      <c r="AF29" s="149"/>
+      <c r="AG29" s="149"/>
+      <c r="AH29" s="149"/>
+      <c r="AI29" s="149"/>
+      <c r="AJ29" s="149"/>
+      <c r="AK29" s="149"/>
+      <c r="AL29" s="149"/>
+      <c r="AM29" s="150"/>
+      <c r="AN29" s="134"/>
+      <c r="AO29" s="135"/>
+      <c r="AP29" s="135"/>
+      <c r="AQ29" s="135"/>
+      <c r="AR29" s="136"/>
+      <c r="AS29" s="134"/>
+      <c r="AT29" s="135"/>
+      <c r="AU29" s="135"/>
+      <c r="AV29" s="135"/>
+      <c r="AW29" s="136"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="167"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="157"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="158"/>
-      <c r="S30" s="143"/>
-      <c r="T30" s="143"/>
-      <c r="U30" s="143"/>
-      <c r="V30" s="159"/>
-      <c r="W30" s="160"/>
-      <c r="X30" s="160"/>
-      <c r="Y30" s="160"/>
-      <c r="Z30" s="160"/>
-      <c r="AA30" s="160"/>
-      <c r="AB30" s="160"/>
-      <c r="AC30" s="160"/>
-      <c r="AD30" s="160"/>
-      <c r="AE30" s="160"/>
-      <c r="AF30" s="160"/>
-      <c r="AG30" s="160"/>
-      <c r="AH30" s="160"/>
-      <c r="AI30" s="160"/>
-      <c r="AJ30" s="160"/>
-      <c r="AK30" s="160"/>
-      <c r="AL30" s="160"/>
-      <c r="AM30" s="161"/>
-      <c r="AN30" s="162"/>
-      <c r="AO30" s="163"/>
-      <c r="AP30" s="163"/>
-      <c r="AQ30" s="163"/>
-      <c r="AR30" s="164"/>
-      <c r="AS30" s="162"/>
-      <c r="AT30" s="163"/>
-      <c r="AU30" s="163"/>
-      <c r="AV30" s="163"/>
-      <c r="AW30" s="164"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="147"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="148"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="149"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="149"/>
+      <c r="AC30" s="149"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="149"/>
+      <c r="AF30" s="149"/>
+      <c r="AG30" s="149"/>
+      <c r="AH30" s="149"/>
+      <c r="AI30" s="149"/>
+      <c r="AJ30" s="149"/>
+      <c r="AK30" s="149"/>
+      <c r="AL30" s="149"/>
+      <c r="AM30" s="150"/>
+      <c r="AN30" s="134"/>
+      <c r="AO30" s="135"/>
+      <c r="AP30" s="135"/>
+      <c r="AQ30" s="135"/>
+      <c r="AR30" s="136"/>
+      <c r="AS30" s="134"/>
+      <c r="AT30" s="135"/>
+      <c r="AU30" s="135"/>
+      <c r="AV30" s="135"/>
+      <c r="AW30" s="136"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="167"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="143"/>
-      <c r="T31" s="143"/>
-      <c r="U31" s="143"/>
-      <c r="V31" s="159"/>
-      <c r="W31" s="160"/>
-      <c r="X31" s="160"/>
-      <c r="Y31" s="160"/>
-      <c r="Z31" s="160"/>
-      <c r="AA31" s="160"/>
-      <c r="AB31" s="160"/>
-      <c r="AC31" s="160"/>
-      <c r="AD31" s="160"/>
-      <c r="AE31" s="160"/>
-      <c r="AF31" s="160"/>
-      <c r="AG31" s="160"/>
-      <c r="AH31" s="160"/>
-      <c r="AI31" s="160"/>
-      <c r="AJ31" s="160"/>
-      <c r="AK31" s="160"/>
-      <c r="AL31" s="160"/>
-      <c r="AM31" s="161"/>
-      <c r="AN31" s="162"/>
-      <c r="AO31" s="163"/>
-      <c r="AP31" s="163"/>
-      <c r="AQ31" s="163"/>
-      <c r="AR31" s="164"/>
-      <c r="AS31" s="162"/>
-      <c r="AT31" s="163"/>
-      <c r="AU31" s="163"/>
-      <c r="AV31" s="163"/>
-      <c r="AW31" s="164"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="148"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="149"/>
+      <c r="Z31" s="149"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="149"/>
+      <c r="AC31" s="149"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="149"/>
+      <c r="AG31" s="149"/>
+      <c r="AH31" s="149"/>
+      <c r="AI31" s="149"/>
+      <c r="AJ31" s="149"/>
+      <c r="AK31" s="149"/>
+      <c r="AL31" s="149"/>
+      <c r="AM31" s="150"/>
+      <c r="AN31" s="134"/>
+      <c r="AO31" s="135"/>
+      <c r="AP31" s="135"/>
+      <c r="AQ31" s="135"/>
+      <c r="AR31" s="136"/>
+      <c r="AS31" s="134"/>
+      <c r="AT31" s="135"/>
+      <c r="AU31" s="135"/>
+      <c r="AV31" s="135"/>
+      <c r="AW31" s="136"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="167"/>
-      <c r="N32" s="157"/>
-      <c r="O32" s="157"/>
-      <c r="P32" s="157"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="158"/>
-      <c r="S32" s="143"/>
-      <c r="T32" s="143"/>
-      <c r="U32" s="143"/>
-      <c r="V32" s="159"/>
-      <c r="W32" s="160"/>
-      <c r="X32" s="160"/>
-      <c r="Y32" s="160"/>
-      <c r="Z32" s="160"/>
-      <c r="AA32" s="160"/>
-      <c r="AB32" s="160"/>
-      <c r="AC32" s="160"/>
-      <c r="AD32" s="160"/>
-      <c r="AE32" s="160"/>
-      <c r="AF32" s="160"/>
-      <c r="AG32" s="160"/>
-      <c r="AH32" s="160"/>
-      <c r="AI32" s="160"/>
-      <c r="AJ32" s="160"/>
-      <c r="AK32" s="160"/>
-      <c r="AL32" s="160"/>
-      <c r="AM32" s="161"/>
-      <c r="AN32" s="162"/>
-      <c r="AO32" s="163"/>
-      <c r="AP32" s="163"/>
-      <c r="AQ32" s="163"/>
-      <c r="AR32" s="164"/>
-      <c r="AS32" s="162"/>
-      <c r="AT32" s="163"/>
-      <c r="AU32" s="163"/>
-      <c r="AV32" s="163"/>
-      <c r="AW32" s="164"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="149"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="149"/>
+      <c r="Z32" s="149"/>
+      <c r="AA32" s="149"/>
+      <c r="AB32" s="149"/>
+      <c r="AC32" s="149"/>
+      <c r="AD32" s="149"/>
+      <c r="AE32" s="149"/>
+      <c r="AF32" s="149"/>
+      <c r="AG32" s="149"/>
+      <c r="AH32" s="149"/>
+      <c r="AI32" s="149"/>
+      <c r="AJ32" s="149"/>
+      <c r="AK32" s="149"/>
+      <c r="AL32" s="149"/>
+      <c r="AM32" s="150"/>
+      <c r="AN32" s="134"/>
+      <c r="AO32" s="135"/>
+      <c r="AP32" s="135"/>
+      <c r="AQ32" s="135"/>
+      <c r="AR32" s="136"/>
+      <c r="AS32" s="134"/>
+      <c r="AT32" s="135"/>
+      <c r="AU32" s="135"/>
+      <c r="AV32" s="135"/>
+      <c r="AW32" s="136"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="153"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157"/>
-      <c r="P33" s="157"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="143"/>
-      <c r="T33" s="143"/>
-      <c r="U33" s="143"/>
-      <c r="V33" s="159"/>
-      <c r="W33" s="160"/>
-      <c r="X33" s="160"/>
-      <c r="Y33" s="160"/>
-      <c r="Z33" s="160"/>
-      <c r="AA33" s="160"/>
-      <c r="AB33" s="160"/>
-      <c r="AC33" s="160"/>
-      <c r="AD33" s="160"/>
-      <c r="AE33" s="160"/>
-      <c r="AF33" s="160"/>
-      <c r="AG33" s="160"/>
-      <c r="AH33" s="160"/>
-      <c r="AI33" s="160"/>
-      <c r="AJ33" s="160"/>
-      <c r="AK33" s="160"/>
-      <c r="AL33" s="160"/>
-      <c r="AM33" s="161"/>
-      <c r="AN33" s="162"/>
-      <c r="AO33" s="163"/>
-      <c r="AP33" s="163"/>
-      <c r="AQ33" s="163"/>
-      <c r="AR33" s="164"/>
-      <c r="AS33" s="162"/>
-      <c r="AT33" s="163"/>
-      <c r="AU33" s="163"/>
-      <c r="AV33" s="163"/>
-      <c r="AW33" s="164"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="147"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="148"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="149"/>
+      <c r="Z33" s="149"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="149"/>
+      <c r="AC33" s="149"/>
+      <c r="AD33" s="149"/>
+      <c r="AE33" s="149"/>
+      <c r="AF33" s="149"/>
+      <c r="AG33" s="149"/>
+      <c r="AH33" s="149"/>
+      <c r="AI33" s="149"/>
+      <c r="AJ33" s="149"/>
+      <c r="AK33" s="149"/>
+      <c r="AL33" s="149"/>
+      <c r="AM33" s="150"/>
+      <c r="AN33" s="134"/>
+      <c r="AO33" s="135"/>
+      <c r="AP33" s="135"/>
+      <c r="AQ33" s="135"/>
+      <c r="AR33" s="136"/>
+      <c r="AS33" s="134"/>
+      <c r="AT33" s="135"/>
+      <c r="AU33" s="135"/>
+      <c r="AV33" s="135"/>
+      <c r="AW33" s="136"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="153"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="171"/>
-      <c r="N34" s="172"/>
-      <c r="O34" s="172"/>
-      <c r="P34" s="172"/>
-      <c r="Q34" s="172"/>
-      <c r="R34" s="173"/>
-      <c r="S34" s="143"/>
-      <c r="T34" s="143"/>
-      <c r="U34" s="143"/>
-      <c r="V34" s="159"/>
-      <c r="W34" s="160"/>
-      <c r="X34" s="160"/>
-      <c r="Y34" s="160"/>
-      <c r="Z34" s="160"/>
-      <c r="AA34" s="160"/>
-      <c r="AB34" s="160"/>
-      <c r="AC34" s="160"/>
-      <c r="AD34" s="160"/>
-      <c r="AE34" s="160"/>
-      <c r="AF34" s="160"/>
-      <c r="AG34" s="160"/>
-      <c r="AH34" s="160"/>
-      <c r="AI34" s="160"/>
-      <c r="AJ34" s="160"/>
-      <c r="AK34" s="160"/>
-      <c r="AL34" s="160"/>
-      <c r="AM34" s="161"/>
-      <c r="AN34" s="162"/>
-      <c r="AO34" s="163"/>
-      <c r="AP34" s="163"/>
-      <c r="AQ34" s="163"/>
-      <c r="AR34" s="164"/>
-      <c r="AS34" s="162"/>
-      <c r="AT34" s="163"/>
-      <c r="AU34" s="163"/>
-      <c r="AV34" s="163"/>
-      <c r="AW34" s="164"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="145"/>
+      <c r="Q34" s="145"/>
+      <c r="R34" s="146"/>
+      <c r="S34" s="147"/>
+      <c r="T34" s="147"/>
+      <c r="U34" s="147"/>
+      <c r="V34" s="148"/>
+      <c r="W34" s="149"/>
+      <c r="X34" s="149"/>
+      <c r="Y34" s="149"/>
+      <c r="Z34" s="149"/>
+      <c r="AA34" s="149"/>
+      <c r="AB34" s="149"/>
+      <c r="AC34" s="149"/>
+      <c r="AD34" s="149"/>
+      <c r="AE34" s="149"/>
+      <c r="AF34" s="149"/>
+      <c r="AG34" s="149"/>
+      <c r="AH34" s="149"/>
+      <c r="AI34" s="149"/>
+      <c r="AJ34" s="149"/>
+      <c r="AK34" s="149"/>
+      <c r="AL34" s="149"/>
+      <c r="AM34" s="150"/>
+      <c r="AN34" s="134"/>
+      <c r="AO34" s="135"/>
+      <c r="AP34" s="135"/>
+      <c r="AQ34" s="135"/>
+      <c r="AR34" s="136"/>
+      <c r="AS34" s="134"/>
+      <c r="AT34" s="135"/>
+      <c r="AU34" s="135"/>
+      <c r="AV34" s="135"/>
+      <c r="AW34" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -7155,239 +7388,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7547,11 +7547,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="178"/>
-      <c r="AP2" s="179"/>
-      <c r="AQ2" s="179"/>
-      <c r="AR2" s="179"/>
-      <c r="AS2" s="180"/>
+      <c r="AO2" s="174"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="175"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="176"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -7560,14 +7560,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="181"/>
-      <c r="BA2" s="182"/>
-      <c r="BB2" s="182"/>
-      <c r="BC2" s="182"/>
-      <c r="BD2" s="182"/>
-      <c r="BE2" s="182"/>
-      <c r="BF2" s="182"/>
-      <c r="BG2" s="183"/>
+      <c r="AZ2" s="177"/>
+      <c r="BA2" s="178"/>
+      <c r="BB2" s="178"/>
+      <c r="BC2" s="178"/>
+      <c r="BD2" s="178"/>
+      <c r="BE2" s="178"/>
+      <c r="BF2" s="178"/>
+      <c r="BG2" s="179"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -9324,10 +9324,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="184" t="s">
+      <c r="B50" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="185"/>
+      <c r="C50" s="183"/>
       <c r="D50" s="91" t="s">
         <v>105</v>
       </c>
@@ -9410,10 +9410,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="176">
+      <c r="B51" s="184">
         <v>1</v>
       </c>
-      <c r="C51" s="177"/>
+      <c r="C51" s="185"/>
       <c r="D51" s="116" t="s">
         <v>256</v>
       </c>
@@ -9445,16 +9445,16 @@
       <c r="AB51" s="89"/>
       <c r="AC51" s="89"/>
       <c r="AD51" s="117"/>
-      <c r="AE51" s="174" t="s">
+      <c r="AE51" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AF51" s="175"/>
-      <c r="AG51" s="174"/>
-      <c r="AH51" s="175"/>
-      <c r="AI51" s="174"/>
-      <c r="AJ51" s="175"/>
-      <c r="AK51" s="174"/>
-      <c r="AL51" s="175"/>
+      <c r="AF51" s="181"/>
+      <c r="AG51" s="180"/>
+      <c r="AH51" s="181"/>
+      <c r="AI51" s="180"/>
+      <c r="AJ51" s="181"/>
+      <c r="AK51" s="180"/>
+      <c r="AL51" s="181"/>
       <c r="AM51" s="86" t="s">
         <v>257</v>
       </c>
@@ -9488,10 +9488,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="176">
+      <c r="B52" s="184">
         <v>2</v>
       </c>
-      <c r="C52" s="177"/>
+      <c r="C52" s="185"/>
       <c r="D52" s="116" t="s">
         <v>256</v>
       </c>
@@ -9523,16 +9523,16 @@
       <c r="AB52" s="89"/>
       <c r="AC52" s="89"/>
       <c r="AD52" s="117"/>
-      <c r="AE52" s="174" t="s">
+      <c r="AE52" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AF52" s="175"/>
-      <c r="AG52" s="174"/>
-      <c r="AH52" s="175"/>
-      <c r="AI52" s="174"/>
-      <c r="AJ52" s="175"/>
-      <c r="AK52" s="174"/>
-      <c r="AL52" s="175"/>
+      <c r="AF52" s="181"/>
+      <c r="AG52" s="180"/>
+      <c r="AH52" s="181"/>
+      <c r="AI52" s="180"/>
+      <c r="AJ52" s="181"/>
+      <c r="AK52" s="180"/>
+      <c r="AL52" s="181"/>
       <c r="AM52" s="86" t="s">
         <v>258</v>
       </c>
@@ -9566,10 +9566,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="176">
+      <c r="B53" s="184">
         <v>3</v>
       </c>
-      <c r="C53" s="177"/>
+      <c r="C53" s="185"/>
       <c r="D53" s="116" t="s">
         <v>256</v>
       </c>
@@ -9601,16 +9601,16 @@
       <c r="AB53" s="89"/>
       <c r="AC53" s="89"/>
       <c r="AD53" s="111"/>
-      <c r="AE53" s="174" t="s">
+      <c r="AE53" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AF53" s="175"/>
-      <c r="AG53" s="174"/>
-      <c r="AH53" s="175"/>
-      <c r="AI53" s="174"/>
-      <c r="AJ53" s="175"/>
-      <c r="AK53" s="174"/>
-      <c r="AL53" s="175"/>
+      <c r="AF53" s="181"/>
+      <c r="AG53" s="180"/>
+      <c r="AH53" s="181"/>
+      <c r="AI53" s="180"/>
+      <c r="AJ53" s="181"/>
+      <c r="AK53" s="180"/>
+      <c r="AL53" s="181"/>
       <c r="AM53" s="86" t="s">
         <v>259</v>
       </c>
@@ -9644,10 +9644,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="176">
+      <c r="B54" s="184">
         <v>4</v>
       </c>
-      <c r="C54" s="177"/>
+      <c r="C54" s="185"/>
       <c r="D54" s="85" t="s">
         <v>150</v>
       </c>
@@ -9679,22 +9679,22 @@
       <c r="AB54" s="89"/>
       <c r="AC54" s="89"/>
       <c r="AD54" s="90"/>
-      <c r="AE54" s="174" t="s">
+      <c r="AE54" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AF54" s="175"/>
-      <c r="AG54" s="174" t="s">
+      <c r="AF54" s="181"/>
+      <c r="AG54" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AH54" s="175"/>
-      <c r="AI54" s="174" t="s">
+      <c r="AH54" s="181"/>
+      <c r="AI54" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AJ54" s="175"/>
-      <c r="AK54" s="174" t="s">
+      <c r="AJ54" s="181"/>
+      <c r="AK54" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AL54" s="175"/>
+      <c r="AL54" s="181"/>
       <c r="AM54" s="86" t="s">
         <v>152</v>
       </c>
@@ -9733,6 +9733,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK54:AL54"/>
@@ -9749,13 +9756,6 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9901,7 +9901,7 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="181" t="str">
+      <c r="CU1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -10032,7 +10032,7 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="181"/>
+      <c r="CU2" s="177"/>
       <c r="CV2" s="186"/>
       <c r="CW2" s="186"/>
       <c r="CX2" s="186"/>
@@ -10250,37 +10250,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="F6" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="136" t="s">
+      <c r="G6" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="H6" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="195" t="s">
+      <c r="I6" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="195" t="s">
+      <c r="J6" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="136" t="s">
+      <c r="K6" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="136" t="s">
+      <c r="L6" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="136" t="s">
+      <c r="M6" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="72" t="s">
@@ -10288,24 +10288,24 @@
       </c>
       <c r="O6" s="72"/>
       <c r="P6" s="72"/>
-      <c r="Q6" s="195" t="s">
+      <c r="Q6" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
       <c r="N7" s="43" t="s">
         <v>82</v>
       </c>
@@ -10315,7 +10315,7 @@
       <c r="P7" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="195"/>
+      <c r="Q7" s="197"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -10673,37 +10673,37 @@
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="136" t="s">
+      <c r="D17" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="136" t="s">
+      <c r="E17" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="136" t="s">
+      <c r="F17" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="136" t="s">
+      <c r="G17" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="136" t="s">
+      <c r="H17" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="196" t="s">
+      <c r="I17" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="195" t="s">
+      <c r="J17" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="136" t="s">
+      <c r="K17" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="136" t="s">
+      <c r="L17" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="136" t="s">
+      <c r="M17" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N17" s="72" t="s">
@@ -10711,24 +10711,24 @@
       </c>
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
-      <c r="Q17" s="196" t="s">
+      <c r="Q17" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="195"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="167"/>
+      <c r="L18" s="167"/>
+      <c r="M18" s="167"/>
       <c r="N18" s="43" t="s">
         <v>82</v>
       </c>
@@ -10738,7 +10738,7 @@
       <c r="P18" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="197"/>
+      <c r="Q18" s="196"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
@@ -10802,37 +10802,37 @@
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="64"/>
-      <c r="C22" s="136" t="s">
+      <c r="C22" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="136" t="s">
+      <c r="D22" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="136" t="s">
+      <c r="E22" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="136" t="s">
+      <c r="F22" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="136" t="s">
+      <c r="G22" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="136" t="s">
+      <c r="H22" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="195" t="s">
+      <c r="I22" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="195" t="s">
+      <c r="J22" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="136" t="s">
+      <c r="K22" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="136" t="s">
+      <c r="L22" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="136" t="s">
+      <c r="M22" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="72" t="s">
@@ -10840,24 +10840,24 @@
       </c>
       <c r="O22" s="72"/>
       <c r="P22" s="72"/>
-      <c r="Q22" s="195" t="s">
+      <c r="Q22" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="64"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
       <c r="N23" s="43" t="s">
         <v>82</v>
       </c>
@@ -10867,7 +10867,7 @@
       <c r="P23" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q23" s="195"/>
+      <c r="Q23" s="197"/>
     </row>
     <row r="24" spans="1:17" s="51" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
@@ -11408,37 +11408,37 @@
     <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="64"/>
-      <c r="C37" s="136" t="s">
+      <c r="C37" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="136" t="s">
+      <c r="D37" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="136" t="s">
+      <c r="E37" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="136" t="s">
+      <c r="F37" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="136" t="s">
+      <c r="G37" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="136" t="s">
+      <c r="H37" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="195" t="s">
+      <c r="I37" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="195" t="s">
+      <c r="J37" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="136" t="s">
+      <c r="K37" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L37" s="136" t="s">
+      <c r="L37" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="136" t="s">
+      <c r="M37" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N37" s="72" t="s">
@@ -11446,24 +11446,24 @@
       </c>
       <c r="O37" s="72"/>
       <c r="P37" s="72"/>
-      <c r="Q37" s="195" t="s">
+      <c r="Q37" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="64"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="195"/>
-      <c r="J38" s="195"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="136"/>
-      <c r="M38" s="136"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="167"/>
+      <c r="L38" s="167"/>
+      <c r="M38" s="167"/>
       <c r="N38" s="96" t="s">
         <v>82</v>
       </c>
@@ -11473,7 +11473,7 @@
       <c r="P38" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="Q38" s="195"/>
+      <c r="Q38" s="197"/>
     </row>
     <row r="39" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
@@ -11876,6 +11876,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="I22:I23"/>
@@ -11892,38 +11924,6 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11997,7 +11997,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="178">
+      <c r="AI1" s="174">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -12013,7 +12013,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="181" t="str">
+      <c r="AT1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -12084,7 +12084,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="181"/>
+      <c r="AT2" s="177"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -21533,7 +21533,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="178">
+      <c r="AI1" s="174">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -21549,7 +21549,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="181" t="str">
+      <c r="AT1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -21620,7 +21620,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="181"/>
+      <c r="AT2" s="177"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -22419,18 +22419,18 @@
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="200" t="s">
+      <c r="T17" s="206" t="s">
         <v>271</v>
       </c>
-      <c r="U17" s="201"/>
-      <c r="V17" s="201"/>
-      <c r="W17" s="201"/>
-      <c r="X17" s="201"/>
-      <c r="Y17" s="201"/>
-      <c r="Z17" s="201"/>
-      <c r="AA17" s="201"/>
-      <c r="AB17" s="201"/>
-      <c r="AC17" s="202"/>
+      <c r="U17" s="207"/>
+      <c r="V17" s="207"/>
+      <c r="W17" s="207"/>
+      <c r="X17" s="207"/>
+      <c r="Y17" s="207"/>
+      <c r="Z17" s="207"/>
+      <c r="AA17" s="207"/>
+      <c r="AB17" s="207"/>
+      <c r="AC17" s="208"/>
       <c r="AD17" s="77" t="s">
         <v>145</v>
       </c>
@@ -22473,16 +22473,16 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="26"/>
       <c r="S18" s="27"/>
-      <c r="T18" s="203"/>
-      <c r="U18" s="204"/>
-      <c r="V18" s="204"/>
-      <c r="W18" s="204"/>
-      <c r="X18" s="204"/>
-      <c r="Y18" s="204"/>
-      <c r="Z18" s="204"/>
-      <c r="AA18" s="204"/>
-      <c r="AB18" s="204"/>
-      <c r="AC18" s="205"/>
+      <c r="T18" s="209"/>
+      <c r="U18" s="210"/>
+      <c r="V18" s="210"/>
+      <c r="W18" s="210"/>
+      <c r="X18" s="210"/>
+      <c r="Y18" s="210"/>
+      <c r="Z18" s="210"/>
+      <c r="AA18" s="210"/>
+      <c r="AB18" s="210"/>
+      <c r="AC18" s="211"/>
       <c r="AD18" s="80"/>
       <c r="AE18" s="81"/>
       <c r="AF18" s="81"/>
@@ -22751,18 +22751,18 @@
       </c>
       <c r="R23" s="22"/>
       <c r="S23" s="23"/>
-      <c r="T23" s="200" t="s">
+      <c r="T23" s="206" t="s">
         <v>139</v>
       </c>
-      <c r="U23" s="201"/>
-      <c r="V23" s="201"/>
-      <c r="W23" s="201"/>
-      <c r="X23" s="201"/>
-      <c r="Y23" s="201"/>
-      <c r="Z23" s="201"/>
-      <c r="AA23" s="201"/>
-      <c r="AB23" s="201"/>
-      <c r="AC23" s="202"/>
+      <c r="U23" s="207"/>
+      <c r="V23" s="207"/>
+      <c r="W23" s="207"/>
+      <c r="X23" s="207"/>
+      <c r="Y23" s="207"/>
+      <c r="Z23" s="207"/>
+      <c r="AA23" s="207"/>
+      <c r="AB23" s="207"/>
+      <c r="AC23" s="208"/>
       <c r="AD23" s="77" t="s">
         <v>141</v>
       </c>
@@ -22805,16 +22805,16 @@
       <c r="Q24" s="25"/>
       <c r="R24" s="26"/>
       <c r="S24" s="27"/>
-      <c r="T24" s="203"/>
-      <c r="U24" s="204"/>
-      <c r="V24" s="204"/>
-      <c r="W24" s="204"/>
-      <c r="X24" s="204"/>
-      <c r="Y24" s="204"/>
-      <c r="Z24" s="204"/>
-      <c r="AA24" s="204"/>
-      <c r="AB24" s="204"/>
-      <c r="AC24" s="205"/>
+      <c r="T24" s="209"/>
+      <c r="U24" s="210"/>
+      <c r="V24" s="210"/>
+      <c r="W24" s="210"/>
+      <c r="X24" s="210"/>
+      <c r="Y24" s="210"/>
+      <c r="Z24" s="210"/>
+      <c r="AA24" s="210"/>
+      <c r="AB24" s="210"/>
+      <c r="AC24" s="211"/>
       <c r="AD24" s="80"/>
       <c r="AE24" s="81"/>
       <c r="AF24" s="81"/>
@@ -22967,18 +22967,18 @@
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="23"/>
-      <c r="T27" s="206" t="s">
+      <c r="T27" s="212" t="s">
         <v>269</v>
       </c>
-      <c r="U27" s="207"/>
-      <c r="V27" s="207"/>
-      <c r="W27" s="207"/>
-      <c r="X27" s="207"/>
-      <c r="Y27" s="207"/>
-      <c r="Z27" s="207"/>
-      <c r="AA27" s="207"/>
-      <c r="AB27" s="207"/>
-      <c r="AC27" s="208"/>
+      <c r="U27" s="213"/>
+      <c r="V27" s="213"/>
+      <c r="W27" s="213"/>
+      <c r="X27" s="213"/>
+      <c r="Y27" s="213"/>
+      <c r="Z27" s="213"/>
+      <c r="AA27" s="213"/>
+      <c r="AB27" s="213"/>
+      <c r="AC27" s="214"/>
       <c r="AD27" s="77" t="s">
         <v>143</v>
       </c>
@@ -23021,16 +23021,16 @@
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
-      <c r="T28" s="209"/>
-      <c r="U28" s="210"/>
-      <c r="V28" s="210"/>
-      <c r="W28" s="210"/>
-      <c r="X28" s="210"/>
-      <c r="Y28" s="210"/>
-      <c r="Z28" s="210"/>
-      <c r="AA28" s="210"/>
-      <c r="AB28" s="210"/>
-      <c r="AC28" s="211"/>
+      <c r="T28" s="215"/>
+      <c r="U28" s="216"/>
+      <c r="V28" s="216"/>
+      <c r="W28" s="216"/>
+      <c r="X28" s="216"/>
+      <c r="Y28" s="216"/>
+      <c r="Z28" s="216"/>
+      <c r="AA28" s="216"/>
+      <c r="AB28" s="216"/>
+      <c r="AC28" s="217"/>
       <c r="AD28" s="80"/>
       <c r="AE28" s="81"/>
       <c r="AF28" s="81"/>
@@ -23079,18 +23079,18 @@
       </c>
       <c r="R29" s="22"/>
       <c r="S29" s="23"/>
-      <c r="T29" s="200" t="s">
+      <c r="T29" s="206" t="s">
         <v>138</v>
       </c>
-      <c r="U29" s="201"/>
-      <c r="V29" s="201"/>
-      <c r="W29" s="201"/>
-      <c r="X29" s="201"/>
-      <c r="Y29" s="201"/>
-      <c r="Z29" s="201"/>
-      <c r="AA29" s="201"/>
-      <c r="AB29" s="201"/>
-      <c r="AC29" s="202"/>
+      <c r="U29" s="207"/>
+      <c r="V29" s="207"/>
+      <c r="W29" s="207"/>
+      <c r="X29" s="207"/>
+      <c r="Y29" s="207"/>
+      <c r="Z29" s="207"/>
+      <c r="AA29" s="207"/>
+      <c r="AB29" s="207"/>
+      <c r="AC29" s="208"/>
       <c r="AD29" s="77" t="s">
         <v>146</v>
       </c>
@@ -23133,16 +23133,16 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="26"/>
       <c r="S30" s="27"/>
-      <c r="T30" s="203"/>
-      <c r="U30" s="204"/>
-      <c r="V30" s="204"/>
-      <c r="W30" s="204"/>
-      <c r="X30" s="204"/>
-      <c r="Y30" s="204"/>
-      <c r="Z30" s="204"/>
-      <c r="AA30" s="204"/>
-      <c r="AB30" s="204"/>
-      <c r="AC30" s="205"/>
+      <c r="T30" s="209"/>
+      <c r="U30" s="210"/>
+      <c r="V30" s="210"/>
+      <c r="W30" s="210"/>
+      <c r="X30" s="210"/>
+      <c r="Y30" s="210"/>
+      <c r="Z30" s="210"/>
+      <c r="AA30" s="210"/>
+      <c r="AB30" s="210"/>
+      <c r="AC30" s="211"/>
       <c r="AD30" s="80"/>
       <c r="AE30" s="81"/>
       <c r="AF30" s="81"/>
@@ -23513,18 +23513,18 @@
       </c>
       <c r="R37" s="78"/>
       <c r="S37" s="79"/>
-      <c r="T37" s="212" t="s">
+      <c r="T37" s="200" t="s">
         <v>261</v>
       </c>
-      <c r="U37" s="213"/>
-      <c r="V37" s="213"/>
-      <c r="W37" s="213"/>
-      <c r="X37" s="213"/>
-      <c r="Y37" s="213"/>
-      <c r="Z37" s="213"/>
-      <c r="AA37" s="213"/>
-      <c r="AB37" s="213"/>
-      <c r="AC37" s="214"/>
+      <c r="U37" s="201"/>
+      <c r="V37" s="201"/>
+      <c r="W37" s="201"/>
+      <c r="X37" s="201"/>
+      <c r="Y37" s="201"/>
+      <c r="Z37" s="201"/>
+      <c r="AA37" s="201"/>
+      <c r="AB37" s="201"/>
+      <c r="AC37" s="202"/>
       <c r="AD37" s="77" t="s">
         <v>262</v>
       </c>
@@ -23567,16 +23567,16 @@
       <c r="Q38" s="80"/>
       <c r="R38" s="81"/>
       <c r="S38" s="82"/>
-      <c r="T38" s="215"/>
-      <c r="U38" s="216"/>
-      <c r="V38" s="216"/>
-      <c r="W38" s="216"/>
-      <c r="X38" s="216"/>
-      <c r="Y38" s="216"/>
-      <c r="Z38" s="216"/>
-      <c r="AA38" s="216"/>
-      <c r="AB38" s="216"/>
-      <c r="AC38" s="217"/>
+      <c r="T38" s="203"/>
+      <c r="U38" s="204"/>
+      <c r="V38" s="204"/>
+      <c r="W38" s="204"/>
+      <c r="X38" s="204"/>
+      <c r="Y38" s="204"/>
+      <c r="Z38" s="204"/>
+      <c r="AA38" s="204"/>
+      <c r="AB38" s="204"/>
+      <c r="AC38" s="205"/>
       <c r="AD38" s="80"/>
       <c r="AE38" s="81"/>
       <c r="AF38" s="81"/>
@@ -27702,18 +27702,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="T37:AC38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B29:B30"/>
@@ -27730,6 +27718,18 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="T37:AC38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -27803,7 +27803,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="178">
+      <c r="AI1" s="174">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -27819,7 +27819,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="181" t="str">
+      <c r="AT1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -27890,7 +27890,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="181"/>
+      <c r="AT2" s="177"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -39108,21 +39108,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -39280,24 +39265,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39313,4 +39296,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/06_SC-M_マスタ系/SC-M10_設備マスタ.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/SC-M10_設備マスタ.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE5313-8886-4E28-BD0E-3CAD74B63367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2356E4EE-F5D9-452A-8F89-E441C4918663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="276">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1494,14 +1494,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>桁数チェック
-値チェック</t>
-    <rPh sb="7" eb="8">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>固定値:
        「０：手動ラベル」
        「１：自動ラベル」</t>
@@ -1969,6 +1961,20 @@
   </si>
   <si>
     <t>コードマスタ(コード区分='87')のコード、コード名称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>値チェック</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2845,91 +2851,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2957,6 +2878,103 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2975,22 +2993,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3020,13 +3026,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3034,24 +3040,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3087,6 +3075,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5375,1779 +5381,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="165"/>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="165"/>
-      <c r="AF1" s="165"/>
-      <c r="AG1" s="165"/>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="165"/>
-      <c r="AJ1" s="165"/>
-      <c r="AK1" s="165"/>
-      <c r="AL1" s="165"/>
-      <c r="AM1" s="165"/>
-      <c r="AN1" s="165"/>
-      <c r="AO1" s="165"/>
-      <c r="AP1" s="165"/>
-      <c r="AQ1" s="165"/>
-      <c r="AR1" s="165"/>
-      <c r="AS1" s="165"/>
-      <c r="AT1" s="165"/>
-      <c r="AU1" s="165"/>
-      <c r="AV1" s="165"/>
-      <c r="AW1" s="165"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="134"/>
+      <c r="AJ1" s="134"/>
+      <c r="AK1" s="134"/>
+      <c r="AL1" s="134"/>
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="134"/>
+      <c r="AR1" s="134"/>
+      <c r="AS1" s="134"/>
+      <c r="AT1" s="134"/>
+      <c r="AU1" s="134"/>
+      <c r="AV1" s="134"/>
+      <c r="AW1" s="134"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="166"/>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="166"/>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="166"/>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="166"/>
-      <c r="AJ2" s="166"/>
-      <c r="AK2" s="166"/>
-      <c r="AL2" s="166"/>
-      <c r="AM2" s="166"/>
-      <c r="AN2" s="166"/>
-      <c r="AO2" s="166"/>
-      <c r="AP2" s="166"/>
-      <c r="AQ2" s="166"/>
-      <c r="AR2" s="166"/>
-      <c r="AS2" s="166"/>
-      <c r="AT2" s="166"/>
-      <c r="AU2" s="166"/>
-      <c r="AV2" s="166"/>
-      <c r="AW2" s="166"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="135"/>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="135"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167" t="s">
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="168" t="s">
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="169"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="168" t="s">
+      <c r="K3" s="138"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="167" t="s">
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167" t="s">
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="167"/>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="167"/>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="167"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="167"/>
-      <c r="AH3" s="167"/>
-      <c r="AI3" s="167"/>
-      <c r="AJ3" s="167"/>
-      <c r="AK3" s="167"/>
-      <c r="AL3" s="167"/>
-      <c r="AM3" s="167"/>
-      <c r="AN3" s="167" t="s">
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="167"/>
-      <c r="AP3" s="167"/>
-      <c r="AQ3" s="167"/>
-      <c r="AR3" s="167"/>
-      <c r="AS3" s="167" t="s">
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="167"/>
-      <c r="AU3" s="167"/>
-      <c r="AV3" s="167"/>
-      <c r="AW3" s="167"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="172"/>
-      <c r="Q4" s="172"/>
-      <c r="R4" s="173"/>
-      <c r="S4" s="167"/>
-      <c r="T4" s="167"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="167"/>
-      <c r="W4" s="167"/>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="167"/>
-      <c r="Z4" s="167"/>
-      <c r="AA4" s="167"/>
-      <c r="AB4" s="167"/>
-      <c r="AC4" s="167"/>
-      <c r="AD4" s="167"/>
-      <c r="AE4" s="167"/>
-      <c r="AF4" s="167"/>
-      <c r="AG4" s="167"/>
-      <c r="AH4" s="167"/>
-      <c r="AI4" s="167"/>
-      <c r="AJ4" s="167"/>
-      <c r="AK4" s="167"/>
-      <c r="AL4" s="167"/>
-      <c r="AM4" s="167"/>
-      <c r="AN4" s="167"/>
-      <c r="AO4" s="167"/>
-      <c r="AP4" s="167"/>
-      <c r="AQ4" s="167"/>
-      <c r="AR4" s="167"/>
-      <c r="AS4" s="167"/>
-      <c r="AT4" s="167"/>
-      <c r="AU4" s="167"/>
-      <c r="AV4" s="167"/>
-      <c r="AW4" s="167"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="136"/>
+      <c r="AM4" s="136"/>
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="136"/>
+      <c r="AT4" s="136"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
-      <c r="B5" s="159">
+      <c r="B5" s="144">
         <v>1</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="140">
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145">
         <v>43703</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="141" t="s">
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="142"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="141" t="s">
+      <c r="K5" s="147"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="147" t="s">
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="158" t="s">
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="158"/>
-      <c r="X5" s="158"/>
-      <c r="Y5" s="158"/>
-      <c r="Z5" s="158"/>
-      <c r="AA5" s="158"/>
-      <c r="AB5" s="158"/>
-      <c r="AC5" s="158"/>
-      <c r="AD5" s="158"/>
-      <c r="AE5" s="158"/>
-      <c r="AF5" s="158"/>
-      <c r="AG5" s="158"/>
-      <c r="AH5" s="158"/>
-      <c r="AI5" s="158"/>
-      <c r="AJ5" s="158"/>
-      <c r="AK5" s="158"/>
-      <c r="AL5" s="158"/>
-      <c r="AM5" s="158"/>
-      <c r="AN5" s="147" t="s">
+      <c r="W5" s="152"/>
+      <c r="X5" s="152"/>
+      <c r="Y5" s="152"/>
+      <c r="Z5" s="152"/>
+      <c r="AA5" s="152"/>
+      <c r="AB5" s="152"/>
+      <c r="AC5" s="152"/>
+      <c r="AD5" s="152"/>
+      <c r="AE5" s="152"/>
+      <c r="AF5" s="152"/>
+      <c r="AG5" s="152"/>
+      <c r="AH5" s="152"/>
+      <c r="AI5" s="152"/>
+      <c r="AJ5" s="152"/>
+      <c r="AK5" s="152"/>
+      <c r="AL5" s="152"/>
+      <c r="AM5" s="152"/>
+      <c r="AN5" s="143" t="s">
         <v>116</v>
       </c>
-      <c r="AO5" s="147"/>
-      <c r="AP5" s="147"/>
-      <c r="AQ5" s="147"/>
-      <c r="AR5" s="147"/>
-      <c r="AS5" s="147"/>
-      <c r="AT5" s="147"/>
-      <c r="AU5" s="147"/>
-      <c r="AV5" s="147"/>
-      <c r="AW5" s="147"/>
+      <c r="AO5" s="143"/>
+      <c r="AP5" s="143"/>
+      <c r="AQ5" s="143"/>
+      <c r="AR5" s="143"/>
+      <c r="AS5" s="143"/>
+      <c r="AT5" s="143"/>
+      <c r="AU5" s="143"/>
+      <c r="AV5" s="143"/>
+      <c r="AW5" s="143"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="158"/>
-      <c r="X6" s="158"/>
-      <c r="Y6" s="158"/>
-      <c r="Z6" s="158"/>
-      <c r="AA6" s="158"/>
-      <c r="AB6" s="158"/>
-      <c r="AC6" s="158"/>
-      <c r="AD6" s="158"/>
-      <c r="AE6" s="158"/>
-      <c r="AF6" s="158"/>
-      <c r="AG6" s="158"/>
-      <c r="AH6" s="158"/>
-      <c r="AI6" s="158"/>
-      <c r="AJ6" s="158"/>
-      <c r="AK6" s="158"/>
-      <c r="AL6" s="158"/>
-      <c r="AM6" s="158"/>
-      <c r="AN6" s="147"/>
-      <c r="AO6" s="147"/>
-      <c r="AP6" s="147"/>
-      <c r="AQ6" s="147"/>
-      <c r="AR6" s="147"/>
-      <c r="AS6" s="147"/>
-      <c r="AT6" s="147"/>
-      <c r="AU6" s="147"/>
-      <c r="AV6" s="147"/>
-      <c r="AW6" s="147"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="152"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="152"/>
+      <c r="Y6" s="152"/>
+      <c r="Z6" s="152"/>
+      <c r="AA6" s="152"/>
+      <c r="AB6" s="152"/>
+      <c r="AC6" s="152"/>
+      <c r="AD6" s="152"/>
+      <c r="AE6" s="152"/>
+      <c r="AF6" s="152"/>
+      <c r="AG6" s="152"/>
+      <c r="AH6" s="152"/>
+      <c r="AI6" s="152"/>
+      <c r="AJ6" s="152"/>
+      <c r="AK6" s="152"/>
+      <c r="AL6" s="152"/>
+      <c r="AM6" s="152"/>
+      <c r="AN6" s="143"/>
+      <c r="AO6" s="143"/>
+      <c r="AP6" s="143"/>
+      <c r="AQ6" s="143"/>
+      <c r="AR6" s="143"/>
+      <c r="AS6" s="143"/>
+      <c r="AT6" s="143"/>
+      <c r="AU6" s="143"/>
+      <c r="AV6" s="143"/>
+      <c r="AW6" s="143"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="147"/>
-      <c r="U7" s="147"/>
-      <c r="V7" s="158"/>
-      <c r="W7" s="158"/>
-      <c r="X7" s="158"/>
-      <c r="Y7" s="158"/>
-      <c r="Z7" s="158"/>
-      <c r="AA7" s="158"/>
-      <c r="AB7" s="158"/>
-      <c r="AC7" s="158"/>
-      <c r="AD7" s="158"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="158"/>
-      <c r="AG7" s="158"/>
-      <c r="AH7" s="158"/>
-      <c r="AI7" s="158"/>
-      <c r="AJ7" s="158"/>
-      <c r="AK7" s="158"/>
-      <c r="AL7" s="158"/>
-      <c r="AM7" s="158"/>
-      <c r="AN7" s="147"/>
-      <c r="AO7" s="147"/>
-      <c r="AP7" s="147"/>
-      <c r="AQ7" s="147"/>
-      <c r="AR7" s="147"/>
-      <c r="AS7" s="147"/>
-      <c r="AT7" s="147"/>
-      <c r="AU7" s="147"/>
-      <c r="AV7" s="147"/>
-      <c r="AW7" s="147"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="152"/>
+      <c r="W7" s="152"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="152"/>
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="152"/>
+      <c r="AF7" s="152"/>
+      <c r="AG7" s="152"/>
+      <c r="AH7" s="152"/>
+      <c r="AI7" s="152"/>
+      <c r="AJ7" s="152"/>
+      <c r="AK7" s="152"/>
+      <c r="AL7" s="152"/>
+      <c r="AM7" s="152"/>
+      <c r="AN7" s="143"/>
+      <c r="AO7" s="143"/>
+      <c r="AP7" s="143"/>
+      <c r="AQ7" s="143"/>
+      <c r="AR7" s="143"/>
+      <c r="AS7" s="143"/>
+      <c r="AT7" s="143"/>
+      <c r="AU7" s="143"/>
+      <c r="AV7" s="143"/>
+      <c r="AW7" s="143"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="158"/>
-      <c r="W8" s="158"/>
-      <c r="X8" s="158"/>
-      <c r="Y8" s="158"/>
-      <c r="Z8" s="158"/>
-      <c r="AA8" s="158"/>
-      <c r="AB8" s="158"/>
-      <c r="AC8" s="158"/>
-      <c r="AD8" s="158"/>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="158"/>
-      <c r="AG8" s="158"/>
-      <c r="AH8" s="158"/>
-      <c r="AI8" s="158"/>
-      <c r="AJ8" s="158"/>
-      <c r="AK8" s="158"/>
-      <c r="AL8" s="158"/>
-      <c r="AM8" s="158"/>
-      <c r="AN8" s="147"/>
-      <c r="AO8" s="147"/>
-      <c r="AP8" s="147"/>
-      <c r="AQ8" s="147"/>
-      <c r="AR8" s="147"/>
-      <c r="AS8" s="147"/>
-      <c r="AT8" s="147"/>
-      <c r="AU8" s="147"/>
-      <c r="AV8" s="147"/>
-      <c r="AW8" s="147"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="151"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="152"/>
+      <c r="AF8" s="152"/>
+      <c r="AG8" s="152"/>
+      <c r="AH8" s="152"/>
+      <c r="AI8" s="152"/>
+      <c r="AJ8" s="152"/>
+      <c r="AK8" s="152"/>
+      <c r="AL8" s="152"/>
+      <c r="AM8" s="152"/>
+      <c r="AN8" s="143"/>
+      <c r="AO8" s="143"/>
+      <c r="AP8" s="143"/>
+      <c r="AQ8" s="143"/>
+      <c r="AR8" s="143"/>
+      <c r="AS8" s="143"/>
+      <c r="AT8" s="143"/>
+      <c r="AU8" s="143"/>
+      <c r="AV8" s="143"/>
+      <c r="AW8" s="143"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="158"/>
-      <c r="W9" s="158"/>
-      <c r="X9" s="158"/>
-      <c r="Y9" s="158"/>
-      <c r="Z9" s="158"/>
-      <c r="AA9" s="158"/>
-      <c r="AB9" s="158"/>
-      <c r="AC9" s="158"/>
-      <c r="AD9" s="158"/>
-      <c r="AE9" s="158"/>
-      <c r="AF9" s="158"/>
-      <c r="AG9" s="158"/>
-      <c r="AH9" s="158"/>
-      <c r="AI9" s="158"/>
-      <c r="AJ9" s="158"/>
-      <c r="AK9" s="158"/>
-      <c r="AL9" s="158"/>
-      <c r="AM9" s="158"/>
-      <c r="AN9" s="147"/>
-      <c r="AO9" s="147"/>
-      <c r="AP9" s="147"/>
-      <c r="AQ9" s="147"/>
-      <c r="AR9" s="147"/>
-      <c r="AS9" s="147"/>
-      <c r="AT9" s="147"/>
-      <c r="AU9" s="147"/>
-      <c r="AV9" s="147"/>
-      <c r="AW9" s="147"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="143"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="152"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="152"/>
+      <c r="AD9" s="152"/>
+      <c r="AE9" s="152"/>
+      <c r="AF9" s="152"/>
+      <c r="AG9" s="152"/>
+      <c r="AH9" s="152"/>
+      <c r="AI9" s="152"/>
+      <c r="AJ9" s="152"/>
+      <c r="AK9" s="152"/>
+      <c r="AL9" s="152"/>
+      <c r="AM9" s="152"/>
+      <c r="AN9" s="143"/>
+      <c r="AO9" s="143"/>
+      <c r="AP9" s="143"/>
+      <c r="AQ9" s="143"/>
+      <c r="AR9" s="143"/>
+      <c r="AS9" s="143"/>
+      <c r="AT9" s="143"/>
+      <c r="AU9" s="143"/>
+      <c r="AV9" s="143"/>
+      <c r="AW9" s="143"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="158"/>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="158"/>
-      <c r="AE10" s="158"/>
-      <c r="AF10" s="158"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="158"/>
-      <c r="AI10" s="158"/>
-      <c r="AJ10" s="158"/>
-      <c r="AK10" s="158"/>
-      <c r="AL10" s="158"/>
-      <c r="AM10" s="158"/>
-      <c r="AN10" s="147"/>
-      <c r="AO10" s="147"/>
-      <c r="AP10" s="147"/>
-      <c r="AQ10" s="147"/>
-      <c r="AR10" s="147"/>
-      <c r="AS10" s="147"/>
-      <c r="AT10" s="147"/>
-      <c r="AU10" s="147"/>
-      <c r="AV10" s="147"/>
-      <c r="AW10" s="147"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="152"/>
+      <c r="AG10" s="152"/>
+      <c r="AH10" s="152"/>
+      <c r="AI10" s="152"/>
+      <c r="AJ10" s="152"/>
+      <c r="AK10" s="152"/>
+      <c r="AL10" s="152"/>
+      <c r="AM10" s="152"/>
+      <c r="AN10" s="143"/>
+      <c r="AO10" s="143"/>
+      <c r="AP10" s="143"/>
+      <c r="AQ10" s="143"/>
+      <c r="AR10" s="143"/>
+      <c r="AS10" s="143"/>
+      <c r="AT10" s="143"/>
+      <c r="AU10" s="143"/>
+      <c r="AV10" s="143"/>
+      <c r="AW10" s="143"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="160"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="160"/>
-      <c r="AA11" s="160"/>
-      <c r="AB11" s="160"/>
-      <c r="AC11" s="160"/>
-      <c r="AD11" s="160"/>
-      <c r="AE11" s="160"/>
-      <c r="AF11" s="160"/>
-      <c r="AG11" s="160"/>
-      <c r="AH11" s="160"/>
-      <c r="AI11" s="160"/>
-      <c r="AJ11" s="160"/>
-      <c r="AK11" s="160"/>
-      <c r="AL11" s="160"/>
-      <c r="AM11" s="161"/>
-      <c r="AN11" s="147"/>
-      <c r="AO11" s="147"/>
-      <c r="AP11" s="147"/>
-      <c r="AQ11" s="147"/>
-      <c r="AR11" s="147"/>
-      <c r="AS11" s="147"/>
-      <c r="AT11" s="147"/>
-      <c r="AU11" s="147"/>
-      <c r="AV11" s="147"/>
-      <c r="AW11" s="147"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="157"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="143"/>
+      <c r="V11" s="159"/>
+      <c r="W11" s="165"/>
+      <c r="X11" s="165"/>
+      <c r="Y11" s="165"/>
+      <c r="Z11" s="165"/>
+      <c r="AA11" s="165"/>
+      <c r="AB11" s="165"/>
+      <c r="AC11" s="165"/>
+      <c r="AD11" s="165"/>
+      <c r="AE11" s="165"/>
+      <c r="AF11" s="165"/>
+      <c r="AG11" s="165"/>
+      <c r="AH11" s="165"/>
+      <c r="AI11" s="165"/>
+      <c r="AJ11" s="165"/>
+      <c r="AK11" s="165"/>
+      <c r="AL11" s="165"/>
+      <c r="AM11" s="166"/>
+      <c r="AN11" s="143"/>
+      <c r="AO11" s="143"/>
+      <c r="AP11" s="143"/>
+      <c r="AQ11" s="143"/>
+      <c r="AR11" s="143"/>
+      <c r="AS11" s="143"/>
+      <c r="AT11" s="143"/>
+      <c r="AU11" s="143"/>
+      <c r="AV11" s="143"/>
+      <c r="AW11" s="143"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="149"/>
-      <c r="X12" s="149"/>
-      <c r="Y12" s="149"/>
-      <c r="Z12" s="149"/>
-      <c r="AA12" s="149"/>
-      <c r="AB12" s="149"/>
-      <c r="AC12" s="149"/>
-      <c r="AD12" s="149"/>
-      <c r="AE12" s="149"/>
-      <c r="AF12" s="149"/>
-      <c r="AG12" s="149"/>
-      <c r="AH12" s="149"/>
-      <c r="AI12" s="149"/>
-      <c r="AJ12" s="149"/>
-      <c r="AK12" s="149"/>
-      <c r="AL12" s="149"/>
-      <c r="AM12" s="150"/>
-      <c r="AN12" s="134"/>
-      <c r="AO12" s="135"/>
-      <c r="AP12" s="135"/>
-      <c r="AQ12" s="135"/>
-      <c r="AR12" s="136"/>
-      <c r="AS12" s="134"/>
-      <c r="AT12" s="135"/>
-      <c r="AU12" s="135"/>
-      <c r="AV12" s="135"/>
-      <c r="AW12" s="136"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="157"/>
+      <c r="P12" s="157"/>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="158"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
+      <c r="U12" s="143"/>
+      <c r="V12" s="159"/>
+      <c r="W12" s="160"/>
+      <c r="X12" s="160"/>
+      <c r="Y12" s="160"/>
+      <c r="Z12" s="160"/>
+      <c r="AA12" s="160"/>
+      <c r="AB12" s="160"/>
+      <c r="AC12" s="160"/>
+      <c r="AD12" s="160"/>
+      <c r="AE12" s="160"/>
+      <c r="AF12" s="160"/>
+      <c r="AG12" s="160"/>
+      <c r="AH12" s="160"/>
+      <c r="AI12" s="160"/>
+      <c r="AJ12" s="160"/>
+      <c r="AK12" s="160"/>
+      <c r="AL12" s="160"/>
+      <c r="AM12" s="161"/>
+      <c r="AN12" s="162"/>
+      <c r="AO12" s="163"/>
+      <c r="AP12" s="163"/>
+      <c r="AQ12" s="163"/>
+      <c r="AR12" s="164"/>
+      <c r="AS12" s="162"/>
+      <c r="AT12" s="163"/>
+      <c r="AU12" s="163"/>
+      <c r="AV12" s="163"/>
+      <c r="AW12" s="164"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="149"/>
-      <c r="X13" s="149"/>
-      <c r="Y13" s="149"/>
-      <c r="Z13" s="149"/>
-      <c r="AA13" s="149"/>
-      <c r="AB13" s="149"/>
-      <c r="AC13" s="149"/>
-      <c r="AD13" s="149"/>
-      <c r="AE13" s="149"/>
-      <c r="AF13" s="149"/>
-      <c r="AG13" s="149"/>
-      <c r="AH13" s="149"/>
-      <c r="AI13" s="149"/>
-      <c r="AJ13" s="149"/>
-      <c r="AK13" s="149"/>
-      <c r="AL13" s="149"/>
-      <c r="AM13" s="150"/>
-      <c r="AN13" s="134"/>
-      <c r="AO13" s="135"/>
-      <c r="AP13" s="135"/>
-      <c r="AQ13" s="135"/>
-      <c r="AR13" s="136"/>
-      <c r="AS13" s="134"/>
-      <c r="AT13" s="135"/>
-      <c r="AU13" s="135"/>
-      <c r="AV13" s="135"/>
-      <c r="AW13" s="136"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="157"/>
+      <c r="P13" s="157"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="158"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="159"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="160"/>
+      <c r="Y13" s="160"/>
+      <c r="Z13" s="160"/>
+      <c r="AA13" s="160"/>
+      <c r="AB13" s="160"/>
+      <c r="AC13" s="160"/>
+      <c r="AD13" s="160"/>
+      <c r="AE13" s="160"/>
+      <c r="AF13" s="160"/>
+      <c r="AG13" s="160"/>
+      <c r="AH13" s="160"/>
+      <c r="AI13" s="160"/>
+      <c r="AJ13" s="160"/>
+      <c r="AK13" s="160"/>
+      <c r="AL13" s="160"/>
+      <c r="AM13" s="161"/>
+      <c r="AN13" s="162"/>
+      <c r="AO13" s="163"/>
+      <c r="AP13" s="163"/>
+      <c r="AQ13" s="163"/>
+      <c r="AR13" s="164"/>
+      <c r="AS13" s="162"/>
+      <c r="AT13" s="163"/>
+      <c r="AU13" s="163"/>
+      <c r="AV13" s="163"/>
+      <c r="AW13" s="164"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="157"/>
-      <c r="W14" s="158"/>
-      <c r="X14" s="158"/>
-      <c r="Y14" s="158"/>
-      <c r="Z14" s="158"/>
-      <c r="AA14" s="158"/>
-      <c r="AB14" s="158"/>
-      <c r="AC14" s="158"/>
-      <c r="AD14" s="158"/>
-      <c r="AE14" s="158"/>
-      <c r="AF14" s="158"/>
-      <c r="AG14" s="158"/>
-      <c r="AH14" s="158"/>
-      <c r="AI14" s="158"/>
-      <c r="AJ14" s="158"/>
-      <c r="AK14" s="158"/>
-      <c r="AL14" s="158"/>
-      <c r="AM14" s="158"/>
-      <c r="AN14" s="147"/>
-      <c r="AO14" s="147"/>
-      <c r="AP14" s="147"/>
-      <c r="AQ14" s="147"/>
-      <c r="AR14" s="147"/>
-      <c r="AS14" s="134"/>
-      <c r="AT14" s="135"/>
-      <c r="AU14" s="135"/>
-      <c r="AV14" s="135"/>
-      <c r="AW14" s="136"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="157"/>
+      <c r="O14" s="157"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="158"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="143"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="152"/>
+      <c r="AD14" s="152"/>
+      <c r="AE14" s="152"/>
+      <c r="AF14" s="152"/>
+      <c r="AG14" s="152"/>
+      <c r="AH14" s="152"/>
+      <c r="AI14" s="152"/>
+      <c r="AJ14" s="152"/>
+      <c r="AK14" s="152"/>
+      <c r="AL14" s="152"/>
+      <c r="AM14" s="152"/>
+      <c r="AN14" s="143"/>
+      <c r="AO14" s="143"/>
+      <c r="AP14" s="143"/>
+      <c r="AQ14" s="143"/>
+      <c r="AR14" s="143"/>
+      <c r="AS14" s="162"/>
+      <c r="AT14" s="163"/>
+      <c r="AU14" s="163"/>
+      <c r="AV14" s="163"/>
+      <c r="AW14" s="164"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="147"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="147"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="149"/>
-      <c r="Y15" s="149"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="149"/>
-      <c r="AB15" s="149"/>
-      <c r="AC15" s="149"/>
-      <c r="AD15" s="149"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="149"/>
-      <c r="AG15" s="149"/>
-      <c r="AH15" s="149"/>
-      <c r="AI15" s="149"/>
-      <c r="AJ15" s="149"/>
-      <c r="AK15" s="149"/>
-      <c r="AL15" s="149"/>
-      <c r="AM15" s="150"/>
-      <c r="AN15" s="134"/>
-      <c r="AO15" s="135"/>
-      <c r="AP15" s="135"/>
-      <c r="AQ15" s="135"/>
-      <c r="AR15" s="136"/>
-      <c r="AS15" s="134"/>
-      <c r="AT15" s="135"/>
-      <c r="AU15" s="135"/>
-      <c r="AV15" s="135"/>
-      <c r="AW15" s="136"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="157"/>
+      <c r="O15" s="157"/>
+      <c r="P15" s="157"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="158"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="159"/>
+      <c r="W15" s="160"/>
+      <c r="X15" s="160"/>
+      <c r="Y15" s="160"/>
+      <c r="Z15" s="160"/>
+      <c r="AA15" s="160"/>
+      <c r="AB15" s="160"/>
+      <c r="AC15" s="160"/>
+      <c r="AD15" s="160"/>
+      <c r="AE15" s="160"/>
+      <c r="AF15" s="160"/>
+      <c r="AG15" s="160"/>
+      <c r="AH15" s="160"/>
+      <c r="AI15" s="160"/>
+      <c r="AJ15" s="160"/>
+      <c r="AK15" s="160"/>
+      <c r="AL15" s="160"/>
+      <c r="AM15" s="161"/>
+      <c r="AN15" s="162"/>
+      <c r="AO15" s="163"/>
+      <c r="AP15" s="163"/>
+      <c r="AQ15" s="163"/>
+      <c r="AR15" s="164"/>
+      <c r="AS15" s="162"/>
+      <c r="AT15" s="163"/>
+      <c r="AU15" s="163"/>
+      <c r="AV15" s="163"/>
+      <c r="AW15" s="164"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="147"/>
-      <c r="T16" s="147"/>
-      <c r="U16" s="147"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="149"/>
-      <c r="X16" s="149"/>
-      <c r="Y16" s="149"/>
-      <c r="Z16" s="149"/>
-      <c r="AA16" s="149"/>
-      <c r="AB16" s="149"/>
-      <c r="AC16" s="149"/>
-      <c r="AD16" s="149"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="149"/>
-      <c r="AG16" s="149"/>
-      <c r="AH16" s="149"/>
-      <c r="AI16" s="149"/>
-      <c r="AJ16" s="149"/>
-      <c r="AK16" s="149"/>
-      <c r="AL16" s="149"/>
-      <c r="AM16" s="150"/>
-      <c r="AN16" s="134"/>
-      <c r="AO16" s="135"/>
-      <c r="AP16" s="135"/>
-      <c r="AQ16" s="135"/>
-      <c r="AR16" s="136"/>
-      <c r="AS16" s="134"/>
-      <c r="AT16" s="135"/>
-      <c r="AU16" s="135"/>
-      <c r="AV16" s="135"/>
-      <c r="AW16" s="136"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="157"/>
+      <c r="O16" s="157"/>
+      <c r="P16" s="157"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="158"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="159"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="160"/>
+      <c r="Y16" s="160"/>
+      <c r="Z16" s="160"/>
+      <c r="AA16" s="160"/>
+      <c r="AB16" s="160"/>
+      <c r="AC16" s="160"/>
+      <c r="AD16" s="160"/>
+      <c r="AE16" s="160"/>
+      <c r="AF16" s="160"/>
+      <c r="AG16" s="160"/>
+      <c r="AH16" s="160"/>
+      <c r="AI16" s="160"/>
+      <c r="AJ16" s="160"/>
+      <c r="AK16" s="160"/>
+      <c r="AL16" s="160"/>
+      <c r="AM16" s="161"/>
+      <c r="AN16" s="162"/>
+      <c r="AO16" s="163"/>
+      <c r="AP16" s="163"/>
+      <c r="AQ16" s="163"/>
+      <c r="AR16" s="164"/>
+      <c r="AS16" s="162"/>
+      <c r="AT16" s="163"/>
+      <c r="AU16" s="163"/>
+      <c r="AV16" s="163"/>
+      <c r="AW16" s="164"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="152"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="152"/>
-      <c r="R17" s="155"/>
-      <c r="S17" s="156"/>
-      <c r="T17" s="156"/>
-      <c r="U17" s="156"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="149"/>
-      <c r="X17" s="149"/>
-      <c r="Y17" s="149"/>
-      <c r="Z17" s="149"/>
-      <c r="AA17" s="149"/>
-      <c r="AB17" s="149"/>
-      <c r="AC17" s="149"/>
-      <c r="AD17" s="149"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="149"/>
-      <c r="AG17" s="149"/>
-      <c r="AH17" s="149"/>
-      <c r="AI17" s="149"/>
-      <c r="AJ17" s="149"/>
-      <c r="AK17" s="149"/>
-      <c r="AL17" s="149"/>
-      <c r="AM17" s="150"/>
-      <c r="AN17" s="134"/>
-      <c r="AO17" s="135"/>
-      <c r="AP17" s="135"/>
-      <c r="AQ17" s="135"/>
-      <c r="AR17" s="136"/>
-      <c r="AS17" s="134"/>
-      <c r="AT17" s="135"/>
-      <c r="AU17" s="135"/>
-      <c r="AV17" s="135"/>
-      <c r="AW17" s="136"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="157"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="157"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="169"/>
+      <c r="S17" s="170"/>
+      <c r="T17" s="170"/>
+      <c r="U17" s="170"/>
+      <c r="V17" s="159"/>
+      <c r="W17" s="160"/>
+      <c r="X17" s="160"/>
+      <c r="Y17" s="160"/>
+      <c r="Z17" s="160"/>
+      <c r="AA17" s="160"/>
+      <c r="AB17" s="160"/>
+      <c r="AC17" s="160"/>
+      <c r="AD17" s="160"/>
+      <c r="AE17" s="160"/>
+      <c r="AF17" s="160"/>
+      <c r="AG17" s="160"/>
+      <c r="AH17" s="160"/>
+      <c r="AI17" s="160"/>
+      <c r="AJ17" s="160"/>
+      <c r="AK17" s="160"/>
+      <c r="AL17" s="160"/>
+      <c r="AM17" s="161"/>
+      <c r="AN17" s="162"/>
+      <c r="AO17" s="163"/>
+      <c r="AP17" s="163"/>
+      <c r="AQ17" s="163"/>
+      <c r="AR17" s="164"/>
+      <c r="AS17" s="162"/>
+      <c r="AT17" s="163"/>
+      <c r="AU17" s="163"/>
+      <c r="AV17" s="163"/>
+      <c r="AW17" s="164"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="152"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="147"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="149"/>
-      <c r="X18" s="149"/>
-      <c r="Y18" s="149"/>
-      <c r="Z18" s="149"/>
-      <c r="AA18" s="149"/>
-      <c r="AB18" s="149"/>
-      <c r="AC18" s="149"/>
-      <c r="AD18" s="149"/>
-      <c r="AE18" s="149"/>
-      <c r="AF18" s="149"/>
-      <c r="AG18" s="149"/>
-      <c r="AH18" s="149"/>
-      <c r="AI18" s="149"/>
-      <c r="AJ18" s="149"/>
-      <c r="AK18" s="149"/>
-      <c r="AL18" s="149"/>
-      <c r="AM18" s="150"/>
-      <c r="AN18" s="134"/>
-      <c r="AO18" s="135"/>
-      <c r="AP18" s="135"/>
-      <c r="AQ18" s="135"/>
-      <c r="AR18" s="136"/>
-      <c r="AS18" s="134"/>
-      <c r="AT18" s="135"/>
-      <c r="AU18" s="135"/>
-      <c r="AV18" s="135"/>
-      <c r="AW18" s="136"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="167"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="157"/>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="158"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="159"/>
+      <c r="W18" s="160"/>
+      <c r="X18" s="160"/>
+      <c r="Y18" s="160"/>
+      <c r="Z18" s="160"/>
+      <c r="AA18" s="160"/>
+      <c r="AB18" s="160"/>
+      <c r="AC18" s="160"/>
+      <c r="AD18" s="160"/>
+      <c r="AE18" s="160"/>
+      <c r="AF18" s="160"/>
+      <c r="AG18" s="160"/>
+      <c r="AH18" s="160"/>
+      <c r="AI18" s="160"/>
+      <c r="AJ18" s="160"/>
+      <c r="AK18" s="160"/>
+      <c r="AL18" s="160"/>
+      <c r="AM18" s="161"/>
+      <c r="AN18" s="162"/>
+      <c r="AO18" s="163"/>
+      <c r="AP18" s="163"/>
+      <c r="AQ18" s="163"/>
+      <c r="AR18" s="164"/>
+      <c r="AS18" s="162"/>
+      <c r="AT18" s="163"/>
+      <c r="AU18" s="163"/>
+      <c r="AV18" s="163"/>
+      <c r="AW18" s="164"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="149"/>
-      <c r="X19" s="149"/>
-      <c r="Y19" s="149"/>
-      <c r="Z19" s="149"/>
-      <c r="AA19" s="149"/>
-      <c r="AB19" s="149"/>
-      <c r="AC19" s="149"/>
-      <c r="AD19" s="149"/>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="149"/>
-      <c r="AG19" s="149"/>
-      <c r="AH19" s="149"/>
-      <c r="AI19" s="149"/>
-      <c r="AJ19" s="149"/>
-      <c r="AK19" s="149"/>
-      <c r="AL19" s="149"/>
-      <c r="AM19" s="150"/>
-      <c r="AN19" s="147"/>
-      <c r="AO19" s="147"/>
-      <c r="AP19" s="147"/>
-      <c r="AQ19" s="147"/>
-      <c r="AR19" s="147"/>
-      <c r="AS19" s="134"/>
-      <c r="AT19" s="135"/>
-      <c r="AU19" s="135"/>
-      <c r="AV19" s="135"/>
-      <c r="AW19" s="136"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="158"/>
+      <c r="S19" s="143"/>
+      <c r="T19" s="143"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="159"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="160"/>
+      <c r="Y19" s="160"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="160"/>
+      <c r="AB19" s="160"/>
+      <c r="AC19" s="160"/>
+      <c r="AD19" s="160"/>
+      <c r="AE19" s="160"/>
+      <c r="AF19" s="160"/>
+      <c r="AG19" s="160"/>
+      <c r="AH19" s="160"/>
+      <c r="AI19" s="160"/>
+      <c r="AJ19" s="160"/>
+      <c r="AK19" s="160"/>
+      <c r="AL19" s="160"/>
+      <c r="AM19" s="161"/>
+      <c r="AN19" s="143"/>
+      <c r="AO19" s="143"/>
+      <c r="AP19" s="143"/>
+      <c r="AQ19" s="143"/>
+      <c r="AR19" s="143"/>
+      <c r="AS19" s="162"/>
+      <c r="AT19" s="163"/>
+      <c r="AU19" s="163"/>
+      <c r="AV19" s="163"/>
+      <c r="AW19" s="164"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="134"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="136"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="149"/>
-      <c r="X20" s="149"/>
-      <c r="Y20" s="149"/>
-      <c r="Z20" s="149"/>
-      <c r="AA20" s="149"/>
-      <c r="AB20" s="149"/>
-      <c r="AC20" s="149"/>
-      <c r="AD20" s="149"/>
-      <c r="AE20" s="149"/>
-      <c r="AF20" s="149"/>
-      <c r="AG20" s="149"/>
-      <c r="AH20" s="149"/>
-      <c r="AI20" s="149"/>
-      <c r="AJ20" s="149"/>
-      <c r="AK20" s="149"/>
-      <c r="AL20" s="149"/>
-      <c r="AM20" s="150"/>
-      <c r="AN20" s="134"/>
-      <c r="AO20" s="135"/>
-      <c r="AP20" s="135"/>
-      <c r="AQ20" s="135"/>
-      <c r="AR20" s="136"/>
-      <c r="AS20" s="134"/>
-      <c r="AT20" s="135"/>
-      <c r="AU20" s="135"/>
-      <c r="AV20" s="135"/>
-      <c r="AW20" s="136"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="157"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="158"/>
+      <c r="S20" s="162"/>
+      <c r="T20" s="163"/>
+      <c r="U20" s="164"/>
+      <c r="V20" s="159"/>
+      <c r="W20" s="160"/>
+      <c r="X20" s="160"/>
+      <c r="Y20" s="160"/>
+      <c r="Z20" s="160"/>
+      <c r="AA20" s="160"/>
+      <c r="AB20" s="160"/>
+      <c r="AC20" s="160"/>
+      <c r="AD20" s="160"/>
+      <c r="AE20" s="160"/>
+      <c r="AF20" s="160"/>
+      <c r="AG20" s="160"/>
+      <c r="AH20" s="160"/>
+      <c r="AI20" s="160"/>
+      <c r="AJ20" s="160"/>
+      <c r="AK20" s="160"/>
+      <c r="AL20" s="160"/>
+      <c r="AM20" s="161"/>
+      <c r="AN20" s="162"/>
+      <c r="AO20" s="163"/>
+      <c r="AP20" s="163"/>
+      <c r="AQ20" s="163"/>
+      <c r="AR20" s="164"/>
+      <c r="AS20" s="162"/>
+      <c r="AT20" s="163"/>
+      <c r="AU20" s="163"/>
+      <c r="AV20" s="163"/>
+      <c r="AW20" s="164"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="152"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="147"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="149"/>
-      <c r="X21" s="149"/>
-      <c r="Y21" s="149"/>
-      <c r="Z21" s="149"/>
-      <c r="AA21" s="149"/>
-      <c r="AB21" s="149"/>
-      <c r="AC21" s="149"/>
-      <c r="AD21" s="149"/>
-      <c r="AE21" s="149"/>
-      <c r="AF21" s="149"/>
-      <c r="AG21" s="149"/>
-      <c r="AH21" s="149"/>
-      <c r="AI21" s="149"/>
-      <c r="AJ21" s="149"/>
-      <c r="AK21" s="149"/>
-      <c r="AL21" s="149"/>
-      <c r="AM21" s="150"/>
-      <c r="AN21" s="134"/>
-      <c r="AO21" s="135"/>
-      <c r="AP21" s="135"/>
-      <c r="AQ21" s="135"/>
-      <c r="AR21" s="136"/>
-      <c r="AS21" s="134"/>
-      <c r="AT21" s="135"/>
-      <c r="AU21" s="135"/>
-      <c r="AV21" s="135"/>
-      <c r="AW21" s="136"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="158"/>
+      <c r="S21" s="143"/>
+      <c r="T21" s="143"/>
+      <c r="U21" s="143"/>
+      <c r="V21" s="159"/>
+      <c r="W21" s="160"/>
+      <c r="X21" s="160"/>
+      <c r="Y21" s="160"/>
+      <c r="Z21" s="160"/>
+      <c r="AA21" s="160"/>
+      <c r="AB21" s="160"/>
+      <c r="AC21" s="160"/>
+      <c r="AD21" s="160"/>
+      <c r="AE21" s="160"/>
+      <c r="AF21" s="160"/>
+      <c r="AG21" s="160"/>
+      <c r="AH21" s="160"/>
+      <c r="AI21" s="160"/>
+      <c r="AJ21" s="160"/>
+      <c r="AK21" s="160"/>
+      <c r="AL21" s="160"/>
+      <c r="AM21" s="161"/>
+      <c r="AN21" s="162"/>
+      <c r="AO21" s="163"/>
+      <c r="AP21" s="163"/>
+      <c r="AQ21" s="163"/>
+      <c r="AR21" s="164"/>
+      <c r="AS21" s="162"/>
+      <c r="AT21" s="163"/>
+      <c r="AU21" s="163"/>
+      <c r="AV21" s="163"/>
+      <c r="AW21" s="164"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="149"/>
-      <c r="X22" s="149"/>
-      <c r="Y22" s="149"/>
-      <c r="Z22" s="149"/>
-      <c r="AA22" s="149"/>
-      <c r="AB22" s="149"/>
-      <c r="AC22" s="149"/>
-      <c r="AD22" s="149"/>
-      <c r="AE22" s="149"/>
-      <c r="AF22" s="149"/>
-      <c r="AG22" s="149"/>
-      <c r="AH22" s="149"/>
-      <c r="AI22" s="149"/>
-      <c r="AJ22" s="149"/>
-      <c r="AK22" s="149"/>
-      <c r="AL22" s="149"/>
-      <c r="AM22" s="150"/>
-      <c r="AN22" s="134"/>
-      <c r="AO22" s="135"/>
-      <c r="AP22" s="135"/>
-      <c r="AQ22" s="135"/>
-      <c r="AR22" s="136"/>
-      <c r="AS22" s="134"/>
-      <c r="AT22" s="135"/>
-      <c r="AU22" s="135"/>
-      <c r="AV22" s="135"/>
-      <c r="AW22" s="136"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="158"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="143"/>
+      <c r="V22" s="159"/>
+      <c r="W22" s="160"/>
+      <c r="X22" s="160"/>
+      <c r="Y22" s="160"/>
+      <c r="Z22" s="160"/>
+      <c r="AA22" s="160"/>
+      <c r="AB22" s="160"/>
+      <c r="AC22" s="160"/>
+      <c r="AD22" s="160"/>
+      <c r="AE22" s="160"/>
+      <c r="AF22" s="160"/>
+      <c r="AG22" s="160"/>
+      <c r="AH22" s="160"/>
+      <c r="AI22" s="160"/>
+      <c r="AJ22" s="160"/>
+      <c r="AK22" s="160"/>
+      <c r="AL22" s="160"/>
+      <c r="AM22" s="161"/>
+      <c r="AN22" s="162"/>
+      <c r="AO22" s="163"/>
+      <c r="AP22" s="163"/>
+      <c r="AQ22" s="163"/>
+      <c r="AR22" s="164"/>
+      <c r="AS22" s="162"/>
+      <c r="AT22" s="163"/>
+      <c r="AU22" s="163"/>
+      <c r="AV22" s="163"/>
+      <c r="AW22" s="164"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="147"/>
-      <c r="U23" s="147"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="149"/>
-      <c r="X23" s="149"/>
-      <c r="Y23" s="149"/>
-      <c r="Z23" s="149"/>
-      <c r="AA23" s="149"/>
-      <c r="AB23" s="149"/>
-      <c r="AC23" s="149"/>
-      <c r="AD23" s="149"/>
-      <c r="AE23" s="149"/>
-      <c r="AF23" s="149"/>
-      <c r="AG23" s="149"/>
-      <c r="AH23" s="149"/>
-      <c r="AI23" s="149"/>
-      <c r="AJ23" s="149"/>
-      <c r="AK23" s="149"/>
-      <c r="AL23" s="149"/>
-      <c r="AM23" s="150"/>
-      <c r="AN23" s="134"/>
-      <c r="AO23" s="135"/>
-      <c r="AP23" s="135"/>
-      <c r="AQ23" s="135"/>
-      <c r="AR23" s="136"/>
-      <c r="AS23" s="134"/>
-      <c r="AT23" s="135"/>
-      <c r="AU23" s="135"/>
-      <c r="AV23" s="135"/>
-      <c r="AW23" s="136"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="158"/>
+      <c r="S23" s="143"/>
+      <c r="T23" s="143"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="159"/>
+      <c r="W23" s="160"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="160"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="160"/>
+      <c r="AB23" s="160"/>
+      <c r="AC23" s="160"/>
+      <c r="AD23" s="160"/>
+      <c r="AE23" s="160"/>
+      <c r="AF23" s="160"/>
+      <c r="AG23" s="160"/>
+      <c r="AH23" s="160"/>
+      <c r="AI23" s="160"/>
+      <c r="AJ23" s="160"/>
+      <c r="AK23" s="160"/>
+      <c r="AL23" s="160"/>
+      <c r="AM23" s="161"/>
+      <c r="AN23" s="162"/>
+      <c r="AO23" s="163"/>
+      <c r="AP23" s="163"/>
+      <c r="AQ23" s="163"/>
+      <c r="AR23" s="164"/>
+      <c r="AS23" s="162"/>
+      <c r="AT23" s="163"/>
+      <c r="AU23" s="163"/>
+      <c r="AV23" s="163"/>
+      <c r="AW23" s="164"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="149"/>
-      <c r="X24" s="149"/>
-      <c r="Y24" s="149"/>
-      <c r="Z24" s="149"/>
-      <c r="AA24" s="149"/>
-      <c r="AB24" s="149"/>
-      <c r="AC24" s="149"/>
-      <c r="AD24" s="149"/>
-      <c r="AE24" s="149"/>
-      <c r="AF24" s="149"/>
-      <c r="AG24" s="149"/>
-      <c r="AH24" s="149"/>
-      <c r="AI24" s="149"/>
-      <c r="AJ24" s="149"/>
-      <c r="AK24" s="149"/>
-      <c r="AL24" s="149"/>
-      <c r="AM24" s="150"/>
-      <c r="AN24" s="134"/>
-      <c r="AO24" s="135"/>
-      <c r="AP24" s="135"/>
-      <c r="AQ24" s="135"/>
-      <c r="AR24" s="136"/>
-      <c r="AS24" s="134"/>
-      <c r="AT24" s="135"/>
-      <c r="AU24" s="135"/>
-      <c r="AV24" s="135"/>
-      <c r="AW24" s="136"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="157"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="158"/>
+      <c r="S24" s="143"/>
+      <c r="T24" s="143"/>
+      <c r="U24" s="143"/>
+      <c r="V24" s="159"/>
+      <c r="W24" s="160"/>
+      <c r="X24" s="160"/>
+      <c r="Y24" s="160"/>
+      <c r="Z24" s="160"/>
+      <c r="AA24" s="160"/>
+      <c r="AB24" s="160"/>
+      <c r="AC24" s="160"/>
+      <c r="AD24" s="160"/>
+      <c r="AE24" s="160"/>
+      <c r="AF24" s="160"/>
+      <c r="AG24" s="160"/>
+      <c r="AH24" s="160"/>
+      <c r="AI24" s="160"/>
+      <c r="AJ24" s="160"/>
+      <c r="AK24" s="160"/>
+      <c r="AL24" s="160"/>
+      <c r="AM24" s="161"/>
+      <c r="AN24" s="162"/>
+      <c r="AO24" s="163"/>
+      <c r="AP24" s="163"/>
+      <c r="AQ24" s="163"/>
+      <c r="AR24" s="164"/>
+      <c r="AS24" s="162"/>
+      <c r="AT24" s="163"/>
+      <c r="AU24" s="163"/>
+      <c r="AV24" s="163"/>
+      <c r="AW24" s="164"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="152"/>
-      <c r="O25" s="152"/>
-      <c r="P25" s="152"/>
-      <c r="Q25" s="152"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="147"/>
-      <c r="U25" s="147"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="149"/>
-      <c r="X25" s="149"/>
-      <c r="Y25" s="149"/>
-      <c r="Z25" s="149"/>
-      <c r="AA25" s="149"/>
-      <c r="AB25" s="149"/>
-      <c r="AC25" s="149"/>
-      <c r="AD25" s="149"/>
-      <c r="AE25" s="149"/>
-      <c r="AF25" s="149"/>
-      <c r="AG25" s="149"/>
-      <c r="AH25" s="149"/>
-      <c r="AI25" s="149"/>
-      <c r="AJ25" s="149"/>
-      <c r="AK25" s="149"/>
-      <c r="AL25" s="149"/>
-      <c r="AM25" s="150"/>
-      <c r="AN25" s="134"/>
-      <c r="AO25" s="135"/>
-      <c r="AP25" s="135"/>
-      <c r="AQ25" s="135"/>
-      <c r="AR25" s="136"/>
-      <c r="AS25" s="134"/>
-      <c r="AT25" s="135"/>
-      <c r="AU25" s="135"/>
-      <c r="AV25" s="135"/>
-      <c r="AW25" s="136"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="167"/>
+      <c r="N25" s="157"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="157"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="158"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="159"/>
+      <c r="W25" s="160"/>
+      <c r="X25" s="160"/>
+      <c r="Y25" s="160"/>
+      <c r="Z25" s="160"/>
+      <c r="AA25" s="160"/>
+      <c r="AB25" s="160"/>
+      <c r="AC25" s="160"/>
+      <c r="AD25" s="160"/>
+      <c r="AE25" s="160"/>
+      <c r="AF25" s="160"/>
+      <c r="AG25" s="160"/>
+      <c r="AH25" s="160"/>
+      <c r="AI25" s="160"/>
+      <c r="AJ25" s="160"/>
+      <c r="AK25" s="160"/>
+      <c r="AL25" s="160"/>
+      <c r="AM25" s="161"/>
+      <c r="AN25" s="162"/>
+      <c r="AO25" s="163"/>
+      <c r="AP25" s="163"/>
+      <c r="AQ25" s="163"/>
+      <c r="AR25" s="164"/>
+      <c r="AS25" s="162"/>
+      <c r="AT25" s="163"/>
+      <c r="AU25" s="163"/>
+      <c r="AV25" s="163"/>
+      <c r="AW25" s="164"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="147"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="149"/>
-      <c r="X26" s="149"/>
-      <c r="Y26" s="149"/>
-      <c r="Z26" s="149"/>
-      <c r="AA26" s="149"/>
-      <c r="AB26" s="149"/>
-      <c r="AC26" s="149"/>
-      <c r="AD26" s="149"/>
-      <c r="AE26" s="149"/>
-      <c r="AF26" s="149"/>
-      <c r="AG26" s="149"/>
-      <c r="AH26" s="149"/>
-      <c r="AI26" s="149"/>
-      <c r="AJ26" s="149"/>
-      <c r="AK26" s="149"/>
-      <c r="AL26" s="149"/>
-      <c r="AM26" s="150"/>
-      <c r="AN26" s="134"/>
-      <c r="AO26" s="135"/>
-      <c r="AP26" s="135"/>
-      <c r="AQ26" s="135"/>
-      <c r="AR26" s="136"/>
-      <c r="AS26" s="134"/>
-      <c r="AT26" s="135"/>
-      <c r="AU26" s="135"/>
-      <c r="AV26" s="135"/>
-      <c r="AW26" s="136"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="157"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="143"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="160"/>
+      <c r="X26" s="160"/>
+      <c r="Y26" s="160"/>
+      <c r="Z26" s="160"/>
+      <c r="AA26" s="160"/>
+      <c r="AB26" s="160"/>
+      <c r="AC26" s="160"/>
+      <c r="AD26" s="160"/>
+      <c r="AE26" s="160"/>
+      <c r="AF26" s="160"/>
+      <c r="AG26" s="160"/>
+      <c r="AH26" s="160"/>
+      <c r="AI26" s="160"/>
+      <c r="AJ26" s="160"/>
+      <c r="AK26" s="160"/>
+      <c r="AL26" s="160"/>
+      <c r="AM26" s="161"/>
+      <c r="AN26" s="162"/>
+      <c r="AO26" s="163"/>
+      <c r="AP26" s="163"/>
+      <c r="AQ26" s="163"/>
+      <c r="AR26" s="164"/>
+      <c r="AS26" s="162"/>
+      <c r="AT26" s="163"/>
+      <c r="AU26" s="163"/>
+      <c r="AV26" s="163"/>
+      <c r="AW26" s="164"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="152"/>
-      <c r="O27" s="152"/>
-      <c r="P27" s="152"/>
-      <c r="Q27" s="152"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="147"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="147"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="149"/>
-      <c r="X27" s="149"/>
-      <c r="Y27" s="149"/>
-      <c r="Z27" s="149"/>
-      <c r="AA27" s="149"/>
-      <c r="AB27" s="149"/>
-      <c r="AC27" s="149"/>
-      <c r="AD27" s="149"/>
-      <c r="AE27" s="149"/>
-      <c r="AF27" s="149"/>
-      <c r="AG27" s="149"/>
-      <c r="AH27" s="149"/>
-      <c r="AI27" s="149"/>
-      <c r="AJ27" s="149"/>
-      <c r="AK27" s="149"/>
-      <c r="AL27" s="149"/>
-      <c r="AM27" s="150"/>
-      <c r="AN27" s="134"/>
-      <c r="AO27" s="135"/>
-      <c r="AP27" s="135"/>
-      <c r="AQ27" s="135"/>
-      <c r="AR27" s="136"/>
-      <c r="AS27" s="134"/>
-      <c r="AT27" s="135"/>
-      <c r="AU27" s="135"/>
-      <c r="AV27" s="135"/>
-      <c r="AW27" s="136"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="167"/>
+      <c r="N27" s="157"/>
+      <c r="O27" s="157"/>
+      <c r="P27" s="157"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="158"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="143"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="159"/>
+      <c r="W27" s="160"/>
+      <c r="X27" s="160"/>
+      <c r="Y27" s="160"/>
+      <c r="Z27" s="160"/>
+      <c r="AA27" s="160"/>
+      <c r="AB27" s="160"/>
+      <c r="AC27" s="160"/>
+      <c r="AD27" s="160"/>
+      <c r="AE27" s="160"/>
+      <c r="AF27" s="160"/>
+      <c r="AG27" s="160"/>
+      <c r="AH27" s="160"/>
+      <c r="AI27" s="160"/>
+      <c r="AJ27" s="160"/>
+      <c r="AK27" s="160"/>
+      <c r="AL27" s="160"/>
+      <c r="AM27" s="161"/>
+      <c r="AN27" s="162"/>
+      <c r="AO27" s="163"/>
+      <c r="AP27" s="163"/>
+      <c r="AQ27" s="163"/>
+      <c r="AR27" s="164"/>
+      <c r="AS27" s="162"/>
+      <c r="AT27" s="163"/>
+      <c r="AU27" s="163"/>
+      <c r="AV27" s="163"/>
+      <c r="AW27" s="164"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="152"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="147"/>
-      <c r="T28" s="147"/>
-      <c r="U28" s="147"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="149"/>
-      <c r="X28" s="149"/>
-      <c r="Y28" s="149"/>
-      <c r="Z28" s="149"/>
-      <c r="AA28" s="149"/>
-      <c r="AB28" s="149"/>
-      <c r="AC28" s="149"/>
-      <c r="AD28" s="149"/>
-      <c r="AE28" s="149"/>
-      <c r="AF28" s="149"/>
-      <c r="AG28" s="149"/>
-      <c r="AH28" s="149"/>
-      <c r="AI28" s="149"/>
-      <c r="AJ28" s="149"/>
-      <c r="AK28" s="149"/>
-      <c r="AL28" s="149"/>
-      <c r="AM28" s="150"/>
-      <c r="AN28" s="134"/>
-      <c r="AO28" s="135"/>
-      <c r="AP28" s="135"/>
-      <c r="AQ28" s="135"/>
-      <c r="AR28" s="136"/>
-      <c r="AS28" s="134"/>
-      <c r="AT28" s="135"/>
-      <c r="AU28" s="135"/>
-      <c r="AV28" s="135"/>
-      <c r="AW28" s="136"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="158"/>
+      <c r="S28" s="143"/>
+      <c r="T28" s="143"/>
+      <c r="U28" s="143"/>
+      <c r="V28" s="159"/>
+      <c r="W28" s="160"/>
+      <c r="X28" s="160"/>
+      <c r="Y28" s="160"/>
+      <c r="Z28" s="160"/>
+      <c r="AA28" s="160"/>
+      <c r="AB28" s="160"/>
+      <c r="AC28" s="160"/>
+      <c r="AD28" s="160"/>
+      <c r="AE28" s="160"/>
+      <c r="AF28" s="160"/>
+      <c r="AG28" s="160"/>
+      <c r="AH28" s="160"/>
+      <c r="AI28" s="160"/>
+      <c r="AJ28" s="160"/>
+      <c r="AK28" s="160"/>
+      <c r="AL28" s="160"/>
+      <c r="AM28" s="161"/>
+      <c r="AN28" s="162"/>
+      <c r="AO28" s="163"/>
+      <c r="AP28" s="163"/>
+      <c r="AQ28" s="163"/>
+      <c r="AR28" s="164"/>
+      <c r="AS28" s="162"/>
+      <c r="AT28" s="163"/>
+      <c r="AU28" s="163"/>
+      <c r="AV28" s="163"/>
+      <c r="AW28" s="164"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="152"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="152"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="149"/>
-      <c r="X29" s="149"/>
-      <c r="Y29" s="149"/>
-      <c r="Z29" s="149"/>
-      <c r="AA29" s="149"/>
-      <c r="AB29" s="149"/>
-      <c r="AC29" s="149"/>
-      <c r="AD29" s="149"/>
-      <c r="AE29" s="149"/>
-      <c r="AF29" s="149"/>
-      <c r="AG29" s="149"/>
-      <c r="AH29" s="149"/>
-      <c r="AI29" s="149"/>
-      <c r="AJ29" s="149"/>
-      <c r="AK29" s="149"/>
-      <c r="AL29" s="149"/>
-      <c r="AM29" s="150"/>
-      <c r="AN29" s="134"/>
-      <c r="AO29" s="135"/>
-      <c r="AP29" s="135"/>
-      <c r="AQ29" s="135"/>
-      <c r="AR29" s="136"/>
-      <c r="AS29" s="134"/>
-      <c r="AT29" s="135"/>
-      <c r="AU29" s="135"/>
-      <c r="AV29" s="135"/>
-      <c r="AW29" s="136"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="158"/>
+      <c r="S29" s="143"/>
+      <c r="T29" s="143"/>
+      <c r="U29" s="143"/>
+      <c r="V29" s="159"/>
+      <c r="W29" s="160"/>
+      <c r="X29" s="160"/>
+      <c r="Y29" s="160"/>
+      <c r="Z29" s="160"/>
+      <c r="AA29" s="160"/>
+      <c r="AB29" s="160"/>
+      <c r="AC29" s="160"/>
+      <c r="AD29" s="160"/>
+      <c r="AE29" s="160"/>
+      <c r="AF29" s="160"/>
+      <c r="AG29" s="160"/>
+      <c r="AH29" s="160"/>
+      <c r="AI29" s="160"/>
+      <c r="AJ29" s="160"/>
+      <c r="AK29" s="160"/>
+      <c r="AL29" s="160"/>
+      <c r="AM29" s="161"/>
+      <c r="AN29" s="162"/>
+      <c r="AO29" s="163"/>
+      <c r="AP29" s="163"/>
+      <c r="AQ29" s="163"/>
+      <c r="AR29" s="164"/>
+      <c r="AS29" s="162"/>
+      <c r="AT29" s="163"/>
+      <c r="AU29" s="163"/>
+      <c r="AV29" s="163"/>
+      <c r="AW29" s="164"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="143"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="152"/>
-      <c r="R30" s="153"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="147"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="149"/>
-      <c r="X30" s="149"/>
-      <c r="Y30" s="149"/>
-      <c r="Z30" s="149"/>
-      <c r="AA30" s="149"/>
-      <c r="AB30" s="149"/>
-      <c r="AC30" s="149"/>
-      <c r="AD30" s="149"/>
-      <c r="AE30" s="149"/>
-      <c r="AF30" s="149"/>
-      <c r="AG30" s="149"/>
-      <c r="AH30" s="149"/>
-      <c r="AI30" s="149"/>
-      <c r="AJ30" s="149"/>
-      <c r="AK30" s="149"/>
-      <c r="AL30" s="149"/>
-      <c r="AM30" s="150"/>
-      <c r="AN30" s="134"/>
-      <c r="AO30" s="135"/>
-      <c r="AP30" s="135"/>
-      <c r="AQ30" s="135"/>
-      <c r="AR30" s="136"/>
-      <c r="AS30" s="134"/>
-      <c r="AT30" s="135"/>
-      <c r="AU30" s="135"/>
-      <c r="AV30" s="135"/>
-      <c r="AW30" s="136"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="157"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="158"/>
+      <c r="S30" s="143"/>
+      <c r="T30" s="143"/>
+      <c r="U30" s="143"/>
+      <c r="V30" s="159"/>
+      <c r="W30" s="160"/>
+      <c r="X30" s="160"/>
+      <c r="Y30" s="160"/>
+      <c r="Z30" s="160"/>
+      <c r="AA30" s="160"/>
+      <c r="AB30" s="160"/>
+      <c r="AC30" s="160"/>
+      <c r="AD30" s="160"/>
+      <c r="AE30" s="160"/>
+      <c r="AF30" s="160"/>
+      <c r="AG30" s="160"/>
+      <c r="AH30" s="160"/>
+      <c r="AI30" s="160"/>
+      <c r="AJ30" s="160"/>
+      <c r="AK30" s="160"/>
+      <c r="AL30" s="160"/>
+      <c r="AM30" s="161"/>
+      <c r="AN30" s="162"/>
+      <c r="AO30" s="163"/>
+      <c r="AP30" s="163"/>
+      <c r="AQ30" s="163"/>
+      <c r="AR30" s="164"/>
+      <c r="AS30" s="162"/>
+      <c r="AT30" s="163"/>
+      <c r="AU30" s="163"/>
+      <c r="AV30" s="163"/>
+      <c r="AW30" s="164"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="142"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="152"/>
-      <c r="O31" s="152"/>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="152"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="147"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="149"/>
-      <c r="X31" s="149"/>
-      <c r="Y31" s="149"/>
-      <c r="Z31" s="149"/>
-      <c r="AA31" s="149"/>
-      <c r="AB31" s="149"/>
-      <c r="AC31" s="149"/>
-      <c r="AD31" s="149"/>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="149"/>
-      <c r="AG31" s="149"/>
-      <c r="AH31" s="149"/>
-      <c r="AI31" s="149"/>
-      <c r="AJ31" s="149"/>
-      <c r="AK31" s="149"/>
-      <c r="AL31" s="149"/>
-      <c r="AM31" s="150"/>
-      <c r="AN31" s="134"/>
-      <c r="AO31" s="135"/>
-      <c r="AP31" s="135"/>
-      <c r="AQ31" s="135"/>
-      <c r="AR31" s="136"/>
-      <c r="AS31" s="134"/>
-      <c r="AT31" s="135"/>
-      <c r="AU31" s="135"/>
-      <c r="AV31" s="135"/>
-      <c r="AW31" s="136"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="167"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="158"/>
+      <c r="S31" s="143"/>
+      <c r="T31" s="143"/>
+      <c r="U31" s="143"/>
+      <c r="V31" s="159"/>
+      <c r="W31" s="160"/>
+      <c r="X31" s="160"/>
+      <c r="Y31" s="160"/>
+      <c r="Z31" s="160"/>
+      <c r="AA31" s="160"/>
+      <c r="AB31" s="160"/>
+      <c r="AC31" s="160"/>
+      <c r="AD31" s="160"/>
+      <c r="AE31" s="160"/>
+      <c r="AF31" s="160"/>
+      <c r="AG31" s="160"/>
+      <c r="AH31" s="160"/>
+      <c r="AI31" s="160"/>
+      <c r="AJ31" s="160"/>
+      <c r="AK31" s="160"/>
+      <c r="AL31" s="160"/>
+      <c r="AM31" s="161"/>
+      <c r="AN31" s="162"/>
+      <c r="AO31" s="163"/>
+      <c r="AP31" s="163"/>
+      <c r="AQ31" s="163"/>
+      <c r="AR31" s="164"/>
+      <c r="AS31" s="162"/>
+      <c r="AT31" s="163"/>
+      <c r="AU31" s="163"/>
+      <c r="AV31" s="163"/>
+      <c r="AW31" s="164"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
-      <c r="B32" s="137"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="142"/>
-      <c r="L32" s="143"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="152"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="152"/>
-      <c r="R32" s="153"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="149"/>
-      <c r="X32" s="149"/>
-      <c r="Y32" s="149"/>
-      <c r="Z32" s="149"/>
-      <c r="AA32" s="149"/>
-      <c r="AB32" s="149"/>
-      <c r="AC32" s="149"/>
-      <c r="AD32" s="149"/>
-      <c r="AE32" s="149"/>
-      <c r="AF32" s="149"/>
-      <c r="AG32" s="149"/>
-      <c r="AH32" s="149"/>
-      <c r="AI32" s="149"/>
-      <c r="AJ32" s="149"/>
-      <c r="AK32" s="149"/>
-      <c r="AL32" s="149"/>
-      <c r="AM32" s="150"/>
-      <c r="AN32" s="134"/>
-      <c r="AO32" s="135"/>
-      <c r="AP32" s="135"/>
-      <c r="AQ32" s="135"/>
-      <c r="AR32" s="136"/>
-      <c r="AS32" s="134"/>
-      <c r="AT32" s="135"/>
-      <c r="AU32" s="135"/>
-      <c r="AV32" s="135"/>
-      <c r="AW32" s="136"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="157"/>
+      <c r="O32" s="157"/>
+      <c r="P32" s="157"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="158"/>
+      <c r="S32" s="143"/>
+      <c r="T32" s="143"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="159"/>
+      <c r="W32" s="160"/>
+      <c r="X32" s="160"/>
+      <c r="Y32" s="160"/>
+      <c r="Z32" s="160"/>
+      <c r="AA32" s="160"/>
+      <c r="AB32" s="160"/>
+      <c r="AC32" s="160"/>
+      <c r="AD32" s="160"/>
+      <c r="AE32" s="160"/>
+      <c r="AF32" s="160"/>
+      <c r="AG32" s="160"/>
+      <c r="AH32" s="160"/>
+      <c r="AI32" s="160"/>
+      <c r="AJ32" s="160"/>
+      <c r="AK32" s="160"/>
+      <c r="AL32" s="160"/>
+      <c r="AM32" s="161"/>
+      <c r="AN32" s="162"/>
+      <c r="AO32" s="163"/>
+      <c r="AP32" s="163"/>
+      <c r="AQ32" s="163"/>
+      <c r="AR32" s="164"/>
+      <c r="AS32" s="162"/>
+      <c r="AT32" s="163"/>
+      <c r="AU32" s="163"/>
+      <c r="AV32" s="163"/>
+      <c r="AW32" s="164"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="137"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="143"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="152"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="152"/>
-      <c r="R33" s="153"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="147"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="149"/>
-      <c r="X33" s="149"/>
-      <c r="Y33" s="149"/>
-      <c r="Z33" s="149"/>
-      <c r="AA33" s="149"/>
-      <c r="AB33" s="149"/>
-      <c r="AC33" s="149"/>
-      <c r="AD33" s="149"/>
-      <c r="AE33" s="149"/>
-      <c r="AF33" s="149"/>
-      <c r="AG33" s="149"/>
-      <c r="AH33" s="149"/>
-      <c r="AI33" s="149"/>
-      <c r="AJ33" s="149"/>
-      <c r="AK33" s="149"/>
-      <c r="AL33" s="149"/>
-      <c r="AM33" s="150"/>
-      <c r="AN33" s="134"/>
-      <c r="AO33" s="135"/>
-      <c r="AP33" s="135"/>
-      <c r="AQ33" s="135"/>
-      <c r="AR33" s="136"/>
-      <c r="AS33" s="134"/>
-      <c r="AT33" s="135"/>
-      <c r="AU33" s="135"/>
-      <c r="AV33" s="135"/>
-      <c r="AW33" s="136"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="157"/>
+      <c r="P33" s="157"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="158"/>
+      <c r="S33" s="143"/>
+      <c r="T33" s="143"/>
+      <c r="U33" s="143"/>
+      <c r="V33" s="159"/>
+      <c r="W33" s="160"/>
+      <c r="X33" s="160"/>
+      <c r="Y33" s="160"/>
+      <c r="Z33" s="160"/>
+      <c r="AA33" s="160"/>
+      <c r="AB33" s="160"/>
+      <c r="AC33" s="160"/>
+      <c r="AD33" s="160"/>
+      <c r="AE33" s="160"/>
+      <c r="AF33" s="160"/>
+      <c r="AG33" s="160"/>
+      <c r="AH33" s="160"/>
+      <c r="AI33" s="160"/>
+      <c r="AJ33" s="160"/>
+      <c r="AK33" s="160"/>
+      <c r="AL33" s="160"/>
+      <c r="AM33" s="161"/>
+      <c r="AN33" s="162"/>
+      <c r="AO33" s="163"/>
+      <c r="AP33" s="163"/>
+      <c r="AQ33" s="163"/>
+      <c r="AR33" s="164"/>
+      <c r="AS33" s="162"/>
+      <c r="AT33" s="163"/>
+      <c r="AU33" s="163"/>
+      <c r="AV33" s="163"/>
+      <c r="AW33" s="164"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="137"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="144"/>
-      <c r="N34" s="145"/>
-      <c r="O34" s="145"/>
-      <c r="P34" s="145"/>
-      <c r="Q34" s="145"/>
-      <c r="R34" s="146"/>
-      <c r="S34" s="147"/>
-      <c r="T34" s="147"/>
-      <c r="U34" s="147"/>
-      <c r="V34" s="148"/>
-      <c r="W34" s="149"/>
-      <c r="X34" s="149"/>
-      <c r="Y34" s="149"/>
-      <c r="Z34" s="149"/>
-      <c r="AA34" s="149"/>
-      <c r="AB34" s="149"/>
-      <c r="AC34" s="149"/>
-      <c r="AD34" s="149"/>
-      <c r="AE34" s="149"/>
-      <c r="AF34" s="149"/>
-      <c r="AG34" s="149"/>
-      <c r="AH34" s="149"/>
-      <c r="AI34" s="149"/>
-      <c r="AJ34" s="149"/>
-      <c r="AK34" s="149"/>
-      <c r="AL34" s="149"/>
-      <c r="AM34" s="150"/>
-      <c r="AN34" s="134"/>
-      <c r="AO34" s="135"/>
-      <c r="AP34" s="135"/>
-      <c r="AQ34" s="135"/>
-      <c r="AR34" s="136"/>
-      <c r="AS34" s="134"/>
-      <c r="AT34" s="135"/>
-      <c r="AU34" s="135"/>
-      <c r="AV34" s="135"/>
-      <c r="AW34" s="136"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="171"/>
+      <c r="N34" s="172"/>
+      <c r="O34" s="172"/>
+      <c r="P34" s="172"/>
+      <c r="Q34" s="172"/>
+      <c r="R34" s="173"/>
+      <c r="S34" s="143"/>
+      <c r="T34" s="143"/>
+      <c r="U34" s="143"/>
+      <c r="V34" s="159"/>
+      <c r="W34" s="160"/>
+      <c r="X34" s="160"/>
+      <c r="Y34" s="160"/>
+      <c r="Z34" s="160"/>
+      <c r="AA34" s="160"/>
+      <c r="AB34" s="160"/>
+      <c r="AC34" s="160"/>
+      <c r="AD34" s="160"/>
+      <c r="AE34" s="160"/>
+      <c r="AF34" s="160"/>
+      <c r="AG34" s="160"/>
+      <c r="AH34" s="160"/>
+      <c r="AI34" s="160"/>
+      <c r="AJ34" s="160"/>
+      <c r="AK34" s="160"/>
+      <c r="AL34" s="160"/>
+      <c r="AM34" s="161"/>
+      <c r="AN34" s="162"/>
+      <c r="AO34" s="163"/>
+      <c r="AP34" s="163"/>
+      <c r="AQ34" s="163"/>
+      <c r="AR34" s="164"/>
+      <c r="AS34" s="162"/>
+      <c r="AT34" s="163"/>
+      <c r="AU34" s="163"/>
+      <c r="AV34" s="163"/>
+      <c r="AW34" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -7164,230 +7385,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7526,7 +7532,7 @@
       <c r="U2" s="98"/>
       <c r="V2" s="99"/>
       <c r="W2" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X2" s="40"/>
       <c r="Y2" s="40"/>
@@ -7547,11 +7553,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="174"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="175"/>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="176"/>
+      <c r="AO2" s="178"/>
+      <c r="AP2" s="179"/>
+      <c r="AQ2" s="179"/>
+      <c r="AR2" s="179"/>
+      <c r="AS2" s="180"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -7560,14 +7566,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="177"/>
-      <c r="BA2" s="178"/>
-      <c r="BB2" s="178"/>
-      <c r="BC2" s="178"/>
-      <c r="BD2" s="178"/>
-      <c r="BE2" s="178"/>
-      <c r="BF2" s="178"/>
-      <c r="BG2" s="179"/>
+      <c r="AZ2" s="181"/>
+      <c r="BA2" s="182"/>
+      <c r="BB2" s="182"/>
+      <c r="BC2" s="182"/>
+      <c r="BD2" s="182"/>
+      <c r="BE2" s="182"/>
+      <c r="BF2" s="182"/>
+      <c r="BG2" s="183"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -8753,7 +8759,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O36" s="9"/>
       <c r="T36" s="9"/>
@@ -8802,7 +8808,7 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O37" s="9"/>
       <c r="T37" s="9"/>
@@ -8849,7 +8855,7 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O38" s="9"/>
       <c r="T38" s="9"/>
@@ -9324,10 +9330,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="182" t="s">
+      <c r="B50" s="184" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="183"/>
+      <c r="C50" s="185"/>
       <c r="D50" s="91" t="s">
         <v>105</v>
       </c>
@@ -9410,12 +9416,12 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="184">
+      <c r="B51" s="176">
         <v>1</v>
       </c>
-      <c r="C51" s="185"/>
+      <c r="C51" s="177"/>
       <c r="D51" s="116" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E51" s="89"/>
       <c r="F51" s="89"/>
@@ -9445,18 +9451,18 @@
       <c r="AB51" s="89"/>
       <c r="AC51" s="89"/>
       <c r="AD51" s="117"/>
-      <c r="AE51" s="180" t="s">
+      <c r="AE51" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AF51" s="181"/>
-      <c r="AG51" s="180"/>
-      <c r="AH51" s="181"/>
-      <c r="AI51" s="180"/>
-      <c r="AJ51" s="181"/>
-      <c r="AK51" s="180"/>
-      <c r="AL51" s="181"/>
+      <c r="AF51" s="175"/>
+      <c r="AG51" s="174"/>
+      <c r="AH51" s="175"/>
+      <c r="AI51" s="174"/>
+      <c r="AJ51" s="175"/>
+      <c r="AK51" s="174"/>
+      <c r="AL51" s="175"/>
       <c r="AM51" s="86" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN51" s="87"/>
       <c r="AO51" s="87"/>
@@ -9488,12 +9494,12 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="184">
+      <c r="B52" s="176">
         <v>2</v>
       </c>
-      <c r="C52" s="185"/>
+      <c r="C52" s="177"/>
       <c r="D52" s="116" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E52" s="89"/>
       <c r="F52" s="89"/>
@@ -9502,7 +9508,7 @@
       <c r="I52" s="89"/>
       <c r="J52" s="117"/>
       <c r="K52" s="116" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L52" s="89"/>
       <c r="M52" s="89"/>
@@ -9523,18 +9529,18 @@
       <c r="AB52" s="89"/>
       <c r="AC52" s="89"/>
       <c r="AD52" s="117"/>
-      <c r="AE52" s="180" t="s">
+      <c r="AE52" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AF52" s="181"/>
-      <c r="AG52" s="180"/>
-      <c r="AH52" s="181"/>
-      <c r="AI52" s="180"/>
-      <c r="AJ52" s="181"/>
-      <c r="AK52" s="180"/>
-      <c r="AL52" s="181"/>
+      <c r="AF52" s="175"/>
+      <c r="AG52" s="174"/>
+      <c r="AH52" s="175"/>
+      <c r="AI52" s="174"/>
+      <c r="AJ52" s="175"/>
+      <c r="AK52" s="174"/>
+      <c r="AL52" s="175"/>
       <c r="AM52" s="86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AN52" s="87"/>
       <c r="AO52" s="87"/>
@@ -9566,12 +9572,12 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="184">
+      <c r="B53" s="176">
         <v>3</v>
       </c>
-      <c r="C53" s="185"/>
+      <c r="C53" s="177"/>
       <c r="D53" s="116" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E53" s="89"/>
       <c r="F53" s="89"/>
@@ -9580,7 +9586,7 @@
       <c r="I53" s="89"/>
       <c r="J53" s="111"/>
       <c r="K53" s="110" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L53" s="89"/>
       <c r="M53" s="89"/>
@@ -9601,18 +9607,18 @@
       <c r="AB53" s="89"/>
       <c r="AC53" s="89"/>
       <c r="AD53" s="111"/>
-      <c r="AE53" s="180" t="s">
+      <c r="AE53" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AF53" s="181"/>
-      <c r="AG53" s="180"/>
-      <c r="AH53" s="181"/>
-      <c r="AI53" s="180"/>
-      <c r="AJ53" s="181"/>
-      <c r="AK53" s="180"/>
-      <c r="AL53" s="181"/>
+      <c r="AF53" s="175"/>
+      <c r="AG53" s="174"/>
+      <c r="AH53" s="175"/>
+      <c r="AI53" s="174"/>
+      <c r="AJ53" s="175"/>
+      <c r="AK53" s="174"/>
+      <c r="AL53" s="175"/>
       <c r="AM53" s="86" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AN53" s="87"/>
       <c r="AO53" s="87"/>
@@ -9644,10 +9650,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="184">
+      <c r="B54" s="176">
         <v>4</v>
       </c>
-      <c r="C54" s="185"/>
+      <c r="C54" s="177"/>
       <c r="D54" s="85" t="s">
         <v>150</v>
       </c>
@@ -9679,22 +9685,22 @@
       <c r="AB54" s="89"/>
       <c r="AC54" s="89"/>
       <c r="AD54" s="90"/>
-      <c r="AE54" s="180" t="s">
+      <c r="AE54" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AF54" s="181"/>
-      <c r="AG54" s="180" t="s">
+      <c r="AF54" s="175"/>
+      <c r="AG54" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AH54" s="181"/>
-      <c r="AI54" s="180" t="s">
+      <c r="AH54" s="175"/>
+      <c r="AI54" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AJ54" s="181"/>
-      <c r="AK54" s="180" t="s">
+      <c r="AJ54" s="175"/>
+      <c r="AK54" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AL54" s="181"/>
+      <c r="AL54" s="175"/>
       <c r="AM54" s="86" t="s">
         <v>152</v>
       </c>
@@ -9733,13 +9739,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK54:AL54"/>
@@ -9756,6 +9755,13 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9901,7 +9907,7 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="177" t="str">
+      <c r="CU1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -10032,7 +10038,7 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="177"/>
+      <c r="CU2" s="181"/>
       <c r="CV2" s="186"/>
       <c r="CW2" s="186"/>
       <c r="CX2" s="186"/>
@@ -10250,37 +10256,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="167" t="s">
+      <c r="D6" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="167" t="s">
+      <c r="E6" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="167" t="s">
+      <c r="F6" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="167" t="s">
+      <c r="G6" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="167" t="s">
+      <c r="H6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="197" t="s">
+      <c r="I6" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="197" t="s">
+      <c r="J6" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="167" t="s">
+      <c r="K6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="167" t="s">
+      <c r="L6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="167" t="s">
+      <c r="M6" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="72" t="s">
@@ -10288,24 +10294,24 @@
       </c>
       <c r="O6" s="72"/>
       <c r="P6" s="72"/>
-      <c r="Q6" s="197" t="s">
+      <c r="Q6" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
       <c r="N7" s="43" t="s">
         <v>82</v>
       </c>
@@ -10315,7 +10321,7 @@
       <c r="P7" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="197"/>
+      <c r="Q7" s="195"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -10572,7 +10578,7 @@
         <v>190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>155</v>
@@ -10673,37 +10679,37 @@
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="167" t="s">
+      <c r="D17" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="167" t="s">
+      <c r="E17" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="167" t="s">
+      <c r="F17" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="167" t="s">
+      <c r="G17" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="167" t="s">
+      <c r="H17" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="195" t="s">
+      <c r="I17" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="197" t="s">
+      <c r="J17" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="167" t="s">
+      <c r="K17" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="167" t="s">
+      <c r="L17" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="167" t="s">
+      <c r="M17" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N17" s="72" t="s">
@@ -10711,24 +10717,24 @@
       </c>
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
-      <c r="Q17" s="195" t="s">
+      <c r="Q17" s="196" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
-      <c r="M18" s="167"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="195"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
       <c r="N18" s="43" t="s">
         <v>82</v>
       </c>
@@ -10738,7 +10744,7 @@
       <c r="P18" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="196"/>
+      <c r="Q18" s="197"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
@@ -10783,7 +10789,7 @@
         <v>34</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>34</v>
@@ -10802,37 +10808,37 @@
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="64"/>
-      <c r="C22" s="167" t="s">
+      <c r="C22" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="167" t="s">
+      <c r="D22" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="167" t="s">
+      <c r="E22" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="167" t="s">
+      <c r="F22" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="167" t="s">
+      <c r="G22" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="167" t="s">
+      <c r="H22" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="197" t="s">
+      <c r="I22" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="197" t="s">
+      <c r="J22" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="167" t="s">
+      <c r="K22" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="167" t="s">
+      <c r="L22" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="167" t="s">
+      <c r="M22" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="72" t="s">
@@ -10840,24 +10846,24 @@
       </c>
       <c r="O22" s="72"/>
       <c r="P22" s="72"/>
-      <c r="Q22" s="197" t="s">
+      <c r="Q22" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="64"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="197"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="167"/>
-      <c r="L23" s="167"/>
-      <c r="M23" s="167"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
       <c r="N23" s="43" t="s">
         <v>82</v>
       </c>
@@ -10867,7 +10873,7 @@
       <c r="P23" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q23" s="197"/>
+      <c r="Q23" s="195"/>
     </row>
     <row r="24" spans="1:17" s="51" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
@@ -10998,10 +11004,10 @@
         <v>65</v>
       </c>
       <c r="E27" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>50</v>
@@ -11083,7 +11089,7 @@
         <v>211</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11132,7 +11138,7 @@
         <v>212</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11254,20 +11260,20 @@
       <c r="H32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="129">
-        <v>8</v>
+      <c r="I32" s="129" t="s">
+        <v>35</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="7" t="s">
-        <v>34</v>
+      <c r="M32" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>34</v>
@@ -11276,7 +11282,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -11338,7 +11344,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>32</v>
@@ -11408,37 +11414,37 @@
     <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="64"/>
-      <c r="C37" s="167" t="s">
+      <c r="C37" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="167" t="s">
+      <c r="D37" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="167" t="s">
+      <c r="E37" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="167" t="s">
+      <c r="F37" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="167" t="s">
+      <c r="G37" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="167" t="s">
+      <c r="H37" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="197" t="s">
+      <c r="I37" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="197" t="s">
+      <c r="J37" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="167" t="s">
+      <c r="K37" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L37" s="167" t="s">
+      <c r="L37" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="167" t="s">
+      <c r="M37" s="136" t="s">
         <v>33</v>
       </c>
       <c r="N37" s="72" t="s">
@@ -11446,24 +11452,24 @@
       </c>
       <c r="O37" s="72"/>
       <c r="P37" s="72"/>
-      <c r="Q37" s="197" t="s">
+      <c r="Q37" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="64"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="197"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="167"/>
-      <c r="L38" s="167"/>
-      <c r="M38" s="167"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="195"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="136"/>
+      <c r="M38" s="136"/>
       <c r="N38" s="96" t="s">
         <v>82</v>
       </c>
@@ -11473,7 +11479,7 @@
       <c r="P38" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="Q38" s="197"/>
+      <c r="Q38" s="195"/>
     </row>
     <row r="39" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
@@ -11521,7 +11527,7 @@
         <v>34</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -11570,7 +11576,7 @@
         <v>34</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -11610,16 +11616,16 @@
         <v>163</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11659,13 +11665,13 @@
         <v>35</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q42" s="8" t="s">
         <v>34</v>
@@ -11708,19 +11714,19 @@
         <v>35</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="15"/>
       <c r="B44" s="64"/>
       <c r="C44" s="7">
@@ -11741,20 +11747,20 @@
       <c r="H44" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I44" s="129">
-        <v>8</v>
+      <c r="I44" s="129" t="s">
+        <v>35</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>35</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>34</v>
@@ -11806,7 +11812,7 @@
         <v>35</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>34</v>
@@ -11876,38 +11882,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="I22:I23"/>
@@ -11924,6 +11898,38 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11997,7 +12003,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="174">
+      <c r="AI1" s="178">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -12013,7 +12019,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="177" t="str">
+      <c r="AT1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -12084,7 +12090,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="177"/>
+      <c r="AT2" s="181"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -12441,7 +12447,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="23"/>
       <c r="L11" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
@@ -12544,7 +12550,7 @@
       <c r="K13" s="76"/>
       <c r="L13" s="24"/>
       <c r="M13" s="130" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N13" s="130"/>
       <c r="O13" s="130"/>
@@ -12595,7 +12601,7 @@
       <c r="K14" s="76"/>
       <c r="L14" s="24"/>
       <c r="N14" s="130" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O14" s="130"/>
       <c r="P14" s="130"/>
@@ -12694,7 +12700,7 @@
       <c r="K16" s="76"/>
       <c r="L16" s="24"/>
       <c r="M16" s="130" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N16" s="130"/>
       <c r="O16" s="130"/>
@@ -12757,16 +12763,16 @@
       <c r="U17" s="130"/>
       <c r="V17" s="130"/>
       <c r="X17" s="130" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y17" s="130" t="s">
         <v>238</v>
-      </c>
-      <c r="Y17" s="130" t="s">
-        <v>239</v>
       </c>
       <c r="Z17" s="130"/>
       <c r="AA17" s="130"/>
       <c r="AB17" s="130"/>
       <c r="AG17" s="130" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH17" s="130"/>
       <c r="AI17" s="130"/>
@@ -12853,7 +12859,7 @@
       <c r="K20" s="76"/>
       <c r="L20" s="24"/>
       <c r="N20" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ20" s="24"/>
       <c r="AK20" s="24"/>
@@ -12883,7 +12889,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -12987,7 +12993,7 @@
       <c r="J23" s="22"/>
       <c r="K23" s="23"/>
       <c r="L23" s="75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
@@ -13040,7 +13046,7 @@
       <c r="J24" s="24"/>
       <c r="K24" s="76"/>
       <c r="L24" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
@@ -13140,7 +13146,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="76"/>
       <c r="L26" s="75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -13191,7 +13197,7 @@
       <c r="J27" s="24"/>
       <c r="K27" s="76"/>
       <c r="L27" s="75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
@@ -13291,7 +13297,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="76"/>
       <c r="L29" s="75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
@@ -13397,7 +13403,7 @@
       <c r="J31" s="22"/>
       <c r="K31" s="23"/>
       <c r="L31" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -13450,7 +13456,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="76"/>
       <c r="L32" s="75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
@@ -13550,7 +13556,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="76"/>
       <c r="L34" s="75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
@@ -13656,7 +13662,7 @@
       <c r="J36" s="22"/>
       <c r="K36" s="23"/>
       <c r="L36" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -21533,7 +21539,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="174">
+      <c r="AI1" s="178">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -21549,7 +21555,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="177" t="str">
+      <c r="AT1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -21620,7 +21626,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="177"/>
+      <c r="AT2" s="181"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -22419,18 +22425,18 @@
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="206" t="s">
-        <v>271</v>
-      </c>
-      <c r="U17" s="207"/>
-      <c r="V17" s="207"/>
-      <c r="W17" s="207"/>
-      <c r="X17" s="207"/>
-      <c r="Y17" s="207"/>
-      <c r="Z17" s="207"/>
-      <c r="AA17" s="207"/>
-      <c r="AB17" s="207"/>
-      <c r="AC17" s="208"/>
+      <c r="T17" s="200" t="s">
+        <v>270</v>
+      </c>
+      <c r="U17" s="201"/>
+      <c r="V17" s="201"/>
+      <c r="W17" s="201"/>
+      <c r="X17" s="201"/>
+      <c r="Y17" s="201"/>
+      <c r="Z17" s="201"/>
+      <c r="AA17" s="201"/>
+      <c r="AB17" s="201"/>
+      <c r="AC17" s="202"/>
       <c r="AD17" s="77" t="s">
         <v>145</v>
       </c>
@@ -22473,16 +22479,16 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="26"/>
       <c r="S18" s="27"/>
-      <c r="T18" s="209"/>
-      <c r="U18" s="210"/>
-      <c r="V18" s="210"/>
-      <c r="W18" s="210"/>
-      <c r="X18" s="210"/>
-      <c r="Y18" s="210"/>
-      <c r="Z18" s="210"/>
-      <c r="AA18" s="210"/>
-      <c r="AB18" s="210"/>
-      <c r="AC18" s="211"/>
+      <c r="T18" s="203"/>
+      <c r="U18" s="204"/>
+      <c r="V18" s="204"/>
+      <c r="W18" s="204"/>
+      <c r="X18" s="204"/>
+      <c r="Y18" s="204"/>
+      <c r="Z18" s="204"/>
+      <c r="AA18" s="204"/>
+      <c r="AB18" s="204"/>
+      <c r="AC18" s="205"/>
       <c r="AD18" s="80"/>
       <c r="AE18" s="81"/>
       <c r="AF18" s="81"/>
@@ -22751,18 +22757,18 @@
       </c>
       <c r="R23" s="22"/>
       <c r="S23" s="23"/>
-      <c r="T23" s="206" t="s">
+      <c r="T23" s="200" t="s">
         <v>139</v>
       </c>
-      <c r="U23" s="207"/>
-      <c r="V23" s="207"/>
-      <c r="W23" s="207"/>
-      <c r="X23" s="207"/>
-      <c r="Y23" s="207"/>
-      <c r="Z23" s="207"/>
-      <c r="AA23" s="207"/>
-      <c r="AB23" s="207"/>
-      <c r="AC23" s="208"/>
+      <c r="U23" s="201"/>
+      <c r="V23" s="201"/>
+      <c r="W23" s="201"/>
+      <c r="X23" s="201"/>
+      <c r="Y23" s="201"/>
+      <c r="Z23" s="201"/>
+      <c r="AA23" s="201"/>
+      <c r="AB23" s="201"/>
+      <c r="AC23" s="202"/>
       <c r="AD23" s="77" t="s">
         <v>141</v>
       </c>
@@ -22805,16 +22811,16 @@
       <c r="Q24" s="25"/>
       <c r="R24" s="26"/>
       <c r="S24" s="27"/>
-      <c r="T24" s="209"/>
-      <c r="U24" s="210"/>
-      <c r="V24" s="210"/>
-      <c r="W24" s="210"/>
-      <c r="X24" s="210"/>
-      <c r="Y24" s="210"/>
-      <c r="Z24" s="210"/>
-      <c r="AA24" s="210"/>
-      <c r="AB24" s="210"/>
-      <c r="AC24" s="211"/>
+      <c r="T24" s="203"/>
+      <c r="U24" s="204"/>
+      <c r="V24" s="204"/>
+      <c r="W24" s="204"/>
+      <c r="X24" s="204"/>
+      <c r="Y24" s="204"/>
+      <c r="Z24" s="204"/>
+      <c r="AA24" s="204"/>
+      <c r="AB24" s="204"/>
+      <c r="AC24" s="205"/>
       <c r="AD24" s="80"/>
       <c r="AE24" s="81"/>
       <c r="AF24" s="81"/>
@@ -22967,18 +22973,18 @@
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="23"/>
-      <c r="T27" s="212" t="s">
-        <v>269</v>
-      </c>
-      <c r="U27" s="213"/>
-      <c r="V27" s="213"/>
-      <c r="W27" s="213"/>
-      <c r="X27" s="213"/>
-      <c r="Y27" s="213"/>
-      <c r="Z27" s="213"/>
-      <c r="AA27" s="213"/>
-      <c r="AB27" s="213"/>
-      <c r="AC27" s="214"/>
+      <c r="T27" s="206" t="s">
+        <v>268</v>
+      </c>
+      <c r="U27" s="207"/>
+      <c r="V27" s="207"/>
+      <c r="W27" s="207"/>
+      <c r="X27" s="207"/>
+      <c r="Y27" s="207"/>
+      <c r="Z27" s="207"/>
+      <c r="AA27" s="207"/>
+      <c r="AB27" s="207"/>
+      <c r="AC27" s="208"/>
       <c r="AD27" s="77" t="s">
         <v>143</v>
       </c>
@@ -23021,16 +23027,16 @@
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
-      <c r="T28" s="215"/>
-      <c r="U28" s="216"/>
-      <c r="V28" s="216"/>
-      <c r="W28" s="216"/>
-      <c r="X28" s="216"/>
-      <c r="Y28" s="216"/>
-      <c r="Z28" s="216"/>
-      <c r="AA28" s="216"/>
-      <c r="AB28" s="216"/>
-      <c r="AC28" s="217"/>
+      <c r="T28" s="209"/>
+      <c r="U28" s="210"/>
+      <c r="V28" s="210"/>
+      <c r="W28" s="210"/>
+      <c r="X28" s="210"/>
+      <c r="Y28" s="210"/>
+      <c r="Z28" s="210"/>
+      <c r="AA28" s="210"/>
+      <c r="AB28" s="210"/>
+      <c r="AC28" s="211"/>
       <c r="AD28" s="80"/>
       <c r="AE28" s="81"/>
       <c r="AF28" s="81"/>
@@ -23079,18 +23085,18 @@
       </c>
       <c r="R29" s="22"/>
       <c r="S29" s="23"/>
-      <c r="T29" s="206" t="s">
+      <c r="T29" s="200" t="s">
         <v>138</v>
       </c>
-      <c r="U29" s="207"/>
-      <c r="V29" s="207"/>
-      <c r="W29" s="207"/>
-      <c r="X29" s="207"/>
-      <c r="Y29" s="207"/>
-      <c r="Z29" s="207"/>
-      <c r="AA29" s="207"/>
-      <c r="AB29" s="207"/>
-      <c r="AC29" s="208"/>
+      <c r="U29" s="201"/>
+      <c r="V29" s="201"/>
+      <c r="W29" s="201"/>
+      <c r="X29" s="201"/>
+      <c r="Y29" s="201"/>
+      <c r="Z29" s="201"/>
+      <c r="AA29" s="201"/>
+      <c r="AB29" s="201"/>
+      <c r="AC29" s="202"/>
       <c r="AD29" s="77" t="s">
         <v>146</v>
       </c>
@@ -23133,16 +23139,16 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="26"/>
       <c r="S30" s="27"/>
-      <c r="T30" s="209"/>
-      <c r="U30" s="210"/>
-      <c r="V30" s="210"/>
-      <c r="W30" s="210"/>
-      <c r="X30" s="210"/>
-      <c r="Y30" s="210"/>
-      <c r="Z30" s="210"/>
-      <c r="AA30" s="210"/>
-      <c r="AB30" s="210"/>
-      <c r="AC30" s="211"/>
+      <c r="T30" s="203"/>
+      <c r="U30" s="204"/>
+      <c r="V30" s="204"/>
+      <c r="W30" s="204"/>
+      <c r="X30" s="204"/>
+      <c r="Y30" s="204"/>
+      <c r="Z30" s="204"/>
+      <c r="AA30" s="204"/>
+      <c r="AB30" s="204"/>
+      <c r="AC30" s="205"/>
       <c r="AD30" s="80"/>
       <c r="AE30" s="81"/>
       <c r="AF30" s="81"/>
@@ -23513,20 +23519,20 @@
       </c>
       <c r="R37" s="78"/>
       <c r="S37" s="79"/>
-      <c r="T37" s="200" t="s">
+      <c r="T37" s="212" t="s">
+        <v>260</v>
+      </c>
+      <c r="U37" s="213"/>
+      <c r="V37" s="213"/>
+      <c r="W37" s="213"/>
+      <c r="X37" s="213"/>
+      <c r="Y37" s="213"/>
+      <c r="Z37" s="213"/>
+      <c r="AA37" s="213"/>
+      <c r="AB37" s="213"/>
+      <c r="AC37" s="214"/>
+      <c r="AD37" s="77" t="s">
         <v>261</v>
-      </c>
-      <c r="U37" s="201"/>
-      <c r="V37" s="201"/>
-      <c r="W37" s="201"/>
-      <c r="X37" s="201"/>
-      <c r="Y37" s="201"/>
-      <c r="Z37" s="201"/>
-      <c r="AA37" s="201"/>
-      <c r="AB37" s="201"/>
-      <c r="AC37" s="202"/>
-      <c r="AD37" s="77" t="s">
-        <v>262</v>
       </c>
       <c r="AE37" s="78"/>
       <c r="AF37" s="78"/>
@@ -23567,16 +23573,16 @@
       <c r="Q38" s="80"/>
       <c r="R38" s="81"/>
       <c r="S38" s="82"/>
-      <c r="T38" s="203"/>
-      <c r="U38" s="204"/>
-      <c r="V38" s="204"/>
-      <c r="W38" s="204"/>
-      <c r="X38" s="204"/>
-      <c r="Y38" s="204"/>
-      <c r="Z38" s="204"/>
-      <c r="AA38" s="204"/>
-      <c r="AB38" s="204"/>
-      <c r="AC38" s="205"/>
+      <c r="T38" s="215"/>
+      <c r="U38" s="216"/>
+      <c r="V38" s="216"/>
+      <c r="W38" s="216"/>
+      <c r="X38" s="216"/>
+      <c r="Y38" s="216"/>
+      <c r="Z38" s="216"/>
+      <c r="AA38" s="216"/>
+      <c r="AB38" s="216"/>
+      <c r="AC38" s="217"/>
       <c r="AD38" s="80"/>
       <c r="AE38" s="81"/>
       <c r="AF38" s="81"/>
@@ -23622,7 +23628,7 @@
       <c r="R39" s="78"/>
       <c r="S39" s="79"/>
       <c r="T39" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U39" s="123"/>
       <c r="V39" s="123"/>
@@ -23634,7 +23640,7 @@
       <c r="AB39" s="123"/>
       <c r="AC39" s="124"/>
       <c r="AD39" s="77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AE39" s="78"/>
       <c r="AF39" s="78"/>
@@ -27702,6 +27708,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="T37:AC38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B29:B30"/>
@@ -27718,18 +27736,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="T37:AC38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -27803,7 +27809,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="174">
+      <c r="AI1" s="178">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -27819,7 +27825,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="177" t="str">
+      <c r="AT1" s="181" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -27890,7 +27896,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="177"/>
+      <c r="AT2" s="181"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -28179,7 +28185,7 @@
         <v>171</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
@@ -28234,10 +28240,10 @@
       <c r="A9" s="57"/>
       <c r="B9" s="57"/>
       <c r="C9" s="57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
@@ -28293,7 +28299,7 @@
       <c r="B10" s="57"/>
       <c r="C10" s="57"/>
       <c r="D10" s="57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
@@ -39108,6 +39114,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -39265,22 +39286,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39296,21 +39319,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/06_SC-M_マスタ系/SC-M10_設備マスタ.xlsx
+++ b/01_基本設計書/06_SC-M_マスタ系/SC-M10_設備マスタ.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2356E4EE-F5D9-452A-8F89-E441C4918663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA0F8E1-BFC6-4DDC-B410-9786E3DE1B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1520,13 +1520,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>設備マスタの工程コード、工程略称</t>
-    <rPh sb="14" eb="16">
-      <t>リャクショウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>標準通過工程マスタの標準通過工程コード、標準通過工程略称</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1706,10 +1699,6 @@
   </si>
   <si>
     <t>・表示順序（昇順）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・区分（昇順）</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1974,6 +1963,17 @@
     <t>数値</t>
     <rPh sb="0" eb="2">
       <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・設備NO（昇順）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>工程マスタの工程コード、工程略称</t>
+    <rPh sb="14" eb="16">
+      <t>リャクショウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2851,6 +2851,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2878,103 +2963,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2993,10 +2981,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3026,13 +3026,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3040,6 +3040,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3075,24 +3093,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5381,1770 +5381,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
-      <c r="AQ1" s="134"/>
-      <c r="AR1" s="134"/>
-      <c r="AS1" s="134"/>
-      <c r="AT1" s="134"/>
-      <c r="AU1" s="134"/>
-      <c r="AV1" s="134"/>
-      <c r="AW1" s="134"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="165"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="165"/>
+      <c r="AJ1" s="165"/>
+      <c r="AK1" s="165"/>
+      <c r="AL1" s="165"/>
+      <c r="AM1" s="165"/>
+      <c r="AN1" s="165"/>
+      <c r="AO1" s="165"/>
+      <c r="AP1" s="165"/>
+      <c r="AQ1" s="165"/>
+      <c r="AR1" s="165"/>
+      <c r="AS1" s="165"/>
+      <c r="AT1" s="165"/>
+      <c r="AU1" s="165"/>
+      <c r="AV1" s="165"/>
+      <c r="AW1" s="165"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="166"/>
+      <c r="AJ2" s="166"/>
+      <c r="AK2" s="166"/>
+      <c r="AL2" s="166"/>
+      <c r="AM2" s="166"/>
+      <c r="AN2" s="166"/>
+      <c r="AO2" s="166"/>
+      <c r="AP2" s="166"/>
+      <c r="AQ2" s="166"/>
+      <c r="AR2" s="166"/>
+      <c r="AS2" s="166"/>
+      <c r="AT2" s="166"/>
+      <c r="AU2" s="166"/>
+      <c r="AV2" s="166"/>
+      <c r="AW2" s="166"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136" t="s">
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="137" t="s">
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="138"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="137" t="s">
+      <c r="K3" s="169"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="136" t="s">
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136" t="s">
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136" t="s">
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="167"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="167"/>
+      <c r="AJ3" s="167"/>
+      <c r="AK3" s="167"/>
+      <c r="AL3" s="167"/>
+      <c r="AM3" s="167"/>
+      <c r="AN3" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="136" t="s">
+      <c r="AO3" s="167"/>
+      <c r="AP3" s="167"/>
+      <c r="AQ3" s="167"/>
+      <c r="AR3" s="167"/>
+      <c r="AS3" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="136"/>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136"/>
-      <c r="AW3" s="136"/>
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="167"/>
+      <c r="AV3" s="167"/>
+      <c r="AW3" s="167"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="136"/>
-      <c r="AM4" s="136"/>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="136"/>
-      <c r="AR4" s="136"/>
-      <c r="AS4" s="136"/>
-      <c r="AT4" s="136"/>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="172"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AD4" s="167"/>
+      <c r="AE4" s="167"/>
+      <c r="AF4" s="167"/>
+      <c r="AG4" s="167"/>
+      <c r="AH4" s="167"/>
+      <c r="AI4" s="167"/>
+      <c r="AJ4" s="167"/>
+      <c r="AK4" s="167"/>
+      <c r="AL4" s="167"/>
+      <c r="AM4" s="167"/>
+      <c r="AN4" s="167"/>
+      <c r="AO4" s="167"/>
+      <c r="AP4" s="167"/>
+      <c r="AQ4" s="167"/>
+      <c r="AR4" s="167"/>
+      <c r="AS4" s="167"/>
+      <c r="AT4" s="167"/>
+      <c r="AU4" s="167"/>
+      <c r="AV4" s="167"/>
+      <c r="AW4" s="167"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
-      <c r="B5" s="144">
+      <c r="B5" s="159">
         <v>1</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145">
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="140">
         <v>43703</v>
       </c>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="146" t="s">
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="146" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="143" t="s">
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="152" t="s">
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="152"/>
-      <c r="X5" s="152"/>
-      <c r="Y5" s="152"/>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="152"/>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="152"/>
-      <c r="AE5" s="152"/>
-      <c r="AF5" s="152"/>
-      <c r="AG5" s="152"/>
-      <c r="AH5" s="152"/>
-      <c r="AI5" s="152"/>
-      <c r="AJ5" s="152"/>
-      <c r="AK5" s="152"/>
-      <c r="AL5" s="152"/>
-      <c r="AM5" s="152"/>
-      <c r="AN5" s="143" t="s">
+      <c r="W5" s="158"/>
+      <c r="X5" s="158"/>
+      <c r="Y5" s="158"/>
+      <c r="Z5" s="158"/>
+      <c r="AA5" s="158"/>
+      <c r="AB5" s="158"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="158"/>
+      <c r="AE5" s="158"/>
+      <c r="AF5" s="158"/>
+      <c r="AG5" s="158"/>
+      <c r="AH5" s="158"/>
+      <c r="AI5" s="158"/>
+      <c r="AJ5" s="158"/>
+      <c r="AK5" s="158"/>
+      <c r="AL5" s="158"/>
+      <c r="AM5" s="158"/>
+      <c r="AN5" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="AO5" s="143"/>
-      <c r="AP5" s="143"/>
-      <c r="AQ5" s="143"/>
-      <c r="AR5" s="143"/>
-      <c r="AS5" s="143"/>
-      <c r="AT5" s="143"/>
-      <c r="AU5" s="143"/>
-      <c r="AV5" s="143"/>
-      <c r="AW5" s="143"/>
+      <c r="AO5" s="147"/>
+      <c r="AP5" s="147"/>
+      <c r="AQ5" s="147"/>
+      <c r="AR5" s="147"/>
+      <c r="AS5" s="147"/>
+      <c r="AT5" s="147"/>
+      <c r="AU5" s="147"/>
+      <c r="AV5" s="147"/>
+      <c r="AW5" s="147"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="143"/>
-      <c r="T6" s="143"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="152"/>
-      <c r="W6" s="152"/>
-      <c r="X6" s="152"/>
-      <c r="Y6" s="152"/>
-      <c r="Z6" s="152"/>
-      <c r="AA6" s="152"/>
-      <c r="AB6" s="152"/>
-      <c r="AC6" s="152"/>
-      <c r="AD6" s="152"/>
-      <c r="AE6" s="152"/>
-      <c r="AF6" s="152"/>
-      <c r="AG6" s="152"/>
-      <c r="AH6" s="152"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="152"/>
-      <c r="AK6" s="152"/>
-      <c r="AL6" s="152"/>
-      <c r="AM6" s="152"/>
-      <c r="AN6" s="143"/>
-      <c r="AO6" s="143"/>
-      <c r="AP6" s="143"/>
-      <c r="AQ6" s="143"/>
-      <c r="AR6" s="143"/>
-      <c r="AS6" s="143"/>
-      <c r="AT6" s="143"/>
-      <c r="AU6" s="143"/>
-      <c r="AV6" s="143"/>
-      <c r="AW6" s="143"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="158"/>
+      <c r="AB6" s="158"/>
+      <c r="AC6" s="158"/>
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="158"/>
+      <c r="AG6" s="158"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="158"/>
+      <c r="AJ6" s="158"/>
+      <c r="AK6" s="158"/>
+      <c r="AL6" s="158"/>
+      <c r="AM6" s="158"/>
+      <c r="AN6" s="147"/>
+      <c r="AO6" s="147"/>
+      <c r="AP6" s="147"/>
+      <c r="AQ6" s="147"/>
+      <c r="AR6" s="147"/>
+      <c r="AS6" s="147"/>
+      <c r="AT6" s="147"/>
+      <c r="AU6" s="147"/>
+      <c r="AV6" s="147"/>
+      <c r="AW6" s="147"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="152"/>
-      <c r="W7" s="152"/>
-      <c r="X7" s="152"/>
-      <c r="Y7" s="152"/>
-      <c r="Z7" s="152"/>
-      <c r="AA7" s="152"/>
-      <c r="AB7" s="152"/>
-      <c r="AC7" s="152"/>
-      <c r="AD7" s="152"/>
-      <c r="AE7" s="152"/>
-      <c r="AF7" s="152"/>
-      <c r="AG7" s="152"/>
-      <c r="AH7" s="152"/>
-      <c r="AI7" s="152"/>
-      <c r="AJ7" s="152"/>
-      <c r="AK7" s="152"/>
-      <c r="AL7" s="152"/>
-      <c r="AM7" s="152"/>
-      <c r="AN7" s="143"/>
-      <c r="AO7" s="143"/>
-      <c r="AP7" s="143"/>
-      <c r="AQ7" s="143"/>
-      <c r="AR7" s="143"/>
-      <c r="AS7" s="143"/>
-      <c r="AT7" s="143"/>
-      <c r="AU7" s="143"/>
-      <c r="AV7" s="143"/>
-      <c r="AW7" s="143"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="147"/>
+      <c r="T7" s="147"/>
+      <c r="U7" s="147"/>
+      <c r="V7" s="158"/>
+      <c r="W7" s="158"/>
+      <c r="X7" s="158"/>
+      <c r="Y7" s="158"/>
+      <c r="Z7" s="158"/>
+      <c r="AA7" s="158"/>
+      <c r="AB7" s="158"/>
+      <c r="AC7" s="158"/>
+      <c r="AD7" s="158"/>
+      <c r="AE7" s="158"/>
+      <c r="AF7" s="158"/>
+      <c r="AG7" s="158"/>
+      <c r="AH7" s="158"/>
+      <c r="AI7" s="158"/>
+      <c r="AJ7" s="158"/>
+      <c r="AK7" s="158"/>
+      <c r="AL7" s="158"/>
+      <c r="AM7" s="158"/>
+      <c r="AN7" s="147"/>
+      <c r="AO7" s="147"/>
+      <c r="AP7" s="147"/>
+      <c r="AQ7" s="147"/>
+      <c r="AR7" s="147"/>
+      <c r="AS7" s="147"/>
+      <c r="AT7" s="147"/>
+      <c r="AU7" s="147"/>
+      <c r="AV7" s="147"/>
+      <c r="AW7" s="147"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="150"/>
-      <c r="R8" s="151"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="152"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="152"/>
-      <c r="AE8" s="152"/>
-      <c r="AF8" s="152"/>
-      <c r="AG8" s="152"/>
-      <c r="AH8" s="152"/>
-      <c r="AI8" s="152"/>
-      <c r="AJ8" s="152"/>
-      <c r="AK8" s="152"/>
-      <c r="AL8" s="152"/>
-      <c r="AM8" s="152"/>
-      <c r="AN8" s="143"/>
-      <c r="AO8" s="143"/>
-      <c r="AP8" s="143"/>
-      <c r="AQ8" s="143"/>
-      <c r="AR8" s="143"/>
-      <c r="AS8" s="143"/>
-      <c r="AT8" s="143"/>
-      <c r="AU8" s="143"/>
-      <c r="AV8" s="143"/>
-      <c r="AW8" s="143"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="158"/>
+      <c r="W8" s="158"/>
+      <c r="X8" s="158"/>
+      <c r="Y8" s="158"/>
+      <c r="Z8" s="158"/>
+      <c r="AA8" s="158"/>
+      <c r="AB8" s="158"/>
+      <c r="AC8" s="158"/>
+      <c r="AD8" s="158"/>
+      <c r="AE8" s="158"/>
+      <c r="AF8" s="158"/>
+      <c r="AG8" s="158"/>
+      <c r="AH8" s="158"/>
+      <c r="AI8" s="158"/>
+      <c r="AJ8" s="158"/>
+      <c r="AK8" s="158"/>
+      <c r="AL8" s="158"/>
+      <c r="AM8" s="158"/>
+      <c r="AN8" s="147"/>
+      <c r="AO8" s="147"/>
+      <c r="AP8" s="147"/>
+      <c r="AQ8" s="147"/>
+      <c r="AR8" s="147"/>
+      <c r="AS8" s="147"/>
+      <c r="AT8" s="147"/>
+      <c r="AU8" s="147"/>
+      <c r="AV8" s="147"/>
+      <c r="AW8" s="147"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="152"/>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="152"/>
-      <c r="AC9" s="152"/>
-      <c r="AD9" s="152"/>
-      <c r="AE9" s="152"/>
-      <c r="AF9" s="152"/>
-      <c r="AG9" s="152"/>
-      <c r="AH9" s="152"/>
-      <c r="AI9" s="152"/>
-      <c r="AJ9" s="152"/>
-      <c r="AK9" s="152"/>
-      <c r="AL9" s="152"/>
-      <c r="AM9" s="152"/>
-      <c r="AN9" s="143"/>
-      <c r="AO9" s="143"/>
-      <c r="AP9" s="143"/>
-      <c r="AQ9" s="143"/>
-      <c r="AR9" s="143"/>
-      <c r="AS9" s="143"/>
-      <c r="AT9" s="143"/>
-      <c r="AU9" s="143"/>
-      <c r="AV9" s="143"/>
-      <c r="AW9" s="143"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="158"/>
+      <c r="W9" s="158"/>
+      <c r="X9" s="158"/>
+      <c r="Y9" s="158"/>
+      <c r="Z9" s="158"/>
+      <c r="AA9" s="158"/>
+      <c r="AB9" s="158"/>
+      <c r="AC9" s="158"/>
+      <c r="AD9" s="158"/>
+      <c r="AE9" s="158"/>
+      <c r="AF9" s="158"/>
+      <c r="AG9" s="158"/>
+      <c r="AH9" s="158"/>
+      <c r="AI9" s="158"/>
+      <c r="AJ9" s="158"/>
+      <c r="AK9" s="158"/>
+      <c r="AL9" s="158"/>
+      <c r="AM9" s="158"/>
+      <c r="AN9" s="147"/>
+      <c r="AO9" s="147"/>
+      <c r="AP9" s="147"/>
+      <c r="AQ9" s="147"/>
+      <c r="AR9" s="147"/>
+      <c r="AS9" s="147"/>
+      <c r="AT9" s="147"/>
+      <c r="AU9" s="147"/>
+      <c r="AV9" s="147"/>
+      <c r="AW9" s="147"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="150"/>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="152"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="152"/>
-      <c r="AE10" s="152"/>
-      <c r="AF10" s="152"/>
-      <c r="AG10" s="152"/>
-      <c r="AH10" s="152"/>
-      <c r="AI10" s="152"/>
-      <c r="AJ10" s="152"/>
-      <c r="AK10" s="152"/>
-      <c r="AL10" s="152"/>
-      <c r="AM10" s="152"/>
-      <c r="AN10" s="143"/>
-      <c r="AO10" s="143"/>
-      <c r="AP10" s="143"/>
-      <c r="AQ10" s="143"/>
-      <c r="AR10" s="143"/>
-      <c r="AS10" s="143"/>
-      <c r="AT10" s="143"/>
-      <c r="AU10" s="143"/>
-      <c r="AV10" s="143"/>
-      <c r="AW10" s="143"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="158"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="158"/>
+      <c r="Y10" s="158"/>
+      <c r="Z10" s="158"/>
+      <c r="AA10" s="158"/>
+      <c r="AB10" s="158"/>
+      <c r="AC10" s="158"/>
+      <c r="AD10" s="158"/>
+      <c r="AE10" s="158"/>
+      <c r="AF10" s="158"/>
+      <c r="AG10" s="158"/>
+      <c r="AH10" s="158"/>
+      <c r="AI10" s="158"/>
+      <c r="AJ10" s="158"/>
+      <c r="AK10" s="158"/>
+      <c r="AL10" s="158"/>
+      <c r="AM10" s="158"/>
+      <c r="AN10" s="147"/>
+      <c r="AO10" s="147"/>
+      <c r="AP10" s="147"/>
+      <c r="AQ10" s="147"/>
+      <c r="AR10" s="147"/>
+      <c r="AS10" s="147"/>
+      <c r="AT10" s="147"/>
+      <c r="AU10" s="147"/>
+      <c r="AV10" s="147"/>
+      <c r="AW10" s="147"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="159"/>
-      <c r="W11" s="165"/>
-      <c r="X11" s="165"/>
-      <c r="Y11" s="165"/>
-      <c r="Z11" s="165"/>
-      <c r="AA11" s="165"/>
-      <c r="AB11" s="165"/>
-      <c r="AC11" s="165"/>
-      <c r="AD11" s="165"/>
-      <c r="AE11" s="165"/>
-      <c r="AF11" s="165"/>
-      <c r="AG11" s="165"/>
-      <c r="AH11" s="165"/>
-      <c r="AI11" s="165"/>
-      <c r="AJ11" s="165"/>
-      <c r="AK11" s="165"/>
-      <c r="AL11" s="165"/>
-      <c r="AM11" s="166"/>
-      <c r="AN11" s="143"/>
-      <c r="AO11" s="143"/>
-      <c r="AP11" s="143"/>
-      <c r="AQ11" s="143"/>
-      <c r="AR11" s="143"/>
-      <c r="AS11" s="143"/>
-      <c r="AT11" s="143"/>
-      <c r="AU11" s="143"/>
-      <c r="AV11" s="143"/>
-      <c r="AW11" s="143"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="147"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="160"/>
+      <c r="X11" s="160"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="160"/>
+      <c r="AA11" s="160"/>
+      <c r="AB11" s="160"/>
+      <c r="AC11" s="160"/>
+      <c r="AD11" s="160"/>
+      <c r="AE11" s="160"/>
+      <c r="AF11" s="160"/>
+      <c r="AG11" s="160"/>
+      <c r="AH11" s="160"/>
+      <c r="AI11" s="160"/>
+      <c r="AJ11" s="160"/>
+      <c r="AK11" s="160"/>
+      <c r="AL11" s="160"/>
+      <c r="AM11" s="161"/>
+      <c r="AN11" s="147"/>
+      <c r="AO11" s="147"/>
+      <c r="AP11" s="147"/>
+      <c r="AQ11" s="147"/>
+      <c r="AR11" s="147"/>
+      <c r="AS11" s="147"/>
+      <c r="AT11" s="147"/>
+      <c r="AU11" s="147"/>
+      <c r="AV11" s="147"/>
+      <c r="AW11" s="147"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="157"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="158"/>
-      <c r="S12" s="143"/>
-      <c r="T12" s="143"/>
-      <c r="U12" s="143"/>
-      <c r="V12" s="159"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="160"/>
-      <c r="AA12" s="160"/>
-      <c r="AB12" s="160"/>
-      <c r="AC12" s="160"/>
-      <c r="AD12" s="160"/>
-      <c r="AE12" s="160"/>
-      <c r="AF12" s="160"/>
-      <c r="AG12" s="160"/>
-      <c r="AH12" s="160"/>
-      <c r="AI12" s="160"/>
-      <c r="AJ12" s="160"/>
-      <c r="AK12" s="160"/>
-      <c r="AL12" s="160"/>
-      <c r="AM12" s="161"/>
-      <c r="AN12" s="162"/>
-      <c r="AO12" s="163"/>
-      <c r="AP12" s="163"/>
-      <c r="AQ12" s="163"/>
-      <c r="AR12" s="164"/>
-      <c r="AS12" s="162"/>
-      <c r="AT12" s="163"/>
-      <c r="AU12" s="163"/>
-      <c r="AV12" s="163"/>
-      <c r="AW12" s="164"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="149"/>
+      <c r="AG12" s="149"/>
+      <c r="AH12" s="149"/>
+      <c r="AI12" s="149"/>
+      <c r="AJ12" s="149"/>
+      <c r="AK12" s="149"/>
+      <c r="AL12" s="149"/>
+      <c r="AM12" s="150"/>
+      <c r="AN12" s="134"/>
+      <c r="AO12" s="135"/>
+      <c r="AP12" s="135"/>
+      <c r="AQ12" s="135"/>
+      <c r="AR12" s="136"/>
+      <c r="AS12" s="134"/>
+      <c r="AT12" s="135"/>
+      <c r="AU12" s="135"/>
+      <c r="AV12" s="135"/>
+      <c r="AW12" s="136"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="158"/>
-      <c r="S13" s="143"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="143"/>
-      <c r="V13" s="159"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="160"/>
-      <c r="AA13" s="160"/>
-      <c r="AB13" s="160"/>
-      <c r="AC13" s="160"/>
-      <c r="AD13" s="160"/>
-      <c r="AE13" s="160"/>
-      <c r="AF13" s="160"/>
-      <c r="AG13" s="160"/>
-      <c r="AH13" s="160"/>
-      <c r="AI13" s="160"/>
-      <c r="AJ13" s="160"/>
-      <c r="AK13" s="160"/>
-      <c r="AL13" s="160"/>
-      <c r="AM13" s="161"/>
-      <c r="AN13" s="162"/>
-      <c r="AO13" s="163"/>
-      <c r="AP13" s="163"/>
-      <c r="AQ13" s="163"/>
-      <c r="AR13" s="164"/>
-      <c r="AS13" s="162"/>
-      <c r="AT13" s="163"/>
-      <c r="AU13" s="163"/>
-      <c r="AV13" s="163"/>
-      <c r="AW13" s="164"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="149"/>
+      <c r="AH13" s="149"/>
+      <c r="AI13" s="149"/>
+      <c r="AJ13" s="149"/>
+      <c r="AK13" s="149"/>
+      <c r="AL13" s="149"/>
+      <c r="AM13" s="150"/>
+      <c r="AN13" s="134"/>
+      <c r="AO13" s="135"/>
+      <c r="AP13" s="135"/>
+      <c r="AQ13" s="135"/>
+      <c r="AR13" s="136"/>
+      <c r="AS13" s="134"/>
+      <c r="AT13" s="135"/>
+      <c r="AU13" s="135"/>
+      <c r="AV13" s="135"/>
+      <c r="AW13" s="136"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="143"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="152"/>
-      <c r="X14" s="152"/>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="152"/>
-      <c r="AC14" s="152"/>
-      <c r="AD14" s="152"/>
-      <c r="AE14" s="152"/>
-      <c r="AF14" s="152"/>
-      <c r="AG14" s="152"/>
-      <c r="AH14" s="152"/>
-      <c r="AI14" s="152"/>
-      <c r="AJ14" s="152"/>
-      <c r="AK14" s="152"/>
-      <c r="AL14" s="152"/>
-      <c r="AM14" s="152"/>
-      <c r="AN14" s="143"/>
-      <c r="AO14" s="143"/>
-      <c r="AP14" s="143"/>
-      <c r="AQ14" s="143"/>
-      <c r="AR14" s="143"/>
-      <c r="AS14" s="162"/>
-      <c r="AT14" s="163"/>
-      <c r="AU14" s="163"/>
-      <c r="AV14" s="163"/>
-      <c r="AW14" s="164"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="157"/>
+      <c r="W14" s="158"/>
+      <c r="X14" s="158"/>
+      <c r="Y14" s="158"/>
+      <c r="Z14" s="158"/>
+      <c r="AA14" s="158"/>
+      <c r="AB14" s="158"/>
+      <c r="AC14" s="158"/>
+      <c r="AD14" s="158"/>
+      <c r="AE14" s="158"/>
+      <c r="AF14" s="158"/>
+      <c r="AG14" s="158"/>
+      <c r="AH14" s="158"/>
+      <c r="AI14" s="158"/>
+      <c r="AJ14" s="158"/>
+      <c r="AK14" s="158"/>
+      <c r="AL14" s="158"/>
+      <c r="AM14" s="158"/>
+      <c r="AN14" s="147"/>
+      <c r="AO14" s="147"/>
+      <c r="AP14" s="147"/>
+      <c r="AQ14" s="147"/>
+      <c r="AR14" s="147"/>
+      <c r="AS14" s="134"/>
+      <c r="AT14" s="135"/>
+      <c r="AU14" s="135"/>
+      <c r="AV14" s="135"/>
+      <c r="AW14" s="136"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="157"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="158"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="159"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="160"/>
-      <c r="AC15" s="160"/>
-      <c r="AD15" s="160"/>
-      <c r="AE15" s="160"/>
-      <c r="AF15" s="160"/>
-      <c r="AG15" s="160"/>
-      <c r="AH15" s="160"/>
-      <c r="AI15" s="160"/>
-      <c r="AJ15" s="160"/>
-      <c r="AK15" s="160"/>
-      <c r="AL15" s="160"/>
-      <c r="AM15" s="161"/>
-      <c r="AN15" s="162"/>
-      <c r="AO15" s="163"/>
-      <c r="AP15" s="163"/>
-      <c r="AQ15" s="163"/>
-      <c r="AR15" s="164"/>
-      <c r="AS15" s="162"/>
-      <c r="AT15" s="163"/>
-      <c r="AU15" s="163"/>
-      <c r="AV15" s="163"/>
-      <c r="AW15" s="164"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="149"/>
+      <c r="Z15" s="149"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="149"/>
+      <c r="AH15" s="149"/>
+      <c r="AI15" s="149"/>
+      <c r="AJ15" s="149"/>
+      <c r="AK15" s="149"/>
+      <c r="AL15" s="149"/>
+      <c r="AM15" s="150"/>
+      <c r="AN15" s="134"/>
+      <c r="AO15" s="135"/>
+      <c r="AP15" s="135"/>
+      <c r="AQ15" s="135"/>
+      <c r="AR15" s="136"/>
+      <c r="AS15" s="134"/>
+      <c r="AT15" s="135"/>
+      <c r="AU15" s="135"/>
+      <c r="AV15" s="135"/>
+      <c r="AW15" s="136"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="157"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="143"/>
-      <c r="T16" s="143"/>
-      <c r="U16" s="143"/>
-      <c r="V16" s="159"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="160"/>
-      <c r="AB16" s="160"/>
-      <c r="AC16" s="160"/>
-      <c r="AD16" s="160"/>
-      <c r="AE16" s="160"/>
-      <c r="AF16" s="160"/>
-      <c r="AG16" s="160"/>
-      <c r="AH16" s="160"/>
-      <c r="AI16" s="160"/>
-      <c r="AJ16" s="160"/>
-      <c r="AK16" s="160"/>
-      <c r="AL16" s="160"/>
-      <c r="AM16" s="161"/>
-      <c r="AN16" s="162"/>
-      <c r="AO16" s="163"/>
-      <c r="AP16" s="163"/>
-      <c r="AQ16" s="163"/>
-      <c r="AR16" s="164"/>
-      <c r="AS16" s="162"/>
-      <c r="AT16" s="163"/>
-      <c r="AU16" s="163"/>
-      <c r="AV16" s="163"/>
-      <c r="AW16" s="164"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="147"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="149"/>
+      <c r="Z16" s="149"/>
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="149"/>
+      <c r="AG16" s="149"/>
+      <c r="AH16" s="149"/>
+      <c r="AI16" s="149"/>
+      <c r="AJ16" s="149"/>
+      <c r="AK16" s="149"/>
+      <c r="AL16" s="149"/>
+      <c r="AM16" s="150"/>
+      <c r="AN16" s="134"/>
+      <c r="AO16" s="135"/>
+      <c r="AP16" s="135"/>
+      <c r="AQ16" s="135"/>
+      <c r="AR16" s="136"/>
+      <c r="AS16" s="134"/>
+      <c r="AT16" s="135"/>
+      <c r="AU16" s="135"/>
+      <c r="AV16" s="135"/>
+      <c r="AW16" s="136"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="169"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="170"/>
-      <c r="U17" s="170"/>
-      <c r="V17" s="159"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="160"/>
-      <c r="AB17" s="160"/>
-      <c r="AC17" s="160"/>
-      <c r="AD17" s="160"/>
-      <c r="AE17" s="160"/>
-      <c r="AF17" s="160"/>
-      <c r="AG17" s="160"/>
-      <c r="AH17" s="160"/>
-      <c r="AI17" s="160"/>
-      <c r="AJ17" s="160"/>
-      <c r="AK17" s="160"/>
-      <c r="AL17" s="160"/>
-      <c r="AM17" s="161"/>
-      <c r="AN17" s="162"/>
-      <c r="AO17" s="163"/>
-      <c r="AP17" s="163"/>
-      <c r="AQ17" s="163"/>
-      <c r="AR17" s="164"/>
-      <c r="AS17" s="162"/>
-      <c r="AT17" s="163"/>
-      <c r="AU17" s="163"/>
-      <c r="AV17" s="163"/>
-      <c r="AW17" s="164"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="155"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="149"/>
+      <c r="Y17" s="149"/>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="149"/>
+      <c r="AH17" s="149"/>
+      <c r="AI17" s="149"/>
+      <c r="AJ17" s="149"/>
+      <c r="AK17" s="149"/>
+      <c r="AL17" s="149"/>
+      <c r="AM17" s="150"/>
+      <c r="AN17" s="134"/>
+      <c r="AO17" s="135"/>
+      <c r="AP17" s="135"/>
+      <c r="AQ17" s="135"/>
+      <c r="AR17" s="136"/>
+      <c r="AS17" s="134"/>
+      <c r="AT17" s="135"/>
+      <c r="AU17" s="135"/>
+      <c r="AV17" s="135"/>
+      <c r="AW17" s="136"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="157"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="143"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="159"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="160"/>
-      <c r="Y18" s="160"/>
-      <c r="Z18" s="160"/>
-      <c r="AA18" s="160"/>
-      <c r="AB18" s="160"/>
-      <c r="AC18" s="160"/>
-      <c r="AD18" s="160"/>
-      <c r="AE18" s="160"/>
-      <c r="AF18" s="160"/>
-      <c r="AG18" s="160"/>
-      <c r="AH18" s="160"/>
-      <c r="AI18" s="160"/>
-      <c r="AJ18" s="160"/>
-      <c r="AK18" s="160"/>
-      <c r="AL18" s="160"/>
-      <c r="AM18" s="161"/>
-      <c r="AN18" s="162"/>
-      <c r="AO18" s="163"/>
-      <c r="AP18" s="163"/>
-      <c r="AQ18" s="163"/>
-      <c r="AR18" s="164"/>
-      <c r="AS18" s="162"/>
-      <c r="AT18" s="163"/>
-      <c r="AU18" s="163"/>
-      <c r="AV18" s="163"/>
-      <c r="AW18" s="164"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="149"/>
+      <c r="Z18" s="149"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="149"/>
+      <c r="AC18" s="149"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="149"/>
+      <c r="AG18" s="149"/>
+      <c r="AH18" s="149"/>
+      <c r="AI18" s="149"/>
+      <c r="AJ18" s="149"/>
+      <c r="AK18" s="149"/>
+      <c r="AL18" s="149"/>
+      <c r="AM18" s="150"/>
+      <c r="AN18" s="134"/>
+      <c r="AO18" s="135"/>
+      <c r="AP18" s="135"/>
+      <c r="AQ18" s="135"/>
+      <c r="AR18" s="136"/>
+      <c r="AS18" s="134"/>
+      <c r="AT18" s="135"/>
+      <c r="AU18" s="135"/>
+      <c r="AV18" s="135"/>
+      <c r="AW18" s="136"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="158"/>
-      <c r="S19" s="143"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="143"/>
-      <c r="V19" s="159"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="160"/>
-      <c r="Y19" s="160"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="160"/>
-      <c r="AB19" s="160"/>
-      <c r="AC19" s="160"/>
-      <c r="AD19" s="160"/>
-      <c r="AE19" s="160"/>
-      <c r="AF19" s="160"/>
-      <c r="AG19" s="160"/>
-      <c r="AH19" s="160"/>
-      <c r="AI19" s="160"/>
-      <c r="AJ19" s="160"/>
-      <c r="AK19" s="160"/>
-      <c r="AL19" s="160"/>
-      <c r="AM19" s="161"/>
-      <c r="AN19" s="143"/>
-      <c r="AO19" s="143"/>
-      <c r="AP19" s="143"/>
-      <c r="AQ19" s="143"/>
-      <c r="AR19" s="143"/>
-      <c r="AS19" s="162"/>
-      <c r="AT19" s="163"/>
-      <c r="AU19" s="163"/>
-      <c r="AV19" s="163"/>
-      <c r="AW19" s="164"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="149"/>
+      <c r="X19" s="149"/>
+      <c r="Y19" s="149"/>
+      <c r="Z19" s="149"/>
+      <c r="AA19" s="149"/>
+      <c r="AB19" s="149"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="149"/>
+      <c r="AG19" s="149"/>
+      <c r="AH19" s="149"/>
+      <c r="AI19" s="149"/>
+      <c r="AJ19" s="149"/>
+      <c r="AK19" s="149"/>
+      <c r="AL19" s="149"/>
+      <c r="AM19" s="150"/>
+      <c r="AN19" s="147"/>
+      <c r="AO19" s="147"/>
+      <c r="AP19" s="147"/>
+      <c r="AQ19" s="147"/>
+      <c r="AR19" s="147"/>
+      <c r="AS19" s="134"/>
+      <c r="AT19" s="135"/>
+      <c r="AU19" s="135"/>
+      <c r="AV19" s="135"/>
+      <c r="AW19" s="136"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="157"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="158"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="163"/>
-      <c r="U20" s="164"/>
-      <c r="V20" s="159"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="160"/>
-      <c r="AA20" s="160"/>
-      <c r="AB20" s="160"/>
-      <c r="AC20" s="160"/>
-      <c r="AD20" s="160"/>
-      <c r="AE20" s="160"/>
-      <c r="AF20" s="160"/>
-      <c r="AG20" s="160"/>
-      <c r="AH20" s="160"/>
-      <c r="AI20" s="160"/>
-      <c r="AJ20" s="160"/>
-      <c r="AK20" s="160"/>
-      <c r="AL20" s="160"/>
-      <c r="AM20" s="161"/>
-      <c r="AN20" s="162"/>
-      <c r="AO20" s="163"/>
-      <c r="AP20" s="163"/>
-      <c r="AQ20" s="163"/>
-      <c r="AR20" s="164"/>
-      <c r="AS20" s="162"/>
-      <c r="AT20" s="163"/>
-      <c r="AU20" s="163"/>
-      <c r="AV20" s="163"/>
-      <c r="AW20" s="164"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="136"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="149"/>
+      <c r="Z20" s="149"/>
+      <c r="AA20" s="149"/>
+      <c r="AB20" s="149"/>
+      <c r="AC20" s="149"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="149"/>
+      <c r="AF20" s="149"/>
+      <c r="AG20" s="149"/>
+      <c r="AH20" s="149"/>
+      <c r="AI20" s="149"/>
+      <c r="AJ20" s="149"/>
+      <c r="AK20" s="149"/>
+      <c r="AL20" s="149"/>
+      <c r="AM20" s="150"/>
+      <c r="AN20" s="134"/>
+      <c r="AO20" s="135"/>
+      <c r="AP20" s="135"/>
+      <c r="AQ20" s="135"/>
+      <c r="AR20" s="136"/>
+      <c r="AS20" s="134"/>
+      <c r="AT20" s="135"/>
+      <c r="AU20" s="135"/>
+      <c r="AV20" s="135"/>
+      <c r="AW20" s="136"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="157"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="158"/>
-      <c r="S21" s="143"/>
-      <c r="T21" s="143"/>
-      <c r="U21" s="143"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="160"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="160"/>
-      <c r="AA21" s="160"/>
-      <c r="AB21" s="160"/>
-      <c r="AC21" s="160"/>
-      <c r="AD21" s="160"/>
-      <c r="AE21" s="160"/>
-      <c r="AF21" s="160"/>
-      <c r="AG21" s="160"/>
-      <c r="AH21" s="160"/>
-      <c r="AI21" s="160"/>
-      <c r="AJ21" s="160"/>
-      <c r="AK21" s="160"/>
-      <c r="AL21" s="160"/>
-      <c r="AM21" s="161"/>
-      <c r="AN21" s="162"/>
-      <c r="AO21" s="163"/>
-      <c r="AP21" s="163"/>
-      <c r="AQ21" s="163"/>
-      <c r="AR21" s="164"/>
-      <c r="AS21" s="162"/>
-      <c r="AT21" s="163"/>
-      <c r="AU21" s="163"/>
-      <c r="AV21" s="163"/>
-      <c r="AW21" s="164"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="149"/>
+      <c r="X21" s="149"/>
+      <c r="Y21" s="149"/>
+      <c r="Z21" s="149"/>
+      <c r="AA21" s="149"/>
+      <c r="AB21" s="149"/>
+      <c r="AC21" s="149"/>
+      <c r="AD21" s="149"/>
+      <c r="AE21" s="149"/>
+      <c r="AF21" s="149"/>
+      <c r="AG21" s="149"/>
+      <c r="AH21" s="149"/>
+      <c r="AI21" s="149"/>
+      <c r="AJ21" s="149"/>
+      <c r="AK21" s="149"/>
+      <c r="AL21" s="149"/>
+      <c r="AM21" s="150"/>
+      <c r="AN21" s="134"/>
+      <c r="AO21" s="135"/>
+      <c r="AP21" s="135"/>
+      <c r="AQ21" s="135"/>
+      <c r="AR21" s="136"/>
+      <c r="AS21" s="134"/>
+      <c r="AT21" s="135"/>
+      <c r="AU21" s="135"/>
+      <c r="AV21" s="135"/>
+      <c r="AW21" s="136"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="158"/>
-      <c r="S22" s="143"/>
-      <c r="T22" s="143"/>
-      <c r="U22" s="143"/>
-      <c r="V22" s="159"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="160"/>
-      <c r="AB22" s="160"/>
-      <c r="AC22" s="160"/>
-      <c r="AD22" s="160"/>
-      <c r="AE22" s="160"/>
-      <c r="AF22" s="160"/>
-      <c r="AG22" s="160"/>
-      <c r="AH22" s="160"/>
-      <c r="AI22" s="160"/>
-      <c r="AJ22" s="160"/>
-      <c r="AK22" s="160"/>
-      <c r="AL22" s="160"/>
-      <c r="AM22" s="161"/>
-      <c r="AN22" s="162"/>
-      <c r="AO22" s="163"/>
-      <c r="AP22" s="163"/>
-      <c r="AQ22" s="163"/>
-      <c r="AR22" s="164"/>
-      <c r="AS22" s="162"/>
-      <c r="AT22" s="163"/>
-      <c r="AU22" s="163"/>
-      <c r="AV22" s="163"/>
-      <c r="AW22" s="164"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147"/>
+      <c r="U22" s="147"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="149"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="149"/>
+      <c r="Z22" s="149"/>
+      <c r="AA22" s="149"/>
+      <c r="AB22" s="149"/>
+      <c r="AC22" s="149"/>
+      <c r="AD22" s="149"/>
+      <c r="AE22" s="149"/>
+      <c r="AF22" s="149"/>
+      <c r="AG22" s="149"/>
+      <c r="AH22" s="149"/>
+      <c r="AI22" s="149"/>
+      <c r="AJ22" s="149"/>
+      <c r="AK22" s="149"/>
+      <c r="AL22" s="149"/>
+      <c r="AM22" s="150"/>
+      <c r="AN22" s="134"/>
+      <c r="AO22" s="135"/>
+      <c r="AP22" s="135"/>
+      <c r="AQ22" s="135"/>
+      <c r="AR22" s="136"/>
+      <c r="AS22" s="134"/>
+      <c r="AT22" s="135"/>
+      <c r="AU22" s="135"/>
+      <c r="AV22" s="135"/>
+      <c r="AW22" s="136"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="157"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="143"/>
-      <c r="T23" s="143"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="159"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="160"/>
-      <c r="AB23" s="160"/>
-      <c r="AC23" s="160"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="160"/>
-      <c r="AF23" s="160"/>
-      <c r="AG23" s="160"/>
-      <c r="AH23" s="160"/>
-      <c r="AI23" s="160"/>
-      <c r="AJ23" s="160"/>
-      <c r="AK23" s="160"/>
-      <c r="AL23" s="160"/>
-      <c r="AM23" s="161"/>
-      <c r="AN23" s="162"/>
-      <c r="AO23" s="163"/>
-      <c r="AP23" s="163"/>
-      <c r="AQ23" s="163"/>
-      <c r="AR23" s="164"/>
-      <c r="AS23" s="162"/>
-      <c r="AT23" s="163"/>
-      <c r="AU23" s="163"/>
-      <c r="AV23" s="163"/>
-      <c r="AW23" s="164"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="147"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="149"/>
+      <c r="Y23" s="149"/>
+      <c r="Z23" s="149"/>
+      <c r="AA23" s="149"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="149"/>
+      <c r="AD23" s="149"/>
+      <c r="AE23" s="149"/>
+      <c r="AF23" s="149"/>
+      <c r="AG23" s="149"/>
+      <c r="AH23" s="149"/>
+      <c r="AI23" s="149"/>
+      <c r="AJ23" s="149"/>
+      <c r="AK23" s="149"/>
+      <c r="AL23" s="149"/>
+      <c r="AM23" s="150"/>
+      <c r="AN23" s="134"/>
+      <c r="AO23" s="135"/>
+      <c r="AP23" s="135"/>
+      <c r="AQ23" s="135"/>
+      <c r="AR23" s="136"/>
+      <c r="AS23" s="134"/>
+      <c r="AT23" s="135"/>
+      <c r="AU23" s="135"/>
+      <c r="AV23" s="135"/>
+      <c r="AW23" s="136"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="157"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="143"/>
-      <c r="T24" s="143"/>
-      <c r="U24" s="143"/>
-      <c r="V24" s="159"/>
-      <c r="W24" s="160"/>
-      <c r="X24" s="160"/>
-      <c r="Y24" s="160"/>
-      <c r="Z24" s="160"/>
-      <c r="AA24" s="160"/>
-      <c r="AB24" s="160"/>
-      <c r="AC24" s="160"/>
-      <c r="AD24" s="160"/>
-      <c r="AE24" s="160"/>
-      <c r="AF24" s="160"/>
-      <c r="AG24" s="160"/>
-      <c r="AH24" s="160"/>
-      <c r="AI24" s="160"/>
-      <c r="AJ24" s="160"/>
-      <c r="AK24" s="160"/>
-      <c r="AL24" s="160"/>
-      <c r="AM24" s="161"/>
-      <c r="AN24" s="162"/>
-      <c r="AO24" s="163"/>
-      <c r="AP24" s="163"/>
-      <c r="AQ24" s="163"/>
-      <c r="AR24" s="164"/>
-      <c r="AS24" s="162"/>
-      <c r="AT24" s="163"/>
-      <c r="AU24" s="163"/>
-      <c r="AV24" s="163"/>
-      <c r="AW24" s="164"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="149"/>
+      <c r="X24" s="149"/>
+      <c r="Y24" s="149"/>
+      <c r="Z24" s="149"/>
+      <c r="AA24" s="149"/>
+      <c r="AB24" s="149"/>
+      <c r="AC24" s="149"/>
+      <c r="AD24" s="149"/>
+      <c r="AE24" s="149"/>
+      <c r="AF24" s="149"/>
+      <c r="AG24" s="149"/>
+      <c r="AH24" s="149"/>
+      <c r="AI24" s="149"/>
+      <c r="AJ24" s="149"/>
+      <c r="AK24" s="149"/>
+      <c r="AL24" s="149"/>
+      <c r="AM24" s="150"/>
+      <c r="AN24" s="134"/>
+      <c r="AO24" s="135"/>
+      <c r="AP24" s="135"/>
+      <c r="AQ24" s="135"/>
+      <c r="AR24" s="136"/>
+      <c r="AS24" s="134"/>
+      <c r="AT24" s="135"/>
+      <c r="AU24" s="135"/>
+      <c r="AV24" s="135"/>
+      <c r="AW24" s="136"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="167"/>
-      <c r="N25" s="157"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="157"/>
-      <c r="Q25" s="157"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="143"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="159"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
-      <c r="Y25" s="160"/>
-      <c r="Z25" s="160"/>
-      <c r="AA25" s="160"/>
-      <c r="AB25" s="160"/>
-      <c r="AC25" s="160"/>
-      <c r="AD25" s="160"/>
-      <c r="AE25" s="160"/>
-      <c r="AF25" s="160"/>
-      <c r="AG25" s="160"/>
-      <c r="AH25" s="160"/>
-      <c r="AI25" s="160"/>
-      <c r="AJ25" s="160"/>
-      <c r="AK25" s="160"/>
-      <c r="AL25" s="160"/>
-      <c r="AM25" s="161"/>
-      <c r="AN25" s="162"/>
-      <c r="AO25" s="163"/>
-      <c r="AP25" s="163"/>
-      <c r="AQ25" s="163"/>
-      <c r="AR25" s="164"/>
-      <c r="AS25" s="162"/>
-      <c r="AT25" s="163"/>
-      <c r="AU25" s="163"/>
-      <c r="AV25" s="163"/>
-      <c r="AW25" s="164"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="152"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="149"/>
+      <c r="X25" s="149"/>
+      <c r="Y25" s="149"/>
+      <c r="Z25" s="149"/>
+      <c r="AA25" s="149"/>
+      <c r="AB25" s="149"/>
+      <c r="AC25" s="149"/>
+      <c r="AD25" s="149"/>
+      <c r="AE25" s="149"/>
+      <c r="AF25" s="149"/>
+      <c r="AG25" s="149"/>
+      <c r="AH25" s="149"/>
+      <c r="AI25" s="149"/>
+      <c r="AJ25" s="149"/>
+      <c r="AK25" s="149"/>
+      <c r="AL25" s="149"/>
+      <c r="AM25" s="150"/>
+      <c r="AN25" s="134"/>
+      <c r="AO25" s="135"/>
+      <c r="AP25" s="135"/>
+      <c r="AQ25" s="135"/>
+      <c r="AR25" s="136"/>
+      <c r="AS25" s="134"/>
+      <c r="AT25" s="135"/>
+      <c r="AU25" s="135"/>
+      <c r="AV25" s="135"/>
+      <c r="AW25" s="136"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="157"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="143"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="160"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="160"/>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="160"/>
-      <c r="AB26" s="160"/>
-      <c r="AC26" s="160"/>
-      <c r="AD26" s="160"/>
-      <c r="AE26" s="160"/>
-      <c r="AF26" s="160"/>
-      <c r="AG26" s="160"/>
-      <c r="AH26" s="160"/>
-      <c r="AI26" s="160"/>
-      <c r="AJ26" s="160"/>
-      <c r="AK26" s="160"/>
-      <c r="AL26" s="160"/>
-      <c r="AM26" s="161"/>
-      <c r="AN26" s="162"/>
-      <c r="AO26" s="163"/>
-      <c r="AP26" s="163"/>
-      <c r="AQ26" s="163"/>
-      <c r="AR26" s="164"/>
-      <c r="AS26" s="162"/>
-      <c r="AT26" s="163"/>
-      <c r="AU26" s="163"/>
-      <c r="AV26" s="163"/>
-      <c r="AW26" s="164"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="148"/>
+      <c r="W26" s="149"/>
+      <c r="X26" s="149"/>
+      <c r="Y26" s="149"/>
+      <c r="Z26" s="149"/>
+      <c r="AA26" s="149"/>
+      <c r="AB26" s="149"/>
+      <c r="AC26" s="149"/>
+      <c r="AD26" s="149"/>
+      <c r="AE26" s="149"/>
+      <c r="AF26" s="149"/>
+      <c r="AG26" s="149"/>
+      <c r="AH26" s="149"/>
+      <c r="AI26" s="149"/>
+      <c r="AJ26" s="149"/>
+      <c r="AK26" s="149"/>
+      <c r="AL26" s="149"/>
+      <c r="AM26" s="150"/>
+      <c r="AN26" s="134"/>
+      <c r="AO26" s="135"/>
+      <c r="AP26" s="135"/>
+      <c r="AQ26" s="135"/>
+      <c r="AR26" s="136"/>
+      <c r="AS26" s="134"/>
+      <c r="AT26" s="135"/>
+      <c r="AU26" s="135"/>
+      <c r="AV26" s="135"/>
+      <c r="AW26" s="136"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="157"/>
-      <c r="P27" s="157"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="160"/>
-      <c r="X27" s="160"/>
-      <c r="Y27" s="160"/>
-      <c r="Z27" s="160"/>
-      <c r="AA27" s="160"/>
-      <c r="AB27" s="160"/>
-      <c r="AC27" s="160"/>
-      <c r="AD27" s="160"/>
-      <c r="AE27" s="160"/>
-      <c r="AF27" s="160"/>
-      <c r="AG27" s="160"/>
-      <c r="AH27" s="160"/>
-      <c r="AI27" s="160"/>
-      <c r="AJ27" s="160"/>
-      <c r="AK27" s="160"/>
-      <c r="AL27" s="160"/>
-      <c r="AM27" s="161"/>
-      <c r="AN27" s="162"/>
-      <c r="AO27" s="163"/>
-      <c r="AP27" s="163"/>
-      <c r="AQ27" s="163"/>
-      <c r="AR27" s="164"/>
-      <c r="AS27" s="162"/>
-      <c r="AT27" s="163"/>
-      <c r="AU27" s="163"/>
-      <c r="AV27" s="163"/>
-      <c r="AW27" s="164"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="148"/>
+      <c r="W27" s="149"/>
+      <c r="X27" s="149"/>
+      <c r="Y27" s="149"/>
+      <c r="Z27" s="149"/>
+      <c r="AA27" s="149"/>
+      <c r="AB27" s="149"/>
+      <c r="AC27" s="149"/>
+      <c r="AD27" s="149"/>
+      <c r="AE27" s="149"/>
+      <c r="AF27" s="149"/>
+      <c r="AG27" s="149"/>
+      <c r="AH27" s="149"/>
+      <c r="AI27" s="149"/>
+      <c r="AJ27" s="149"/>
+      <c r="AK27" s="149"/>
+      <c r="AL27" s="149"/>
+      <c r="AM27" s="150"/>
+      <c r="AN27" s="134"/>
+      <c r="AO27" s="135"/>
+      <c r="AP27" s="135"/>
+      <c r="AQ27" s="135"/>
+      <c r="AR27" s="136"/>
+      <c r="AS27" s="134"/>
+      <c r="AT27" s="135"/>
+      <c r="AU27" s="135"/>
+      <c r="AV27" s="135"/>
+      <c r="AW27" s="136"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="157"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="143"/>
-      <c r="T28" s="143"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="160"/>
-      <c r="X28" s="160"/>
-      <c r="Y28" s="160"/>
-      <c r="Z28" s="160"/>
-      <c r="AA28" s="160"/>
-      <c r="AB28" s="160"/>
-      <c r="AC28" s="160"/>
-      <c r="AD28" s="160"/>
-      <c r="AE28" s="160"/>
-      <c r="AF28" s="160"/>
-      <c r="AG28" s="160"/>
-      <c r="AH28" s="160"/>
-      <c r="AI28" s="160"/>
-      <c r="AJ28" s="160"/>
-      <c r="AK28" s="160"/>
-      <c r="AL28" s="160"/>
-      <c r="AM28" s="161"/>
-      <c r="AN28" s="162"/>
-      <c r="AO28" s="163"/>
-      <c r="AP28" s="163"/>
-      <c r="AQ28" s="163"/>
-      <c r="AR28" s="164"/>
-      <c r="AS28" s="162"/>
-      <c r="AT28" s="163"/>
-      <c r="AU28" s="163"/>
-      <c r="AV28" s="163"/>
-      <c r="AW28" s="164"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="152"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="147"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="149"/>
+      <c r="X28" s="149"/>
+      <c r="Y28" s="149"/>
+      <c r="Z28" s="149"/>
+      <c r="AA28" s="149"/>
+      <c r="AB28" s="149"/>
+      <c r="AC28" s="149"/>
+      <c r="AD28" s="149"/>
+      <c r="AE28" s="149"/>
+      <c r="AF28" s="149"/>
+      <c r="AG28" s="149"/>
+      <c r="AH28" s="149"/>
+      <c r="AI28" s="149"/>
+      <c r="AJ28" s="149"/>
+      <c r="AK28" s="149"/>
+      <c r="AL28" s="149"/>
+      <c r="AM28" s="150"/>
+      <c r="AN28" s="134"/>
+      <c r="AO28" s="135"/>
+      <c r="AP28" s="135"/>
+      <c r="AQ28" s="135"/>
+      <c r="AR28" s="136"/>
+      <c r="AS28" s="134"/>
+      <c r="AT28" s="135"/>
+      <c r="AU28" s="135"/>
+      <c r="AV28" s="135"/>
+      <c r="AW28" s="136"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="158"/>
-      <c r="S29" s="143"/>
-      <c r="T29" s="143"/>
-      <c r="U29" s="143"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="160"/>
-      <c r="X29" s="160"/>
-      <c r="Y29" s="160"/>
-      <c r="Z29" s="160"/>
-      <c r="AA29" s="160"/>
-      <c r="AB29" s="160"/>
-      <c r="AC29" s="160"/>
-      <c r="AD29" s="160"/>
-      <c r="AE29" s="160"/>
-      <c r="AF29" s="160"/>
-      <c r="AG29" s="160"/>
-      <c r="AH29" s="160"/>
-      <c r="AI29" s="160"/>
-      <c r="AJ29" s="160"/>
-      <c r="AK29" s="160"/>
-      <c r="AL29" s="160"/>
-      <c r="AM29" s="161"/>
-      <c r="AN29" s="162"/>
-      <c r="AO29" s="163"/>
-      <c r="AP29" s="163"/>
-      <c r="AQ29" s="163"/>
-      <c r="AR29" s="164"/>
-      <c r="AS29" s="162"/>
-      <c r="AT29" s="163"/>
-      <c r="AU29" s="163"/>
-      <c r="AV29" s="163"/>
-      <c r="AW29" s="164"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="149"/>
+      <c r="X29" s="149"/>
+      <c r="Y29" s="149"/>
+      <c r="Z29" s="149"/>
+      <c r="AA29" s="149"/>
+      <c r="AB29" s="149"/>
+      <c r="AC29" s="149"/>
+      <c r="AD29" s="149"/>
+      <c r="AE29" s="149"/>
+      <c r="AF29" s="149"/>
+      <c r="AG29" s="149"/>
+      <c r="AH29" s="149"/>
+      <c r="AI29" s="149"/>
+      <c r="AJ29" s="149"/>
+      <c r="AK29" s="149"/>
+      <c r="AL29" s="149"/>
+      <c r="AM29" s="150"/>
+      <c r="AN29" s="134"/>
+      <c r="AO29" s="135"/>
+      <c r="AP29" s="135"/>
+      <c r="AQ29" s="135"/>
+      <c r="AR29" s="136"/>
+      <c r="AS29" s="134"/>
+      <c r="AT29" s="135"/>
+      <c r="AU29" s="135"/>
+      <c r="AV29" s="135"/>
+      <c r="AW29" s="136"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="167"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="157"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="158"/>
-      <c r="S30" s="143"/>
-      <c r="T30" s="143"/>
-      <c r="U30" s="143"/>
-      <c r="V30" s="159"/>
-      <c r="W30" s="160"/>
-      <c r="X30" s="160"/>
-      <c r="Y30" s="160"/>
-      <c r="Z30" s="160"/>
-      <c r="AA30" s="160"/>
-      <c r="AB30" s="160"/>
-      <c r="AC30" s="160"/>
-      <c r="AD30" s="160"/>
-      <c r="AE30" s="160"/>
-      <c r="AF30" s="160"/>
-      <c r="AG30" s="160"/>
-      <c r="AH30" s="160"/>
-      <c r="AI30" s="160"/>
-      <c r="AJ30" s="160"/>
-      <c r="AK30" s="160"/>
-      <c r="AL30" s="160"/>
-      <c r="AM30" s="161"/>
-      <c r="AN30" s="162"/>
-      <c r="AO30" s="163"/>
-      <c r="AP30" s="163"/>
-      <c r="AQ30" s="163"/>
-      <c r="AR30" s="164"/>
-      <c r="AS30" s="162"/>
-      <c r="AT30" s="163"/>
-      <c r="AU30" s="163"/>
-      <c r="AV30" s="163"/>
-      <c r="AW30" s="164"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="147"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="148"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="149"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="149"/>
+      <c r="AC30" s="149"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="149"/>
+      <c r="AF30" s="149"/>
+      <c r="AG30" s="149"/>
+      <c r="AH30" s="149"/>
+      <c r="AI30" s="149"/>
+      <c r="AJ30" s="149"/>
+      <c r="AK30" s="149"/>
+      <c r="AL30" s="149"/>
+      <c r="AM30" s="150"/>
+      <c r="AN30" s="134"/>
+      <c r="AO30" s="135"/>
+      <c r="AP30" s="135"/>
+      <c r="AQ30" s="135"/>
+      <c r="AR30" s="136"/>
+      <c r="AS30" s="134"/>
+      <c r="AT30" s="135"/>
+      <c r="AU30" s="135"/>
+      <c r="AV30" s="135"/>
+      <c r="AW30" s="136"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="167"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="143"/>
-      <c r="T31" s="143"/>
-      <c r="U31" s="143"/>
-      <c r="V31" s="159"/>
-      <c r="W31" s="160"/>
-      <c r="X31" s="160"/>
-      <c r="Y31" s="160"/>
-      <c r="Z31" s="160"/>
-      <c r="AA31" s="160"/>
-      <c r="AB31" s="160"/>
-      <c r="AC31" s="160"/>
-      <c r="AD31" s="160"/>
-      <c r="AE31" s="160"/>
-      <c r="AF31" s="160"/>
-      <c r="AG31" s="160"/>
-      <c r="AH31" s="160"/>
-      <c r="AI31" s="160"/>
-      <c r="AJ31" s="160"/>
-      <c r="AK31" s="160"/>
-      <c r="AL31" s="160"/>
-      <c r="AM31" s="161"/>
-      <c r="AN31" s="162"/>
-      <c r="AO31" s="163"/>
-      <c r="AP31" s="163"/>
-      <c r="AQ31" s="163"/>
-      <c r="AR31" s="164"/>
-      <c r="AS31" s="162"/>
-      <c r="AT31" s="163"/>
-      <c r="AU31" s="163"/>
-      <c r="AV31" s="163"/>
-      <c r="AW31" s="164"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="148"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="149"/>
+      <c r="Z31" s="149"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="149"/>
+      <c r="AC31" s="149"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="149"/>
+      <c r="AG31" s="149"/>
+      <c r="AH31" s="149"/>
+      <c r="AI31" s="149"/>
+      <c r="AJ31" s="149"/>
+      <c r="AK31" s="149"/>
+      <c r="AL31" s="149"/>
+      <c r="AM31" s="150"/>
+      <c r="AN31" s="134"/>
+      <c r="AO31" s="135"/>
+      <c r="AP31" s="135"/>
+      <c r="AQ31" s="135"/>
+      <c r="AR31" s="136"/>
+      <c r="AS31" s="134"/>
+      <c r="AT31" s="135"/>
+      <c r="AU31" s="135"/>
+      <c r="AV31" s="135"/>
+      <c r="AW31" s="136"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="167"/>
-      <c r="N32" s="157"/>
-      <c r="O32" s="157"/>
-      <c r="P32" s="157"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="158"/>
-      <c r="S32" s="143"/>
-      <c r="T32" s="143"/>
-      <c r="U32" s="143"/>
-      <c r="V32" s="159"/>
-      <c r="W32" s="160"/>
-      <c r="X32" s="160"/>
-      <c r="Y32" s="160"/>
-      <c r="Z32" s="160"/>
-      <c r="AA32" s="160"/>
-      <c r="AB32" s="160"/>
-      <c r="AC32" s="160"/>
-      <c r="AD32" s="160"/>
-      <c r="AE32" s="160"/>
-      <c r="AF32" s="160"/>
-      <c r="AG32" s="160"/>
-      <c r="AH32" s="160"/>
-      <c r="AI32" s="160"/>
-      <c r="AJ32" s="160"/>
-      <c r="AK32" s="160"/>
-      <c r="AL32" s="160"/>
-      <c r="AM32" s="161"/>
-      <c r="AN32" s="162"/>
-      <c r="AO32" s="163"/>
-      <c r="AP32" s="163"/>
-      <c r="AQ32" s="163"/>
-      <c r="AR32" s="164"/>
-      <c r="AS32" s="162"/>
-      <c r="AT32" s="163"/>
-      <c r="AU32" s="163"/>
-      <c r="AV32" s="163"/>
-      <c r="AW32" s="164"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="149"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="149"/>
+      <c r="Z32" s="149"/>
+      <c r="AA32" s="149"/>
+      <c r="AB32" s="149"/>
+      <c r="AC32" s="149"/>
+      <c r="AD32" s="149"/>
+      <c r="AE32" s="149"/>
+      <c r="AF32" s="149"/>
+      <c r="AG32" s="149"/>
+      <c r="AH32" s="149"/>
+      <c r="AI32" s="149"/>
+      <c r="AJ32" s="149"/>
+      <c r="AK32" s="149"/>
+      <c r="AL32" s="149"/>
+      <c r="AM32" s="150"/>
+      <c r="AN32" s="134"/>
+      <c r="AO32" s="135"/>
+      <c r="AP32" s="135"/>
+      <c r="AQ32" s="135"/>
+      <c r="AR32" s="136"/>
+      <c r="AS32" s="134"/>
+      <c r="AT32" s="135"/>
+      <c r="AU32" s="135"/>
+      <c r="AV32" s="135"/>
+      <c r="AW32" s="136"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="153"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157"/>
-      <c r="P33" s="157"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="143"/>
-      <c r="T33" s="143"/>
-      <c r="U33" s="143"/>
-      <c r="V33" s="159"/>
-      <c r="W33" s="160"/>
-      <c r="X33" s="160"/>
-      <c r="Y33" s="160"/>
-      <c r="Z33" s="160"/>
-      <c r="AA33" s="160"/>
-      <c r="AB33" s="160"/>
-      <c r="AC33" s="160"/>
-      <c r="AD33" s="160"/>
-      <c r="AE33" s="160"/>
-      <c r="AF33" s="160"/>
-      <c r="AG33" s="160"/>
-      <c r="AH33" s="160"/>
-      <c r="AI33" s="160"/>
-      <c r="AJ33" s="160"/>
-      <c r="AK33" s="160"/>
-      <c r="AL33" s="160"/>
-      <c r="AM33" s="161"/>
-      <c r="AN33" s="162"/>
-      <c r="AO33" s="163"/>
-      <c r="AP33" s="163"/>
-      <c r="AQ33" s="163"/>
-      <c r="AR33" s="164"/>
-      <c r="AS33" s="162"/>
-      <c r="AT33" s="163"/>
-      <c r="AU33" s="163"/>
-      <c r="AV33" s="163"/>
-      <c r="AW33" s="164"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="147"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="148"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="149"/>
+      <c r="Z33" s="149"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="149"/>
+      <c r="AC33" s="149"/>
+      <c r="AD33" s="149"/>
+      <c r="AE33" s="149"/>
+      <c r="AF33" s="149"/>
+      <c r="AG33" s="149"/>
+      <c r="AH33" s="149"/>
+      <c r="AI33" s="149"/>
+      <c r="AJ33" s="149"/>
+      <c r="AK33" s="149"/>
+      <c r="AL33" s="149"/>
+      <c r="AM33" s="150"/>
+      <c r="AN33" s="134"/>
+      <c r="AO33" s="135"/>
+      <c r="AP33" s="135"/>
+      <c r="AQ33" s="135"/>
+      <c r="AR33" s="136"/>
+      <c r="AS33" s="134"/>
+      <c r="AT33" s="135"/>
+      <c r="AU33" s="135"/>
+      <c r="AV33" s="135"/>
+      <c r="AW33" s="136"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="153"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="171"/>
-      <c r="N34" s="172"/>
-      <c r="O34" s="172"/>
-      <c r="P34" s="172"/>
-      <c r="Q34" s="172"/>
-      <c r="R34" s="173"/>
-      <c r="S34" s="143"/>
-      <c r="T34" s="143"/>
-      <c r="U34" s="143"/>
-      <c r="V34" s="159"/>
-      <c r="W34" s="160"/>
-      <c r="X34" s="160"/>
-      <c r="Y34" s="160"/>
-      <c r="Z34" s="160"/>
-      <c r="AA34" s="160"/>
-      <c r="AB34" s="160"/>
-      <c r="AC34" s="160"/>
-      <c r="AD34" s="160"/>
-      <c r="AE34" s="160"/>
-      <c r="AF34" s="160"/>
-      <c r="AG34" s="160"/>
-      <c r="AH34" s="160"/>
-      <c r="AI34" s="160"/>
-      <c r="AJ34" s="160"/>
-      <c r="AK34" s="160"/>
-      <c r="AL34" s="160"/>
-      <c r="AM34" s="161"/>
-      <c r="AN34" s="162"/>
-      <c r="AO34" s="163"/>
-      <c r="AP34" s="163"/>
-      <c r="AQ34" s="163"/>
-      <c r="AR34" s="164"/>
-      <c r="AS34" s="162"/>
-      <c r="AT34" s="163"/>
-      <c r="AU34" s="163"/>
-      <c r="AV34" s="163"/>
-      <c r="AW34" s="164"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="145"/>
+      <c r="Q34" s="145"/>
+      <c r="R34" s="146"/>
+      <c r="S34" s="147"/>
+      <c r="T34" s="147"/>
+      <c r="U34" s="147"/>
+      <c r="V34" s="148"/>
+      <c r="W34" s="149"/>
+      <c r="X34" s="149"/>
+      <c r="Y34" s="149"/>
+      <c r="Z34" s="149"/>
+      <c r="AA34" s="149"/>
+      <c r="AB34" s="149"/>
+      <c r="AC34" s="149"/>
+      <c r="AD34" s="149"/>
+      <c r="AE34" s="149"/>
+      <c r="AF34" s="149"/>
+      <c r="AG34" s="149"/>
+      <c r="AH34" s="149"/>
+      <c r="AI34" s="149"/>
+      <c r="AJ34" s="149"/>
+      <c r="AK34" s="149"/>
+      <c r="AL34" s="149"/>
+      <c r="AM34" s="150"/>
+      <c r="AN34" s="134"/>
+      <c r="AO34" s="135"/>
+      <c r="AP34" s="135"/>
+      <c r="AQ34" s="135"/>
+      <c r="AR34" s="136"/>
+      <c r="AS34" s="134"/>
+      <c r="AT34" s="135"/>
+      <c r="AU34" s="135"/>
+      <c r="AV34" s="135"/>
+      <c r="AW34" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -7161,239 +7394,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7532,7 +7532,7 @@
       <c r="U2" s="98"/>
       <c r="V2" s="99"/>
       <c r="W2" s="37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="X2" s="40"/>
       <c r="Y2" s="40"/>
@@ -7553,11 +7553,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="178"/>
-      <c r="AP2" s="179"/>
-      <c r="AQ2" s="179"/>
-      <c r="AR2" s="179"/>
-      <c r="AS2" s="180"/>
+      <c r="AO2" s="174"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="175"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="176"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -7566,14 +7566,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="181"/>
-      <c r="BA2" s="182"/>
-      <c r="BB2" s="182"/>
-      <c r="BC2" s="182"/>
-      <c r="BD2" s="182"/>
-      <c r="BE2" s="182"/>
-      <c r="BF2" s="182"/>
-      <c r="BG2" s="183"/>
+      <c r="AZ2" s="177"/>
+      <c r="BA2" s="178"/>
+      <c r="BB2" s="178"/>
+      <c r="BC2" s="178"/>
+      <c r="BD2" s="178"/>
+      <c r="BE2" s="178"/>
+      <c r="BF2" s="178"/>
+      <c r="BG2" s="179"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -8759,7 +8759,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O36" s="9"/>
       <c r="T36" s="9"/>
@@ -8808,7 +8808,7 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O37" s="9"/>
       <c r="T37" s="9"/>
@@ -8855,7 +8855,7 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O38" s="9"/>
       <c r="T38" s="9"/>
@@ -9330,10 +9330,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="184" t="s">
+      <c r="B50" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="185"/>
+      <c r="C50" s="183"/>
       <c r="D50" s="91" t="s">
         <v>105</v>
       </c>
@@ -9416,12 +9416,12 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="176">
+      <c r="B51" s="184">
         <v>1</v>
       </c>
-      <c r="C51" s="177"/>
+      <c r="C51" s="185"/>
       <c r="D51" s="116" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E51" s="89"/>
       <c r="F51" s="89"/>
@@ -9451,18 +9451,18 @@
       <c r="AB51" s="89"/>
       <c r="AC51" s="89"/>
       <c r="AD51" s="117"/>
-      <c r="AE51" s="174" t="s">
+      <c r="AE51" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AF51" s="175"/>
-      <c r="AG51" s="174"/>
-      <c r="AH51" s="175"/>
-      <c r="AI51" s="174"/>
-      <c r="AJ51" s="175"/>
-      <c r="AK51" s="174"/>
-      <c r="AL51" s="175"/>
+      <c r="AF51" s="181"/>
+      <c r="AG51" s="180"/>
+      <c r="AH51" s="181"/>
+      <c r="AI51" s="180"/>
+      <c r="AJ51" s="181"/>
+      <c r="AK51" s="180"/>
+      <c r="AL51" s="181"/>
       <c r="AM51" s="86" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AN51" s="87"/>
       <c r="AO51" s="87"/>
@@ -9494,12 +9494,12 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="176">
+      <c r="B52" s="184">
         <v>2</v>
       </c>
-      <c r="C52" s="177"/>
+      <c r="C52" s="185"/>
       <c r="D52" s="116" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E52" s="89"/>
       <c r="F52" s="89"/>
@@ -9508,7 +9508,7 @@
       <c r="I52" s="89"/>
       <c r="J52" s="117"/>
       <c r="K52" s="116" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L52" s="89"/>
       <c r="M52" s="89"/>
@@ -9529,18 +9529,18 @@
       <c r="AB52" s="89"/>
       <c r="AC52" s="89"/>
       <c r="AD52" s="117"/>
-      <c r="AE52" s="174" t="s">
+      <c r="AE52" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AF52" s="175"/>
-      <c r="AG52" s="174"/>
-      <c r="AH52" s="175"/>
-      <c r="AI52" s="174"/>
-      <c r="AJ52" s="175"/>
-      <c r="AK52" s="174"/>
-      <c r="AL52" s="175"/>
+      <c r="AF52" s="181"/>
+      <c r="AG52" s="180"/>
+      <c r="AH52" s="181"/>
+      <c r="AI52" s="180"/>
+      <c r="AJ52" s="181"/>
+      <c r="AK52" s="180"/>
+      <c r="AL52" s="181"/>
       <c r="AM52" s="86" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AN52" s="87"/>
       <c r="AO52" s="87"/>
@@ -9572,12 +9572,12 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="176">
+      <c r="B53" s="184">
         <v>3</v>
       </c>
-      <c r="C53" s="177"/>
+      <c r="C53" s="185"/>
       <c r="D53" s="116" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E53" s="89"/>
       <c r="F53" s="89"/>
@@ -9586,7 +9586,7 @@
       <c r="I53" s="89"/>
       <c r="J53" s="111"/>
       <c r="K53" s="110" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L53" s="89"/>
       <c r="M53" s="89"/>
@@ -9607,18 +9607,18 @@
       <c r="AB53" s="89"/>
       <c r="AC53" s="89"/>
       <c r="AD53" s="111"/>
-      <c r="AE53" s="174" t="s">
+      <c r="AE53" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AF53" s="175"/>
-      <c r="AG53" s="174"/>
-      <c r="AH53" s="175"/>
-      <c r="AI53" s="174"/>
-      <c r="AJ53" s="175"/>
-      <c r="AK53" s="174"/>
-      <c r="AL53" s="175"/>
+      <c r="AF53" s="181"/>
+      <c r="AG53" s="180"/>
+      <c r="AH53" s="181"/>
+      <c r="AI53" s="180"/>
+      <c r="AJ53" s="181"/>
+      <c r="AK53" s="180"/>
+      <c r="AL53" s="181"/>
       <c r="AM53" s="86" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AN53" s="87"/>
       <c r="AO53" s="87"/>
@@ -9650,10 +9650,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
-      <c r="B54" s="176">
+      <c r="B54" s="184">
         <v>4</v>
       </c>
-      <c r="C54" s="177"/>
+      <c r="C54" s="185"/>
       <c r="D54" s="85" t="s">
         <v>150</v>
       </c>
@@ -9685,22 +9685,22 @@
       <c r="AB54" s="89"/>
       <c r="AC54" s="89"/>
       <c r="AD54" s="90"/>
-      <c r="AE54" s="174" t="s">
+      <c r="AE54" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AF54" s="175"/>
-      <c r="AG54" s="174" t="s">
+      <c r="AF54" s="181"/>
+      <c r="AG54" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AH54" s="175"/>
-      <c r="AI54" s="174" t="s">
+      <c r="AH54" s="181"/>
+      <c r="AI54" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AJ54" s="175"/>
-      <c r="AK54" s="174" t="s">
+      <c r="AJ54" s="181"/>
+      <c r="AK54" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="AL54" s="175"/>
+      <c r="AL54" s="181"/>
       <c r="AM54" s="86" t="s">
         <v>152</v>
       </c>
@@ -9739,6 +9739,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK54:AL54"/>
@@ -9755,13 +9762,6 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9907,7 +9907,7 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="181" t="str">
+      <c r="CU1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -10038,7 +10038,7 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="181"/>
+      <c r="CU2" s="177"/>
       <c r="CV2" s="186"/>
       <c r="CW2" s="186"/>
       <c r="CX2" s="186"/>
@@ -10256,37 +10256,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="F6" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="136" t="s">
+      <c r="G6" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="H6" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="195" t="s">
+      <c r="I6" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="195" t="s">
+      <c r="J6" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="136" t="s">
+      <c r="K6" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="136" t="s">
+      <c r="L6" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="136" t="s">
+      <c r="M6" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="72" t="s">
@@ -10294,24 +10294,24 @@
       </c>
       <c r="O6" s="72"/>
       <c r="P6" s="72"/>
-      <c r="Q6" s="195" t="s">
+      <c r="Q6" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
       <c r="N7" s="43" t="s">
         <v>82</v>
       </c>
@@ -10321,7 +10321,7 @@
       <c r="P7" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="195"/>
+      <c r="Q7" s="197"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -10578,7 +10578,7 @@
         <v>190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>155</v>
@@ -10679,37 +10679,37 @@
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="136" t="s">
+      <c r="D17" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="136" t="s">
+      <c r="E17" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="136" t="s">
+      <c r="F17" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="136" t="s">
+      <c r="G17" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="136" t="s">
+      <c r="H17" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="196" t="s">
+      <c r="I17" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="195" t="s">
+      <c r="J17" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="136" t="s">
+      <c r="K17" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="136" t="s">
+      <c r="L17" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="136" t="s">
+      <c r="M17" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N17" s="72" t="s">
@@ -10717,24 +10717,24 @@
       </c>
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
-      <c r="Q17" s="196" t="s">
+      <c r="Q17" s="195" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="195"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="167"/>
+      <c r="L18" s="167"/>
+      <c r="M18" s="167"/>
       <c r="N18" s="43" t="s">
         <v>82</v>
       </c>
@@ -10744,7 +10744,7 @@
       <c r="P18" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="197"/>
+      <c r="Q18" s="196"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
@@ -10789,7 +10789,7 @@
         <v>34</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>34</v>
@@ -10808,37 +10808,37 @@
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="64"/>
-      <c r="C22" s="136" t="s">
+      <c r="C22" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="136" t="s">
+      <c r="D22" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="136" t="s">
+      <c r="E22" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="136" t="s">
+      <c r="F22" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="136" t="s">
+      <c r="G22" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="136" t="s">
+      <c r="H22" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="195" t="s">
+      <c r="I22" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="195" t="s">
+      <c r="J22" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="136" t="s">
+      <c r="K22" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="136" t="s">
+      <c r="L22" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="136" t="s">
+      <c r="M22" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="72" t="s">
@@ -10846,24 +10846,24 @@
       </c>
       <c r="O22" s="72"/>
       <c r="P22" s="72"/>
-      <c r="Q22" s="195" t="s">
+      <c r="Q22" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="64"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
       <c r="N23" s="43" t="s">
         <v>82</v>
       </c>
@@ -10873,7 +10873,7 @@
       <c r="P23" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="Q23" s="195"/>
+      <c r="Q23" s="197"/>
     </row>
     <row r="24" spans="1:17" s="51" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
@@ -11004,10 +11004,10 @@
         <v>65</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>50</v>
@@ -11267,13 +11267,13 @@
         <v>35</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>34</v>
@@ -11282,7 +11282,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -11344,7 +11344,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>32</v>
@@ -11414,37 +11414,37 @@
     <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="64"/>
-      <c r="C37" s="136" t="s">
+      <c r="C37" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="136" t="s">
+      <c r="D37" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="136" t="s">
+      <c r="E37" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="136" t="s">
+      <c r="F37" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="136" t="s">
+      <c r="G37" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="136" t="s">
+      <c r="H37" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="195" t="s">
+      <c r="I37" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="195" t="s">
+      <c r="J37" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="136" t="s">
+      <c r="K37" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="L37" s="136" t="s">
+      <c r="L37" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="136" t="s">
+      <c r="M37" s="167" t="s">
         <v>33</v>
       </c>
       <c r="N37" s="72" t="s">
@@ -11452,24 +11452,24 @@
       </c>
       <c r="O37" s="72"/>
       <c r="P37" s="72"/>
-      <c r="Q37" s="195" t="s">
+      <c r="Q37" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="64"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="195"/>
-      <c r="J38" s="195"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="136"/>
-      <c r="M38" s="136"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="167"/>
+      <c r="L38" s="167"/>
+      <c r="M38" s="167"/>
       <c r="N38" s="96" t="s">
         <v>82</v>
       </c>
@@ -11479,7 +11479,7 @@
       <c r="P38" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="Q38" s="195"/>
+      <c r="Q38" s="197"/>
     </row>
     <row r="39" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
@@ -11616,13 +11616,13 @@
         <v>163</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q41" s="8" t="s">
         <v>225</v>
@@ -11665,13 +11665,13 @@
         <v>35</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q42" s="8" t="s">
         <v>34</v>
@@ -11714,13 +11714,13 @@
         <v>35</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>34</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>34</v>
@@ -11754,13 +11754,13 @@
         <v>35</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>35</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>34</v>
@@ -11882,6 +11882,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="I22:I23"/>
@@ -11898,38 +11930,6 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12003,7 +12003,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="178">
+      <c r="AI1" s="174">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -12019,7 +12019,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="181" t="str">
+      <c r="AT1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -12090,7 +12090,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="181"/>
+      <c r="AT2" s="177"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -12447,7 +12447,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="23"/>
       <c r="L11" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
@@ -12550,7 +12550,7 @@
       <c r="K13" s="76"/>
       <c r="L13" s="24"/>
       <c r="M13" s="130" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N13" s="130"/>
       <c r="O13" s="130"/>
@@ -12601,7 +12601,7 @@
       <c r="K14" s="76"/>
       <c r="L14" s="24"/>
       <c r="N14" s="130" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O14" s="130"/>
       <c r="P14" s="130"/>
@@ -12700,7 +12700,7 @@
       <c r="K16" s="76"/>
       <c r="L16" s="24"/>
       <c r="M16" s="130" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N16" s="130"/>
       <c r="O16" s="130"/>
@@ -12763,16 +12763,16 @@
       <c r="U17" s="130"/>
       <c r="V17" s="130"/>
       <c r="X17" s="130" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y17" s="130" t="s">
         <v>237</v>
-      </c>
-      <c r="Y17" s="130" t="s">
-        <v>238</v>
       </c>
       <c r="Z17" s="130"/>
       <c r="AA17" s="130"/>
       <c r="AB17" s="130"/>
       <c r="AG17" s="130" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AH17" s="130"/>
       <c r="AI17" s="130"/>
@@ -12859,7 +12859,7 @@
       <c r="K20" s="76"/>
       <c r="L20" s="24"/>
       <c r="N20" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AJ20" s="24"/>
       <c r="AK20" s="24"/>
@@ -12889,7 +12889,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -12993,7 +12993,7 @@
       <c r="J23" s="22"/>
       <c r="K23" s="23"/>
       <c r="L23" s="75" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
@@ -13046,7 +13046,7 @@
       <c r="J24" s="24"/>
       <c r="K24" s="76"/>
       <c r="L24" s="75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
@@ -13146,7 +13146,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="76"/>
       <c r="L26" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -13197,7 +13197,7 @@
       <c r="J27" s="24"/>
       <c r="K27" s="76"/>
       <c r="L27" s="75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
@@ -13297,7 +13297,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="76"/>
       <c r="L29" s="75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
@@ -13403,7 +13403,7 @@
       <c r="J31" s="22"/>
       <c r="K31" s="23"/>
       <c r="L31" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -13456,7 +13456,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="76"/>
       <c r="L32" s="75" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
@@ -13556,7 +13556,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="76"/>
       <c r="L34" s="75" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
@@ -13662,7 +13662,7 @@
       <c r="J36" s="22"/>
       <c r="K36" s="23"/>
       <c r="L36" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -21539,7 +21539,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="178">
+      <c r="AI1" s="174">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -21555,7 +21555,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="181" t="str">
+      <c r="AT1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -21626,7 +21626,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="181"/>
+      <c r="AT2" s="177"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -22425,18 +22425,18 @@
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="200" t="s">
-        <v>270</v>
-      </c>
-      <c r="U17" s="201"/>
-      <c r="V17" s="201"/>
-      <c r="W17" s="201"/>
-      <c r="X17" s="201"/>
-      <c r="Y17" s="201"/>
-      <c r="Z17" s="201"/>
-      <c r="AA17" s="201"/>
-      <c r="AB17" s="201"/>
-      <c r="AC17" s="202"/>
+      <c r="T17" s="206" t="s">
+        <v>268</v>
+      </c>
+      <c r="U17" s="207"/>
+      <c r="V17" s="207"/>
+      <c r="W17" s="207"/>
+      <c r="X17" s="207"/>
+      <c r="Y17" s="207"/>
+      <c r="Z17" s="207"/>
+      <c r="AA17" s="207"/>
+      <c r="AB17" s="207"/>
+      <c r="AC17" s="208"/>
       <c r="AD17" s="77" t="s">
         <v>145</v>
       </c>
@@ -22479,16 +22479,16 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="26"/>
       <c r="S18" s="27"/>
-      <c r="T18" s="203"/>
-      <c r="U18" s="204"/>
-      <c r="V18" s="204"/>
-      <c r="W18" s="204"/>
-      <c r="X18" s="204"/>
-      <c r="Y18" s="204"/>
-      <c r="Z18" s="204"/>
-      <c r="AA18" s="204"/>
-      <c r="AB18" s="204"/>
-      <c r="AC18" s="205"/>
+      <c r="T18" s="209"/>
+      <c r="U18" s="210"/>
+      <c r="V18" s="210"/>
+      <c r="W18" s="210"/>
+      <c r="X18" s="210"/>
+      <c r="Y18" s="210"/>
+      <c r="Z18" s="210"/>
+      <c r="AA18" s="210"/>
+      <c r="AB18" s="210"/>
+      <c r="AC18" s="211"/>
       <c r="AD18" s="80"/>
       <c r="AE18" s="81"/>
       <c r="AF18" s="81"/>
@@ -22757,18 +22757,18 @@
       </c>
       <c r="R23" s="22"/>
       <c r="S23" s="23"/>
-      <c r="T23" s="200" t="s">
+      <c r="T23" s="206" t="s">
         <v>139</v>
       </c>
-      <c r="U23" s="201"/>
-      <c r="V23" s="201"/>
-      <c r="W23" s="201"/>
-      <c r="X23" s="201"/>
-      <c r="Y23" s="201"/>
-      <c r="Z23" s="201"/>
-      <c r="AA23" s="201"/>
-      <c r="AB23" s="201"/>
-      <c r="AC23" s="202"/>
+      <c r="U23" s="207"/>
+      <c r="V23" s="207"/>
+      <c r="W23" s="207"/>
+      <c r="X23" s="207"/>
+      <c r="Y23" s="207"/>
+      <c r="Z23" s="207"/>
+      <c r="AA23" s="207"/>
+      <c r="AB23" s="207"/>
+      <c r="AC23" s="208"/>
       <c r="AD23" s="77" t="s">
         <v>141</v>
       </c>
@@ -22811,16 +22811,16 @@
       <c r="Q24" s="25"/>
       <c r="R24" s="26"/>
       <c r="S24" s="27"/>
-      <c r="T24" s="203"/>
-      <c r="U24" s="204"/>
-      <c r="V24" s="204"/>
-      <c r="W24" s="204"/>
-      <c r="X24" s="204"/>
-      <c r="Y24" s="204"/>
-      <c r="Z24" s="204"/>
-      <c r="AA24" s="204"/>
-      <c r="AB24" s="204"/>
-      <c r="AC24" s="205"/>
+      <c r="T24" s="209"/>
+      <c r="U24" s="210"/>
+      <c r="V24" s="210"/>
+      <c r="W24" s="210"/>
+      <c r="X24" s="210"/>
+      <c r="Y24" s="210"/>
+      <c r="Z24" s="210"/>
+      <c r="AA24" s="210"/>
+      <c r="AB24" s="210"/>
+      <c r="AC24" s="211"/>
       <c r="AD24" s="80"/>
       <c r="AE24" s="81"/>
       <c r="AF24" s="81"/>
@@ -22973,18 +22973,18 @@
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="23"/>
-      <c r="T27" s="206" t="s">
-        <v>268</v>
-      </c>
-      <c r="U27" s="207"/>
-      <c r="V27" s="207"/>
-      <c r="W27" s="207"/>
-      <c r="X27" s="207"/>
-      <c r="Y27" s="207"/>
-      <c r="Z27" s="207"/>
-      <c r="AA27" s="207"/>
-      <c r="AB27" s="207"/>
-      <c r="AC27" s="208"/>
+      <c r="T27" s="212" t="s">
+        <v>266</v>
+      </c>
+      <c r="U27" s="213"/>
+      <c r="V27" s="213"/>
+      <c r="W27" s="213"/>
+      <c r="X27" s="213"/>
+      <c r="Y27" s="213"/>
+      <c r="Z27" s="213"/>
+      <c r="AA27" s="213"/>
+      <c r="AB27" s="213"/>
+      <c r="AC27" s="214"/>
       <c r="AD27" s="77" t="s">
         <v>143</v>
       </c>
@@ -23027,16 +23027,16 @@
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
-      <c r="T28" s="209"/>
-      <c r="U28" s="210"/>
-      <c r="V28" s="210"/>
-      <c r="W28" s="210"/>
-      <c r="X28" s="210"/>
-      <c r="Y28" s="210"/>
-      <c r="Z28" s="210"/>
-      <c r="AA28" s="210"/>
-      <c r="AB28" s="210"/>
-      <c r="AC28" s="211"/>
+      <c r="T28" s="215"/>
+      <c r="U28" s="216"/>
+      <c r="V28" s="216"/>
+      <c r="W28" s="216"/>
+      <c r="X28" s="216"/>
+      <c r="Y28" s="216"/>
+      <c r="Z28" s="216"/>
+      <c r="AA28" s="216"/>
+      <c r="AB28" s="216"/>
+      <c r="AC28" s="217"/>
       <c r="AD28" s="80"/>
       <c r="AE28" s="81"/>
       <c r="AF28" s="81"/>
@@ -23085,18 +23085,18 @@
       </c>
       <c r="R29" s="22"/>
       <c r="S29" s="23"/>
-      <c r="T29" s="200" t="s">
+      <c r="T29" s="206" t="s">
         <v>138</v>
       </c>
-      <c r="U29" s="201"/>
-      <c r="V29" s="201"/>
-      <c r="W29" s="201"/>
-      <c r="X29" s="201"/>
-      <c r="Y29" s="201"/>
-      <c r="Z29" s="201"/>
-      <c r="AA29" s="201"/>
-      <c r="AB29" s="201"/>
-      <c r="AC29" s="202"/>
+      <c r="U29" s="207"/>
+      <c r="V29" s="207"/>
+      <c r="W29" s="207"/>
+      <c r="X29" s="207"/>
+      <c r="Y29" s="207"/>
+      <c r="Z29" s="207"/>
+      <c r="AA29" s="207"/>
+      <c r="AB29" s="207"/>
+      <c r="AC29" s="208"/>
       <c r="AD29" s="77" t="s">
         <v>146</v>
       </c>
@@ -23139,16 +23139,16 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="26"/>
       <c r="S30" s="27"/>
-      <c r="T30" s="203"/>
-      <c r="U30" s="204"/>
-      <c r="V30" s="204"/>
-      <c r="W30" s="204"/>
-      <c r="X30" s="204"/>
-      <c r="Y30" s="204"/>
-      <c r="Z30" s="204"/>
-      <c r="AA30" s="204"/>
-      <c r="AB30" s="204"/>
-      <c r="AC30" s="205"/>
+      <c r="T30" s="209"/>
+      <c r="U30" s="210"/>
+      <c r="V30" s="210"/>
+      <c r="W30" s="210"/>
+      <c r="X30" s="210"/>
+      <c r="Y30" s="210"/>
+      <c r="Z30" s="210"/>
+      <c r="AA30" s="210"/>
+      <c r="AB30" s="210"/>
+      <c r="AC30" s="211"/>
       <c r="AD30" s="80"/>
       <c r="AE30" s="81"/>
       <c r="AF30" s="81"/>
@@ -23519,20 +23519,20 @@
       </c>
       <c r="R37" s="78"/>
       <c r="S37" s="79"/>
-      <c r="T37" s="212" t="s">
-        <v>260</v>
-      </c>
-      <c r="U37" s="213"/>
-      <c r="V37" s="213"/>
-      <c r="W37" s="213"/>
-      <c r="X37" s="213"/>
-      <c r="Y37" s="213"/>
-      <c r="Z37" s="213"/>
-      <c r="AA37" s="213"/>
-      <c r="AB37" s="213"/>
-      <c r="AC37" s="214"/>
+      <c r="T37" s="200" t="s">
+        <v>258</v>
+      </c>
+      <c r="U37" s="201"/>
+      <c r="V37" s="201"/>
+      <c r="W37" s="201"/>
+      <c r="X37" s="201"/>
+      <c r="Y37" s="201"/>
+      <c r="Z37" s="201"/>
+      <c r="AA37" s="201"/>
+      <c r="AB37" s="201"/>
+      <c r="AC37" s="202"/>
       <c r="AD37" s="77" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AE37" s="78"/>
       <c r="AF37" s="78"/>
@@ -23573,16 +23573,16 @@
       <c r="Q38" s="80"/>
       <c r="R38" s="81"/>
       <c r="S38" s="82"/>
-      <c r="T38" s="215"/>
-      <c r="U38" s="216"/>
-      <c r="V38" s="216"/>
-      <c r="W38" s="216"/>
-      <c r="X38" s="216"/>
-      <c r="Y38" s="216"/>
-      <c r="Z38" s="216"/>
-      <c r="AA38" s="216"/>
-      <c r="AB38" s="216"/>
-      <c r="AC38" s="217"/>
+      <c r="T38" s="203"/>
+      <c r="U38" s="204"/>
+      <c r="V38" s="204"/>
+      <c r="W38" s="204"/>
+      <c r="X38" s="204"/>
+      <c r="Y38" s="204"/>
+      <c r="Z38" s="204"/>
+      <c r="AA38" s="204"/>
+      <c r="AB38" s="204"/>
+      <c r="AC38" s="205"/>
       <c r="AD38" s="80"/>
       <c r="AE38" s="81"/>
       <c r="AF38" s="81"/>
@@ -23628,7 +23628,7 @@
       <c r="R39" s="78"/>
       <c r="S39" s="79"/>
       <c r="T39" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="U39" s="123"/>
       <c r="V39" s="123"/>
@@ -23640,7 +23640,7 @@
       <c r="AB39" s="123"/>
       <c r="AC39" s="124"/>
       <c r="AD39" s="77" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AE39" s="78"/>
       <c r="AF39" s="78"/>
@@ -27708,18 +27708,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="T37:AC38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B29:B30"/>
@@ -27736,6 +27724,18 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="T37:AC38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -27809,7 +27809,7 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="178">
+      <c r="AI1" s="174">
         <f>変更履歴!E5</f>
         <v>43703</v>
       </c>
@@ -27825,7 +27825,7 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="181" t="str">
+      <c r="AT1" s="177" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
@@ -27896,7 +27896,7 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="181"/>
+      <c r="AT2" s="177"/>
       <c r="AU2" s="186"/>
       <c r="AV2" s="186"/>
       <c r="AW2" s="186"/>
@@ -28185,7 +28185,7 @@
         <v>171</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
@@ -28240,10 +28240,10 @@
       <c r="A9" s="57"/>
       <c r="B9" s="57"/>
       <c r="C9" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="57" t="s">
         <v>246</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>248</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
@@ -28299,7 +28299,7 @@
       <c r="B10" s="57"/>
       <c r="C10" s="57"/>
       <c r="D10" s="57" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
@@ -39114,21 +39114,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -39286,24 +39271,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39319,4 +39302,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>